--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\木曜プログラミング\3班制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Team3_2495\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954BC9A-6D01-4B66-B0AD-E98C43F5CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22ABA67-36CE-4C0A-B854-A0DC9D20D4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
+    <sheet name="更新履歴" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -106,22 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このシートでは、「3班制作」の全体概要を記載します。</t>
-    <rPh sb="10" eb="11">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>ゼンタイガイヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -254,10 +239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・1ブロック20ピクセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(横3マスのミノを8個並べられる計算)</t>
     <rPh sb="1" eb="2">
       <t>ヨコ</t>
@@ -274,31 +255,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ステージサイズ(黒枠の内側)840×840</t>
-    <rPh sb="9" eb="11">
-      <t>クロワク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ウチガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CHANGE：push C key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー情報</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ジャンプ高さは２マス(４0ピクセル)</t>
-    <rPh sb="5" eb="6">
-      <t>タカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -313,9 +270,362 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・移動速度は2</t>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更内容</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値変更</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動速度は2→速そうだったので、0.5に変更</t>
     <rPh sb="1" eb="5">
       <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー情報（ブロック操作）</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー情報（キャラクター操作）</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tミノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oミノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jミノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lミノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Aで左移動、Dで右移動、SPACEでジャンプ</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Sの加速は場合によってなくてもいいです</t>
+    <rPh sb="3" eb="5">
+      <t>カソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なくす場合はSを押しても何も反応ないようにしてください</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイモードの状態でCを押したときにビルドモード（仮称）に変更される</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ビルドモードだった場合、Cを押すとプレイモードに切り替わる</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Shiftで左回りに回転、Spaceで右回りに回転する</t>
+    <rPh sb="7" eb="9">
+      <t>ヒダリマワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミギマワ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※どちらか片方だけでもいいです</t>
+    <rPh sb="5" eb="7">
+      <t>カタホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新履歴</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡辺</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このシートでは、更新履歴を記載します。</t>
+    <rPh sb="8" eb="12">
+      <t>コウシンリレキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック操作追加</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このシートでは、「テトラクライム」の全体概要を記載します。</t>
+    <rPh sb="18" eb="22">
+      <t>ゼンタイガイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム名変更</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Aで左に1マス動く、Dで右に1マス動く、Sで落ちる速度を加速</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1.5秒に1ブロック分、徐々に下に落ちる</t>
+    <rPh sb="4" eb="5">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値変更</t>
+    <rPh sb="0" eb="4">
+      <t>スウチヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジャンプ高さは２マス(80ピクセル)</t>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種数値の変更</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1ブロック20ピクセル→小さそうなので30ピクセルに変更</t>
+    <rPh sb="13" eb="14">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージサイズ(黒枠の内側)840×840→720×720に変更</t>
+    <rPh sb="9" eb="11">
+      <t>クロワク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ウチガワ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -324,7 +634,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +654,40 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -530,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,9 +905,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -661,6 +1002,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,13 +1069,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -765,13 +1145,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -842,16 +1222,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -880,7 +1260,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="396240" y="13464540"/>
+          <a:off x="1905000" y="13502640"/>
           <a:ext cx="1325880" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1190,467 +1570,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
-  <dimension ref="A1:AS66"/>
+  <dimension ref="A1:BC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="93" width="2.8984375" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="95" width="2.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A5" s="55">
+        <v>45610</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+    </row>
+    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="U5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="18" t="s">
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+    </row>
+    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="E19" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C19" s="17" t="s">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
+    <row r="23" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="49"/>
+      <c r="E23" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="E26" s="11"/>
+      <c r="T26" s="13"/>
+      <c r="AE26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AI26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL26" s="11"/>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="E27" s="11"/>
+      <c r="T27" s="13"/>
+      <c r="AE27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AI27" s="8"/>
+      <c r="AL27" s="11"/>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="E28" s="11"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="AE28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AI28" s="8"/>
+      <c r="AL28" s="11"/>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="E29" s="11"/>
+      <c r="F29" s="15"/>
+      <c r="Z29" s="42"/>
+      <c r="AE29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AL29" s="11"/>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="E30" s="11"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="AE30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AL30" s="11"/>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="E31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.45">
+      <c r="E32" s="11"/>
+      <c r="AE32" s="11"/>
+    </row>
+    <row r="33" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E33" s="11"/>
+      <c r="K33" s="42"/>
+      <c r="AE33" s="11"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AG34" s="16"/>
+    </row>
+    <row r="35" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E35" s="11"/>
+      <c r="AB35" s="15"/>
+      <c r="AE35" s="11"/>
+      <c r="AZ35" s="14"/>
+      <c r="BA35" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E36" s="11"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="11"/>
+      <c r="AG36" s="16"/>
+    </row>
+    <row r="37" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="BB37" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="BA38" s="19"/>
+      <c r="BB38" s="22"/>
+      <c r="BC38" s="20"/>
+    </row>
+    <row r="39" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="BA39" s="23"/>
+      <c r="BB39" s="24"/>
+      <c r="BC39" s="25"/>
+    </row>
+    <row r="40" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="27"/>
+      <c r="BC40" s="28"/>
+    </row>
+    <row r="41" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E41" s="11"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="AE41" s="11"/>
+      <c r="AG41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E42" s="11"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="AE42" s="11"/>
+      <c r="BA42" s="19"/>
+      <c r="BB42" s="22"/>
+      <c r="BC42" s="20"/>
+    </row>
+    <row r="43" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E43" s="11"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="AE43" s="11"/>
+      <c r="BA43" s="29"/>
+      <c r="BB43" s="30"/>
+      <c r="BC43" s="25"/>
+    </row>
+    <row r="44" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E44" s="11"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="13"/>
+      <c r="AB44" s="42"/>
+      <c r="AE44" s="11"/>
+      <c r="BA44" s="31"/>
+      <c r="BB44" s="32"/>
+      <c r="BC44" s="21"/>
+    </row>
+    <row r="45" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E45" s="11"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="13"/>
+      <c r="AE45" s="11"/>
+    </row>
+    <row r="46" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E46" s="11"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="AE46" s="11"/>
+    </row>
+    <row r="47" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E47" s="11"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="Q47" s="8"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="11"/>
+      <c r="BA47" s="19"/>
+      <c r="BB47" s="33"/>
+      <c r="BC47" s="20"/>
+    </row>
+    <row r="48" spans="5:55" x14ac:dyDescent="0.45">
+      <c r="E48" s="11"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="11"/>
+      <c r="BA48" s="23"/>
+      <c r="BB48" s="34"/>
+      <c r="BC48" s="25"/>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="BA49" s="35"/>
+      <c r="BB49" s="36"/>
+      <c r="BC49" s="21"/>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA51" s="37"/>
+      <c r="BB51" s="22"/>
+      <c r="BC51" s="20"/>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A52" s="47">
+        <v>45610</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA52" s="38"/>
+      <c r="BB52" s="39"/>
+      <c r="BC52" s="25"/>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A53" s="47"/>
+      <c r="B53" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
+      <c r="X53" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA53" s="40"/>
+      <c r="BB53" s="41"/>
+      <c r="BC53" s="21"/>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="C23" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C26" s="12"/>
-      <c r="R26" s="14"/>
-      <c r="AC26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AG26" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ26" s="12"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C27" s="12"/>
-      <c r="R27" s="14"/>
-      <c r="AC27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AG27" s="8"/>
-      <c r="AJ27" s="12"/>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C28" s="12"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="AC28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AG28" s="8"/>
-      <c r="AJ28" s="12"/>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C29" s="12"/>
-      <c r="D29" s="16"/>
-      <c r="X29" s="43"/>
-      <c r="AC29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AJ29" s="12"/>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C30" s="12"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="AC30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AJ30" s="12"/>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
-      <c r="AP31" s="43"/>
-      <c r="AQ31" s="17" t="s">
+    <row r="58" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="49"/>
+      <c r="E58" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="K60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A61" s="47">
+        <v>45610</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="K63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="K64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="49"/>
+      <c r="E67" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="C32" s="12"/>
-      <c r="AC32" s="12"/>
-    </row>
-    <row r="33" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C33" s="12"/>
-      <c r="I33" s="43"/>
-      <c r="AC33" s="12"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AE34" s="17"/>
-    </row>
-    <row r="35" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C35" s="12"/>
-      <c r="Z35" s="16"/>
-      <c r="AC35" s="12"/>
-      <c r="AP35" s="15"/>
-      <c r="AQ35" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C36" s="12"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="12"/>
-      <c r="AE36" s="17"/>
-    </row>
-    <row r="37" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AR37" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AQ38" s="20"/>
-      <c r="AR38" s="23"/>
-      <c r="AS38" s="21"/>
-    </row>
-    <row r="39" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="25"/>
-      <c r="AS39" s="26"/>
-    </row>
-    <row r="40" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AQ40" s="27"/>
-      <c r="AR40" s="28"/>
-      <c r="AS40" s="29"/>
-    </row>
-    <row r="41" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C41" s="12"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="AC41" s="12"/>
-      <c r="AE41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C42" s="12"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="AC42" s="12"/>
-      <c r="AQ42" s="20"/>
-      <c r="AR42" s="23"/>
-      <c r="AS42" s="21"/>
-    </row>
-    <row r="43" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C43" s="12"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="AC43" s="12"/>
-      <c r="AQ43" s="30"/>
-      <c r="AR43" s="31"/>
-      <c r="AS43" s="26"/>
-    </row>
-    <row r="44" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C44" s="12"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="14"/>
-      <c r="Z44" s="43"/>
-      <c r="AC44" s="12"/>
-      <c r="AQ44" s="32"/>
-      <c r="AR44" s="33"/>
-      <c r="AS44" s="22"/>
-    </row>
-    <row r="45" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C45" s="12"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="14"/>
-      <c r="AC45" s="12"/>
-    </row>
-    <row r="46" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C46" s="12"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="AC46" s="12"/>
-    </row>
-    <row r="47" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C47" s="12"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="O47" s="8"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="12"/>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="34"/>
-      <c r="AS47" s="21"/>
-    </row>
-    <row r="48" spans="3:45" x14ac:dyDescent="0.45">
-      <c r="C48" s="12"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="12"/>
-      <c r="AQ48" s="24"/>
-      <c r="AR48" s="35"/>
-      <c r="AS48" s="26"/>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="12"/>
-      <c r="AQ49" s="36"/>
-      <c r="AR49" s="37"/>
-      <c r="AS49" s="22"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ51" s="38"/>
-      <c r="AR51" s="23"/>
-      <c r="AS51" s="21"/>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ52" s="39"/>
-      <c r="AR52" s="40"/>
-      <c r="AS52" s="26"/>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="D53" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ53" s="41"/>
-      <c r="AR53" s="42"/>
-      <c r="AS53" s="22"/>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="D54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="10"/>
-      <c r="C58" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="I60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="I61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="I62" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="10"/>
-      <c r="C66" s="11" t="s">
-        <v>30</v>
-      </c>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G69" s="19"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="20"/>
+      <c r="O69" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG69" s="50"/>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="25"/>
+      <c r="K70" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF70" s="50"/>
+    </row>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="28"/>
+      <c r="O71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI71" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT71" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G73" s="19"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="20"/>
+      <c r="O73" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI73" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G74" s="29"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="25"/>
+      <c r="K74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G75" s="31"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="21"/>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G78" s="19"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="20"/>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G79" s="23"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="25"/>
+      <c r="K79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G80" s="35"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="82" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G82" s="37"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="20"/>
+    </row>
+    <row r="83" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G83" s="38"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="25"/>
+      <c r="K83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G84" s="40"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1658,4 +2211,120 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D00CCB-B6DB-4C83-A229-8E8205AB8F5C}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="63" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D10" s="46">
+        <v>45596</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D12" s="46">
+        <v>45610</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D14" s="46"/>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Team3_2495\3班\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\授業資料・実習ファイル\水曜1~2_ゲームプログラム\Team3作業ファイル\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22ABA67-36CE-4C0A-B854-A0DC9D20D4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1BD637-E35A-4D2E-A462-86D869EB61DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
@@ -1572,7 +1572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
   <dimension ref="A1:BC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T51" sqref="T51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\授業資料・実習ファイル\水曜1~2_ゲームプログラム\Team3作業ファイル\3班\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Team3_2495\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1BD637-E35A-4D2E-A462-86D869EB61DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D34937B-9E61-4E39-9A9E-F22021692990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -122,20 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面比率</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンヒリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>解像度</t>
-    <rPh sb="0" eb="3">
-      <t>カイゾウド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -151,14 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>16:9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1920:1080</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このゲームは、「落ちてくるブロックを積み上げ、頂上を目指す」パズルアクションゲームです。</t>
     <rPh sb="8" eb="9">
       <t>オ</t>
@@ -294,19 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・移動速度は2→速そうだったので、0.5に変更</t>
-    <rPh sb="1" eb="5">
-      <t>イドウソクド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー情報（ブロック操作）</t>
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
@@ -625,6 +590,43 @@
       <t>ウチガワ</t>
     </rPh>
     <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑数値変更</t>
+    <rPh sb="1" eb="5">
+      <t>スウチヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジャンプは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追記</t>
+    <rPh sb="0" eb="2">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動速度は2→速そうだったので、0.5に変更→0.5では遅すぎたので1.5に変更</t>
+    <rPh sb="1" eb="5">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -756,7 +758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -868,13 +870,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,6 +1058,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,24 +1599,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
-  <dimension ref="A1:BC84"/>
+  <dimension ref="A1:BC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="95" width="2.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="6" t="s">
@@ -1611,10 +1641,10 @@
         <v>45610</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="W5" t="s">
         <v>1</v>
@@ -1643,10 +1673,10 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
@@ -1656,10 +1686,10 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
@@ -1669,34 +1699,17 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="39"/>
@@ -1712,22 +1725,22 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.45">
       <c r="E19" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.45">
       <c r="F20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -1830,7 +1843,7 @@
       <c r="AL31" s="11"/>
       <c r="AZ31" s="42"/>
       <c r="BA31" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.45">
@@ -1899,16 +1912,16 @@
     </row>
     <row r="41" spans="5:55" x14ac:dyDescent="0.45">
       <c r="E41" s="11"/>
-      <c r="P41" s="14"/>
+      <c r="P41" s="18"/>
       <c r="Q41" s="14"/>
       <c r="AE41" s="11"/>
       <c r="AG41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="5:55" x14ac:dyDescent="0.45">
       <c r="E42" s="11"/>
-      <c r="P42" s="14"/>
+      <c r="P42" s="18"/>
       <c r="Q42" s="14"/>
       <c r="AE42" s="11"/>
       <c r="BA42" s="19"/>
@@ -2033,10 +2046,10 @@
         <v>45610</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="BA52" s="38"/>
       <c r="BB52" s="39"/>
@@ -2045,13 +2058,13 @@
     <row r="53" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A53" s="47"/>
       <c r="B53" s="48" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="X53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BA53" s="40"/>
       <c r="BB53" s="41"/>
@@ -2059,7 +2072,7 @@
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.45">
       <c r="F54" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -2067,145 +2080,162 @@
       <c r="B58" s="43"/>
       <c r="C58" s="49"/>
       <c r="E58" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:55" x14ac:dyDescent="0.45">
       <c r="K60" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A61" s="47">
+        <v>45615</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="K61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A62" s="47">
         <v>45610</v>
       </c>
-      <c r="B61" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="K61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="B62" s="48" t="s">
+        <v>27</v>
+      </c>
       <c r="K62" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A63" s="47">
+        <v>45615</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="K63" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:55" x14ac:dyDescent="0.45">
       <c r="K64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="49"/>
-      <c r="E67" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="K65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="49"/>
+      <c r="E74" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G76" s="19"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="20"/>
+      <c r="O76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG76" s="50"/>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G77" s="23"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="25"/>
+      <c r="K77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF77" s="50"/>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI78" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT78" s="50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G80" s="19"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="20"/>
+      <c r="O80" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI80" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="25"/>
+      <c r="K81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="21"/>
+      <c r="O82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G85" s="19"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G86" s="23"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="25"/>
+      <c r="K86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="21"/>
+    </row>
+    <row r="89" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G89" s="59"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G90" s="59"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="25"/>
+      <c r="K90" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="H68" s="16"/>
-    </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G69" s="19"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="20"/>
-      <c r="O69" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG69" s="50"/>
-    </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="25"/>
-      <c r="K70" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF70" s="50"/>
-    </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G71" s="26"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="28"/>
-      <c r="O71" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI71" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT71" s="50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G73" s="19"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="20"/>
-      <c r="O73" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI73" s="50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G74" s="29"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="25"/>
-      <c r="K74" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G75" s="31"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="21"/>
-      <c r="O75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G78" s="19"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="20"/>
-    </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G79" s="23"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="25"/>
-      <c r="K79" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G80" s="35"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="21"/>
-    </row>
-    <row r="82" spans="7:11" x14ac:dyDescent="0.45">
-      <c r="G82" s="37"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="20"/>
-    </row>
-    <row r="83" spans="7:11" x14ac:dyDescent="0.45">
-      <c r="G83" s="38"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="25"/>
-      <c r="K83" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="7:11" x14ac:dyDescent="0.45">
-      <c r="G84" s="40"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="21"/>
+    <row r="91" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2234,7 +2264,7 @@
     <row r="1" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="51"/>
       <c r="B1" s="52" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2246,27 +2276,27 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2274,13 +2304,13 @@
         <v>45596</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -2291,24 +2321,24 @@
         <v>45610</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="46"/>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -2316,10 +2346,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Team3_2495\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D34937B-9E61-4E39-9A9E-F22021692990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED67E12-635E-4AEC-9157-AF1E220F8368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
   <dimension ref="A1:BC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P102" sqref="P102:Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Team3_2495\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED67E12-635E-4AEC-9157-AF1E220F8368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A631E219-EEF9-4327-A125-EF1EDE8AE644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -526,25 +526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・1.5秒に1ブロック分、徐々に下に落ちる</t>
-    <rPh sb="4" eb="5">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョジョ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数値変更</t>
     <rPh sb="0" eb="4">
       <t>スウチヘンコウ</t>
@@ -602,10 +583,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ジャンプは</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>追記</t>
     <rPh sb="0" eb="2">
       <t>ツイキ</t>
@@ -627,6 +604,77 @@
       <t>オソ</t>
     </rPh>
     <rPh sb="39" eb="41">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1.5秒に1ブロック分、徐々に下に落ちる→遅かったので1.3に変更</t>
+    <rPh sb="4" eb="5">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジャンプは1秒間滞空して、地面につき次第モーションを終了する</t>
+    <rPh sb="7" eb="9">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイクウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度変更</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ追記</t>
+    <rPh sb="4" eb="6">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック速度変更</t>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1601,9 +1649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
   <dimension ref="A1:BC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P102" sqref="P102:Q102"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2046,10 +2092,10 @@
         <v>45610</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BA52" s="38"/>
       <c r="BB52" s="39"/>
@@ -2058,10 +2104,10 @@
     <row r="53" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A53" s="47"/>
       <c r="B53" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X53" t="s">
         <v>21</v>
@@ -2085,7 +2131,7 @@
     </row>
     <row r="60" spans="1:55" x14ac:dyDescent="0.45">
       <c r="K60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:55" x14ac:dyDescent="0.45">
@@ -2093,10 +2139,10 @@
         <v>45615</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:55" x14ac:dyDescent="0.45">
@@ -2107,7 +2153,7 @@
         <v>27</v>
       </c>
       <c r="K62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:55" x14ac:dyDescent="0.45">
@@ -2115,7 +2161,7 @@
         <v>45615</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K63" t="s">
         <v>23</v>
@@ -2185,7 +2231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G81" s="56"/>
       <c r="H81" s="56"/>
       <c r="I81" s="25"/>
@@ -2193,20 +2239,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A82" s="47">
+        <v>45615</v>
+      </c>
+      <c r="B82" s="48" t="s">
+        <v>27</v>
+      </c>
       <c r="G82" s="56"/>
       <c r="H82" s="56"/>
       <c r="I82" s="21"/>
       <c r="O82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="7:15" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G85" s="19"/>
       <c r="H85" s="58"/>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G86" s="23"/>
       <c r="H86" s="58"/>
       <c r="I86" s="25"/>
@@ -2214,17 +2266,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G87" s="58"/>
       <c r="H87" s="58"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="89" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G89" s="59"/>
       <c r="H89" s="22"/>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G90" s="59"/>
       <c r="H90" s="39"/>
       <c r="I90" s="25"/>
@@ -2232,7 +2284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="7:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G91" s="59"/>
       <c r="H91" s="59"/>
       <c r="I91" s="21"/>
@@ -2247,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D00CCB-B6DB-4C83-A229-8E8205AB8F5C}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2257,7 +2309,7 @@
     <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="63" width="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2332,7 +2384,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -2352,8 +2404,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D18" s="46">
+        <v>45615</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D19" s="46"/>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Team3_2495\3班\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\木曜制作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A631E219-EEF9-4327-A125-EF1EDE8AE644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5491E2EC-5D55-43DF-AEEA-5D116074E650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="2280" yWindow="1848" windowWidth="18396" windowHeight="9960" activeTab="2" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
-    <sheet name="更新履歴" sheetId="3" r:id="rId2"/>
+    <sheet name="タイトル画面仕様" sheetId="4" r:id="rId2"/>
+    <sheet name="更新履歴" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -122,6 +123,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>画面比率</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度</t>
+    <rPh sb="0" eb="3">
+      <t>カイゾウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>…</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -137,6 +152,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>16:9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1920:1080</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>このゲームは、「落ちてくるブロックを積み上げ、頂上を目指す」パズルアクションゲームです。</t>
     <rPh sb="8" eb="9">
       <t>オ</t>
@@ -272,6 +295,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・移動速度は2→速そうだったので、0.5に変更</t>
+    <rPh sb="1" eb="5">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>プレイヤー情報（ブロック操作）</t>
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
@@ -526,6 +562,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・1.5秒に1ブロック分、徐々に下に落ちる</t>
+    <rPh sb="4" eb="5">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>数値変更</t>
     <rPh sb="0" eb="4">
       <t>スウチヘンコウ</t>
@@ -576,106 +631,146 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>↑数値変更</t>
-    <rPh sb="1" eb="5">
-      <t>スウチヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追記</t>
+    <t>タイトル画面仕様</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時のゲーム画面の説明になります</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的</t>
     <rPh sb="0" eb="2">
-      <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・移動速度は2→速そうだったので、0.5に変更→0.5では遅すぎたので1.5に変更</t>
-    <rPh sb="1" eb="5">
-      <t>イドウソクド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・1.5秒に1ブロック分、徐々に下に落ちる→遅かったので1.3に変更</t>
-    <rPh sb="4" eb="5">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョジョ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ジャンプは1秒間滞空して、地面につき次第モーションを終了する</t>
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面の仕様です</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
     <rPh sb="7" eb="9">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイクウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動速度変更</t>
-    <rPh sb="0" eb="4">
-      <t>イドウソクド</t>
-    </rPh>
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要なもの</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・背景</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面仕様</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロシア風デザイン</t>
+    <rPh sb="3" eb="4">
+      <t>フウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「テトラクライム」のロゴのデザイン参考</t>
+    <rPh sb="17" eb="19">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「テトラクライム」の世界観をゲーム画面で分かりやすく伝えるため</t>
+    <rPh sb="10" eb="13">
+      <t>セカイカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景　イメージ洞窟</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウクツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スタートボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（仮）イメージ画面</t>
+    <rPh sb="1" eb="2">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米島</t>
+    <rPh sb="0" eb="2">
+      <t>ヨネシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
     <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプ追記</t>
-    <rPh sb="4" eb="6">
-      <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロック速度変更</t>
-    <rPh sb="4" eb="6">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -684,7 +779,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,8 +838,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,8 +926,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -918,28 +1045,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,16 +1220,25 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,6 +1249,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE85E20"/>
       <color rgb="FF863EC2"/>
     </mruColors>
   </colors>
@@ -1345,6 +1467,972 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>96982</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDFB23B-F77E-4882-9D66-9B0D29CAA386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10931237" y="22763017"/>
+          <a:ext cx="4114799" cy="942110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>194243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>227165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAD7D5E-F248-4F51-8B00-7407EF2E6799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix/>
+          <a:duotone>
+            <a:schemeClr val="accent5">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticTexturizer/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="4700"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="0"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="20000" contrast="-20000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2167716" y="6969116"/>
+          <a:ext cx="8306320" cy="4965140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000">
+            <a:shade val="95000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="444500" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="254000" dist="190500" dir="2700000" sy="90000" algn="bl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>235525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31144FE9-B94B-433A-8E3F-986F42362378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4142508" y="7564583"/>
+          <a:ext cx="4516581" cy="1052946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>110835</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166254</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>186341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7263BA1-FAE6-4AEF-BFD6-5A346DCCA4FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5375562" y="9801901"/>
+          <a:ext cx="3214256" cy="983167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>START</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F61D83E-C62F-414F-B60E-7F8AB337B4F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4613563" y="7564580"/>
+          <a:ext cx="3962402" cy="942110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tetra Clim</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>124691</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>110837</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>221673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFACE17-35C5-4B23-88C4-240830566683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5389418" y="10280073"/>
+          <a:ext cx="1565564" cy="789709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>235525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>193967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>152403</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF254D0D-0A22-4D26-8298-5BB8C332751E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8659089" y="8382003"/>
+          <a:ext cx="1233059" cy="124689"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>110837</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>284019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>62346</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2344D74-8459-4CEC-8AE6-C9C569E20AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6954982" y="10480964"/>
+          <a:ext cx="2008909" cy="193964"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>152403</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>83130</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>207821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F56624-2C8E-4EBC-B190-DA42BCF90D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9892148" y="7716984"/>
+          <a:ext cx="1773382" cy="498764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="57150" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>タイトルロゴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>221672</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>221673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8FB180-38C3-480D-B7E0-FF5845B32297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963891" y="9587345"/>
+          <a:ext cx="3366654" cy="526473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="57150" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ゲームスタートボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200197</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C9D8EF-C471-47A0-8257-EBB686B4AAD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="10198331"/>
+          <a:ext cx="976052" cy="1014806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>41565</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>390372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>199669</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>78583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A4B202-7A87-4D4A-9E1E-A5ED5E8F8534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16760"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14295447" y="7382843"/>
+          <a:ext cx="3385398" cy="1086705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>180108</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>96984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>114940</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>193965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7741883F-848D-47A3-9BC1-CC91FA648C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent5">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13605163" y="10861966"/>
+          <a:ext cx="5199559" cy="2923308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>249381</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E77CC6C-6A92-4170-BA30-ED0376DF3669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19659600" y="10681855"/>
+          <a:ext cx="2701636" cy="2701636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>69274</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>374074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矢印: 右 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DACDE1-0929-4581-AB3F-3258CE61796F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4807529" y="10571019"/>
+          <a:ext cx="457200" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1647,23 +2735,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
-  <dimension ref="A1:BC91"/>
+  <dimension ref="A1:BC87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69:I71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="95" width="2.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="6" t="s">
@@ -1687,10 +2776,10 @@
         <v>45610</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
         <v>1</v>
@@ -1719,10 +2808,10 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
@@ -1732,10 +2821,10 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
@@ -1745,17 +2834,34 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="K12" s="17"/>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="39"/>
@@ -1771,22 +2877,22 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.45">
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.45">
       <c r="F20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -1889,7 +2995,7 @@
       <c r="AL31" s="11"/>
       <c r="AZ31" s="42"/>
       <c r="BA31" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.45">
@@ -1958,16 +3064,16 @@
     </row>
     <row r="41" spans="5:55" x14ac:dyDescent="0.45">
       <c r="E41" s="11"/>
-      <c r="P41" s="18"/>
+      <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="AE41" s="11"/>
       <c r="AG41" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="5:55" x14ac:dyDescent="0.45">
       <c r="E42" s="11"/>
-      <c r="P42" s="18"/>
+      <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
       <c r="AE42" s="11"/>
       <c r="BA42" s="19"/>
@@ -2092,10 +3198,10 @@
         <v>45610</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BA52" s="38"/>
       <c r="BB52" s="39"/>
@@ -2104,13 +3210,13 @@
     <row r="53" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A53" s="47"/>
       <c r="B53" s="48" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="X53" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BA53" s="40"/>
       <c r="BB53" s="41"/>
@@ -2118,7 +3224,7 @@
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.45">
       <c r="F54" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -2126,169 +3232,147 @@
       <c r="B58" s="43"/>
       <c r="C58" s="49"/>
       <c r="E58" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:55" x14ac:dyDescent="0.45">
       <c r="K60" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A61" s="47">
-        <v>45615</v>
+        <v>45610</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="K61" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="A62" s="47">
-        <v>45610</v>
-      </c>
-      <c r="B62" s="48" t="s">
+      <c r="K62" t="s">
         <v>27</v>
       </c>
-      <c r="K62" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="63" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="A63" s="47">
-        <v>45615</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>59</v>
-      </c>
       <c r="K63" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:55" x14ac:dyDescent="0.45">
       <c r="K64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="K65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="49"/>
+      <c r="E67" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G69" s="19"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="20"/>
+      <c r="O69" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG69" s="50"/>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="25"/>
+      <c r="K70" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF70" s="50"/>
+    </row>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="28"/>
+      <c r="O71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI71" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT71" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G73" s="19"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="20"/>
+      <c r="O73" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI73" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G74" s="29"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="25"/>
+      <c r="K74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G75" s="31"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="21"/>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G78" s="19"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="20"/>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G79" s="23"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="25"/>
+      <c r="K79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="G80" s="35"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="82" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G82" s="37"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="20"/>
+    </row>
+    <row r="83" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G83" s="38"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="25"/>
+      <c r="K83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="49"/>
-      <c r="E74" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="H75" s="16"/>
-    </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G76" s="19"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="20"/>
-      <c r="O76" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG76" s="50"/>
-    </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G77" s="23"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="25"/>
-      <c r="K77" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF77" s="50"/>
-    </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="O78" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI78" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT78" s="50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="G80" s="19"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="20"/>
-      <c r="O80" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI80" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="25"/>
-      <c r="K81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A82" s="47">
-        <v>45615</v>
-      </c>
-      <c r="B82" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="21"/>
-      <c r="O82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G85" s="19"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="20"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G86" s="23"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="25"/>
-      <c r="K86" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="21"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G89" s="59"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="20"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G90" s="59"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="25"/>
-      <c r="K90" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G91" s="59"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="21"/>
-    </row>
+    <row r="84" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G84" s="40"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="21"/>
+    </row>
+    <row r="87" spans="7:11" s="18" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2298,10 +3382,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E47E61D-EA5E-443A-8270-F34DD08A8C64}">
+  <dimension ref="D1:CM58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BY35" sqref="BY35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="4:4" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D1" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="4:54" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="4:54" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D20" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="4:54" ht="32.4" x14ac:dyDescent="0.45">
+      <c r="H26" s="61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="4:54" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="4:54" ht="36.6" x14ac:dyDescent="0.45">
+      <c r="BB31" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="54:56" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="BD38" s="62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="54:56" ht="32.4" x14ac:dyDescent="0.45">
+      <c r="BB42" s="61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="55:91" x14ac:dyDescent="0.45">
+      <c r="CK51" s="19"/>
+      <c r="CL51" s="22"/>
+      <c r="CM51" s="20"/>
+    </row>
+    <row r="52" spans="55:91" x14ac:dyDescent="0.45">
+      <c r="CK52" s="23"/>
+      <c r="CL52" s="24"/>
+      <c r="CM52" s="25"/>
+    </row>
+    <row r="53" spans="55:91" x14ac:dyDescent="0.45">
+      <c r="CK53" s="26"/>
+      <c r="CL53" s="27"/>
+      <c r="CM53" s="28"/>
+    </row>
+    <row r="58" spans="55:91" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="BC58" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY58" s="62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D00CCB-B6DB-4C83-A229-8E8205AB8F5C}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2309,14 +3516,14 @@
     <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="63" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="51"/>
       <c r="B1" s="52" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2328,27 +3535,27 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2356,13 +3563,13 @@
         <v>45596</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -2373,24 +3580,24 @@
         <v>45610</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="46"/>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -2398,39 +3605,32 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D18" s="46">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D19" s="46"/>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="G20" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\木曜制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\team3野獣先輩\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5491E2EC-5D55-43DF-AEEA-5D116074E650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A7657E-58C1-46FF-BFF6-A85B92422B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1848" windowWidth="18396" windowHeight="9960" activeTab="2" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="4" r:id="rId2"/>
-    <sheet name="更新履歴" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="更新履歴" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -773,6 +775,51 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面仕様</t>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>タイトル画面の次に表示される画面</t>
+  </si>
+  <si>
+    <t>詳細</t>
+  </si>
+  <si>
+    <t>ゴール仕様書</t>
+  </si>
+  <si>
+    <t>プレイヤーがゴールに到達した時の仕様</t>
+  </si>
+  <si>
+    <t>ゴールのラインを越えたら　ＧＯＡＬとクリアスコアとクリアタイムをテキストで表示します</t>
+  </si>
+  <si>
+    <t>ゴールラインに到達したら、画面上から　ＧＯＡＬというテキストを画面中央に</t>
+  </si>
+  <si>
+    <t>４秒かけて縦スクロールで表示</t>
+  </si>
+  <si>
+    <t>メモ</t>
+  </si>
+  <si>
+    <t>　スコア表記をｍにするか考える</t>
+  </si>
+  <si>
+    <t>ブロックのながさ</t>
+  </si>
+  <si>
+    <t>プロックに挟まれた場合の対処（ブロックに閉じ込められた場合）</t>
+  </si>
+  <si>
+    <t>スコアとクリアタイムの表示は、ＧＯＡＬテキストがが中央に移動後</t>
+  </si>
+  <si>
+    <t>２秒後表示</t>
   </si>
 </sst>
 </file>
@@ -865,7 +912,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,7 +975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,25 +1273,37 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2218,13 +2283,13 @@
       <xdr:col>53</xdr:col>
       <xdr:colOff>41565</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>390372</xdr:rowOff>
+      <xdr:rowOff>348808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>199669</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>78583</xdr:rowOff>
+      <xdr:rowOff>37019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2252,8 +2317,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14295447" y="7382843"/>
-          <a:ext cx="3385398" cy="1086705"/>
+          <a:off x="13993092" y="7747135"/>
+          <a:ext cx="3316941" cy="1101375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2407,6 +2472,1682 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9563FFC-9C6A-468A-80EF-E40C5399EB30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2761128" y="2805953"/>
+          <a:ext cx="6965577" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F463E0-680C-4ABF-BFD2-9689A258A13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8135302" y="7548562"/>
+          <a:ext cx="1384935" cy="385763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCORE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ｍ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0480D0-D3C8-422E-A2A1-5A74E1591469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8159116" y="8253413"/>
+          <a:ext cx="1384935" cy="385762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>48</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ｓ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D408166-C29F-47B6-A3AC-B45AEB1C943C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8135302" y="7548562"/>
+          <a:ext cx="1384935" cy="385763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>SCORE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ｍ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEAFDF4-828C-4AD1-9252-13A45C35826F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8159116" y="8253413"/>
+          <a:ext cx="1384935" cy="385762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>48.0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FA84A0-3A66-477F-BEDA-F1A20AB9F5BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2266950" y="8743950"/>
+          <a:ext cx="7181850" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1611484-C4C3-402B-BB36-61558744A800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2329543" y="6531430"/>
+          <a:ext cx="7358743" cy="10884"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9C0FDE-4C3B-444D-8D6B-7F90089CD1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10188348" y="5262562"/>
+          <a:ext cx="1895475" cy="385763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>SCORE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ｍ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778007CF-C116-48C0-A41E-5CB82EEEC11D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10212162" y="5967413"/>
+          <a:ext cx="1895475" cy="385762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>48.0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718D27FB-E43E-467B-9A2B-F890EFD74A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2324100" y="8743950"/>
+          <a:ext cx="7394121" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224D15CF-0E87-4C0E-A069-633F5C00593F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2329543" y="6531430"/>
+          <a:ext cx="7358743" cy="10884"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5A63BB-190A-4B1C-BF09-5F0F49ED3CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21651005" y="5262562"/>
+          <a:ext cx="1895475" cy="385763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>SCORE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ｍ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0E4AD3-A32B-4E9F-923A-456FC810E001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21674819" y="5967413"/>
+          <a:ext cx="1895475" cy="385762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>48.0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F19BA66-F06E-4A24-8CA7-ACBFDF62DA2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13786757" y="8743950"/>
+          <a:ext cx="7394122" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0472D996-3018-4FAF-976C-522C535659B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13792200" y="6531430"/>
+          <a:ext cx="7358743" cy="10884"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>77321</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>96370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE16528-03DC-43A0-A84D-448A80901D99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15222071" y="5125570"/>
+          <a:ext cx="3200399" cy="1103780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GOAL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B64F301-E9EF-4BCC-A18B-C56EBF767759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26879550" y="5105400"/>
+          <a:ext cx="3200399" cy="1103780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GOAL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2FB7A6-EF43-4326-A3E8-343DE4048985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28121263" y="6707331"/>
+          <a:ext cx="2194214" cy="1120487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SCORE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>249382</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8C485E-62A7-4849-A2BD-4A463D7E92CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15960437" y="5306291"/>
+          <a:ext cx="2452254" cy="1052945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>83128</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>221673</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689E25BA-C44C-448E-92C7-56C7A28A505D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18412691" y="5832764"/>
+          <a:ext cx="4364182" cy="2161309"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>110837</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>221673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>55418</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A9DB19-9D80-437D-9F7E-6643818473E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21349855" y="7994073"/>
+          <a:ext cx="2854036" cy="581891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ＧＯＡＬ表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>184266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>128848</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>196734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CC9FF2-2AA6-457B-B9C8-BD756083DA2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31546799" y="7499466"/>
+          <a:ext cx="2719649" cy="3182388"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>177339</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>196734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>80357</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22B6EB0-11B1-43A1-A11B-D8D25D470C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31571739" y="10681854"/>
+          <a:ext cx="5389418" cy="543098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリアタイム、クリアスコア表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B10D3C7-A7B6-453E-B96C-3DE916A3332B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27667527" y="6719455"/>
+          <a:ext cx="2452254" cy="1052945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2737,8 +4478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
   <dimension ref="A1:BC87"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69:I71"/>
+    <sheetView topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:AM50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3385,19 +5126,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E47E61D-EA5E-443A-8270-F34DD08A8C64}">
   <dimension ref="D1:CM58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BY35" sqref="BY35"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="4:4" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D1" s="57" t="s">
+    <row r="1" spans="4:4" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D1" s="61" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="4:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3412,7 +5153,7 @@
       </c>
     </row>
     <row r="8" spans="4:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="56" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3422,7 +5163,7 @@
       </c>
     </row>
     <row r="12" spans="4:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="56" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3447,28 +5188,28 @@
       </c>
     </row>
     <row r="20" spans="4:54" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="57" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="4:54" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="4:54" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="4:54" ht="36.6" x14ac:dyDescent="0.45">
-      <c r="BB31" s="60" t="s">
+      <c r="BB31" s="58" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="54:56" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="BD38" s="62" t="s">
+      <c r="BD38" s="60" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="54:56" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="BB42" s="61" t="s">
+      <c r="BB42" s="59" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3488,10 +5229,10 @@
       <c r="CM53" s="28"/>
     </row>
     <row r="58" spans="55:91" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="BC58" s="62" t="s">
+      <c r="BC58" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="BY58" s="62" t="s">
+      <c r="BY58" s="60" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3503,10 +5244,1207 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
+  <dimension ref="C1:AR51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX36" sqref="AX36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="3:44" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="3:44" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="3:44" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+    </row>
+    <row r="11" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+    </row>
+    <row r="12" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="11"/>
+    </row>
+    <row r="13" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="11"/>
+    </row>
+    <row r="14" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="65"/>
+      <c r="AR14" s="11"/>
+    </row>
+    <row r="15" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="11"/>
+    </row>
+    <row r="16" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="11"/>
+    </row>
+    <row r="17" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="11"/>
+    </row>
+    <row r="18" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="11"/>
+    </row>
+    <row r="19" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+    </row>
+    <row r="20" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+    </row>
+    <row r="21" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+    </row>
+    <row r="22" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+    </row>
+    <row r="23" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+    </row>
+    <row r="24" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+    </row>
+    <row r="25" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+    </row>
+    <row r="26" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+    </row>
+    <row r="27" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+    </row>
+    <row r="28" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+    </row>
+    <row r="29" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="65"/>
+      <c r="AJ29" s="65"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+    </row>
+    <row r="30" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+    </row>
+    <row r="31" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="65"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+    </row>
+    <row r="32" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="65"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+    </row>
+    <row r="33" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="65"/>
+      <c r="AJ33" s="65"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+    </row>
+    <row r="34" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+    </row>
+    <row r="35" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="65"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+    </row>
+    <row r="36" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+    </row>
+    <row r="37" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+    </row>
+    <row r="38" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+    </row>
+    <row r="51" s="8" customFormat="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6016A-E977-49A7-BD75-FF02488C9D30}">
+  <dimension ref="C1:DP52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BJ12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CE7" sqref="CE7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="3:120" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="3:120" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="3:120" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="3:120" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="3:120" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="3:120" x14ac:dyDescent="0.45">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
+      <c r="BF15" s="11"/>
+      <c r="BG15" s="11"/>
+      <c r="BH15" s="11"/>
+      <c r="BI15" s="11"/>
+      <c r="BJ15" s="11"/>
+      <c r="BK15" s="11"/>
+      <c r="BL15" s="11"/>
+      <c r="BM15" s="11"/>
+      <c r="BN15" s="11"/>
+      <c r="BO15" s="11"/>
+      <c r="BP15" s="11"/>
+      <c r="BQ15" s="11"/>
+      <c r="BR15" s="11"/>
+      <c r="BS15" s="11"/>
+      <c r="BT15" s="11"/>
+      <c r="BU15" s="11"/>
+      <c r="BW15" s="11"/>
+      <c r="BX15" s="11"/>
+      <c r="BY15" s="11"/>
+      <c r="BZ15" s="11"/>
+      <c r="CA15" s="11"/>
+      <c r="CB15" s="11"/>
+      <c r="CI15" s="11"/>
+      <c r="CJ15" s="11"/>
+      <c r="CK15" s="11"/>
+      <c r="CL15" s="11"/>
+      <c r="CM15" s="11"/>
+      <c r="CN15" s="11"/>
+      <c r="CO15" s="11"/>
+      <c r="CP15" s="11"/>
+      <c r="CQ15" s="11"/>
+      <c r="CR15" s="11"/>
+      <c r="CS15" s="11"/>
+      <c r="CT15" s="11"/>
+      <c r="CU15" s="11"/>
+      <c r="CV15" s="11"/>
+      <c r="CW15" s="11"/>
+      <c r="CX15" s="11"/>
+      <c r="CY15" s="11"/>
+      <c r="CZ15" s="11"/>
+      <c r="DA15" s="11"/>
+      <c r="DB15" s="11"/>
+      <c r="DC15" s="11"/>
+      <c r="DD15" s="11"/>
+      <c r="DE15" s="11"/>
+      <c r="DF15" s="11"/>
+      <c r="DG15" s="11"/>
+      <c r="DH15" s="11"/>
+      <c r="DI15" s="11"/>
+      <c r="DK15" s="11"/>
+      <c r="DL15" s="11"/>
+      <c r="DM15" s="11"/>
+      <c r="DN15" s="11"/>
+      <c r="DO15" s="11"/>
+      <c r="DP15" s="11"/>
+    </row>
+    <row r="16" spans="3:120" x14ac:dyDescent="0.45">
+      <c r="H16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AL16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="BU16" s="11"/>
+      <c r="BW16" s="11"/>
+      <c r="BY16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB16" s="11"/>
+      <c r="CI16" s="11"/>
+      <c r="DI16" s="11"/>
+      <c r="DK16" s="11"/>
+      <c r="DM16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP16" s="11"/>
+    </row>
+    <row r="17" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AL17" s="8"/>
+      <c r="AO17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="BU17" s="11"/>
+      <c r="BW17" s="11"/>
+      <c r="BY17" s="8"/>
+      <c r="CB17" s="11"/>
+      <c r="CI17" s="11"/>
+      <c r="DI17" s="11"/>
+      <c r="DK17" s="11"/>
+      <c r="DM17" s="8"/>
+      <c r="DP17" s="11"/>
+    </row>
+    <row r="18" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AL18" s="8"/>
+      <c r="AO18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="BU18" s="11"/>
+      <c r="BW18" s="11"/>
+      <c r="BY18" s="8"/>
+      <c r="CB18" s="11"/>
+      <c r="CI18" s="11"/>
+      <c r="DI18" s="11"/>
+      <c r="DK18" s="11"/>
+      <c r="DM18" s="8"/>
+      <c r="DP18" s="11"/>
+    </row>
+    <row r="19" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AO19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="BU19" s="11"/>
+      <c r="BW19" s="11"/>
+      <c r="BY19" s="8"/>
+      <c r="BZ19" s="8"/>
+      <c r="CB19" s="11"/>
+      <c r="CI19" s="11"/>
+      <c r="DI19" s="11"/>
+      <c r="DK19" s="11"/>
+      <c r="DM19" s="8"/>
+      <c r="DN19" s="8"/>
+      <c r="DP19" s="11"/>
+    </row>
+    <row r="20" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="BU20" s="11"/>
+      <c r="BW20" s="11"/>
+      <c r="CB20" s="11"/>
+      <c r="CI20" s="11"/>
+      <c r="DI20" s="11"/>
+      <c r="DK20" s="11"/>
+      <c r="DP20" s="11"/>
+    </row>
+    <row r="21" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="BU21" s="11"/>
+      <c r="BW21" s="11"/>
+      <c r="BX21" s="11"/>
+      <c r="BY21" s="11"/>
+      <c r="BZ21" s="11"/>
+      <c r="CA21" s="11"/>
+      <c r="CB21" s="11"/>
+      <c r="CI21" s="11"/>
+      <c r="DI21" s="11"/>
+      <c r="DK21" s="11"/>
+      <c r="DL21" s="11"/>
+      <c r="DM21" s="11"/>
+      <c r="DN21" s="11"/>
+      <c r="DO21" s="11"/>
+      <c r="DP21" s="11"/>
+    </row>
+    <row r="22" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="BU22" s="11"/>
+      <c r="CI22" s="11"/>
+      <c r="DI22" s="11"/>
+    </row>
+    <row r="23" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="BU23" s="11"/>
+      <c r="CI23" s="11"/>
+      <c r="DI23" s="11"/>
+    </row>
+    <row r="24" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AJ24" s="16"/>
+      <c r="AU24" s="11"/>
+      <c r="BU24" s="11"/>
+      <c r="BW24" s="16"/>
+      <c r="CI24" s="11"/>
+      <c r="DI24" s="11"/>
+      <c r="DK24" s="16"/>
+    </row>
+    <row r="25" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="BU25" s="11"/>
+      <c r="CI25" s="11"/>
+      <c r="DI25" s="11"/>
+    </row>
+    <row r="26" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AJ26" s="16"/>
+      <c r="AU26" s="11"/>
+      <c r="BU26" s="11"/>
+      <c r="BW26" s="16"/>
+      <c r="CI26" s="11"/>
+      <c r="DI26" s="11"/>
+      <c r="DK26" s="16"/>
+    </row>
+    <row r="27" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="BU27" s="11"/>
+      <c r="CI27" s="11"/>
+      <c r="DI27" s="11"/>
+    </row>
+    <row r="28" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="BU28" s="11"/>
+      <c r="CI28" s="11"/>
+      <c r="DI28" s="11"/>
+    </row>
+    <row r="29" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="BU29" s="11"/>
+      <c r="CI29" s="11"/>
+      <c r="DI29" s="11"/>
+    </row>
+    <row r="30" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="BU30" s="11"/>
+      <c r="CI30" s="11"/>
+      <c r="DI30" s="11"/>
+    </row>
+    <row r="31" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H31" s="11"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="AH31" s="11"/>
+      <c r="AJ31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU31" s="11"/>
+      <c r="BF31" s="14"/>
+      <c r="BG31" s="14"/>
+      <c r="BU31" s="11"/>
+      <c r="BW31" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI31" s="11"/>
+      <c r="CT31" s="14"/>
+      <c r="CU31" s="14"/>
+      <c r="DI31" s="11"/>
+      <c r="DK31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="H32" s="11"/>
+      <c r="K32" s="15"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="AH32" s="11"/>
+      <c r="AU32" s="11"/>
+      <c r="AX32" s="15"/>
+      <c r="BF32" s="14"/>
+      <c r="BG32" s="14"/>
+      <c r="BU32" s="11"/>
+      <c r="CI32" s="11"/>
+      <c r="CL32" s="15"/>
+      <c r="CT32" s="14"/>
+      <c r="CU32" s="14"/>
+      <c r="DI32" s="11"/>
+    </row>
+    <row r="33" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="H33" s="11"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="AH33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="BE33" s="8"/>
+      <c r="BF33" s="8"/>
+      <c r="BG33" s="8"/>
+      <c r="BU33" s="11"/>
+      <c r="CI33" s="11"/>
+      <c r="CJ33" s="15"/>
+      <c r="CK33" s="15"/>
+      <c r="CL33" s="15"/>
+      <c r="CS33" s="8"/>
+      <c r="CT33" s="8"/>
+      <c r="CU33" s="8"/>
+      <c r="DI33" s="11"/>
+    </row>
+    <row r="34" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="H34" s="11"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="13"/>
+      <c r="AE34" s="42"/>
+      <c r="AH34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="8"/>
+      <c r="BF34" s="13"/>
+      <c r="BR34" s="42"/>
+      <c r="BU34" s="11"/>
+      <c r="CI34" s="11"/>
+      <c r="CR34" s="12"/>
+      <c r="CS34" s="8"/>
+      <c r="CT34" s="13"/>
+      <c r="DF34" s="42"/>
+      <c r="DI34" s="11"/>
+    </row>
+    <row r="35" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="H35" s="11"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="13"/>
+      <c r="AH35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="BC35" s="12"/>
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="13"/>
+      <c r="BU35" s="11"/>
+      <c r="CI35" s="11"/>
+      <c r="CQ35" s="12"/>
+      <c r="CR35" s="12"/>
+      <c r="CS35" s="12"/>
+      <c r="CT35" s="13"/>
+      <c r="DI35" s="11"/>
+    </row>
+    <row r="36" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="H36" s="11"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="AH36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="12"/>
+      <c r="BE36" s="13"/>
+      <c r="BF36" s="13"/>
+      <c r="BU36" s="11"/>
+      <c r="CI36" s="11"/>
+      <c r="CP36" s="3"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="12"/>
+      <c r="CS36" s="13"/>
+      <c r="CT36" s="13"/>
+      <c r="DI36" s="11"/>
+    </row>
+    <row r="37" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="H37" s="11"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="T37" s="8"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="11"/>
+      <c r="AU37" s="11"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="18"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BG37" s="8"/>
+      <c r="BS37" s="3"/>
+      <c r="BT37" s="3"/>
+      <c r="BU37" s="11"/>
+      <c r="CI37" s="11"/>
+      <c r="CK37" s="18"/>
+      <c r="CL37" s="18"/>
+      <c r="CO37" s="12"/>
+      <c r="CP37" s="3"/>
+      <c r="CQ37" s="3"/>
+      <c r="CR37" s="12"/>
+      <c r="CS37" s="12"/>
+      <c r="CU37" s="8"/>
+      <c r="DG37" s="3"/>
+      <c r="DH37" s="3"/>
+      <c r="DI37" s="11"/>
+    </row>
+    <row r="38" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="H38" s="11"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AW38" s="18"/>
+      <c r="AX38" s="18"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+      <c r="BD38" s="12"/>
+      <c r="BE38" s="8"/>
+      <c r="BF38" s="8"/>
+      <c r="BG38" s="8"/>
+      <c r="BS38" s="3"/>
+      <c r="BT38" s="3"/>
+      <c r="BU38" s="11"/>
+      <c r="CI38" s="11"/>
+      <c r="CK38" s="18"/>
+      <c r="CL38" s="18"/>
+      <c r="CN38" s="12"/>
+      <c r="CO38" s="12"/>
+      <c r="CP38" s="12"/>
+      <c r="CR38" s="12"/>
+      <c r="CS38" s="8"/>
+      <c r="CT38" s="8"/>
+      <c r="CU38" s="8"/>
+      <c r="DG38" s="3"/>
+      <c r="DH38" s="3"/>
+      <c r="DI38" s="11"/>
+    </row>
+    <row r="39" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="H39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="BU39" s="11"/>
+      <c r="CI39" s="11"/>
+      <c r="DI39" s="11"/>
+    </row>
+    <row r="41" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="CK41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="AX42" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="AX43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D00CCB-B6DB-4C83-A229-8E8205AB8F5C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\team3野獣先輩\3班\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Team3_2495\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A7657E-58C1-46FF-BFF6-A85B92422B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655624DD-AED9-4792-8523-9C8CBAB61382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -4478,9 +4478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
   <dimension ref="A1:BC87"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:AM50"/>
-    </sheetView>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5126,9 +5124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E47E61D-EA5E-443A-8270-F34DD08A8C64}">
   <dimension ref="D1:CM58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -5247,9 +5243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
   <dimension ref="C1:AR51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX36" sqref="AX36"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -5850,9 +5844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6016A-E977-49A7-BD75-FF02488C9D30}">
   <dimension ref="C1:DP52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CE7" sqref="CE7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -6444,9 +6436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D00CCB-B6DB-4C83-A229-8E8205AB8F5C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\team3野獣先輩\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A7657E-58C1-46FF-BFF6-A85B92422B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DBE8DA-3C91-4DD9-9753-47BC2B27D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
-    <sheet name="更新履歴" sheetId="3" r:id="rId5"/>
+    <sheet name="メイン画面仕様" sheetId="5" r:id="rId3"/>
+    <sheet name="マップ仕様" sheetId="7" r:id="rId4"/>
+    <sheet name="ゴール仕様" sheetId="6" r:id="rId5"/>
+    <sheet name="更新履歴" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -820,6 +821,50 @@
   </si>
   <si>
     <t>２秒後表示</t>
+  </si>
+  <si>
+    <t>メイン画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール仕様</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ仕様</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー情報（モード切替）</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モード切替</t>
+    <rPh sb="3" eb="5">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブロックとプレイヤーを操作する際、操作モードを切り替えて行う</t>
+  </si>
+  <si>
+    <t>モードの切り替えはシフト押して切り替え</t>
   </si>
 </sst>
 </file>
@@ -912,7 +957,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,8 +1030,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1098,13 +1149,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1304,6 +1392,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1486,16 +1586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55419</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>223058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>55418</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:rowOff>170411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1524,8 +1624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905000" y="13502640"/>
-          <a:ext cx="1325880" cy="1325880"/>
+          <a:off x="2022764" y="13883640"/>
+          <a:ext cx="1330036" cy="1360516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1597,6 +1697,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C98790-8704-4945-9694-D6270BC56C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704110" y="22071676"/>
+          <a:ext cx="1330036" cy="1360516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4476,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
-  <dimension ref="A1:BC87"/>
+  <dimension ref="A1:CW93"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:AM50"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T97" sqref="T97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5095,12 +5245,12 @@
       <c r="H80" s="36"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="82" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:101" x14ac:dyDescent="0.45">
       <c r="G82" s="37"/>
       <c r="H82" s="22"/>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:101" x14ac:dyDescent="0.45">
       <c r="G83" s="38"/>
       <c r="H83" s="39"/>
       <c r="I83" s="25"/>
@@ -5108,12 +5258,135 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:101" x14ac:dyDescent="0.45">
       <c r="G84" s="40"/>
       <c r="H84" s="41"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="87" spans="7:11" s="18" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="86" spans="4:101" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="87" spans="4:101" s="8" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D87" s="68"/>
+      <c r="E87" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="69"/>
+      <c r="O87" s="69"/>
+      <c r="P87" s="69"/>
+      <c r="Q87" s="69"/>
+      <c r="R87" s="69"/>
+      <c r="S87" s="69"/>
+      <c r="T87" s="69"/>
+      <c r="U87" s="69"/>
+      <c r="V87" s="69"/>
+      <c r="W87" s="69"/>
+      <c r="X87" s="69"/>
+      <c r="Y87" s="69"/>
+      <c r="Z87" s="69"/>
+      <c r="AA87" s="69"/>
+      <c r="AB87" s="69"/>
+      <c r="AC87" s="69"/>
+      <c r="AD87" s="69"/>
+      <c r="AE87" s="69"/>
+      <c r="AF87" s="69"/>
+      <c r="AG87" s="69"/>
+      <c r="AH87" s="69"/>
+      <c r="AI87" s="69"/>
+      <c r="AJ87" s="69"/>
+      <c r="AK87" s="69"/>
+      <c r="AL87" s="69"/>
+      <c r="AM87" s="69"/>
+      <c r="AN87" s="69"/>
+      <c r="AO87" s="69"/>
+      <c r="AP87" s="69"/>
+      <c r="AQ87" s="69"/>
+      <c r="AR87" s="69"/>
+      <c r="AS87" s="69"/>
+      <c r="AT87" s="69"/>
+      <c r="AU87" s="69"/>
+      <c r="AV87" s="69"/>
+      <c r="AW87" s="69"/>
+      <c r="AX87" s="69"/>
+      <c r="AY87" s="69"/>
+      <c r="AZ87" s="69"/>
+      <c r="BA87" s="69"/>
+      <c r="BB87" s="69"/>
+      <c r="BC87" s="69"/>
+      <c r="BD87" s="69"/>
+      <c r="BE87" s="69"/>
+      <c r="BF87" s="69"/>
+      <c r="BG87" s="69"/>
+      <c r="BH87" s="69"/>
+      <c r="BI87" s="69"/>
+      <c r="BJ87" s="69"/>
+      <c r="BK87" s="69"/>
+      <c r="BL87" s="69"/>
+      <c r="BM87" s="69"/>
+      <c r="BN87" s="69"/>
+      <c r="BO87" s="69"/>
+      <c r="BP87" s="69"/>
+      <c r="BQ87" s="69"/>
+      <c r="BR87" s="69"/>
+      <c r="BS87" s="69"/>
+      <c r="BT87" s="69"/>
+      <c r="BU87" s="69"/>
+      <c r="BV87" s="69"/>
+      <c r="BW87" s="69"/>
+      <c r="BX87" s="69"/>
+      <c r="BY87" s="69"/>
+      <c r="BZ87" s="69"/>
+      <c r="CA87" s="69"/>
+      <c r="CB87" s="69"/>
+      <c r="CC87" s="69"/>
+      <c r="CD87" s="69"/>
+      <c r="CE87" s="69"/>
+      <c r="CF87" s="69"/>
+      <c r="CG87" s="69"/>
+      <c r="CH87" s="69"/>
+      <c r="CI87" s="69"/>
+      <c r="CJ87" s="69"/>
+      <c r="CK87" s="69"/>
+      <c r="CL87" s="69"/>
+      <c r="CM87" s="69"/>
+      <c r="CN87" s="69"/>
+      <c r="CO87" s="69"/>
+      <c r="CP87" s="69"/>
+      <c r="CQ87" s="69"/>
+      <c r="CR87" s="69"/>
+      <c r="CS87" s="69"/>
+      <c r="CT87" s="69"/>
+      <c r="CU87" s="69"/>
+      <c r="CV87" s="69"/>
+      <c r="CW87" s="70"/>
+    </row>
+    <row r="90" spans="4:101" x14ac:dyDescent="0.45">
+      <c r="F90" s="8"/>
+      <c r="K90" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="4:101" x14ac:dyDescent="0.45">
+      <c r="F91" s="8"/>
+      <c r="M91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="4:101" x14ac:dyDescent="0.45">
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="4:101" x14ac:dyDescent="0.45">
+      <c r="O93" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5248,7 +5521,7 @@
   <dimension ref="C1:AR51"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX36" sqref="AX36"/>
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5847,11 +6120,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
+  <dimension ref="C1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="3:3" s="67" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6016A-E977-49A7-BD75-FF02488C9D30}">
   <dimension ref="C1:DP52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CE7" sqref="CE7"/>
+    <sheetView topLeftCell="BJ21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CH56" sqref="CH56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6440,12 +6739,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D00CCB-B6DB-4C83-A229-8E8205AB8F5C}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6564,7 +6863,32 @@
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D19" s="46"/>
+      <c r="D19" s="46">
+        <v>45624</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D20" s="46">
+        <v>45624</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\team3野獣先輩\3班\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Team3_2495\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2683DC48-20FB-4AB2-9AD7-92FE81B2D9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A0CA48-BEF6-41E5-8C96-C4FE9D38FCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -817,12 +817,6 @@
     <t>プロックに挟まれた場合の対処（ブロックに閉じ込められた場合）</t>
   </si>
   <si>
-    <t>スコアとクリアタイムの表示は、ＧＯＡＬテキストがが中央に移動後</t>
-  </si>
-  <si>
-    <t>２秒後表示</t>
-  </si>
-  <si>
     <t>メイン画面</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -865,6 +859,139 @@
   </si>
   <si>
     <t>モードの切り替えはシフト押して切り替え</t>
+  </si>
+  <si>
+    <t>画面切り替えで0.3秒後表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームマップの仕様</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面仕様　必要なモノ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームタイム表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スコア表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・次に落ちてくるブロックの表示</t>
+    <rPh sb="1" eb="2">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面背景</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブロック操作とプレイヤー操作の切り替えキーの表示</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面追加</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ベストスコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ベストタイム</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -957,7 +1084,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,8 +1163,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1186,13 +1319,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,6 +1550,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2938,6 +3102,72 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60180C7-902E-4690-87B6-D698900E1E12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26574750" y="3409950"/>
+          <a:ext cx="7124700" cy="5543550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -3446,13 +3676,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
+      <xdr:col>118</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>120</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -3522,13 +3752,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
+      <xdr:col>118</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>120</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -3594,13 +3824,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
+      <xdr:col>117</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -3625,61 +3855,6 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130630</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>111</xdr:col>
-      <xdr:colOff>283029</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0472D996-3018-4FAF-976C-522C535659B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13792200" y="6531430"/>
-          <a:ext cx="7358743" cy="10884"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3776,16 +3951,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>105</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>36980</xdr:rowOff>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3800,7 +3975,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26879550" y="5105400"/>
+          <a:off x="28536900" y="5124450"/>
           <a:ext cx="3200399" cy="1103780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3852,16 +4027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>112567</xdr:rowOff>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>104</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>188768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3876,8 +4051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28121263" y="6707331"/>
-          <a:ext cx="2194214" cy="1120487"/>
+          <a:off x="28879799" y="6418117"/>
+          <a:ext cx="2152651" cy="1085851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4142,16 +4317,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>184266</xdr:rowOff>
+      <xdr:rowOff>62346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
-      <xdr:colOff>128848</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>196734</xdr:rowOff>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>262198</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>158634</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4169,8 +4344,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31546799" y="7499466"/>
-          <a:ext cx="2719649" cy="3182388"/>
+          <a:off x="31318199" y="6920346"/>
+          <a:ext cx="3519749" cy="2839488"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4196,16 +4371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>177339</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>196734</xdr:rowOff>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>24939</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>158634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>121</xdr:col>
-      <xdr:colOff>80357</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>8312</xdr:rowOff>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>213707</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>198812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4220,8 +4395,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31571739" y="10681854"/>
-          <a:ext cx="5389418" cy="543098"/>
+          <a:off x="32314689" y="9759834"/>
+          <a:ext cx="5046518" cy="497378"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4266,16 +4441,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>27709</xdr:colOff>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>46759</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>124691</xdr:rowOff>
+      <xdr:rowOff>10391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4290,8 +4465,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27667527" y="6719455"/>
-          <a:ext cx="2452254" cy="1052945"/>
+          <a:off x="28907509" y="6411191"/>
+          <a:ext cx="2410690" cy="1018309"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4321,6 +4496,388 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矢印: 右 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C059FAB7-9C76-4280-AE7B-0F8F924E9D83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11868150" y="5619750"/>
+          <a:ext cx="914400" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矢印: 右 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1BD6BAB-110C-4847-8632-D20049FF6CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23964900" y="5715000"/>
+          <a:ext cx="1295400" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915D111F-B208-4FB5-A87C-EA6BF8C94660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27298650" y="7829550"/>
+          <a:ext cx="5505450" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NEWGAME</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>256309</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11EF057B-CBD8-4BED-942E-AAFA7BF80CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28831309" y="7839941"/>
+          <a:ext cx="2410690" cy="503959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>32904</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>128848</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>196734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD993C5-0F7A-45B6-89FB-5F59515195C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30036654" y="8343900"/>
+          <a:ext cx="381694" cy="1911234"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>177339</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>196734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>80357</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35457F3D-A4AE-4115-8F44-4A2E4B7DCCFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27895089" y="10255134"/>
+          <a:ext cx="5046518" cy="497378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ニューゲーム表示</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4628,7 +5185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
   <dimension ref="A1:CW92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AO90" sqref="AO90"/>
     </sheetView>
   </sheetViews>
@@ -5267,7 +5824,7 @@
     <row r="87" spans="4:101" s="8" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D87" s="68"/>
       <c r="E87" s="69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F87" s="69"/>
       <c r="G87" s="69"/>
@@ -5369,20 +5926,20 @@
     <row r="90" spans="4:101" x14ac:dyDescent="0.45">
       <c r="F90" s="8"/>
       <c r="K90" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="4:101" x14ac:dyDescent="0.45">
       <c r="F91" s="8"/>
       <c r="M91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="4:101" x14ac:dyDescent="0.45">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="O92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5397,7 +5954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E47E61D-EA5E-443A-8270-F34DD08A8C64}">
   <dimension ref="D1:CM58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -5516,35 +6073,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
-  <dimension ref="C1:AR51"/>
+  <dimension ref="C1:BC42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BI11" sqref="BI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="3:44" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:55" s="62" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C1" s="62" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="3:44" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:55" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="3:44" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:55" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="3:44" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:55" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C7" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="3:44" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:55" x14ac:dyDescent="0.45">
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -5583,7 +6140,7 @@
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" spans="3:44" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:55" x14ac:dyDescent="0.45">
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -5622,7 +6179,7 @@
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" spans="3:44" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:55" x14ac:dyDescent="0.45">
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="65"/>
@@ -5660,8 +6217,16 @@
       <c r="AP12" s="65"/>
       <c r="AQ12" s="65"/>
       <c r="AR12" s="11"/>
-    </row>
-    <row r="13" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="AX12" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+    </row>
+    <row r="13" spans="3:55" x14ac:dyDescent="0.45">
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="65"/>
@@ -5676,8 +6241,11 @@
       <c r="AP13" s="11"/>
       <c r="AQ13" s="65"/>
       <c r="AR13" s="11"/>
-    </row>
-    <row r="14" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="AX13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="3:55" x14ac:dyDescent="0.45">
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="65"/>
@@ -5690,8 +6258,11 @@
       <c r="AP14" s="11"/>
       <c r="AQ14" s="65"/>
       <c r="AR14" s="11"/>
-    </row>
-    <row r="15" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="AX14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="3:55" x14ac:dyDescent="0.45">
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="65"/>
@@ -5704,8 +6275,11 @@
       <c r="AP15" s="11"/>
       <c r="AQ15" s="65"/>
       <c r="AR15" s="11"/>
-    </row>
-    <row r="16" spans="3:44" x14ac:dyDescent="0.45">
+      <c r="AX15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="3:55" x14ac:dyDescent="0.45">
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="65"/>
@@ -5718,8 +6292,11 @@
       <c r="AP16" s="11"/>
       <c r="AQ16" s="65"/>
       <c r="AR16" s="11"/>
-    </row>
-    <row r="17" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="AX16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="65"/>
@@ -5732,8 +6309,11 @@
       <c r="AP17" s="11"/>
       <c r="AQ17" s="65"/>
       <c r="AR17" s="11"/>
-    </row>
-    <row r="18" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="AX17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="65"/>
@@ -5746,8 +6326,11 @@
       <c r="AP18" s="65"/>
       <c r="AQ18" s="65"/>
       <c r="AR18" s="11"/>
-    </row>
-    <row r="19" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="AX18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="65"/>
@@ -5760,8 +6343,11 @@
       <c r="AP19" s="11"/>
       <c r="AQ19" s="11"/>
       <c r="AR19" s="11"/>
-    </row>
-    <row r="20" spans="8:44" x14ac:dyDescent="0.45">
+      <c r="AX19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="65"/>
@@ -5775,7 +6361,7 @@
       <c r="AQ20" s="11"/>
       <c r="AR20" s="11"/>
     </row>
-    <row r="21" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="21" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="65"/>
@@ -5789,7 +6375,7 @@
       <c r="AQ21" s="11"/>
       <c r="AR21" s="11"/>
     </row>
-    <row r="22" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="22" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="65"/>
@@ -5803,7 +6389,7 @@
       <c r="AQ22" s="11"/>
       <c r="AR22" s="11"/>
     </row>
-    <row r="23" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="23" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="65"/>
@@ -5817,7 +6403,7 @@
       <c r="AQ23" s="11"/>
       <c r="AR23" s="11"/>
     </row>
-    <row r="24" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="65"/>
@@ -5831,7 +6417,7 @@
       <c r="AQ24" s="11"/>
       <c r="AR24" s="11"/>
     </row>
-    <row r="25" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="25" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="65"/>
@@ -5845,7 +6431,7 @@
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
     </row>
-    <row r="26" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="26" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="65"/>
@@ -5859,7 +6445,7 @@
       <c r="AQ26" s="11"/>
       <c r="AR26" s="11"/>
     </row>
-    <row r="27" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="27" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="65"/>
@@ -5873,7 +6459,7 @@
       <c r="AQ27" s="11"/>
       <c r="AR27" s="11"/>
     </row>
-    <row r="28" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="28" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="65"/>
@@ -5889,7 +6475,7 @@
       <c r="AQ28" s="11"/>
       <c r="AR28" s="11"/>
     </row>
-    <row r="29" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="29" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="65"/>
@@ -5903,7 +6489,7 @@
       <c r="AQ29" s="11"/>
       <c r="AR29" s="11"/>
     </row>
-    <row r="30" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="30" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="65"/>
@@ -5917,7 +6503,7 @@
       <c r="AQ30" s="11"/>
       <c r="AR30" s="11"/>
     </row>
-    <row r="31" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="31" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="65"/>
@@ -5933,7 +6519,7 @@
       <c r="AQ31" s="11"/>
       <c r="AR31" s="11"/>
     </row>
-    <row r="32" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="32" spans="8:50" x14ac:dyDescent="0.45">
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="65"/>
@@ -5949,7 +6535,7 @@
       <c r="AQ32" s="11"/>
       <c r="AR32" s="11"/>
     </row>
-    <row r="33" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:44" x14ac:dyDescent="0.45">
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="65"/>
@@ -5963,7 +6549,7 @@
       <c r="AQ33" s="11"/>
       <c r="AR33" s="11"/>
     </row>
-    <row r="34" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:44" x14ac:dyDescent="0.45">
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="65"/>
@@ -5977,7 +6563,7 @@
       <c r="AQ34" s="11"/>
       <c r="AR34" s="11"/>
     </row>
-    <row r="35" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:44" x14ac:dyDescent="0.45">
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="65"/>
@@ -5991,7 +6577,7 @@
       <c r="AQ35" s="11"/>
       <c r="AR35" s="11"/>
     </row>
-    <row r="36" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:44" x14ac:dyDescent="0.45">
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="65"/>
@@ -6030,7 +6616,7 @@
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
     </row>
-    <row r="37" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:44" x14ac:dyDescent="0.45">
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -6069,7 +6655,7 @@
       <c r="AQ37" s="11"/>
       <c r="AR37" s="11"/>
     </row>
-    <row r="38" spans="8:44" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:44" x14ac:dyDescent="0.45">
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -6108,7 +6694,11 @@
       <c r="AQ38" s="11"/>
       <c r="AR38" s="11"/>
     </row>
-    <row r="51" s="8" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="4:44" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D42" s="57" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6119,66 +6709,537 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
-  <dimension ref="C1:C3"/>
+  <dimension ref="C1:CC61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF66" sqref="AF66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="3:3" s="67" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="3" t="s">
+    <row r="1" spans="3:81" s="67" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="74"/>
+      <c r="BD1" s="74"/>
+      <c r="BE1" s="74"/>
+      <c r="BF1" s="74"/>
+      <c r="BG1" s="74"/>
+      <c r="BH1" s="74"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="74"/>
+      <c r="BK1" s="74"/>
+      <c r="BL1" s="74"/>
+      <c r="BM1" s="74"/>
+      <c r="BN1" s="74"/>
+      <c r="BO1" s="74"/>
+      <c r="BP1" s="74"/>
+      <c r="BQ1" s="74"/>
+      <c r="BR1" s="74"/>
+      <c r="BS1" s="74"/>
+      <c r="BT1" s="74"/>
+      <c r="BU1" s="74"/>
+      <c r="BV1" s="74"/>
+      <c r="BW1" s="74"/>
+      <c r="BX1" s="74"/>
+      <c r="BY1" s="74"/>
+      <c r="BZ1" s="74"/>
+      <c r="CA1" s="74"/>
+      <c r="CB1" s="74"/>
+      <c r="CC1" s="75"/>
+    </row>
+    <row r="3" spans="3:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="71" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="72"/>
+    </row>
+    <row r="5" spans="3:81" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="3:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
+      <c r="BP8" s="5"/>
+      <c r="BQ8" s="5"/>
+      <c r="BR8" s="5"/>
+      <c r="BS8" s="5"/>
+      <c r="BT8" s="5"/>
+      <c r="BU8" s="5"/>
+      <c r="BV8" s="5"/>
+      <c r="BW8" s="5"/>
+      <c r="BX8" s="5"/>
+      <c r="BY8" s="5"/>
+      <c r="BZ8" s="5"/>
+      <c r="CA8" s="5"/>
+      <c r="CB8" s="5"/>
+      <c r="CC8" s="72"/>
+    </row>
+    <row r="11" spans="3:81" x14ac:dyDescent="0.45">
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+    </row>
+    <row r="12" spans="3:81" x14ac:dyDescent="0.45">
+      <c r="D12" s="76"/>
+      <c r="AA12" s="76"/>
+    </row>
+    <row r="13" spans="3:81" x14ac:dyDescent="0.45">
+      <c r="D13" s="76"/>
+      <c r="AA13" s="76"/>
+    </row>
+    <row r="14" spans="3:81" x14ac:dyDescent="0.45">
+      <c r="D14" s="76"/>
+      <c r="AA14" s="76"/>
+    </row>
+    <row r="15" spans="3:81" x14ac:dyDescent="0.45">
+      <c r="D15" s="76"/>
+      <c r="AA15" s="76"/>
+    </row>
+    <row r="16" spans="3:81" x14ac:dyDescent="0.45">
+      <c r="D16" s="76"/>
+      <c r="AA16" s="76"/>
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D17" s="76"/>
+      <c r="AA17" s="76"/>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D18" s="76"/>
+      <c r="AA18" s="76"/>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D19" s="76"/>
+      <c r="AA19" s="76"/>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D20" s="76"/>
+      <c r="AA20" s="76"/>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D21" s="76"/>
+      <c r="AA21" s="76"/>
+    </row>
+    <row r="22" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D22" s="76"/>
+      <c r="AA22" s="76"/>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D23" s="76"/>
+      <c r="AA23" s="76"/>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D24" s="76"/>
+      <c r="AA24" s="76"/>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D25" s="76"/>
+      <c r="AA25" s="76"/>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D26" s="76"/>
+      <c r="AA26" s="76"/>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D27" s="76"/>
+      <c r="AA27" s="76"/>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D28" s="76"/>
+      <c r="AA28" s="76"/>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D29" s="76"/>
+      <c r="AA29" s="76"/>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D30" s="76"/>
+      <c r="AA30" s="76"/>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D31" s="76"/>
+      <c r="AA31" s="76"/>
+    </row>
+    <row r="32" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D32" s="76"/>
+      <c r="AA32" s="76"/>
+    </row>
+    <row r="33" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D33" s="76"/>
+      <c r="AA33" s="76"/>
+    </row>
+    <row r="34" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D34" s="76"/>
+      <c r="AA34" s="76"/>
+    </row>
+    <row r="35" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D35" s="76"/>
+      <c r="AA35" s="76"/>
+    </row>
+    <row r="36" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D36" s="76"/>
+      <c r="AA36" s="76"/>
+    </row>
+    <row r="37" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D37" s="76"/>
+      <c r="AA37" s="76"/>
+    </row>
+    <row r="38" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D38" s="76"/>
+      <c r="AA38" s="76"/>
+    </row>
+    <row r="39" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D39" s="76"/>
+      <c r="AA39" s="76"/>
+    </row>
+    <row r="40" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D40" s="76"/>
+      <c r="AA40" s="76"/>
+    </row>
+    <row r="41" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D41" s="76"/>
+      <c r="AA41" s="76"/>
+    </row>
+    <row r="42" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D42" s="76"/>
+      <c r="AA42" s="76"/>
+    </row>
+    <row r="43" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D43" s="76"/>
+      <c r="AA43" s="76"/>
+    </row>
+    <row r="44" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D44" s="76"/>
+      <c r="AA44" s="76"/>
+    </row>
+    <row r="45" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D45" s="76"/>
+      <c r="AA45" s="76"/>
+    </row>
+    <row r="46" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D46" s="76"/>
+      <c r="AA46" s="76"/>
+    </row>
+    <row r="47" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D47" s="76"/>
+      <c r="AA47" s="76"/>
+    </row>
+    <row r="48" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D48" s="76"/>
+      <c r="AA48" s="76"/>
+    </row>
+    <row r="49" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D49" s="76"/>
+      <c r="AA49" s="76"/>
+    </row>
+    <row r="50" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D50" s="76"/>
+      <c r="AA50" s="76"/>
+    </row>
+    <row r="51" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D51" s="76"/>
+      <c r="AA51" s="76"/>
+    </row>
+    <row r="52" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D52" s="76"/>
+      <c r="AA52" s="76"/>
+    </row>
+    <row r="53" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D53" s="76"/>
+      <c r="AA53" s="76"/>
+    </row>
+    <row r="54" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D54" s="76"/>
+      <c r="AA54" s="76"/>
+    </row>
+    <row r="55" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D55" s="76"/>
+      <c r="AA55" s="76"/>
+    </row>
+    <row r="56" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D56" s="76"/>
+      <c r="AA56" s="76"/>
+    </row>
+    <row r="57" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D57" s="76"/>
+      <c r="AA57" s="76"/>
+    </row>
+    <row r="58" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D58" s="76"/>
+      <c r="AA58" s="76"/>
+    </row>
+    <row r="59" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D59" s="76"/>
+      <c r="AA59" s="76"/>
+    </row>
+    <row r="60" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D60" s="76"/>
+      <c r="AA60" s="76"/>
+    </row>
+    <row r="61" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D61" s="76"/>
+      <c r="AA61" s="76"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6016A-E977-49A7-BD75-FF02488C9D30}">
-  <dimension ref="C1:DP52"/>
+  <dimension ref="C1:DU52"/>
   <sheetViews>
-    <sheetView topLeftCell="BJ21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CH56" sqref="CH56"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CO50" sqref="CO50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="3:120" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:125" s="62" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C1" s="62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="3:120" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:125" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="3:120" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:125" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="3:120" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:125" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="3:120" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:125" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="3:120" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:125" x14ac:dyDescent="0.45">
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -6245,11 +7306,6 @@
       <c r="BZ15" s="11"/>
       <c r="CA15" s="11"/>
       <c r="CB15" s="11"/>
-      <c r="CI15" s="11"/>
-      <c r="CJ15" s="11"/>
-      <c r="CK15" s="11"/>
-      <c r="CL15" s="11"/>
-      <c r="CM15" s="11"/>
       <c r="CN15" s="11"/>
       <c r="CO15" s="11"/>
       <c r="CP15" s="11"/>
@@ -6272,14 +7328,19 @@
       <c r="DG15" s="11"/>
       <c r="DH15" s="11"/>
       <c r="DI15" s="11"/>
+      <c r="DJ15" s="11"/>
       <c r="DK15" s="11"/>
       <c r="DL15" s="11"/>
       <c r="DM15" s="11"/>
       <c r="DN15" s="11"/>
-      <c r="DO15" s="11"/>
       <c r="DP15" s="11"/>
-    </row>
-    <row r="16" spans="3:120" x14ac:dyDescent="0.45">
+      <c r="DQ15" s="11"/>
+      <c r="DR15" s="11"/>
+      <c r="DS15" s="11"/>
+      <c r="DT15" s="11"/>
+      <c r="DU15" s="11"/>
+    </row>
+    <row r="16" spans="3:125" x14ac:dyDescent="0.45">
       <c r="H16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AJ16" s="11"/>
@@ -6294,15 +7355,15 @@
         <v>7</v>
       </c>
       <c r="CB16" s="11"/>
-      <c r="CI16" s="11"/>
-      <c r="DI16" s="11"/>
-      <c r="DK16" s="11"/>
-      <c r="DM16" s="16" t="s">
+      <c r="CN16" s="11"/>
+      <c r="DN16" s="11"/>
+      <c r="DP16" s="11"/>
+      <c r="DR16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="DP16" s="11"/>
-    </row>
-    <row r="17" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="DU16" s="11"/>
+    </row>
+    <row r="17" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H17" s="11"/>
       <c r="AH17" s="11"/>
       <c r="AJ17" s="11"/>
@@ -6313,13 +7374,13 @@
       <c r="BW17" s="11"/>
       <c r="BY17" s="8"/>
       <c r="CB17" s="11"/>
-      <c r="CI17" s="11"/>
-      <c r="DI17" s="11"/>
-      <c r="DK17" s="11"/>
-      <c r="DM17" s="8"/>
+      <c r="CN17" s="11"/>
+      <c r="DN17" s="11"/>
       <c r="DP17" s="11"/>
-    </row>
-    <row r="18" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="DR17" s="8"/>
+      <c r="DU17" s="11"/>
+    </row>
+    <row r="18" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H18" s="11"/>
       <c r="AH18" s="11"/>
       <c r="AJ18" s="11"/>
@@ -6330,13 +7391,13 @@
       <c r="BW18" s="11"/>
       <c r="BY18" s="8"/>
       <c r="CB18" s="11"/>
-      <c r="CI18" s="11"/>
-      <c r="DI18" s="11"/>
-      <c r="DK18" s="11"/>
-      <c r="DM18" s="8"/>
+      <c r="CN18" s="11"/>
+      <c r="DN18" s="11"/>
       <c r="DP18" s="11"/>
-    </row>
-    <row r="19" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="DR18" s="8"/>
+      <c r="DU18" s="11"/>
+    </row>
+    <row r="19" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H19" s="11"/>
       <c r="AH19" s="11"/>
       <c r="AJ19" s="11"/>
@@ -6349,14 +7410,14 @@
       <c r="BY19" s="8"/>
       <c r="BZ19" s="8"/>
       <c r="CB19" s="11"/>
-      <c r="CI19" s="11"/>
-      <c r="DI19" s="11"/>
-      <c r="DK19" s="11"/>
-      <c r="DM19" s="8"/>
-      <c r="DN19" s="8"/>
+      <c r="CN19" s="11"/>
+      <c r="DN19" s="11"/>
       <c r="DP19" s="11"/>
-    </row>
-    <row r="20" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="DR19" s="8"/>
+      <c r="DS19" s="8"/>
+      <c r="DU19" s="11"/>
+    </row>
+    <row r="20" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H20" s="11"/>
       <c r="AH20" s="11"/>
       <c r="AJ20" s="11"/>
@@ -6365,12 +7426,12 @@
       <c r="BU20" s="11"/>
       <c r="BW20" s="11"/>
       <c r="CB20" s="11"/>
-      <c r="CI20" s="11"/>
-      <c r="DI20" s="11"/>
-      <c r="DK20" s="11"/>
+      <c r="CN20" s="11"/>
+      <c r="DN20" s="11"/>
       <c r="DP20" s="11"/>
-    </row>
-    <row r="21" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="DU20" s="11"/>
+    </row>
+    <row r="21" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H21" s="11"/>
       <c r="AH21" s="11"/>
       <c r="AJ21" s="11"/>
@@ -6387,94 +7448,97 @@
       <c r="BZ21" s="11"/>
       <c r="CA21" s="11"/>
       <c r="CB21" s="11"/>
-      <c r="CI21" s="11"/>
-      <c r="DI21" s="11"/>
-      <c r="DK21" s="11"/>
-      <c r="DL21" s="11"/>
-      <c r="DM21" s="11"/>
+      <c r="CN21" s="11"/>
       <c r="DN21" s="11"/>
-      <c r="DO21" s="11"/>
       <c r="DP21" s="11"/>
-    </row>
-    <row r="22" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="DQ21" s="11"/>
+      <c r="DR21" s="11"/>
+      <c r="DS21" s="11"/>
+      <c r="DT21" s="11"/>
+      <c r="DU21" s="11"/>
+    </row>
+    <row r="22" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H22" s="11"/>
       <c r="AH22" s="11"/>
       <c r="AU22" s="11"/>
       <c r="BU22" s="11"/>
-      <c r="CI22" s="11"/>
-      <c r="DI22" s="11"/>
-    </row>
-    <row r="23" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="CN22" s="11"/>
+      <c r="DN22" s="11"/>
+    </row>
+    <row r="23" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H23" s="11"/>
       <c r="AH23" s="11"/>
       <c r="AU23" s="11"/>
       <c r="BU23" s="11"/>
-      <c r="CI23" s="11"/>
-      <c r="DI23" s="11"/>
-    </row>
-    <row r="24" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="CN23" s="11"/>
+      <c r="DN23" s="11"/>
+    </row>
+    <row r="24" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H24" s="11"/>
       <c r="AH24" s="11"/>
       <c r="AJ24" s="16"/>
       <c r="AU24" s="11"/>
       <c r="BU24" s="11"/>
       <c r="BW24" s="16"/>
-      <c r="CI24" s="11"/>
-      <c r="DI24" s="11"/>
-      <c r="DK24" s="16"/>
-    </row>
-    <row r="25" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="CN24" s="11"/>
+      <c r="DN24" s="11"/>
+      <c r="DP24" s="16"/>
+    </row>
+    <row r="25" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H25" s="11"/>
       <c r="AH25" s="11"/>
       <c r="AU25" s="11"/>
       <c r="BU25" s="11"/>
-      <c r="CI25" s="11"/>
-      <c r="DI25" s="11"/>
-    </row>
-    <row r="26" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="CN25" s="11"/>
+      <c r="DN25" s="11"/>
+    </row>
+    <row r="26" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H26" s="11"/>
       <c r="AH26" s="11"/>
       <c r="AJ26" s="16"/>
       <c r="AU26" s="11"/>
       <c r="BU26" s="11"/>
       <c r="BW26" s="16"/>
-      <c r="CI26" s="11"/>
-      <c r="DI26" s="11"/>
-      <c r="DK26" s="16"/>
-    </row>
-    <row r="27" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="CN26" s="11"/>
+      <c r="DN26" s="11"/>
+      <c r="DP26" s="16"/>
+    </row>
+    <row r="27" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H27" s="11"/>
       <c r="AH27" s="11"/>
       <c r="AU27" s="11"/>
       <c r="BU27" s="11"/>
-      <c r="CI27" s="11"/>
-      <c r="DI27" s="11"/>
-    </row>
-    <row r="28" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="CN27" s="11"/>
+      <c r="DN27" s="11"/>
+    </row>
+    <row r="28" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H28" s="11"/>
       <c r="AH28" s="11"/>
       <c r="AU28" s="11"/>
       <c r="BU28" s="11"/>
-      <c r="CI28" s="11"/>
-      <c r="DI28" s="11"/>
-    </row>
-    <row r="29" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="CN28" s="11"/>
+      <c r="DN28" s="11"/>
+    </row>
+    <row r="29" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H29" s="11"/>
       <c r="AH29" s="11"/>
       <c r="AU29" s="11"/>
       <c r="BU29" s="11"/>
-      <c r="CI29" s="11"/>
-      <c r="DI29" s="11"/>
-    </row>
-    <row r="30" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="CN29" s="11"/>
+      <c r="DN29" s="11"/>
+    </row>
+    <row r="30" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H30" s="11"/>
       <c r="AH30" s="11"/>
       <c r="AU30" s="11"/>
       <c r="BU30" s="11"/>
-      <c r="CI30" s="11"/>
-      <c r="DI30" s="11"/>
-    </row>
-    <row r="31" spans="8:120" x14ac:dyDescent="0.45">
+      <c r="CF30" t="s">
+        <v>103</v>
+      </c>
+      <c r="CN30" s="11"/>
+      <c r="DN30" s="11"/>
+    </row>
+    <row r="31" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H31" s="11"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
@@ -6489,15 +7553,13 @@
       <c r="BW31" t="s">
         <v>26</v>
       </c>
-      <c r="CI31" s="11"/>
-      <c r="CT31" s="14"/>
-      <c r="CU31" s="14"/>
-      <c r="DI31" s="11"/>
-      <c r="DK31" t="s">
+      <c r="CN31" s="11"/>
+      <c r="DN31" s="11"/>
+      <c r="DP31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="8:120" x14ac:dyDescent="0.45">
+    <row r="32" spans="8:125" x14ac:dyDescent="0.45">
       <c r="H32" s="11"/>
       <c r="K32" s="15"/>
       <c r="S32" s="14"/>
@@ -6508,13 +7570,10 @@
       <c r="BF32" s="14"/>
       <c r="BG32" s="14"/>
       <c r="BU32" s="11"/>
-      <c r="CI32" s="11"/>
-      <c r="CL32" s="15"/>
-      <c r="CT32" s="14"/>
-      <c r="CU32" s="14"/>
-      <c r="DI32" s="11"/>
-    </row>
-    <row r="33" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="CN32" s="11"/>
+      <c r="DN32" s="11"/>
+    </row>
+    <row r="33" spans="4:118" x14ac:dyDescent="0.45">
       <c r="H33" s="11"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -6531,16 +7590,10 @@
       <c r="BF33" s="8"/>
       <c r="BG33" s="8"/>
       <c r="BU33" s="11"/>
-      <c r="CI33" s="11"/>
-      <c r="CJ33" s="15"/>
-      <c r="CK33" s="15"/>
-      <c r="CL33" s="15"/>
-      <c r="CS33" s="8"/>
-      <c r="CT33" s="8"/>
-      <c r="CU33" s="8"/>
-      <c r="DI33" s="11"/>
-    </row>
-    <row r="34" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="CN33" s="11"/>
+      <c r="DN33" s="11"/>
+    </row>
+    <row r="34" spans="4:118" x14ac:dyDescent="0.45">
       <c r="H34" s="11"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="8"/>
@@ -6553,14 +7606,10 @@
       <c r="BF34" s="13"/>
       <c r="BR34" s="42"/>
       <c r="BU34" s="11"/>
-      <c r="CI34" s="11"/>
-      <c r="CR34" s="12"/>
-      <c r="CS34" s="8"/>
-      <c r="CT34" s="13"/>
-      <c r="DF34" s="42"/>
-      <c r="DI34" s="11"/>
-    </row>
-    <row r="35" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="CN34" s="11"/>
+      <c r="DN34" s="11"/>
+    </row>
+    <row r="35" spans="4:118" x14ac:dyDescent="0.45">
       <c r="H35" s="11"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -6573,14 +7622,10 @@
       <c r="BE35" s="12"/>
       <c r="BF35" s="13"/>
       <c r="BU35" s="11"/>
-      <c r="CI35" s="11"/>
-      <c r="CQ35" s="12"/>
-      <c r="CR35" s="12"/>
-      <c r="CS35" s="12"/>
-      <c r="CT35" s="13"/>
-      <c r="DI35" s="11"/>
-    </row>
-    <row r="36" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="CN35" s="11"/>
+      <c r="DN35" s="11"/>
+    </row>
+    <row r="36" spans="4:118" x14ac:dyDescent="0.45">
       <c r="H36" s="11"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -6595,15 +7640,10 @@
       <c r="BE36" s="13"/>
       <c r="BF36" s="13"/>
       <c r="BU36" s="11"/>
-      <c r="CI36" s="11"/>
-      <c r="CP36" s="3"/>
-      <c r="CQ36" s="3"/>
-      <c r="CR36" s="12"/>
-      <c r="CS36" s="13"/>
-      <c r="CT36" s="13"/>
-      <c r="DI36" s="11"/>
-    </row>
-    <row r="37" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="CN36" s="11"/>
+      <c r="DN36" s="11"/>
+    </row>
+    <row r="37" spans="4:118" x14ac:dyDescent="0.45">
       <c r="H37" s="11"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
@@ -6628,20 +7668,10 @@
       <c r="BS37" s="3"/>
       <c r="BT37" s="3"/>
       <c r="BU37" s="11"/>
-      <c r="CI37" s="11"/>
-      <c r="CK37" s="18"/>
-      <c r="CL37" s="18"/>
-      <c r="CO37" s="12"/>
-      <c r="CP37" s="3"/>
-      <c r="CQ37" s="3"/>
-      <c r="CR37" s="12"/>
-      <c r="CS37" s="12"/>
-      <c r="CU37" s="8"/>
-      <c r="DG37" s="3"/>
-      <c r="DH37" s="3"/>
-      <c r="DI37" s="11"/>
-    </row>
-    <row r="38" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="CN37" s="11"/>
+      <c r="DN37" s="11"/>
+    </row>
+    <row r="38" spans="4:118" x14ac:dyDescent="0.45">
       <c r="H38" s="11"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -6668,52 +7698,62 @@
       <c r="BS38" s="3"/>
       <c r="BT38" s="3"/>
       <c r="BU38" s="11"/>
-      <c r="CI38" s="11"/>
-      <c r="CK38" s="18"/>
-      <c r="CL38" s="18"/>
-      <c r="CN38" s="12"/>
-      <c r="CO38" s="12"/>
-      <c r="CP38" s="12"/>
-      <c r="CR38" s="12"/>
-      <c r="CS38" s="8"/>
-      <c r="CT38" s="8"/>
-      <c r="CU38" s="8"/>
-      <c r="DG38" s="3"/>
-      <c r="DH38" s="3"/>
-      <c r="DI38" s="11"/>
-    </row>
-    <row r="39" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="CN38" s="11"/>
+      <c r="DN38" s="11"/>
+    </row>
+    <row r="39" spans="4:118" x14ac:dyDescent="0.45">
       <c r="H39" s="11"/>
       <c r="AH39" s="11"/>
       <c r="AU39" s="11"/>
       <c r="BU39" s="11"/>
-      <c r="CI39" s="11"/>
-      <c r="DI39" s="11"/>
-    </row>
-    <row r="41" spans="4:113" x14ac:dyDescent="0.45">
-      <c r="CK41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="4:113" x14ac:dyDescent="0.45">
+      <c r="CN39" s="11"/>
+      <c r="DN39" s="11"/>
+    </row>
+    <row r="40" spans="4:118" x14ac:dyDescent="0.45">
+      <c r="CN40" s="11"/>
+      <c r="CO40" s="11"/>
+      <c r="CP40" s="11"/>
+      <c r="CQ40" s="11"/>
+      <c r="CR40" s="11"/>
+      <c r="CS40" s="11"/>
+      <c r="CT40" s="11"/>
+      <c r="CU40" s="11"/>
+      <c r="CV40" s="11"/>
+      <c r="CW40" s="11"/>
+      <c r="CX40" s="11"/>
+      <c r="CY40" s="11"/>
+      <c r="CZ40" s="11"/>
+      <c r="DA40" s="11"/>
+      <c r="DB40" s="11"/>
+      <c r="DC40" s="11"/>
+      <c r="DD40" s="11"/>
+      <c r="DE40" s="11"/>
+      <c r="DF40" s="11"/>
+      <c r="DG40" s="11"/>
+      <c r="DH40" s="11"/>
+      <c r="DI40" s="11"/>
+      <c r="DJ40" s="11"/>
+      <c r="DK40" s="11"/>
+      <c r="DL40" s="11"/>
+      <c r="DM40" s="11"/>
+      <c r="DN40" s="11"/>
+    </row>
+    <row r="42" spans="4:118" x14ac:dyDescent="0.45">
       <c r="AX42" t="s">
         <v>90</v>
       </c>
-      <c r="CK42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="4:113" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="4:118" x14ac:dyDescent="0.45">
       <c r="AX43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="4:113" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:118" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="4:113" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:118" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
         <v>93</v>
       </c>
@@ -6739,10 +7779,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D00CCB-B6DB-4C83-A229-8E8205AB8F5C}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6860,32 +7900,54 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D19" s="46">
-        <v>45624</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D20" s="46">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="E20" t="s">
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D21" s="46">
+        <v>45623</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D23" s="46">
+        <v>45624</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Team3_2495\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A0CA48-BEF6-41E5-8C96-C4FE9D38FCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34E063B-EEFF-4A3A-9D57-B794EDD3700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -778,9 +778,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム画面仕様</t>
-  </si>
-  <si>
     <t>概要</t>
   </si>
   <si>
@@ -991,6 +988,94 @@
   </si>
   <si>
     <t>・ベストタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの長さは、５０ブッロク</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示画面の横は９ブロック</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景画像は全体で表示</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左端画面にはチェンジキーと現在モードが分かる画像表示</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左端画面の横長さ７ブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1338,7 +1423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1568,6 +1653,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3099,6 +3208,302 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>193964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>249381</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>193964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E409132F-7C3A-419E-AD6C-65F423383ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724399" y="2784764"/>
+          <a:ext cx="1898073" cy="11540836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>221673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>221673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD0DA87-5A44-4866-9C11-DE77D969698E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7495310" y="2576946"/>
+          <a:ext cx="2202872" cy="11540836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>235527</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E5A13E-9FD8-4698-ABDD-D67B392CB576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6885709" y="2826328"/>
+          <a:ext cx="3920836" cy="11568545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>55419</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091E599C-7E9D-4B07-AB96-FD18E08FAAC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4765964" y="10418618"/>
+          <a:ext cx="8548255" cy="13856"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>263237</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711D1C4E-65E8-4666-814D-3C7048AAF874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4710546" y="6386945"/>
+          <a:ext cx="8575964" cy="145474"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5185,8 +5590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
   <dimension ref="A1:CW92"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO90" sqref="AO90"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG41" sqref="AG41:AM41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5824,7 +6229,7 @@
     <row r="87" spans="4:101" s="8" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D87" s="68"/>
       <c r="E87" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F87" s="69"/>
       <c r="G87" s="69"/>
@@ -5926,20 +6331,20 @@
     <row r="90" spans="4:101" x14ac:dyDescent="0.45">
       <c r="F90" s="8"/>
       <c r="K90" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="4:101" x14ac:dyDescent="0.45">
       <c r="F91" s="8"/>
       <c r="M91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="4:101" x14ac:dyDescent="0.45">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="O92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5954,7 +6359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E47E61D-EA5E-443A-8270-F34DD08A8C64}">
   <dimension ref="D1:CM58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -6073,35 +6478,306 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
-  <dimension ref="C1:BC42"/>
+  <dimension ref="C1:CO42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BI11" sqref="BI11"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="3:55" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="3:55" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="3" t="s">
+    <row r="1" spans="3:93" s="62" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C1" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="77"/>
+      <c r="BN1" s="77"/>
+      <c r="BO1" s="77"/>
+      <c r="BP1" s="77"/>
+      <c r="BQ1" s="77"/>
+      <c r="BR1" s="77"/>
+      <c r="BS1" s="77"/>
+      <c r="BT1" s="77"/>
+      <c r="BU1" s="77"/>
+      <c r="BV1" s="77"/>
+      <c r="BW1" s="77"/>
+      <c r="BX1" s="77"/>
+      <c r="BY1" s="77"/>
+      <c r="BZ1" s="77"/>
+      <c r="CA1" s="77"/>
+      <c r="CB1" s="77"/>
+      <c r="CC1" s="77"/>
+      <c r="CD1" s="77"/>
+      <c r="CE1" s="77"/>
+      <c r="CF1" s="77"/>
+      <c r="CG1" s="77"/>
+      <c r="CH1" s="77"/>
+      <c r="CI1" s="77"/>
+      <c r="CJ1" s="77"/>
+      <c r="CK1" s="77"/>
+      <c r="CL1" s="77"/>
+      <c r="CM1" s="77"/>
+      <c r="CN1" s="77"/>
+      <c r="CO1" s="78"/>
+    </row>
+    <row r="2" spans="3:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="3:93" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="81"/>
+      <c r="BH3" s="81"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="81"/>
+      <c r="BK3" s="81"/>
+      <c r="BL3" s="81"/>
+      <c r="BM3" s="81"/>
+      <c r="BN3" s="81"/>
+      <c r="BO3" s="81"/>
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="81"/>
+      <c r="BS3" s="81"/>
+      <c r="BT3" s="81"/>
+      <c r="BU3" s="81"/>
+      <c r="BV3" s="81"/>
+      <c r="BW3" s="81"/>
+      <c r="BX3" s="81"/>
+      <c r="BY3" s="81"/>
+      <c r="BZ3" s="81"/>
+      <c r="CA3" s="81"/>
+      <c r="CB3" s="81"/>
+      <c r="CC3" s="81"/>
+      <c r="CD3" s="81"/>
+      <c r="CE3" s="81"/>
+      <c r="CF3" s="81"/>
+      <c r="CG3" s="81"/>
+      <c r="CH3" s="81"/>
+      <c r="CI3" s="81"/>
+      <c r="CJ3" s="81"/>
+      <c r="CK3" s="81"/>
+      <c r="CL3" s="81"/>
+      <c r="CM3" s="81"/>
+      <c r="CN3" s="81"/>
+      <c r="CO3" s="82"/>
+    </row>
+    <row r="5" spans="3:93" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="3:55" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
+    <row r="6" spans="3:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="7" spans="3:93" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="80" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="3:55" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="3:55" x14ac:dyDescent="0.45">
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="81"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="81"/>
+      <c r="AU7" s="81"/>
+      <c r="AV7" s="81"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="81"/>
+      <c r="AZ7" s="81"/>
+      <c r="BA7" s="81"/>
+      <c r="BB7" s="81"/>
+      <c r="BC7" s="81"/>
+      <c r="BD7" s="81"/>
+      <c r="BE7" s="81"/>
+      <c r="BF7" s="81"/>
+      <c r="BG7" s="81"/>
+      <c r="BH7" s="81"/>
+      <c r="BI7" s="81"/>
+      <c r="BJ7" s="81"/>
+      <c r="BK7" s="81"/>
+      <c r="BL7" s="81"/>
+      <c r="BM7" s="81"/>
+      <c r="BN7" s="81"/>
+      <c r="BO7" s="81"/>
+      <c r="BP7" s="81"/>
+      <c r="BQ7" s="81"/>
+      <c r="BR7" s="81"/>
+      <c r="BS7" s="81"/>
+      <c r="BT7" s="81"/>
+      <c r="BU7" s="81"/>
+      <c r="BV7" s="81"/>
+      <c r="BW7" s="81"/>
+      <c r="BX7" s="81"/>
+      <c r="BY7" s="81"/>
+      <c r="BZ7" s="81"/>
+      <c r="CA7" s="81"/>
+      <c r="CB7" s="81"/>
+      <c r="CC7" s="81"/>
+      <c r="CD7" s="81"/>
+      <c r="CE7" s="81"/>
+      <c r="CF7" s="81"/>
+      <c r="CG7" s="81"/>
+      <c r="CH7" s="81"/>
+      <c r="CI7" s="81"/>
+      <c r="CJ7" s="81"/>
+      <c r="CK7" s="81"/>
+      <c r="CL7" s="81"/>
+      <c r="CM7" s="81"/>
+      <c r="CN7" s="82"/>
+    </row>
+    <row r="10" spans="3:93" x14ac:dyDescent="0.45">
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -6140,7 +6816,7 @@
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" spans="3:55" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:93" x14ac:dyDescent="0.45">
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -6179,7 +6855,7 @@
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" spans="3:55" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:93" x14ac:dyDescent="0.45">
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="65"/>
@@ -6218,7 +6894,7 @@
       <c r="AQ12" s="65"/>
       <c r="AR12" s="11"/>
       <c r="AX12" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16"/>
@@ -6226,7 +6902,7 @@
       <c r="BB12" s="16"/>
       <c r="BC12" s="16"/>
     </row>
-    <row r="13" spans="3:55" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:93" x14ac:dyDescent="0.45">
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="65"/>
@@ -6242,10 +6918,10 @@
       <c r="AQ13" s="65"/>
       <c r="AR13" s="11"/>
       <c r="AX13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="3:55" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="3:93" x14ac:dyDescent="0.45">
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="65"/>
@@ -6259,10 +6935,10 @@
       <c r="AQ14" s="65"/>
       <c r="AR14" s="11"/>
       <c r="AX14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="3:55" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="3:93" x14ac:dyDescent="0.45">
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="65"/>
@@ -6276,10 +6952,10 @@
       <c r="AQ15" s="65"/>
       <c r="AR15" s="11"/>
       <c r="AX15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="3:55" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="3:93" x14ac:dyDescent="0.45">
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="65"/>
@@ -6293,7 +6969,7 @@
       <c r="AQ16" s="65"/>
       <c r="AR16" s="11"/>
       <c r="AX16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="8:50" x14ac:dyDescent="0.45">
@@ -6302,15 +6978,13 @@
       <c r="J17" s="65"/>
       <c r="AJ17" s="65"/>
       <c r="AK17" s="11"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="65"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
       <c r="AR17" s="11"/>
       <c r="AX17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="8:50" x14ac:dyDescent="0.45">
@@ -6327,7 +7001,7 @@
       <c r="AQ18" s="65"/>
       <c r="AR18" s="11"/>
       <c r="AX18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="8:50" x14ac:dyDescent="0.45">
@@ -6344,7 +7018,7 @@
       <c r="AQ19" s="11"/>
       <c r="AR19" s="11"/>
       <c r="AX19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="8:50" x14ac:dyDescent="0.45">
@@ -6696,7 +7370,7 @@
     </row>
     <row r="42" spans="4:44" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D42" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -6709,17 +7383,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
-  <dimension ref="C1:CC61"/>
+  <dimension ref="C1:CC62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF66" sqref="AF66"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BF24" sqref="BF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="3:81" s="67" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C1" s="73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="74"/>
       <c r="E1" s="74"/>
@@ -6885,7 +7559,7 @@
     </row>
     <row r="5" spans="3:81" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="3:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -6971,236 +7645,733 @@
       <c r="CB8" s="5"/>
       <c r="CC8" s="72"/>
     </row>
-    <row r="11" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-    </row>
     <row r="12" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="D12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
       <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
     </row>
     <row r="13" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="D13" s="76"/>
-      <c r="AA13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="AN13" s="76"/>
+      <c r="AW13" s="11"/>
+      <c r="BD13" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="D14" s="76"/>
-      <c r="AA14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="AN14" s="76"/>
+      <c r="AW14" s="11"/>
+      <c r="BD14" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="D15" s="76"/>
-      <c r="AA15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="AN15" s="76"/>
+      <c r="AW15" s="11"/>
+      <c r="BD15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="D16" s="76"/>
-      <c r="AA16" s="76"/>
-    </row>
-    <row r="17" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D17" s="76"/>
-      <c r="AA17" s="76"/>
-    </row>
-    <row r="18" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D18" s="76"/>
-      <c r="AA18" s="76"/>
-    </row>
-    <row r="19" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D19" s="76"/>
-      <c r="AA19" s="76"/>
-    </row>
-    <row r="20" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D20" s="76"/>
-      <c r="AA20" s="76"/>
-    </row>
-    <row r="21" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D21" s="76"/>
-      <c r="AA21" s="76"/>
-    </row>
-    <row r="22" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D22" s="76"/>
-      <c r="AA22" s="76"/>
-    </row>
-    <row r="23" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D23" s="76"/>
-      <c r="AA23" s="76"/>
-    </row>
-    <row r="24" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D24" s="76"/>
-      <c r="AA24" s="76"/>
-    </row>
-    <row r="25" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D25" s="76"/>
-      <c r="AA25" s="76"/>
-    </row>
-    <row r="26" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D26" s="76"/>
-      <c r="AA26" s="76"/>
-    </row>
-    <row r="27" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D27" s="76"/>
-      <c r="AA27" s="76"/>
-    </row>
-    <row r="28" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D28" s="76"/>
-      <c r="AA28" s="76"/>
-    </row>
-    <row r="29" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D29" s="76"/>
-      <c r="AA29" s="76"/>
-    </row>
-    <row r="30" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D30" s="76"/>
-      <c r="AA30" s="76"/>
-    </row>
-    <row r="31" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D31" s="76"/>
-      <c r="AA31" s="76"/>
-    </row>
-    <row r="32" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D32" s="76"/>
-      <c r="AA32" s="76"/>
-    </row>
-    <row r="33" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D33" s="76"/>
-      <c r="AA33" s="76"/>
-    </row>
-    <row r="34" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D34" s="76"/>
-      <c r="AA34" s="76"/>
-    </row>
-    <row r="35" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D35" s="76"/>
-      <c r="AA35" s="76"/>
-    </row>
-    <row r="36" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D36" s="76"/>
-      <c r="AA36" s="76"/>
-    </row>
-    <row r="37" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D37" s="76"/>
-      <c r="AA37" s="76"/>
-    </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D38" s="76"/>
-      <c r="AA38" s="76"/>
-    </row>
-    <row r="39" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D39" s="76"/>
-      <c r="AA39" s="76"/>
-    </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D40" s="76"/>
-      <c r="AA40" s="76"/>
-    </row>
-    <row r="41" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D41" s="76"/>
-      <c r="AA41" s="76"/>
-    </row>
-    <row r="42" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D42" s="76"/>
-      <c r="AA42" s="76"/>
-    </row>
-    <row r="43" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D43" s="76"/>
-      <c r="AA43" s="76"/>
-    </row>
-    <row r="44" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D44" s="76"/>
-      <c r="AA44" s="76"/>
-    </row>
-    <row r="45" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D45" s="76"/>
-      <c r="AA45" s="76"/>
-    </row>
-    <row r="46" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D46" s="76"/>
-      <c r="AA46" s="76"/>
-    </row>
-    <row r="47" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D47" s="76"/>
-      <c r="AA47" s="76"/>
-    </row>
-    <row r="48" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D48" s="76"/>
-      <c r="AA48" s="76"/>
-    </row>
-    <row r="49" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D49" s="76"/>
-      <c r="AA49" s="76"/>
-    </row>
-    <row r="50" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D50" s="76"/>
-      <c r="AA50" s="76"/>
-    </row>
-    <row r="51" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D51" s="76"/>
-      <c r="AA51" s="76"/>
-    </row>
-    <row r="52" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D52" s="76"/>
-      <c r="AA52" s="76"/>
-    </row>
-    <row r="53" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D53" s="76"/>
-      <c r="AA53" s="76"/>
-    </row>
-    <row r="54" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D54" s="76"/>
-      <c r="AA54" s="76"/>
-    </row>
-    <row r="55" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D55" s="76"/>
-      <c r="AA55" s="76"/>
-    </row>
-    <row r="56" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D56" s="76"/>
-      <c r="AA56" s="76"/>
-    </row>
-    <row r="57" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D57" s="76"/>
-      <c r="AA57" s="76"/>
-    </row>
-    <row r="58" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D58" s="76"/>
-      <c r="AA58" s="76"/>
-    </row>
-    <row r="59" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D59" s="76"/>
-      <c r="AA59" s="76"/>
-    </row>
-    <row r="60" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D60" s="76"/>
-      <c r="AA60" s="76"/>
-    </row>
-    <row r="61" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D61" s="76"/>
-      <c r="AA61" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="AN16" s="76"/>
+      <c r="AW16" s="11"/>
+      <c r="BD16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q17" s="76"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="AN17" s="76"/>
+      <c r="AW17" s="11"/>
+      <c r="BD17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q18" s="76"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="AN18" s="76"/>
+      <c r="AW18" s="11"/>
+    </row>
+    <row r="19" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q19" s="76"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="AN19" s="76"/>
+      <c r="AW19" s="11"/>
+    </row>
+    <row r="20" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q20" s="76"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="AN20" s="76"/>
+      <c r="AW20" s="11"/>
+    </row>
+    <row r="21" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q21" s="76"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="AN21" s="76"/>
+      <c r="AW21" s="11"/>
+    </row>
+    <row r="22" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q22" s="76"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="AN22" s="76"/>
+      <c r="AW22" s="11"/>
+    </row>
+    <row r="23" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q23" s="76"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="AN23" s="76"/>
+      <c r="AW23" s="11"/>
+    </row>
+    <row r="24" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q24" s="76"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="AN24" s="76"/>
+      <c r="AW24" s="11"/>
+    </row>
+    <row r="25" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q25" s="76"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="AN25" s="76"/>
+      <c r="AW25" s="11"/>
+    </row>
+    <row r="26" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q26" s="76"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="AN26" s="76"/>
+      <c r="AW26" s="11"/>
+    </row>
+    <row r="27" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q27" s="76"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="AN27" s="76"/>
+      <c r="AW27" s="11"/>
+    </row>
+    <row r="28" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q28" s="76"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="AN28" s="76"/>
+      <c r="AW28" s="11"/>
+    </row>
+    <row r="29" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q29" s="76"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="AN29" s="76"/>
+      <c r="AW29" s="11"/>
+    </row>
+    <row r="30" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q30" s="76"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="AN30" s="76"/>
+      <c r="AW30" s="11"/>
+    </row>
+    <row r="31" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q31" s="76"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="AN31" s="76"/>
+      <c r="AW31" s="11"/>
+    </row>
+    <row r="32" spans="17:56" x14ac:dyDescent="0.45">
+      <c r="Q32" s="76"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="AN32" s="76"/>
+      <c r="AW32" s="11"/>
+    </row>
+    <row r="33" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q33" s="76"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="AN33" s="76"/>
+      <c r="AW33" s="11"/>
+    </row>
+    <row r="34" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q34" s="76"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="AN34" s="76"/>
+      <c r="AW34" s="11"/>
+    </row>
+    <row r="35" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q35" s="76"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="AN35" s="76"/>
+      <c r="AW35" s="11"/>
+    </row>
+    <row r="36" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q36" s="76"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="AN36" s="76"/>
+      <c r="AW36" s="11"/>
+    </row>
+    <row r="37" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q37" s="76"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="AN37" s="76"/>
+      <c r="AW37" s="11"/>
+    </row>
+    <row r="38" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q38" s="76"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="AN38" s="76"/>
+      <c r="AW38" s="11"/>
+    </row>
+    <row r="39" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q39" s="76"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="AN39" s="76"/>
+      <c r="AW39" s="11"/>
+    </row>
+    <row r="40" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q40" s="76"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="AN40" s="76"/>
+      <c r="AW40" s="11"/>
+    </row>
+    <row r="41" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q41" s="76"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="AN41" s="76"/>
+      <c r="AW41" s="11"/>
+    </row>
+    <row r="42" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q42" s="76"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="AN42" s="76"/>
+      <c r="AW42" s="11"/>
+    </row>
+    <row r="43" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q43" s="76"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="AN43" s="76"/>
+      <c r="AW43" s="11"/>
+    </row>
+    <row r="44" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q44" s="76"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="AN44" s="76"/>
+      <c r="AW44" s="11"/>
+    </row>
+    <row r="45" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q45" s="76"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="AN45" s="76"/>
+      <c r="AW45" s="11"/>
+    </row>
+    <row r="46" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q46" s="76"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="AN46" s="76"/>
+      <c r="AW46" s="11"/>
+    </row>
+    <row r="47" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q47" s="76"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="AN47" s="76"/>
+      <c r="AW47" s="11"/>
+    </row>
+    <row r="48" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q48" s="76"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="AN48" s="76"/>
+      <c r="AW48" s="11"/>
+    </row>
+    <row r="49" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q49" s="76"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="AN49" s="76"/>
+      <c r="AW49" s="11"/>
+    </row>
+    <row r="50" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q50" s="76"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="AN50" s="76"/>
+      <c r="AW50" s="11"/>
+    </row>
+    <row r="51" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q51" s="76"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="AN51" s="76"/>
+      <c r="AW51" s="11"/>
+    </row>
+    <row r="52" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q52" s="76"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="AN52" s="76"/>
+      <c r="AW52" s="11"/>
+    </row>
+    <row r="53" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q53" s="76"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="AN53" s="76"/>
+      <c r="AW53" s="11"/>
+    </row>
+    <row r="54" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q54" s="76"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="AN54" s="76"/>
+      <c r="AW54" s="11"/>
+    </row>
+    <row r="55" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q55" s="76"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="AN55" s="76"/>
+      <c r="AW55" s="11"/>
+    </row>
+    <row r="56" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q56" s="76"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="AN56" s="76"/>
+      <c r="AW56" s="11"/>
+    </row>
+    <row r="57" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q57" s="76"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="AN57" s="76"/>
+      <c r="AW57" s="11"/>
+    </row>
+    <row r="58" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q58" s="76"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="AN58" s="76"/>
+      <c r="AW58" s="11"/>
+    </row>
+    <row r="59" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q59" s="76"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="AN59" s="76"/>
+      <c r="AW59" s="11"/>
+    </row>
+    <row r="60" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q60" s="76"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="AN60" s="76"/>
+      <c r="AW60" s="11"/>
+    </row>
+    <row r="61" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q61" s="76"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="AN61" s="76"/>
+      <c r="AW61" s="11"/>
+    </row>
+    <row r="62" spans="17:49" x14ac:dyDescent="0.45">
+      <c r="Q62" s="76"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="11"/>
+      <c r="AL62" s="11"/>
+      <c r="AM62" s="11"/>
+      <c r="AN62" s="76"/>
+      <c r="AO62" s="11"/>
+      <c r="AP62" s="11"/>
+      <c r="AQ62" s="11"/>
+      <c r="AR62" s="11"/>
+      <c r="AS62" s="11"/>
+      <c r="AT62" s="11"/>
+      <c r="AU62" s="11"/>
+      <c r="AV62" s="11"/>
+      <c r="AW62" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7216,27 +8387,27 @@
   <sheetData>
     <row r="1" spans="3:125" s="62" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C1" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="3:125" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="3:125" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="3:125" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="3:125" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="3:125" x14ac:dyDescent="0.45">
@@ -7533,7 +8704,7 @@
       <c r="AU30" s="11"/>
       <c r="BU30" s="11"/>
       <c r="CF30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="CN30" s="11"/>
       <c r="DN30" s="11"/>
@@ -7740,32 +8911,32 @@
     </row>
     <row r="42" spans="4:118" x14ac:dyDescent="0.45">
       <c r="AX42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="4:118" x14ac:dyDescent="0.45">
       <c r="AX43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="4:118" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="4:118" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -7908,7 +9079,7 @@
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
         <v>52</v>
@@ -7922,7 +9093,7 @@
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
         <v>52</v>
@@ -7936,18 +9107,18 @@
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Team3_2495\3班\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\yajusnpi810114514\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34E063B-EEFF-4A3A-9D57-B794EDD3700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44408535-99BD-4E5A-A33D-47CC82D86FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-96" yWindow="948" windowWidth="19392" windowHeight="12996" activeTab="2" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="4" r:id="rId2"/>
     <sheet name="メイン画面仕様" sheetId="5" r:id="rId3"/>
-    <sheet name="マップ仕様" sheetId="7" r:id="rId4"/>
-    <sheet name="ゴール仕様" sheetId="6" r:id="rId5"/>
-    <sheet name="更新履歴" sheetId="3" r:id="rId6"/>
+    <sheet name="ブロック仕様" sheetId="8" r:id="rId4"/>
+    <sheet name="マップ仕様" sheetId="7" r:id="rId5"/>
+    <sheet name="ゴール仕様" sheetId="6" r:id="rId6"/>
+    <sheet name="更新履歴" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -779,9 +780,6 @@
   </si>
   <si>
     <t>概要</t>
-  </si>
-  <si>
-    <t>タイトル画面の次に表示される画面</t>
   </si>
   <si>
     <t>詳細</t>
@@ -1076,6 +1074,187 @@
     <rPh sb="6" eb="7">
       <t>ナガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、メインゲームの画面仕様を記載します</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２４＊２４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ情報変更</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの仕様</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・以下の4種があります</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｌミノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・回転ボタンを入力したときに、右回りに９０度回転します</t>
+    <rPh sb="1" eb="3">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミギマワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの回転の軸は、図の中心を軸とする</t>
+    <rPh sb="5" eb="7">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの動きの仕様を記載</t>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック仕様</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の変更</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト変更</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メインゲームでブロックを配置していく場所です</t>
+    <rPh sb="13" eb="15">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブロックミノは、４つの小ブロックの組み合わせで作成します</t>
+    <rPh sb="12" eb="13">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブロックミノは、４つの小ブロックの組み合わせで出来ています</t>
+    <rPh sb="24" eb="26">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小ブロックが【横９、縦22】配置できる必要があります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1169,7 +1348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,12 +1417,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1251,6 +1424,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,7 +1620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,19 +1810,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
@@ -1643,16 +1831,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
@@ -1664,9 +1852,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1676,7 +1861,76 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2928,88 +3182,133 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>277905</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>215153</xdr:rowOff>
+      <xdr:rowOff>96982</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9563FFC-9C6A-468A-80EF-E40C5399EB30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9ABA434-820D-4386-8229-A2CD44BE0E98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix amt="70000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="7200"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="200000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-20000" contrast="20000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2761128" y="2805953"/>
-          <a:ext cx="6965577" cy="5334000"/>
+          <a:off x="2325584" y="2575955"/>
+          <a:ext cx="6388925" cy="5528954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E01107-C852-450B-93B9-661FEC368B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6945086" y="2906486"/>
+          <a:ext cx="1654629" cy="947057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800"/>
-            <a:t>背景</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>NEXT</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3017,23 +3316,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>174172</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F463E0-680C-4ABF-BFD2-9689A258A13E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53346C91-5D04-41B4-8823-E245F2E33EE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,8 +3340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8135302" y="7548562"/>
-          <a:ext cx="1384935" cy="385763"/>
+          <a:off x="6901543" y="5573484"/>
+          <a:ext cx="2122715" cy="696685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3071,36 +3370,16 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SCORE</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>HEIGHT</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>　</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>32</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ｍ</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>10/50</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3109,23 +3388,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0480D0-D3C8-422E-A2A1-5A74E1591469}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464C9DBA-79CF-43D8-84E3-48C19C4E2245}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,8 +3412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8159116" y="8253413"/>
-          <a:ext cx="1384935" cy="385762"/>
+          <a:off x="6901543" y="6172200"/>
+          <a:ext cx="1698171" cy="772886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3163,42 +3442,3805 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>SCORE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1" baseline="0"/>
+            <a:t> : 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>BEST SCORE: 50</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05503689-4344-49D5-A172-EC76588891F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="6868886"/>
+          <a:ext cx="1556657" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
             <a:t>TIME</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1" baseline="0"/>
+            <a:t> : 36.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>BEST TIME : 9999.00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9396949-6AB9-4530-B323-CDAD9B3879B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2329543" y="6966855"/>
+          <a:ext cx="2590800" cy="968829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+            <a:t>TETRE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>CHANGE</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>48</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" baseline="0"/>
+            <a:t> : [C] KEY</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>41562</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF30AB7-C6C3-4FEC-B115-DEB56323B6EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6816435" y="2590800"/>
+          <a:ext cx="219695" cy="5541818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2000B0A1-78E3-41BA-A7C1-A3D04FB0B5C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3995057" y="2579915"/>
+          <a:ext cx="261258" cy="5290457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59284356-BA1D-4306-8488-50F6255298CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="3940630"/>
+          <a:ext cx="489857" cy="206827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25730</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>24742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36615</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4483B558-9BDA-4274-AEE5-A8DB87CB2B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6246421" y="5912924"/>
+          <a:ext cx="565067" cy="257297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B0166A-B37D-4C59-8E83-956D1DCDF571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5083629" y="7391399"/>
+          <a:ext cx="533399" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A298F095-0C1D-4C1A-9A5E-EC4DB25C9558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4844143" y="7162798"/>
+          <a:ext cx="794657" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="863EC2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>32660</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>54431</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77910DBA-A0AD-4AA3-B3EA-139938CE2CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5072746" y="6945087"/>
+          <a:ext cx="293914" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="863EC2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>206827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228602</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21F2815-8AC7-4DA9-9949-8DA5BEA608A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4234543" y="7576456"/>
+          <a:ext cx="489859" cy="239487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>165858</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0663E01D-4946-4DD9-BFA9-A07E1B9DE581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4985658" y="6498771"/>
+          <a:ext cx="492429" cy="489857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>11874</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95992</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6388925" cy="5570517"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB5DC2B-3D64-4A94-9F5C-E027AD31976A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix amt="70000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="7200"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="200000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-20000" contrast="20000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10943110" y="2451265"/>
+          <a:ext cx="6388925" cy="5570517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5590198-F106-491B-A066-2D9523C0EA43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6945086" y="2906486"/>
+          <a:ext cx="1654629" cy="947057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>NEXT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>174172</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39ABB124-0462-4241-96AB-8F516F9CFA99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6901543" y="5573484"/>
+          <a:ext cx="2122715" cy="696685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>HEIGHT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>40/50</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEE8985-E9E5-459F-BF34-124A2D9DD7B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6901543" y="6172200"/>
+          <a:ext cx="1698171" cy="772886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>SCORE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1" baseline="0"/>
+            <a:t> : 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>BEST SCORE: 50</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F023A2-F241-4C6A-BF07-C3ACB0462D6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="6868886"/>
+          <a:ext cx="1556657" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1" baseline="0"/>
+            <a:t> : 36.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>BEST TIME : 9999.00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52801CBC-A679-4490-A472-73A40095F368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2329543" y="6966855"/>
+          <a:ext cx="2590800" cy="968829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+            <a:t>TETRE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>CHANGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" baseline="0"/>
+            <a:t> : [C] KEY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BA0343-6F00-44F8-9EED-D680238EA397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672943" y="2569029"/>
+          <a:ext cx="261258" cy="5290457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E2A2F4-3BD9-46A8-87EC-44700B296398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3995057" y="2579915"/>
+          <a:ext cx="261258" cy="5290457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDA2F7B-5FCB-4F4C-B707-A9B1C4A689A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12703629" y="3940630"/>
+          <a:ext cx="489857" cy="250370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7597BDB-60B7-4998-9C34-2B0E35F52A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14532429" y="5780316"/>
+          <a:ext cx="576942" cy="228598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C606B7-B4F9-4011-8843-BB552ABA8145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5083629" y="7391399"/>
+          <a:ext cx="533399" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BB21A9-EE44-4586-BDB8-F64DE2A6C77A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4844143" y="7162798"/>
+          <a:ext cx="794657" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="863EC2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>32660</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>54431</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D659C01-999F-4E61-A8C4-15BF246118D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5072746" y="6945087"/>
+          <a:ext cx="293914" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="863EC2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>10889</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6133CF76-6740-45D0-A40A-C577DC56D91D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12692744" y="7598229"/>
+          <a:ext cx="522516" cy="239487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492429" cy="489857"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA039A04-105C-4414-B4BE-BB1AC757C071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4985658" y="6498771"/>
+          <a:ext cx="492429" cy="489857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D2EA36-66A7-4812-84EA-3E5CCE8D7DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10831286" y="2601685"/>
+          <a:ext cx="6150428" cy="5181601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>87084</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6313E916-759A-48CB-852C-9DB5E06521C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15544798" y="2873830"/>
+          <a:ext cx="1284515" cy="1632856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>21769</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>185056</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571BEF0F-C031-48FC-BFF1-09DBAAC959EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15403283" y="5617028"/>
+          <a:ext cx="1524002" cy="391887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606FBA49-17A1-4388-908F-732FBDA5A47D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15381513" y="6204858"/>
+          <a:ext cx="1295401" cy="293913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840DE0BE-2A54-4B99-9531-AE82651B53C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15370628" y="6923315"/>
+          <a:ext cx="1317172" cy="239485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>21770</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEBE2BA-6249-4EAD-9EF5-2DF9B1290F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10776856" y="7043057"/>
+          <a:ext cx="1600201" cy="631374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>261256</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE374A34-E602-4587-91C8-B72CA93290EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15370627" y="6487887"/>
+          <a:ext cx="1295401" cy="293913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9224167B-C9E7-4F90-8AEF-AE341CDF7BAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15392399" y="7162801"/>
+          <a:ext cx="1295401" cy="293913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>185058</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA2C057-0535-4C24-9893-7B30BF5806D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15838715" y="3516086"/>
+          <a:ext cx="250371" cy="707572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6179208-DFF2-409E-9A5A-820F2D712212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15849600" y="3995057"/>
+          <a:ext cx="576942" cy="228598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>87084</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>96982</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>210293</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9CB764-53E3-41BD-84B0-24577FDD4037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="3"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17114320" y="3230088"/>
+          <a:ext cx="841171" cy="513114"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>96982</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>198911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>151411</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E539CD-242B-443C-8105-A181CAB48121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17955491" y="2789711"/>
+          <a:ext cx="2271156" cy="880754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ｓ</a:t>
+            <a:t>次に落ちてくる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ブロックの表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>263237</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E05996E-1365-4C93-A7CA-1DDDD2F4267C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18121746" y="4812475"/>
+          <a:ext cx="1330037" cy="369125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>高さの表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>249381</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFFE2D1-27AF-43B3-9A3E-DC11F5EBA96C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18149454" y="5352802"/>
+          <a:ext cx="1343891" cy="424543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スコア表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>55419</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>263236</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>179119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C368CAB9-1B0E-44EA-B9A2-8150CB893E91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324110" y="8954983"/>
+          <a:ext cx="4087090" cy="880754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ブロック操作とプレイヤー操作の切り替えキーの表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD3F110-998A-4729-910C-8BC70D84FBD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+          <a:endCxn id="80" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16956973" y="5565074"/>
+          <a:ext cx="1192481" cy="919348"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>185056</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>263237</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F114BEF-02D1-4FAD-8847-701FC84F48AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17212292" y="4997038"/>
+          <a:ext cx="909454" cy="934687"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>183078</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F321F73-1EB0-4C17-BE32-213F4EF88F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="109" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16946087" y="6158345"/>
+          <a:ext cx="1203368" cy="619497"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>263237</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134092</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D86B7B-773F-488E-A10A-371F157CA86F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+          <a:endCxn id="118" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16967859" y="6802583"/>
+          <a:ext cx="1153887" cy="397327"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>221672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638C273F-34CF-4C9E-8B80-9D76E7DCD1F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18149455" y="5971308"/>
+          <a:ext cx="1939636" cy="374073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>べストスコア表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>263237</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>221675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>235528</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>193964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638C9347-91AA-47BF-8059-041DC0464E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18121746" y="6580911"/>
+          <a:ext cx="1911927" cy="443344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゲームタイム表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>172193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAE150E-58C2-47BC-B9E2-3268055E4395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="125" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16967859" y="7473538"/>
+          <a:ext cx="1181595" cy="7916"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>193964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>263236</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166253</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="正方形/長方形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8464C89-588F-4DEB-BB0C-C3D974D641C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18149454" y="7259782"/>
+          <a:ext cx="1911927" cy="443344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ベストタイム表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>159328</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>2968</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4947</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線コネクタ 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04F51B0-88EB-473F-8097-0072F3B3EDED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="81" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11367655" y="7848602"/>
+          <a:ext cx="397822" cy="1106381"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>158337</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直線コネクタ 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBBF78D-5FED-4BA7-A1BD-888A4E89186B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="145" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14137573" y="8021782"/>
+          <a:ext cx="2889663" cy="1316183"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>124690</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="正方形/長方形 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780B8632-8EB8-43FB-A8E6-DEFE9EFEF4E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16071272" y="9337965"/>
+          <a:ext cx="1911927" cy="443344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゲーム画面背景</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219693</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>151409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>197922</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="正方形/長方形 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B746902C-4940-410C-86B3-918ABFFF8125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7548748" y="3684318"/>
+          <a:ext cx="255319" cy="728354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>275111</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>30677</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="正方形/長方形 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F02BBB-9551-4D2D-A9F9-25C8A15F58C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7604166" y="4169227"/>
+          <a:ext cx="586838" cy="235525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259978</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="正方形/長方形 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8DB908-23A1-486C-8238-9E7308A513AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5100919" y="2967318"/>
+          <a:ext cx="851646" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>16703</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>215156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="正方形/長方形 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5EC77E-045C-4EF5-9E9C-E477403490B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5577472" y="3126034"/>
+          <a:ext cx="488982" cy="261202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3208,6 +7250,1859 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09B3119-33C4-444D-8F3D-0259ACA43D44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2377440" y="4792980"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEBE752-C872-45C1-BBF5-2F2FA11D9D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3741420" y="4800600"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D24F30A-9C00-4F6F-A7F3-D1104534BCE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5113020" y="4800600"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DEA3E1-A46C-4C0E-9B80-A201CAC416D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1684020" y="5280660"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE431C86-F9AD-427A-AC66-23E110A60C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3040380" y="5257800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F1E4B6-9865-445B-BFD0-9B9B18B0F1B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427220" y="5257800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A3C9EF-DF68-45E6-AF42-3D419DAAB85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="5257800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281343D8-5B91-4BB9-94BE-13CC98770B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1684020" y="6400800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F3E987-E41A-4B62-B433-ED37F3F9CD14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3055620" y="6400800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D603C1-2E4F-4327-83E4-FC4F4DC64E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427220" y="6400800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7289C74E-287C-4D9B-851B-E7BAEA5855C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="6400800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E375537D-67CC-4098-AAC2-D3F5813DDE01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1706880" y="7543800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A1DB01-8859-45B7-88D3-CEDEB5D1F34C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3055620" y="7543800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631FE172-F0FC-4298-992F-FD8575C8BEC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427220" y="7543800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D35D24-AB8D-4779-A3C3-E99599148DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="7543800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88F6D76-5423-47D5-A083-8829F271DB77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1684020" y="8686800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矢印: 右 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB902FE-1958-4AAD-8E77-9092ECAE44B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2369820" y="6400800"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矢印: 右 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76AB7E4-A316-440C-B20E-2CCD2617A257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3741420" y="6400800"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矢印: 右 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B18245F0-CD99-4377-9804-E0F121B904FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5113020" y="6400800"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矢印: 右 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95DD9D1-39D5-49CF-833C-F60BDD2ADF35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2369820" y="7543800"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矢印: 右 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AD9DCB-622C-4ED0-AB89-59BFA8338B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3741420" y="7543800"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矢印: 右 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A22493C-803E-41F2-94DC-AA6FE8716FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5113020" y="7543800"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矢印: 右 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF59564A-BB07-4580-B610-C4D8375F0090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2369820" y="8686800"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矢印: 右 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01E047D-66D3-4B40-B1DF-69D75F685FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3741420" y="8686800"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矢印: 右 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BBD13F-67B7-4365-9EB2-EB10B9F3922B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5113020" y="8686800"/>
+          <a:ext cx="228600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F62364E-9934-44E6-BFC9-AAA1E2A60CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3055620" y="8686800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABF0833-EFC1-404F-9961-AEBDDE1D52CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427220" y="8686800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="楕円 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54537A21-F751-4836-92F7-F672028B5EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="8686800"/>
+          <a:ext cx="236220" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3503,7 +9398,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5590,8 +11485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
   <dimension ref="A1:CW92"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG41" sqref="AG41:AM41"/>
+    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6227,124 +12122,124 @@
     </row>
     <row r="86" spans="4:101" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="87" spans="4:101" s="8" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D87" s="68"/>
-      <c r="E87" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="69"/>
-      <c r="O87" s="69"/>
-      <c r="P87" s="69"/>
-      <c r="Q87" s="69"/>
-      <c r="R87" s="69"/>
-      <c r="S87" s="69"/>
-      <c r="T87" s="69"/>
-      <c r="U87" s="69"/>
-      <c r="V87" s="69"/>
-      <c r="W87" s="69"/>
-      <c r="X87" s="69"/>
-      <c r="Y87" s="69"/>
-      <c r="Z87" s="69"/>
-      <c r="AA87" s="69"/>
-      <c r="AB87" s="69"/>
-      <c r="AC87" s="69"/>
-      <c r="AD87" s="69"/>
-      <c r="AE87" s="69"/>
-      <c r="AF87" s="69"/>
-      <c r="AG87" s="69"/>
-      <c r="AH87" s="69"/>
-      <c r="AI87" s="69"/>
-      <c r="AJ87" s="69"/>
-      <c r="AK87" s="69"/>
-      <c r="AL87" s="69"/>
-      <c r="AM87" s="69"/>
-      <c r="AN87" s="69"/>
-      <c r="AO87" s="69"/>
-      <c r="AP87" s="69"/>
-      <c r="AQ87" s="69"/>
-      <c r="AR87" s="69"/>
-      <c r="AS87" s="69"/>
-      <c r="AT87" s="69"/>
-      <c r="AU87" s="69"/>
-      <c r="AV87" s="69"/>
-      <c r="AW87" s="69"/>
-      <c r="AX87" s="69"/>
-      <c r="AY87" s="69"/>
-      <c r="AZ87" s="69"/>
-      <c r="BA87" s="69"/>
-      <c r="BB87" s="69"/>
-      <c r="BC87" s="69"/>
-      <c r="BD87" s="69"/>
-      <c r="BE87" s="69"/>
-      <c r="BF87" s="69"/>
-      <c r="BG87" s="69"/>
-      <c r="BH87" s="69"/>
-      <c r="BI87" s="69"/>
-      <c r="BJ87" s="69"/>
-      <c r="BK87" s="69"/>
-      <c r="BL87" s="69"/>
-      <c r="BM87" s="69"/>
-      <c r="BN87" s="69"/>
-      <c r="BO87" s="69"/>
-      <c r="BP87" s="69"/>
-      <c r="BQ87" s="69"/>
-      <c r="BR87" s="69"/>
-      <c r="BS87" s="69"/>
-      <c r="BT87" s="69"/>
-      <c r="BU87" s="69"/>
-      <c r="BV87" s="69"/>
-      <c r="BW87" s="69"/>
-      <c r="BX87" s="69"/>
-      <c r="BY87" s="69"/>
-      <c r="BZ87" s="69"/>
-      <c r="CA87" s="69"/>
-      <c r="CB87" s="69"/>
-      <c r="CC87" s="69"/>
-      <c r="CD87" s="69"/>
-      <c r="CE87" s="69"/>
-      <c r="CF87" s="69"/>
-      <c r="CG87" s="69"/>
-      <c r="CH87" s="69"/>
-      <c r="CI87" s="69"/>
-      <c r="CJ87" s="69"/>
-      <c r="CK87" s="69"/>
-      <c r="CL87" s="69"/>
-      <c r="CM87" s="69"/>
-      <c r="CN87" s="69"/>
-      <c r="CO87" s="69"/>
-      <c r="CP87" s="69"/>
-      <c r="CQ87" s="69"/>
-      <c r="CR87" s="69"/>
-      <c r="CS87" s="69"/>
-      <c r="CT87" s="69"/>
-      <c r="CU87" s="69"/>
-      <c r="CV87" s="69"/>
-      <c r="CW87" s="70"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
+      <c r="M87" s="66"/>
+      <c r="N87" s="66"/>
+      <c r="O87" s="66"/>
+      <c r="P87" s="66"/>
+      <c r="Q87" s="66"/>
+      <c r="R87" s="66"/>
+      <c r="S87" s="66"/>
+      <c r="T87" s="66"/>
+      <c r="U87" s="66"/>
+      <c r="V87" s="66"/>
+      <c r="W87" s="66"/>
+      <c r="X87" s="66"/>
+      <c r="Y87" s="66"/>
+      <c r="Z87" s="66"/>
+      <c r="AA87" s="66"/>
+      <c r="AB87" s="66"/>
+      <c r="AC87" s="66"/>
+      <c r="AD87" s="66"/>
+      <c r="AE87" s="66"/>
+      <c r="AF87" s="66"/>
+      <c r="AG87" s="66"/>
+      <c r="AH87" s="66"/>
+      <c r="AI87" s="66"/>
+      <c r="AJ87" s="66"/>
+      <c r="AK87" s="66"/>
+      <c r="AL87" s="66"/>
+      <c r="AM87" s="66"/>
+      <c r="AN87" s="66"/>
+      <c r="AO87" s="66"/>
+      <c r="AP87" s="66"/>
+      <c r="AQ87" s="66"/>
+      <c r="AR87" s="66"/>
+      <c r="AS87" s="66"/>
+      <c r="AT87" s="66"/>
+      <c r="AU87" s="66"/>
+      <c r="AV87" s="66"/>
+      <c r="AW87" s="66"/>
+      <c r="AX87" s="66"/>
+      <c r="AY87" s="66"/>
+      <c r="AZ87" s="66"/>
+      <c r="BA87" s="66"/>
+      <c r="BB87" s="66"/>
+      <c r="BC87" s="66"/>
+      <c r="BD87" s="66"/>
+      <c r="BE87" s="66"/>
+      <c r="BF87" s="66"/>
+      <c r="BG87" s="66"/>
+      <c r="BH87" s="66"/>
+      <c r="BI87" s="66"/>
+      <c r="BJ87" s="66"/>
+      <c r="BK87" s="66"/>
+      <c r="BL87" s="66"/>
+      <c r="BM87" s="66"/>
+      <c r="BN87" s="66"/>
+      <c r="BO87" s="66"/>
+      <c r="BP87" s="66"/>
+      <c r="BQ87" s="66"/>
+      <c r="BR87" s="66"/>
+      <c r="BS87" s="66"/>
+      <c r="BT87" s="66"/>
+      <c r="BU87" s="66"/>
+      <c r="BV87" s="66"/>
+      <c r="BW87" s="66"/>
+      <c r="BX87" s="66"/>
+      <c r="BY87" s="66"/>
+      <c r="BZ87" s="66"/>
+      <c r="CA87" s="66"/>
+      <c r="CB87" s="66"/>
+      <c r="CC87" s="66"/>
+      <c r="CD87" s="66"/>
+      <c r="CE87" s="66"/>
+      <c r="CF87" s="66"/>
+      <c r="CG87" s="66"/>
+      <c r="CH87" s="66"/>
+      <c r="CI87" s="66"/>
+      <c r="CJ87" s="66"/>
+      <c r="CK87" s="66"/>
+      <c r="CL87" s="66"/>
+      <c r="CM87" s="66"/>
+      <c r="CN87" s="66"/>
+      <c r="CO87" s="66"/>
+      <c r="CP87" s="66"/>
+      <c r="CQ87" s="66"/>
+      <c r="CR87" s="66"/>
+      <c r="CS87" s="66"/>
+      <c r="CT87" s="66"/>
+      <c r="CU87" s="66"/>
+      <c r="CV87" s="66"/>
+      <c r="CW87" s="67"/>
     </row>
     <row r="90" spans="4:101" x14ac:dyDescent="0.45">
       <c r="F90" s="8"/>
       <c r="K90" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="4:101" x14ac:dyDescent="0.45">
       <c r="F91" s="8"/>
       <c r="M91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="4:101" x14ac:dyDescent="0.45">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="O92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6359,7 +12254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E47E61D-EA5E-443A-8270-F34DD08A8C64}">
   <dimension ref="D1:CM58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -6478,922 +12373,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
-  <dimension ref="C1:CO42"/>
+  <dimension ref="A1:CO55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL28" sqref="AL28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:93" s="62" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="77"/>
-      <c r="BN1" s="77"/>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="77"/>
-      <c r="BR1" s="77"/>
-      <c r="BS1" s="77"/>
-      <c r="BT1" s="77"/>
-      <c r="BU1" s="77"/>
-      <c r="BV1" s="77"/>
-      <c r="BW1" s="77"/>
-      <c r="BX1" s="77"/>
-      <c r="BY1" s="77"/>
-      <c r="BZ1" s="77"/>
-      <c r="CA1" s="77"/>
-      <c r="CB1" s="77"/>
-      <c r="CC1" s="77"/>
-      <c r="CD1" s="77"/>
-      <c r="CE1" s="77"/>
-      <c r="CF1" s="77"/>
-      <c r="CG1" s="77"/>
-      <c r="CH1" s="77"/>
-      <c r="CI1" s="77"/>
-      <c r="CJ1" s="77"/>
-      <c r="CK1" s="77"/>
-      <c r="CL1" s="77"/>
-      <c r="CM1" s="77"/>
-      <c r="CN1" s="77"/>
-      <c r="CO1" s="78"/>
-    </row>
-    <row r="2" spans="3:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="3:93" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="81"/>
-      <c r="BC3" s="81"/>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="81"/>
-      <c r="BI3" s="81"/>
-      <c r="BJ3" s="81"/>
-      <c r="BK3" s="81"/>
-      <c r="BL3" s="81"/>
-      <c r="BM3" s="81"/>
-      <c r="BN3" s="81"/>
-      <c r="BO3" s="81"/>
-      <c r="BP3" s="81"/>
-      <c r="BQ3" s="81"/>
-      <c r="BR3" s="81"/>
-      <c r="BS3" s="81"/>
-      <c r="BT3" s="81"/>
-      <c r="BU3" s="81"/>
-      <c r="BV3" s="81"/>
-      <c r="BW3" s="81"/>
-      <c r="BX3" s="81"/>
-      <c r="BY3" s="81"/>
-      <c r="BZ3" s="81"/>
-      <c r="CA3" s="81"/>
-      <c r="CB3" s="81"/>
-      <c r="CC3" s="81"/>
-      <c r="CD3" s="81"/>
-      <c r="CE3" s="81"/>
-      <c r="CF3" s="81"/>
-      <c r="CG3" s="81"/>
-      <c r="CH3" s="81"/>
-      <c r="CI3" s="81"/>
-      <c r="CJ3" s="81"/>
-      <c r="CK3" s="81"/>
-      <c r="CL3" s="81"/>
-      <c r="CM3" s="81"/>
-      <c r="CN3" s="81"/>
-      <c r="CO3" s="82"/>
-    </row>
-    <row r="5" spans="3:93" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="3:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="3:93" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="81"/>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="81"/>
-      <c r="AM7" s="81"/>
-      <c r="AN7" s="81"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="81"/>
-      <c r="AQ7" s="81"/>
-      <c r="AR7" s="81"/>
-      <c r="AS7" s="81"/>
-      <c r="AT7" s="81"/>
-      <c r="AU7" s="81"/>
-      <c r="AV7" s="81"/>
-      <c r="AW7" s="81"/>
-      <c r="AX7" s="81"/>
-      <c r="AY7" s="81"/>
-      <c r="AZ7" s="81"/>
-      <c r="BA7" s="81"/>
-      <c r="BB7" s="81"/>
-      <c r="BC7" s="81"/>
-      <c r="BD7" s="81"/>
-      <c r="BE7" s="81"/>
-      <c r="BF7" s="81"/>
-      <c r="BG7" s="81"/>
-      <c r="BH7" s="81"/>
-      <c r="BI7" s="81"/>
-      <c r="BJ7" s="81"/>
-      <c r="BK7" s="81"/>
-      <c r="BL7" s="81"/>
-      <c r="BM7" s="81"/>
-      <c r="BN7" s="81"/>
-      <c r="BO7" s="81"/>
-      <c r="BP7" s="81"/>
-      <c r="BQ7" s="81"/>
-      <c r="BR7" s="81"/>
-      <c r="BS7" s="81"/>
-      <c r="BT7" s="81"/>
-      <c r="BU7" s="81"/>
-      <c r="BV7" s="81"/>
-      <c r="BW7" s="81"/>
-      <c r="BX7" s="81"/>
-      <c r="BY7" s="81"/>
-      <c r="BZ7" s="81"/>
-      <c r="CA7" s="81"/>
-      <c r="CB7" s="81"/>
-      <c r="CC7" s="81"/>
-      <c r="CD7" s="81"/>
-      <c r="CE7" s="81"/>
-      <c r="CF7" s="81"/>
-      <c r="CG7" s="81"/>
-      <c r="CH7" s="81"/>
-      <c r="CI7" s="81"/>
-      <c r="CJ7" s="81"/>
-      <c r="CK7" s="81"/>
-      <c r="CL7" s="81"/>
-      <c r="CM7" s="81"/>
-      <c r="CN7" s="82"/>
-    </row>
-    <row r="10" spans="3:93" x14ac:dyDescent="0.45">
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-    </row>
-    <row r="11" spans="3:93" x14ac:dyDescent="0.45">
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-    </row>
-    <row r="12" spans="3:93" x14ac:dyDescent="0.45">
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="11"/>
-      <c r="AX12" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY12" s="16"/>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="16"/>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="16"/>
-    </row>
-    <row r="13" spans="3:93" x14ac:dyDescent="0.45">
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="11"/>
-      <c r="AX13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="3:93" x14ac:dyDescent="0.45">
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="11"/>
-      <c r="AX14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="3:93" x14ac:dyDescent="0.45">
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="11"/>
-      <c r="AX15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="3:93" x14ac:dyDescent="0.45">
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="11"/>
-      <c r="AX16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="11"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AR17" s="11"/>
-      <c r="AX17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="11"/>
-      <c r="AX18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AX19" t="s">
+    <row r="1" spans="1:93" s="62" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="76" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-    </row>
-    <row r="21" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="63"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-    </row>
-    <row r="22" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="65"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-    </row>
-    <row r="23" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="63"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-    </row>
-    <row r="24" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-    </row>
-    <row r="25" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="65"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
-    </row>
-    <row r="26" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="65"/>
-      <c r="AJ26" s="65"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="11"/>
-    </row>
-    <row r="27" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="11"/>
-    </row>
-    <row r="28" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM28" s="11"/>
-      <c r="AN28" s="11"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="11"/>
-      <c r="AR28" s="11"/>
-    </row>
-    <row r="29" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="65"/>
-      <c r="AJ29" s="65"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="11"/>
-      <c r="AR29" s="11"/>
-    </row>
-    <row r="30" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="11"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="11"/>
-      <c r="AR30" s="11"/>
-    </row>
-    <row r="31" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="65"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="11"/>
-      <c r="AL31" s="11"/>
-      <c r="AM31" s="11"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
-      <c r="AQ31" s="11"/>
-      <c r="AR31" s="11"/>
-    </row>
-    <row r="32" spans="8:50" x14ac:dyDescent="0.45">
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="65"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="AJ32" s="65"/>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="11"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
-      <c r="AR32" s="11"/>
-    </row>
-    <row r="33" spans="4:44" x14ac:dyDescent="0.45">
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="65"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="11"/>
-      <c r="AL33" s="11"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="11"/>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="11"/>
-      <c r="AQ33" s="11"/>
-      <c r="AR33" s="11"/>
-    </row>
-    <row r="34" spans="4:44" x14ac:dyDescent="0.45">
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="65"/>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
-      <c r="AR34" s="11"/>
-    </row>
-    <row r="35" spans="4:44" x14ac:dyDescent="0.45">
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="65"/>
-      <c r="AJ35" s="65"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="11"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="11"/>
-      <c r="AO35" s="11"/>
-      <c r="AP35" s="11"/>
-      <c r="AQ35" s="11"/>
-      <c r="AR35" s="11"/>
-    </row>
-    <row r="36" spans="4:44" x14ac:dyDescent="0.45">
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="65"/>
-      <c r="AI36" s="65"/>
-      <c r="AJ36" s="65"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="11"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="11"/>
-      <c r="AQ36" s="11"/>
-      <c r="AR36" s="11"/>
-    </row>
-    <row r="37" spans="4:44" x14ac:dyDescent="0.45">
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="11"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="11"/>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="11"/>
-      <c r="AQ37" s="11"/>
-      <c r="AR37" s="11"/>
-    </row>
-    <row r="38" spans="4:44" x14ac:dyDescent="0.45">
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="11"/>
-      <c r="AJ38" s="11"/>
-      <c r="AK38" s="11"/>
-      <c r="AL38" s="11"/>
-      <c r="AM38" s="11"/>
-      <c r="AN38" s="11"/>
-      <c r="AO38" s="11"/>
-      <c r="AP38" s="11"/>
-      <c r="AQ38" s="11"/>
-      <c r="AR38" s="11"/>
-    </row>
-    <row r="42" spans="4:44" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D42" s="57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
-  <dimension ref="C1:CC62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BF24" sqref="BF24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="3:81" s="67" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="73" t="s">
-        <v>97</v>
       </c>
       <c r="D1" s="74"/>
       <c r="E1" s="74"/>
@@ -7472,10 +12472,998 @@
       <c r="BZ1" s="74"/>
       <c r="CA1" s="74"/>
       <c r="CB1" s="74"/>
-      <c r="CC1" s="75"/>
+      <c r="CC1" s="74"/>
+      <c r="CD1" s="74"/>
+      <c r="CE1" s="74"/>
+      <c r="CF1" s="74"/>
+      <c r="CG1" s="74"/>
+      <c r="CH1" s="74"/>
+      <c r="CI1" s="74"/>
+      <c r="CJ1" s="74"/>
+      <c r="CK1" s="74"/>
+      <c r="CL1" s="74"/>
+      <c r="CM1" s="74"/>
+      <c r="CN1" s="74"/>
+      <c r="CO1" s="75"/>
+    </row>
+    <row r="2" spans="1:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:93" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="77"/>
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="77"/>
+      <c r="BK3" s="77"/>
+      <c r="BL3" s="77"/>
+      <c r="BM3" s="77"/>
+      <c r="BN3" s="77"/>
+      <c r="BO3" s="77"/>
+      <c r="BP3" s="77"/>
+      <c r="BQ3" s="77"/>
+      <c r="BR3" s="77"/>
+      <c r="BS3" s="77"/>
+      <c r="BT3" s="77"/>
+      <c r="BU3" s="77"/>
+      <c r="BV3" s="77"/>
+      <c r="BW3" s="77"/>
+      <c r="BX3" s="77"/>
+      <c r="BY3" s="77"/>
+      <c r="BZ3" s="77"/>
+      <c r="CA3" s="77"/>
+      <c r="CB3" s="77"/>
+      <c r="CC3" s="77"/>
+      <c r="CD3" s="77"/>
+      <c r="CE3" s="77"/>
+      <c r="CF3" s="77"/>
+      <c r="CG3" s="77"/>
+      <c r="CH3" s="77"/>
+      <c r="CI3" s="77"/>
+      <c r="CJ3" s="77"/>
+      <c r="CK3" s="77"/>
+      <c r="CL3" s="77"/>
+      <c r="CM3" s="77"/>
+      <c r="CN3" s="77"/>
+      <c r="CO3" s="78"/>
+    </row>
+    <row r="5" spans="1:93" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="7" spans="1:93" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="81"/>
+      <c r="C7" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="77"/>
+      <c r="AK7" s="77"/>
+      <c r="AL7" s="77"/>
+      <c r="AM7" s="77"/>
+      <c r="AN7" s="77"/>
+      <c r="AO7" s="77"/>
+      <c r="AP7" s="77"/>
+      <c r="AQ7" s="77"/>
+      <c r="AR7" s="77"/>
+      <c r="AS7" s="77"/>
+      <c r="AT7" s="77"/>
+      <c r="AU7" s="77"/>
+      <c r="AV7" s="77"/>
+      <c r="AW7" s="77"/>
+      <c r="AX7" s="77"/>
+      <c r="AY7" s="77"/>
+      <c r="AZ7" s="77"/>
+      <c r="BA7" s="77"/>
+      <c r="BB7" s="77"/>
+      <c r="BC7" s="77"/>
+      <c r="BD7" s="77"/>
+      <c r="BE7" s="77"/>
+      <c r="BF7" s="77"/>
+      <c r="BG7" s="77"/>
+      <c r="BH7" s="77"/>
+      <c r="BI7" s="77"/>
+      <c r="BJ7" s="77"/>
+      <c r="BK7" s="77"/>
+      <c r="BL7" s="77"/>
+      <c r="BM7" s="77"/>
+      <c r="BN7" s="77"/>
+      <c r="BO7" s="77"/>
+      <c r="BP7" s="77"/>
+      <c r="BQ7" s="77"/>
+      <c r="BR7" s="77"/>
+      <c r="BS7" s="77"/>
+      <c r="BT7" s="77"/>
+      <c r="BU7" s="77"/>
+      <c r="BV7" s="77"/>
+      <c r="BW7" s="77"/>
+      <c r="BX7" s="77"/>
+      <c r="BY7" s="77"/>
+      <c r="BZ7" s="77"/>
+      <c r="CA7" s="77"/>
+      <c r="CB7" s="77"/>
+      <c r="CC7" s="77"/>
+      <c r="CD7" s="77"/>
+      <c r="CE7" s="77"/>
+      <c r="CF7" s="77"/>
+      <c r="CG7" s="77"/>
+      <c r="CH7" s="77"/>
+      <c r="CI7" s="77"/>
+      <c r="CJ7" s="77"/>
+      <c r="CK7" s="77"/>
+      <c r="CL7" s="77"/>
+      <c r="CM7" s="77"/>
+      <c r="CN7" s="78"/>
+    </row>
+    <row r="9" spans="1:93" x14ac:dyDescent="0.45">
+      <c r="A9" s="82">
+        <v>45631</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="11" spans="1:93" x14ac:dyDescent="0.45">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="11"/>
+      <c r="BH11" s="11"/>
+    </row>
+    <row r="12" spans="1:93" x14ac:dyDescent="0.45">
+      <c r="E12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="BH12" s="11"/>
+    </row>
+    <row r="13" spans="1:93" x14ac:dyDescent="0.45">
+      <c r="E13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="BH13" s="11"/>
+    </row>
+    <row r="14" spans="1:93" x14ac:dyDescent="0.45">
+      <c r="E14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="BH14" s="11"/>
+    </row>
+    <row r="15" spans="1:93" x14ac:dyDescent="0.45">
+      <c r="E15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="BH15" s="11"/>
+    </row>
+    <row r="16" spans="1:93" x14ac:dyDescent="0.45">
+      <c r="E16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="BH16" s="11"/>
+    </row>
+    <row r="17" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="BH17" s="11"/>
+    </row>
+    <row r="18" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="BH18" s="11"/>
+    </row>
+    <row r="19" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="BH19" s="11"/>
+    </row>
+    <row r="20" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="BH20" s="11"/>
+    </row>
+    <row r="21" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="BH21" s="11"/>
+    </row>
+    <row r="22" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="BH22" s="11"/>
+    </row>
+    <row r="23" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="BH23" s="11"/>
+    </row>
+    <row r="24" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="BH24" s="11"/>
+    </row>
+    <row r="25" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="BH25" s="11"/>
+    </row>
+    <row r="26" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="BH26" s="11"/>
+    </row>
+    <row r="27" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="BH27" s="11"/>
+    </row>
+    <row r="28" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="BH28" s="11"/>
+    </row>
+    <row r="29" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="BH29" s="11"/>
+    </row>
+    <row r="30" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="BH30" s="11"/>
+    </row>
+    <row r="31" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="BH31" s="11"/>
+    </row>
+    <row r="32" spans="5:60" x14ac:dyDescent="0.45">
+      <c r="E32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="BH32" s="11"/>
+    </row>
+    <row r="33" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="E33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="BH33" s="11"/>
+    </row>
+    <row r="34" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="E34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="BH34" s="11"/>
+    </row>
+    <row r="35" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="11"/>
+      <c r="BE35" s="11"/>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="11"/>
+    </row>
+    <row r="36" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="Z36" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="3:60" ht="36.6" x14ac:dyDescent="0.45">
+      <c r="F38" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="F39" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+    </row>
+    <row r="40" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="F40" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+    </row>
+    <row r="41" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="F41" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+    </row>
+    <row r="42" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="F42" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+    </row>
+    <row r="43" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="F43" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+    </row>
+    <row r="44" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="F44" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+    </row>
+    <row r="45" spans="3:60" x14ac:dyDescent="0.45">
+      <c r="F45" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+    </row>
+    <row r="47" spans="3:60" s="102" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C47" s="103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" s="102" customFormat="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5385B0-62D3-40E5-976B-7518684BC3EC}">
+  <dimension ref="C1:Y44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.8984375" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:23" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="3:23" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="E15" s="80"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="Q15" s="92"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.45">
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="19" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E23" s="19"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="20"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="20"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="20"/>
+    </row>
+    <row r="24" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E24" s="85"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="86"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="88"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="86"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="86"/>
+    </row>
+    <row r="25" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="21"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="21"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="21"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="21"/>
+    </row>
+    <row r="28" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E28" s="93"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="94"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="94"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="20"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="20"/>
+    </row>
+    <row r="29" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E29" s="95"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="25"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="96"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="96"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="25"/>
+    </row>
+    <row r="30" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E30" s="83"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="21"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="97"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="97"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="21"/>
+    </row>
+    <row r="33" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E33" s="19"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="20"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="20"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="100"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="100"/>
+    </row>
+    <row r="34" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="25"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="25"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="49"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="49"/>
+    </row>
+    <row r="35" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="98"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="21"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="21"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="98"/>
+    </row>
+    <row r="38" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E38" s="19"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="20"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="20"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="20"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="20"/>
+    </row>
+    <row r="39" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E39" s="29"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="25"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="25"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="25"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="25"/>
+    </row>
+    <row r="40" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="21"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="21"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="21"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="21"/>
+    </row>
+    <row r="44" spans="4:25" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D44" s="101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
+  <dimension ref="C1:CC62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T71" sqref="T71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="3:81" s="64" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="71"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
+      <c r="BR1" s="71"/>
+      <c r="BS1" s="71"/>
+      <c r="BT1" s="71"/>
+      <c r="BU1" s="71"/>
+      <c r="BV1" s="71"/>
+      <c r="BW1" s="71"/>
+      <c r="BX1" s="71"/>
+      <c r="BY1" s="71"/>
+      <c r="BZ1" s="71"/>
+      <c r="CA1" s="71"/>
+      <c r="CB1" s="71"/>
+      <c r="CC1" s="72"/>
     </row>
     <row r="3" spans="3:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="68" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5"/>
@@ -7555,15 +13543,15 @@
       <c r="BZ3" s="5"/>
       <c r="CA3" s="5"/>
       <c r="CB3" s="5"/>
-      <c r="CC3" s="72"/>
+      <c r="CC3" s="69"/>
     </row>
     <row r="5" spans="3:81" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="3:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5"/>
@@ -7643,33 +13631,33 @@
       <c r="BZ8" s="5"/>
       <c r="CA8" s="5"/>
       <c r="CB8" s="5"/>
-      <c r="CC8" s="72"/>
+      <c r="CC8" s="69"/>
     </row>
     <row r="12" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
       <c r="AO12" s="11"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="11"/>
@@ -7681,7 +13669,7 @@
       <c r="AW12" s="11"/>
     </row>
     <row r="13" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="Q13" s="76"/>
+      <c r="Q13" s="73"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
@@ -7690,14 +13678,14 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
-      <c r="AN13" s="76"/>
+      <c r="AN13" s="73"/>
       <c r="AW13" s="11"/>
       <c r="BD13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="Q14" s="76"/>
+      <c r="Q14" s="73"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
@@ -7706,14 +13694,14 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
-      <c r="AN14" s="76"/>
+      <c r="AN14" s="73"/>
       <c r="AW14" s="11"/>
       <c r="BD14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="Q15" s="76"/>
+      <c r="Q15" s="73"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
@@ -7722,14 +13710,14 @@
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
-      <c r="AN15" s="76"/>
+      <c r="AN15" s="73"/>
       <c r="AW15" s="11"/>
       <c r="BD15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="3:81" x14ac:dyDescent="0.45">
-      <c r="Q16" s="76"/>
+      <c r="Q16" s="73"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
@@ -7738,14 +13726,14 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
-      <c r="AN16" s="76"/>
+      <c r="AN16" s="73"/>
       <c r="AW16" s="11"/>
       <c r="BD16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q17" s="76"/>
+      <c r="Q17" s="73"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
@@ -7754,14 +13742,14 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
-      <c r="AN17" s="76"/>
+      <c r="AN17" s="73"/>
       <c r="AW17" s="11"/>
       <c r="BD17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q18" s="76"/>
+      <c r="Q18" s="73"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
@@ -7770,11 +13758,11 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
-      <c r="AN18" s="76"/>
+      <c r="AN18" s="73"/>
       <c r="AW18" s="11"/>
     </row>
     <row r="19" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q19" s="76"/>
+      <c r="Q19" s="73"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
@@ -7783,11 +13771,11 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-      <c r="AN19" s="76"/>
+      <c r="AN19" s="73"/>
       <c r="AW19" s="11"/>
     </row>
     <row r="20" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q20" s="76"/>
+      <c r="Q20" s="73"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
@@ -7796,11 +13784,11 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
-      <c r="AN20" s="76"/>
+      <c r="AN20" s="73"/>
       <c r="AW20" s="11"/>
     </row>
     <row r="21" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q21" s="76"/>
+      <c r="Q21" s="73"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
@@ -7809,11 +13797,11 @@
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
-      <c r="AN21" s="76"/>
+      <c r="AN21" s="73"/>
       <c r="AW21" s="11"/>
     </row>
     <row r="22" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q22" s="76"/>
+      <c r="Q22" s="73"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
@@ -7822,11 +13810,11 @@
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
-      <c r="AN22" s="76"/>
+      <c r="AN22" s="73"/>
       <c r="AW22" s="11"/>
     </row>
     <row r="23" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q23" s="76"/>
+      <c r="Q23" s="73"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
@@ -7835,11 +13823,11 @@
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="AN23" s="76"/>
+      <c r="AN23" s="73"/>
       <c r="AW23" s="11"/>
     </row>
     <row r="24" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q24" s="76"/>
+      <c r="Q24" s="73"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
@@ -7848,11 +13836,11 @@
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-      <c r="AN24" s="76"/>
+      <c r="AN24" s="73"/>
       <c r="AW24" s="11"/>
     </row>
     <row r="25" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q25" s="76"/>
+      <c r="Q25" s="73"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
@@ -7861,11 +13849,11 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="AN25" s="76"/>
+      <c r="AN25" s="73"/>
       <c r="AW25" s="11"/>
     </row>
     <row r="26" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q26" s="76"/>
+      <c r="Q26" s="73"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
@@ -7874,11 +13862,11 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="AN26" s="76"/>
+      <c r="AN26" s="73"/>
       <c r="AW26" s="11"/>
     </row>
     <row r="27" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q27" s="76"/>
+      <c r="Q27" s="73"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
@@ -7887,11 +13875,11 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="AN27" s="76"/>
+      <c r="AN27" s="73"/>
       <c r="AW27" s="11"/>
     </row>
     <row r="28" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q28" s="76"/>
+      <c r="Q28" s="73"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
@@ -7900,11 +13888,11 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="AN28" s="76"/>
+      <c r="AN28" s="73"/>
       <c r="AW28" s="11"/>
     </row>
     <row r="29" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q29" s="76"/>
+      <c r="Q29" s="73"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
@@ -7913,11 +13901,11 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="AN29" s="76"/>
+      <c r="AN29" s="73"/>
       <c r="AW29" s="11"/>
     </row>
     <row r="30" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q30" s="76"/>
+      <c r="Q30" s="73"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
@@ -7926,11 +13914,11 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-      <c r="AN30" s="76"/>
+      <c r="AN30" s="73"/>
       <c r="AW30" s="11"/>
     </row>
     <row r="31" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q31" s="76"/>
+      <c r="Q31" s="73"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
@@ -7939,11 +13927,11 @@
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
-      <c r="AN31" s="76"/>
+      <c r="AN31" s="73"/>
       <c r="AW31" s="11"/>
     </row>
     <row r="32" spans="17:56" x14ac:dyDescent="0.45">
-      <c r="Q32" s="76"/>
+      <c r="Q32" s="73"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
@@ -7952,11 +13940,11 @@
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-      <c r="AN32" s="76"/>
+      <c r="AN32" s="73"/>
       <c r="AW32" s="11"/>
     </row>
     <row r="33" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q33" s="76"/>
+      <c r="Q33" s="73"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -7965,11 +13953,11 @@
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-      <c r="AN33" s="76"/>
+      <c r="AN33" s="73"/>
       <c r="AW33" s="11"/>
     </row>
     <row r="34" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q34" s="76"/>
+      <c r="Q34" s="73"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -7978,11 +13966,11 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
-      <c r="AN34" s="76"/>
+      <c r="AN34" s="73"/>
       <c r="AW34" s="11"/>
     </row>
     <row r="35" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q35" s="76"/>
+      <c r="Q35" s="73"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -7991,11 +13979,11 @@
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="AN35" s="76"/>
+      <c r="AN35" s="73"/>
       <c r="AW35" s="11"/>
     </row>
     <row r="36" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q36" s="76"/>
+      <c r="Q36" s="73"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -8004,11 +13992,11 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="AN36" s="76"/>
+      <c r="AN36" s="73"/>
       <c r="AW36" s="11"/>
     </row>
     <row r="37" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q37" s="76"/>
+      <c r="Q37" s="73"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
@@ -8017,11 +14005,11 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-      <c r="AN37" s="76"/>
+      <c r="AN37" s="73"/>
       <c r="AW37" s="11"/>
     </row>
     <row r="38" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q38" s="76"/>
+      <c r="Q38" s="73"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
@@ -8030,11 +14018,11 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-      <c r="AN38" s="76"/>
+      <c r="AN38" s="73"/>
       <c r="AW38" s="11"/>
     </row>
     <row r="39" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q39" s="76"/>
+      <c r="Q39" s="73"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
@@ -8043,11 +14031,11 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
-      <c r="AN39" s="76"/>
+      <c r="AN39" s="73"/>
       <c r="AW39" s="11"/>
     </row>
     <row r="40" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q40" s="76"/>
+      <c r="Q40" s="73"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
@@ -8056,11 +14044,11 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
-      <c r="AN40" s="76"/>
+      <c r="AN40" s="73"/>
       <c r="AW40" s="11"/>
     </row>
     <row r="41" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q41" s="76"/>
+      <c r="Q41" s="73"/>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
@@ -8069,11 +14057,11 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
-      <c r="AN41" s="76"/>
+      <c r="AN41" s="73"/>
       <c r="AW41" s="11"/>
     </row>
     <row r="42" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q42" s="76"/>
+      <c r="Q42" s="73"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
@@ -8082,11 +14070,11 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-      <c r="AN42" s="76"/>
+      <c r="AN42" s="73"/>
       <c r="AW42" s="11"/>
     </row>
     <row r="43" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q43" s="76"/>
+      <c r="Q43" s="73"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
@@ -8095,11 +14083,11 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-      <c r="AN43" s="76"/>
+      <c r="AN43" s="73"/>
       <c r="AW43" s="11"/>
     </row>
     <row r="44" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q44" s="76"/>
+      <c r="Q44" s="73"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
@@ -8108,11 +14096,11 @@
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
-      <c r="AN44" s="76"/>
+      <c r="AN44" s="73"/>
       <c r="AW44" s="11"/>
     </row>
     <row r="45" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q45" s="76"/>
+      <c r="Q45" s="73"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
@@ -8121,11 +14109,11 @@
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
-      <c r="AN45" s="76"/>
+      <c r="AN45" s="73"/>
       <c r="AW45" s="11"/>
     </row>
     <row r="46" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q46" s="76"/>
+      <c r="Q46" s="73"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
@@ -8134,11 +14122,11 @@
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
-      <c r="AN46" s="76"/>
+      <c r="AN46" s="73"/>
       <c r="AW46" s="11"/>
     </row>
     <row r="47" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q47" s="76"/>
+      <c r="Q47" s="73"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
@@ -8147,11 +14135,11 @@
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
-      <c r="AN47" s="76"/>
+      <c r="AN47" s="73"/>
       <c r="AW47" s="11"/>
     </row>
     <row r="48" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q48" s="76"/>
+      <c r="Q48" s="73"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
@@ -8160,11 +14148,11 @@
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
-      <c r="AN48" s="76"/>
+      <c r="AN48" s="73"/>
       <c r="AW48" s="11"/>
     </row>
     <row r="49" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q49" s="76"/>
+      <c r="Q49" s="73"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -8173,11 +14161,11 @@
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
-      <c r="AN49" s="76"/>
+      <c r="AN49" s="73"/>
       <c r="AW49" s="11"/>
     </row>
     <row r="50" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q50" s="76"/>
+      <c r="Q50" s="73"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
@@ -8186,11 +14174,11 @@
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="AN50" s="76"/>
+      <c r="AN50" s="73"/>
       <c r="AW50" s="11"/>
     </row>
     <row r="51" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q51" s="76"/>
+      <c r="Q51" s="73"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
@@ -8199,11 +14187,11 @@
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
-      <c r="AN51" s="76"/>
+      <c r="AN51" s="73"/>
       <c r="AW51" s="11"/>
     </row>
     <row r="52" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q52" s="76"/>
+      <c r="Q52" s="73"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
@@ -8212,11 +14200,11 @@
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
-      <c r="AN52" s="76"/>
+      <c r="AN52" s="73"/>
       <c r="AW52" s="11"/>
     </row>
     <row r="53" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q53" s="76"/>
+      <c r="Q53" s="73"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
@@ -8225,11 +14213,11 @@
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
-      <c r="AN53" s="76"/>
+      <c r="AN53" s="73"/>
       <c r="AW53" s="11"/>
     </row>
     <row r="54" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q54" s="76"/>
+      <c r="Q54" s="73"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
@@ -8238,11 +14226,11 @@
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
-      <c r="AN54" s="76"/>
+      <c r="AN54" s="73"/>
       <c r="AW54" s="11"/>
     </row>
     <row r="55" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q55" s="76"/>
+      <c r="Q55" s="73"/>
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
@@ -8251,11 +14239,11 @@
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
-      <c r="AN55" s="76"/>
+      <c r="AN55" s="73"/>
       <c r="AW55" s="11"/>
     </row>
     <row r="56" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q56" s="76"/>
+      <c r="Q56" s="73"/>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
@@ -8264,11 +14252,11 @@
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
-      <c r="AN56" s="76"/>
+      <c r="AN56" s="73"/>
       <c r="AW56" s="11"/>
     </row>
     <row r="57" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q57" s="76"/>
+      <c r="Q57" s="73"/>
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
@@ -8277,11 +14265,11 @@
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
-      <c r="AN57" s="76"/>
+      <c r="AN57" s="73"/>
       <c r="AW57" s="11"/>
     </row>
     <row r="58" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q58" s="76"/>
+      <c r="Q58" s="73"/>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
@@ -8290,11 +14278,11 @@
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
-      <c r="AN58" s="76"/>
+      <c r="AN58" s="73"/>
       <c r="AW58" s="11"/>
     </row>
     <row r="59" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q59" s="76"/>
+      <c r="Q59" s="73"/>
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
@@ -8303,11 +14291,11 @@
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
-      <c r="AN59" s="76"/>
+      <c r="AN59" s="73"/>
       <c r="AW59" s="11"/>
     </row>
     <row r="60" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q60" s="76"/>
+      <c r="Q60" s="73"/>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
@@ -8316,11 +14304,11 @@
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
-      <c r="AN60" s="76"/>
+      <c r="AN60" s="73"/>
       <c r="AW60" s="11"/>
     </row>
     <row r="61" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q61" s="76"/>
+      <c r="Q61" s="73"/>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
@@ -8329,11 +14317,11 @@
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
-      <c r="AN61" s="76"/>
+      <c r="AN61" s="73"/>
       <c r="AW61" s="11"/>
     </row>
     <row r="62" spans="17:49" x14ac:dyDescent="0.45">
-      <c r="Q62" s="76"/>
+      <c r="Q62" s="73"/>
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
@@ -8356,7 +14344,7 @@
       <c r="AK62" s="11"/>
       <c r="AL62" s="11"/>
       <c r="AM62" s="11"/>
-      <c r="AN62" s="76"/>
+      <c r="AN62" s="73"/>
       <c r="AO62" s="11"/>
       <c r="AP62" s="11"/>
       <c r="AQ62" s="11"/>
@@ -8375,7 +14363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6016A-E977-49A7-BD75-FF02488C9D30}">
   <dimension ref="C1:DU52"/>
   <sheetViews>
@@ -8387,7 +14375,7 @@
   <sheetData>
     <row r="1" spans="3:125" s="62" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C1" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="3:125" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -8397,17 +14385,17 @@
     </row>
     <row r="5" spans="3:125" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="3:125" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="3:125" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="3:125" x14ac:dyDescent="0.45">
@@ -8704,7 +14692,7 @@
       <c r="AU30" s="11"/>
       <c r="BU30" s="11"/>
       <c r="CF30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CN30" s="11"/>
       <c r="DN30" s="11"/>
@@ -8911,32 +14899,32 @@
     </row>
     <row r="42" spans="4:118" x14ac:dyDescent="0.45">
       <c r="AX42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="4:118" x14ac:dyDescent="0.45">
       <c r="AX43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="4:118" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="4:118" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -8948,12 +14936,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D00CCB-B6DB-4C83-A229-8E8205AB8F5C}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8961,7 +14949,7 @@
     <col min="1" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
     <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="63" width="3" customWidth="1"/>
   </cols>
@@ -9079,7 +15067,7 @@
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
         <v>52</v>
@@ -9093,7 +15081,7 @@
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
         <v>52</v>
@@ -9107,18 +15095,45 @@
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D26" s="46">
+        <v>45628</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="G28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\yajusnpi810114514\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44408535-99BD-4E5A-A33D-47CC82D86FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB31597-81A7-48E1-AB41-CE38268AF0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="948" windowWidth="19392" windowHeight="12996" activeTab="2" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="0" yWindow="684" windowWidth="19392" windowHeight="12996" activeTab="2" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -878,13 +878,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームマップの仕様</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面仕様　必要なモノ</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1257,12 +1250,110 @@
     <t>詳細</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ゲームマップの仕様を記載</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高さ表示</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メインゲームの上った高さの表示をするテキスト</t>
+    <rPh sb="8" eb="9">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示テキスト</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの長さは５０ブロック</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メインゲームのスコアの表示をするテキストです</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>スコア計算は　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高さ＋コインの枚数</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCORE : 10</t>
+  </si>
+  <si>
+    <t>BEST SCORE: 50</t>
+  </si>
+  <si>
+    <t>表示テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1437,20 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1620,7 +1725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1931,6 +2036,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7241,6 +7352,78 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>216825</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>29788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>162396</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>40672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785134FF-00DD-427A-BB59-EDE4C3807655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1992285" y="13791508"/>
+          <a:ext cx="2140131" cy="696684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>HEIGHT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>0/50</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12373,10 +12556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
-  <dimension ref="A1:CO55"/>
+  <dimension ref="A1:CO75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12390,10 +12573,10 @@
         <v>29</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="74"/>
       <c r="E1" s="74"/>
@@ -12489,7 +12672,7 @@
     <row r="2" spans="1:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:93" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
@@ -12584,14 +12767,14 @@
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="1:93" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="81"/>
       <c r="C7" s="79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
@@ -12688,7 +12871,7 @@
         <v>45631</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -12937,15 +13120,15 @@
     </row>
     <row r="36" spans="3:60" x14ac:dyDescent="0.45">
       <c r="Z36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BE36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="3:60" ht="36.6" x14ac:dyDescent="0.45">
       <c r="F38" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -12955,7 +13138,7 @@
     </row>
     <row r="39" spans="3:60" x14ac:dyDescent="0.45">
       <c r="F39" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -12972,7 +13155,7 @@
     </row>
     <row r="40" spans="3:60" x14ac:dyDescent="0.45">
       <c r="F40" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -12989,7 +13172,7 @@
     </row>
     <row r="41" spans="3:60" x14ac:dyDescent="0.45">
       <c r="F41" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -13006,7 +13189,7 @@
     </row>
     <row r="42" spans="3:60" x14ac:dyDescent="0.45">
       <c r="F42" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -13023,7 +13206,7 @@
     </row>
     <row r="43" spans="3:60" x14ac:dyDescent="0.45">
       <c r="F43" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -13040,7 +13223,7 @@
     </row>
     <row r="44" spans="3:60" x14ac:dyDescent="0.45">
       <c r="F44" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -13057,7 +13240,7 @@
     </row>
     <row r="45" spans="3:60" x14ac:dyDescent="0.45">
       <c r="F45" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
@@ -13074,25 +13257,80 @@
     </row>
     <row r="47" spans="3:60" s="102" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C47" s="103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" s="102" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="3:18" s="102" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C55" s="103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="D57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="R58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="E59" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="R59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C64" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E70" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E71" s="104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E72" s="105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13105,8 +13343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5385B0-62D3-40E5-976B-7518684BC3EC}">
   <dimension ref="C1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4:AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13117,7 +13355,7 @@
   <sheetData>
     <row r="1" spans="3:23" s="91" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C1" s="91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="3:23" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -13127,7 +13365,7 @@
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="3:23" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -13137,12 +13375,12 @@
     </row>
     <row r="10" spans="3:23" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="3:23" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="3:23" x14ac:dyDescent="0.45">
@@ -13156,7 +13394,7 @@
         <v>37</v>
       </c>
       <c r="U14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="3:23" x14ac:dyDescent="0.45">
@@ -13181,12 +13419,12 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.45">
@@ -13359,7 +13597,7 @@
     </row>
     <row r="44" spans="4:25" s="91" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D44" s="101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -13373,8 +13611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
   <dimension ref="C1:CC62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T71" sqref="T71"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13547,7 +13785,7 @@
     </row>
     <row r="5" spans="3:81" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="3:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -13681,7 +13919,7 @@
       <c r="AN13" s="73"/>
       <c r="AW13" s="11"/>
       <c r="BD13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="3:81" x14ac:dyDescent="0.45">
@@ -13697,7 +13935,7 @@
       <c r="AN14" s="73"/>
       <c r="AW14" s="11"/>
       <c r="BD14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="3:81" x14ac:dyDescent="0.45">
@@ -13713,7 +13951,7 @@
       <c r="AN15" s="73"/>
       <c r="AW15" s="11"/>
       <c r="BD15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="3:81" x14ac:dyDescent="0.45">
@@ -13729,7 +13967,7 @@
       <c r="AN16" s="73"/>
       <c r="AW16" s="11"/>
       <c r="BD16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="17:56" x14ac:dyDescent="0.45">
@@ -13745,7 +13983,7 @@
       <c r="AN17" s="73"/>
       <c r="AW17" s="11"/>
       <c r="BD17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="17:56" x14ac:dyDescent="0.45">
@@ -15098,7 +15336,7 @@
         <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.45">
@@ -15106,7 +15344,7 @@
         <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.45">
@@ -15117,10 +15355,10 @@
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.45">
@@ -15128,12 +15366,12 @@
         <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B96C2-9770-41A9-A779-02D41612C6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D51E4-A8FF-430E-906F-91E45AD90C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="4" r:id="rId2"/>
     <sheet name="メイン画面仕様" sheetId="5" r:id="rId3"/>
     <sheet name="ブロック仕様" sheetId="8" r:id="rId4"/>
-    <sheet name="マップチップ" sheetId="7" r:id="rId5"/>
-    <sheet name="ゴール仕様" sheetId="6" r:id="rId6"/>
-    <sheet name="更新履歴" sheetId="3" r:id="rId7"/>
+    <sheet name="コイン仕様" sheetId="9" r:id="rId5"/>
+    <sheet name="マップチップ" sheetId="7" r:id="rId6"/>
+    <sheet name="ゴール仕様" sheetId="6" r:id="rId7"/>
+    <sheet name="更新履歴" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="200">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1650,6 +1651,98 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ブロックの当たり判定（回転）</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最高スコアを表示します</t>
+    <rPh sb="0" eb="2">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最高タイムを表示します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BEST SCORE: 50</t>
+  </si>
+  <si>
+    <t>BEST TIME : 9999.00</t>
+  </si>
+  <si>
+    <t>・ブロック回転中に他ブロックにあっていた時の判定</t>
+    <rPh sb="5" eb="8">
+      <t>カイテンチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重なった状態で回転するとブロックは上に弾かれる</t>
+    <rPh sb="0" eb="1">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイン仕様</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインの仕様について記載します</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1802,7 +1895,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1926,6 +2019,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,7 +2212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2493,6 +2592,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10715,6 +10820,348 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>225461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19271</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="グループ化 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965DCE14-5AF2-46A3-9FCD-A612FAB6C4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1461247" y="22601367"/>
+          <a:ext cx="717176" cy="493057"/>
+          <a:chOff x="2402541" y="22366941"/>
+          <a:chExt cx="717176" cy="485437"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0922ED80-A267-4D48-BEBD-719D95CF26F2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2402541" y="22366941"/>
+            <a:ext cx="708212" cy="233082"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B95310-20C9-454C-9BF1-5BDAA172A44F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2868706" y="22377249"/>
+            <a:ext cx="251011" cy="475129"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>197221</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矢印: 右 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C301E07-A70E-49F2-B5D2-89526D7850FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="22617954"/>
+          <a:ext cx="394445" cy="242047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22410</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="グループ化 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B87EA0-B9C5-420B-BDC6-0BD976514ED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2985247" y="22277296"/>
+          <a:ext cx="717176" cy="493057"/>
+          <a:chOff x="2402541" y="22366941"/>
+          <a:chExt cx="717176" cy="485437"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="正方形/長方形 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7DBDE5-DF03-4A2A-9E52-CC5E7C557843}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2402541" y="22366941"/>
+            <a:ext cx="708212" cy="233082"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="正方形/長方形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F25E23F-798C-46EB-9E73-A42B5ADD1545}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2868706" y="22377249"/>
+            <a:ext cx="251011" cy="475129"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17620,10 +18067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
-  <dimension ref="A1:CP120"/>
+  <dimension ref="A1:CP117"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X114" sqref="X114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -18849,65 +19296,99 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E81" s="103"/>
     </row>
-    <row r="83" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C83" s="57" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D85" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E86" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F88" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F89" s="103" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C91" s="57" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D93" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F96" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F97" s="103" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C99" s="57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C101" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D103" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E104" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C107" s="57" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C109" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D110" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D112" s="16" t="s">
         <v>145</v>
       </c>
@@ -18922,8 +19403,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="3:5" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C120" s="120" t="s">
+    <row r="117" spans="3:5" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C117" s="120" t="s">
         <v>108</v>
       </c>
     </row>
@@ -18937,10 +19418,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5385B0-62D3-40E5-976B-7518684BC3EC}">
-  <dimension ref="C1:AB93"/>
+  <dimension ref="C1:AB104"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC89" sqref="AC89:AC90"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI110" sqref="AI110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -19401,23 +19882,96 @@
       <c r="F90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="93" spans="3:17" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C93" s="120" t="s">
+    <row r="92" spans="3:17" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C92" s="57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="R98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="L102" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="3:18" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C104" s="120" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4B4CA0-3353-47A8-BF30-7C258F37A5C5}">
+  <dimension ref="C1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.296875" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" s="127" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="128" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
   <dimension ref="C1:GY194"/>
   <sheetViews>
-    <sheetView topLeftCell="B133" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="CM34" sqref="CM34"/>
     </sheetView>
   </sheetViews>
@@ -35036,7 +35590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6016A-E977-49A7-BD75-FF02488C9D30}">
   <dimension ref="C1:DU52"/>
   <sheetViews>
@@ -35609,11 +36163,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D00CCB-B6DB-4C83-A229-8E8205AB8F5C}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="M35" sqref="M34:M35"/>
     </sheetView>
   </sheetViews>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Team3\3班\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA112E-824B-4931-A022-A867E6F6ED5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E7511F-8594-40BE-A29E-5CAD0BAF939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="8" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="4" r:id="rId2"/>
     <sheet name="メイン画面仕様" sheetId="5" r:id="rId3"/>
-    <sheet name="コイン仕様" sheetId="9" r:id="rId4"/>
-    <sheet name="ブロック仕様" sheetId="8" r:id="rId5"/>
-    <sheet name="マップチップ" sheetId="7" r:id="rId6"/>
-    <sheet name="ゴール仕様" sheetId="6" r:id="rId7"/>
-    <sheet name="更新履歴" sheetId="3" r:id="rId8"/>
+    <sheet name="プレイキャラクター仕様" sheetId="10" r:id="rId4"/>
+    <sheet name="コイン仕様" sheetId="9" r:id="rId5"/>
+    <sheet name="ブロック仕様" sheetId="8" r:id="rId6"/>
+    <sheet name="マップチップ" sheetId="7" r:id="rId7"/>
+    <sheet name="ゴール仕様" sheetId="6" r:id="rId8"/>
+    <sheet name="更新履歴" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="221">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1772,12 +1773,194 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プレイキャラクター仕様書</t>
+    <rPh sb="9" eb="12">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイキャラクターのテトラの仕様を記載します</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイキャラクターのサイズは２マス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイキャラクター（操作）</t>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テトラの移動操作は、キーボードかコントローラーで行う</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テトラのゲームオーバー演出は、ブロックから落下して、画面外に出たら表示</t>
+    <rPh sb="11" eb="13">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果音は検討</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールラインに触れたらゲーム終了する</t>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEXT</t>
+  </si>
+  <si>
+    <r>
+      <t>HEIGHT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0/50</t>
+    </r>
+  </si>
+  <si>
+    <t>ゴールラインの判定</t>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テトラの上半身がゴールラインに重なったらクリアに入る</t>
+    <rPh sb="4" eb="7">
+      <t>ジョウハンシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残機はなく、ゲームオーバー表示後、タイトル画面に戻ります</t>
+    <rPh sb="0" eb="2">
+      <t>ザンキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヒョウジゴ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用するボタン</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイキャラクター仕様</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規追加</t>
+    <rPh sb="0" eb="4">
+      <t>シンキツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1927,6 +2110,21 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2262,7 +2460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2657,6 +2855,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8099,6 +8303,944 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88326</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D806C8B-7BCA-45E9-B3B0-53BB17B43DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333499" y="2415540"/>
+          <a:ext cx="1421827" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>211269</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>164503</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D2FC2E-B933-4F2B-BDC4-63458BDCC2E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7024445" y="4703334"/>
+          <a:ext cx="3288105" cy="3232673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>48555</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>210247</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDBF895-291A-478A-B918-FCBD6DD40F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5816895" y="13997940"/>
+          <a:ext cx="725572" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116047</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6663E66D-8413-479D-B60B-2BF6128B2CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1262679" y="5150673"/>
+          <a:ext cx="5356412" cy="2190927"/>
+          <a:chOff x="1262679" y="5150673"/>
+          <a:chExt cx="5356412" cy="2190927"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="図 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A72CC2-6B84-4916-9028-E5850EF8D4DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1262679" y="5150673"/>
+            <a:ext cx="5356412" cy="2190927"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="楕円 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56AAE3E-B16B-4747-BF8C-A63F413A9411}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5531224" y="6884893"/>
+            <a:ext cx="295835" cy="303959"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="楕円 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CE1E03-4BCD-4ACE-8742-C6331AF11169}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5854850" y="6576060"/>
+            <a:ext cx="295835" cy="303959"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="楕円 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D74213-9605-4EF5-98D0-562B78B63085}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5844988" y="6902824"/>
+            <a:ext cx="295835" cy="303959"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="楕円 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DDEA3D-7467-470C-AA13-F7F4D64B0B05}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6176682" y="6911789"/>
+            <a:ext cx="295835" cy="303959"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="楕円 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815557A0-39AC-4845-98F4-F272333D8C3A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2052917" y="6221506"/>
+            <a:ext cx="295835" cy="303959"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="楕円 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1DDD07-B98C-467B-8ACE-AAD48DAC3450}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2402542" y="6230470"/>
+            <a:ext cx="295835" cy="303959"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="楕円 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956906DA-E5F3-484D-9058-7FF48A4D8095}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2725271" y="6203577"/>
+            <a:ext cx="295835" cy="303959"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="楕円 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E6EA61-A242-4734-9403-FCD36E3F857D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3030072" y="6822140"/>
+            <a:ext cx="1264022" cy="448236"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247126</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>211175</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B507421-66A2-4A7E-B4E7-EAB2F3043415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8171926" y="5644629"/>
+          <a:ext cx="1456167" cy="859770"/>
+          <a:chOff x="8781527" y="5958393"/>
+          <a:chExt cx="1456167" cy="859770"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="楕円 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039538A7-FB70-4D10-9E6E-8BA554A1868E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8781527" y="6514204"/>
+            <a:ext cx="295835" cy="303959"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="楕円 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FD205E-88FC-4675-AEAC-4E09D3710816}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10000727" y="6155616"/>
+            <a:ext cx="236967" cy="236219"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="楕円 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9E4309-69D4-4626-AA25-6E9AB683435E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9821433" y="5958393"/>
+            <a:ext cx="236967" cy="236219"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="楕円 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A6BD98-47B6-4C03-9A1A-5505CA87E86F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9839363" y="6299052"/>
+            <a:ext cx="236967" cy="236219"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D21188-ED19-4C36-917E-553926289867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11107270" y="5307107"/>
+          <a:ext cx="349624" cy="331694"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -8247,7 +9389,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11376,7 +12518,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16496,7 +17638,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19180,8 +20322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
   <dimension ref="A1:CW106"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA60" sqref="AA60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -19954,7 +21096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E47E61D-EA5E-443A-8270-F34DD08A8C64}">
   <dimension ref="D1:CM58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AN51" sqref="AN51"/>
     </sheetView>
   </sheetViews>
@@ -20075,8 +21217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
   <dimension ref="A1:CP117"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X114" sqref="X114"/>
+    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T145" sqref="T145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -21423,11 +22565,493 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABC6063-69E1-4B0F-8C1D-68CD7B86AF98}">
+  <dimension ref="C1:AQ78"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN30" sqref="AN30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.59765625" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" s="127" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="128" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="3:41" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="AO24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="D41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="Y43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="3:43" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+    </row>
+    <row r="59" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D59" s="11"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18"/>
+      <c r="AA59" s="18"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="18"/>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="18"/>
+      <c r="AI59" s="18"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="18"/>
+      <c r="AL59" s="18"/>
+      <c r="AM59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="18"/>
+      <c r="AQ59" s="11"/>
+    </row>
+    <row r="60" spans="3:43" ht="51.6" x14ac:dyDescent="0.45">
+      <c r="D60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AM60" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ60" s="11"/>
+    </row>
+    <row r="61" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AQ61" s="11"/>
+    </row>
+    <row r="62" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D62" s="11"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="18"/>
+      <c r="Y62" s="18"/>
+      <c r="Z62" s="18"/>
+      <c r="AA62" s="18"/>
+      <c r="AB62" s="18"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="18"/>
+      <c r="AE62" s="18"/>
+      <c r="AF62" s="18"/>
+      <c r="AG62" s="18"/>
+      <c r="AH62" s="18"/>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="18"/>
+      <c r="AL62" s="18"/>
+      <c r="AM62" s="18"/>
+      <c r="AN62" s="18"/>
+      <c r="AO62" s="18"/>
+      <c r="AP62" s="18"/>
+      <c r="AQ62" s="11"/>
+    </row>
+    <row r="63" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D63" s="11"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="11"/>
+      <c r="AQ63" s="11"/>
+    </row>
+    <row r="64" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AQ64" s="11"/>
+    </row>
+    <row r="65" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="U65" s="80"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="18"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="18"/>
+      <c r="AA65" s="18"/>
+      <c r="AB65" s="18"/>
+      <c r="AC65" s="18"/>
+      <c r="AD65" s="18"/>
+      <c r="AE65" s="18"/>
+      <c r="AF65" s="18"/>
+      <c r="AG65" s="18"/>
+      <c r="AH65" s="18"/>
+      <c r="AI65" s="18"/>
+      <c r="AJ65" s="11"/>
+      <c r="AQ65" s="11"/>
+    </row>
+    <row r="66" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="T66" s="80"/>
+      <c r="U66" s="80"/>
+      <c r="V66" s="80"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="18"/>
+      <c r="AA66" s="18"/>
+      <c r="AB66" s="18"/>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="18"/>
+      <c r="AE66" s="18"/>
+      <c r="AF66" s="18"/>
+      <c r="AG66" s="18"/>
+      <c r="AH66" s="18"/>
+      <c r="AI66" s="18"/>
+      <c r="AJ66" s="11"/>
+      <c r="AQ66" s="11"/>
+    </row>
+    <row r="67" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="18"/>
+      <c r="Y67" s="18"/>
+      <c r="Z67" s="18"/>
+      <c r="AA67" s="18"/>
+      <c r="AB67" s="18"/>
+      <c r="AC67" s="18"/>
+      <c r="AD67" s="18"/>
+      <c r="AE67" s="18"/>
+      <c r="AF67" s="18"/>
+      <c r="AG67" s="18"/>
+      <c r="AH67" s="18"/>
+      <c r="AI67" s="18"/>
+      <c r="AJ67" s="11"/>
+      <c r="AQ67" s="11"/>
+    </row>
+    <row r="68" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="T68" s="91"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="18"/>
+      <c r="AA68" s="18"/>
+      <c r="AB68" s="18"/>
+      <c r="AC68" s="18"/>
+      <c r="AD68" s="18"/>
+      <c r="AE68" s="18"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="15"/>
+      <c r="AH68" s="15"/>
+      <c r="AI68" s="15"/>
+      <c r="AJ68" s="11"/>
+      <c r="AQ68" s="11"/>
+    </row>
+    <row r="69" spans="3:43" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="D69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="91"/>
+      <c r="S69" s="91"/>
+      <c r="T69" s="91"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="18"/>
+      <c r="AA69" s="18"/>
+      <c r="AB69" s="18"/>
+      <c r="AC69" s="18"/>
+      <c r="AD69" s="18"/>
+      <c r="AE69" s="18"/>
+      <c r="AF69" s="18"/>
+      <c r="AG69" s="18"/>
+      <c r="AH69" s="18"/>
+      <c r="AI69" s="18"/>
+      <c r="AJ69" s="11"/>
+      <c r="AK69" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ69" s="11"/>
+    </row>
+    <row r="70" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="D70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="18"/>
+      <c r="X70" s="18"/>
+      <c r="Y70" s="18"/>
+      <c r="Z70" s="18"/>
+      <c r="AA70" s="18"/>
+      <c r="AB70" s="18"/>
+      <c r="AC70" s="18"/>
+      <c r="AD70" s="18"/>
+      <c r="AE70" s="18"/>
+      <c r="AF70" s="18"/>
+      <c r="AG70" s="18"/>
+      <c r="AH70" s="18"/>
+      <c r="AI70" s="18"/>
+      <c r="AJ70" s="11"/>
+      <c r="AQ70" s="11"/>
+    </row>
+    <row r="71" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+    </row>
+    <row r="73" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="F73" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="3:43" x14ac:dyDescent="0.45">
+      <c r="F74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="3:43" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C78" s="133" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4B4CA0-3353-47A8-BF30-7C258F37A5C5}">
   <dimension ref="C1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB21" sqref="BB21"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z80" sqref="Z80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -21469,12 +23093,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5385B0-62D3-40E5-976B-7518684BC3EC}">
   <dimension ref="C1:AB104"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU69" sqref="AU69"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -21975,12 +23599,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
   <dimension ref="C1:JD194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z212" sqref="Z212:AA212"/>
+    <sheetView topLeftCell="A67" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="DZ122" sqref="DZ122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -45515,11 +47139,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6016A-E977-49A7-BD75-FF02488C9D30}">
   <dimension ref="C1:DU82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AF88" sqref="AF88"/>
     </sheetView>
   </sheetViews>
@@ -46258,12 +47882,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D00CCB-B6DB-4C83-A229-8E8205AB8F5C}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M35" sqref="M34:M35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -46271,7 +47895,7 @@
     <col min="1" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
     <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="63" width="3" customWidth="1"/>
   </cols>
@@ -46485,7 +48109,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F33" t="s">
         <v>94</v>
       </c>
@@ -46493,24 +48117,38 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G37" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D39" s="46">
+        <v>45644</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682C2733-1836-4BCB-9707-9B09B48EB3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55632EA1-1E21-480D-A4B7-A92B85840F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="2676" yWindow="2376" windowWidth="17280" windowHeight="9960" activeTab="2" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="227">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1983,12 +1983,29 @@
     <t>ゴール</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テトラがコインに触れたら取得</t>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2162,6 +2179,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2497,7 +2522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2901,6 +2926,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4217,14 +4245,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122712</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>173183</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>43544</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>989</xdr:rowOff>
+      <xdr:rowOff>70262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4269,8 +4297,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2187039" y="2528456"/>
-          <a:ext cx="10727377" cy="5473534"/>
+          <a:off x="2685803" y="3068783"/>
+          <a:ext cx="10727377" cy="5480461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9347,7 +9375,7 @@
       <xdr:col>44</xdr:col>
       <xdr:colOff>208666</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>185056</xdr:rowOff>
+      <xdr:rowOff>130627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9426,6 +9454,56 @@
         <a:xfrm>
           <a:off x="0" y="10047514"/>
           <a:ext cx="13291457" cy="4554815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>176282</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D844EF-295A-4665-B16D-B6ACFB1DAF85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14009914" y="7913916"/>
+          <a:ext cx="960054" cy="979714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10099,15 +10177,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>8964</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:colOff>16584</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10122,8 +10200,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4427220" y="6400800"/>
-          <a:ext cx="236220" cy="213360"/>
+          <a:off x="4509246" y="6553200"/>
+          <a:ext cx="240703" cy="213360"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -10167,13 +10245,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:rowOff>222324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10188,8 +10266,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5798820" y="6400800"/>
-          <a:ext cx="236220" cy="213360"/>
+          <a:off x="5898776" y="6535270"/>
+          <a:ext cx="240703" cy="213360"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -10431,13 +10509,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:rowOff>222324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10452,8 +10530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5798820" y="7543800"/>
-          <a:ext cx="236220" cy="213360"/>
+          <a:off x="5898776" y="7700682"/>
+          <a:ext cx="240703" cy="213360"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -21687,7 +21765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32F19CC-D735-47D6-A78D-F0C716DB51C5}">
   <dimension ref="A1:CW106"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AA60" sqref="AA60"/>
     </sheetView>
   </sheetViews>
@@ -22461,7 +22539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E47E61D-EA5E-443A-8270-F34DD08A8C64}">
   <dimension ref="D1:CM58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="CI54" sqref="CI54"/>
     </sheetView>
   </sheetViews>
@@ -22582,8 +22660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
   <dimension ref="A1:CP117"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN41" sqref="AN41:AN42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -23933,8 +24011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABC6063-69E1-4B0F-8C1D-68CD7B86AF98}">
   <dimension ref="C1:AQ78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN30" sqref="AN30"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -24413,10 +24491,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4B4CA0-3353-47A8-BF30-7C258F37A5C5}">
-  <dimension ref="C1:E66"/>
+  <dimension ref="C1:AZ66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z80" sqref="Z80"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ38" sqref="AZ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -24443,6 +24521,16 @@
     <row r="7" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C7" s="56" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="48:52" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="AV33" s="135" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="48:52" x14ac:dyDescent="0.45">
+      <c r="AZ37" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="5:5" s="62" customFormat="1" x14ac:dyDescent="0.45">
@@ -24462,8 +24550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5385B0-62D3-40E5-976B-7518684BC3EC}">
   <dimension ref="C1:AB104"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W103" sqref="W103"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC41" sqref="AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -24968,7 +25056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6016A-E977-49A7-BD75-FF02488C9D30}">
   <dimension ref="C1:DU82"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BE86" sqref="BE86"/>
     </sheetView>
   </sheetViews>
@@ -25711,8 +25799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
   <dimension ref="C1:ML194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HY77" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="KX63" sqref="KX63"/>
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="LV163" sqref="LV163:LV164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55632EA1-1E21-480D-A4B7-A92B85840F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1369E01B-8ACE-488B-856E-40C772BFADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="2376" windowWidth="17280" windowHeight="9960" activeTab="2" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="3588" yWindow="372" windowWidth="18072" windowHeight="13008" firstSheet="3" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -20931,59 +20931,65 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>328</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>342</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>331</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>348</xdr:col>
+      <xdr:colOff>104899</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>164275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="矢印: 上 19">
+        <xdr:cNvPr id="129" name="テキスト ボックス 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEB874E-3F86-464D-8A3C-DA390EB7F226}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D1C070-35D9-4D11-8371-8BDF8843C686}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95173800" y="27051000"/>
-          <a:ext cx="895350" cy="1657350"/>
+          <a:off x="95455047" y="26283458"/>
+          <a:ext cx="1667692" cy="1008017"/>
         </a:xfrm>
-        <a:prstGeom prst="upArrow">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>NEXT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20991,59 +20997,74 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>324</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>343</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>179121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>327</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>348</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>95993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="矢印: 上 137">
+        <xdr:cNvPr id="145" name="テキスト ボックス 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C067DD3D-D686-4CF9-A599-59CF4AE08001}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AD4A1C-84EF-4AA7-8C14-49AE5E8C2A60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19378131">
-          <a:off x="93935549" y="25146001"/>
-          <a:ext cx="895350" cy="1657350"/>
+        <a:xfrm>
+          <a:off x="95678896" y="29744721"/>
+          <a:ext cx="1567543" cy="648392"/>
         </a:xfrm>
-        <a:prstGeom prst="upArrow">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1" baseline="0"/>
+            <a:t> : 36.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>BEST TIME : 9999.00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21051,418 +21072,124 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>332</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>310</xdr:col>
+      <xdr:colOff>274123</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>226916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>335</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>317</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>53437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="矢印: 上 138">
+        <xdr:cNvPr id="146" name="テキスト ボックス 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33882E03-E6AF-4FAE-8FAC-0E2E5DA86E16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F790F89B-DF10-494C-8CB5-2F7749872EFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="1623227">
-          <a:off x="96278699" y="25126950"/>
-          <a:ext cx="895350" cy="1657350"/>
+        <a:xfrm>
+          <a:off x="86867803" y="29792516"/>
+          <a:ext cx="1817567" cy="1045721"/>
         </a:xfrm>
-        <a:prstGeom prst="upArrow">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+            <a:t>TETRE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>CHANGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" baseline="0"/>
+            <a:t> : [C] KEY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>322</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>328</xdr:col>
+      <xdr:colOff>197428</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>36416</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>326</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="矢印: 上 139">
+    <xdr:ext cx="489758" cy="511331"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="図 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A561A1CB-F2DE-490C-8767-09EA5F0D9988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B5B590-EA06-4EB1-9DA0-232B05689A36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="93516450" y="22745700"/>
-          <a:ext cx="895350" cy="1657350"/>
+          <a:off x="91728868" y="30577376"/>
+          <a:ext cx="489758" cy="511331"/>
         </a:xfrm>
-        <a:prstGeom prst="upArrow">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>333</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>336</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="矢印: 上 140">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06085DE-2E44-421F-9B02-DDCB934C55B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="96621600" y="22802850"/>
-          <a:ext cx="895350" cy="1657350"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>323</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>326</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="矢印: 上 141">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD9C8D1-FE0B-4EDC-BA35-E3783F472B66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="875723">
-          <a:off x="93573600" y="20535900"/>
-          <a:ext cx="895350" cy="1657350"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>333</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>337</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="矢印: 上 142">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6632B7-6146-4888-8988-859F1A0E69E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20575721">
-          <a:off x="96640650" y="20478750"/>
-          <a:ext cx="895350" cy="1657350"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>328</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>331</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="矢印: 上 143">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD8AFD0-D38D-4E72-B3AC-ADBC4E6D5A79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95135700" y="18116550"/>
-          <a:ext cx="895350" cy="1657350"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>327</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>333</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310417FC-BAF1-4E5C-801B-34C622977D45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="94773750" y="23698200"/>
-          <a:ext cx="1714500" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22660,7 +22387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
   <dimension ref="A1:CP117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
@@ -25799,8 +25526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
   <dimension ref="C1:ML194"/>
   <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="LV163" sqref="LV163:LV164"/>
+    <sheetView tabSelected="1" topLeftCell="EW112" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="MW143" sqref="MW143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -28823,7 +28550,7 @@
       </c>
       <c r="KZ77" s="11"/>
       <c r="LG77" s="11"/>
-      <c r="LH77" s="18"/>
+      <c r="LH77" s="15"/>
       <c r="LI77" s="18"/>
       <c r="LJ77" s="18"/>
       <c r="LL77" s="18"/>
@@ -29048,8 +28775,8 @@
       </c>
       <c r="KZ78" s="11"/>
       <c r="LG78" s="11"/>
-      <c r="LH78" s="18"/>
-      <c r="LI78" s="18"/>
+      <c r="LH78" s="15"/>
+      <c r="LI78" s="15"/>
       <c r="LJ78" s="18"/>
       <c r="LL78" s="18"/>
       <c r="LM78" s="18"/>
@@ -29273,8 +29000,8 @@
       </c>
       <c r="KZ79" s="11"/>
       <c r="LG79" s="11"/>
-      <c r="LH79" s="18"/>
-      <c r="LI79" s="18"/>
+      <c r="LH79" s="15"/>
+      <c r="LI79" s="15"/>
       <c r="LJ79" s="18"/>
       <c r="LL79" s="18"/>
       <c r="LM79" s="18"/>
@@ -29283,7 +29010,7 @@
       <c r="LP79" s="18"/>
       <c r="LQ79" s="18"/>
       <c r="LR79" s="18"/>
-      <c r="LS79" s="18"/>
+      <c r="LS79" s="15"/>
       <c r="LT79" s="18"/>
       <c r="LU79" s="18"/>
       <c r="LV79" s="18"/>
@@ -29498,7 +29225,7 @@
       </c>
       <c r="KZ80" s="11"/>
       <c r="LG80" s="11"/>
-      <c r="LH80" s="18"/>
+      <c r="LH80" s="15"/>
       <c r="LI80" s="18"/>
       <c r="LJ80" s="18"/>
       <c r="LL80" s="18"/>
@@ -29508,7 +29235,7 @@
       <c r="LP80" s="18"/>
       <c r="LQ80" s="18"/>
       <c r="LR80" s="18"/>
-      <c r="LS80" s="18"/>
+      <c r="LS80" s="15"/>
       <c r="LT80" s="18"/>
       <c r="LU80" s="18"/>
       <c r="LV80" s="18"/>
@@ -29733,8 +29460,8 @@
       <c r="LO81" s="18"/>
       <c r="LP81" s="18"/>
       <c r="LQ81" s="18"/>
-      <c r="LR81" s="18"/>
-      <c r="LS81" s="18"/>
+      <c r="LR81" s="15"/>
+      <c r="LS81" s="15"/>
       <c r="LT81" s="18"/>
       <c r="LU81" s="18"/>
       <c r="LV81" s="18"/>
@@ -29957,9 +29684,9 @@
       <c r="LO82" s="18"/>
       <c r="LP82" s="18"/>
       <c r="LQ82" s="18"/>
-      <c r="LR82" s="18"/>
-      <c r="LS82" s="18"/>
-      <c r="LT82" s="18"/>
+      <c r="LR82" s="15"/>
+      <c r="LS82" s="15"/>
+      <c r="LT82" s="15"/>
       <c r="LU82" s="18"/>
       <c r="LV82" s="18"/>
       <c r="LW82" s="18"/>
@@ -30182,10 +29909,10 @@
       <c r="LN83" s="18"/>
       <c r="LO83" s="18"/>
       <c r="LP83" s="18"/>
-      <c r="LQ83" s="18"/>
-      <c r="LR83" s="18"/>
-      <c r="LS83" s="18"/>
-      <c r="LT83" s="18"/>
+      <c r="LQ83" s="15"/>
+      <c r="LR83" s="15"/>
+      <c r="LS83" s="15"/>
+      <c r="LT83" s="15"/>
       <c r="LU83" s="18"/>
       <c r="MC83" s="18"/>
       <c r="MD83" s="18"/>
@@ -31356,10 +31083,10 @@
       <c r="LN85" s="18"/>
       <c r="LO85" s="18"/>
       <c r="LP85" s="18"/>
-      <c r="LQ85" s="18"/>
-      <c r="LR85" s="18"/>
-      <c r="LS85" s="18"/>
-      <c r="LT85" s="18"/>
+      <c r="LQ85" s="15"/>
+      <c r="LR85" s="15"/>
+      <c r="LS85" s="15"/>
+      <c r="LT85" s="15"/>
       <c r="LU85" s="18"/>
       <c r="MC85" s="18"/>
       <c r="MD85" s="18"/>
@@ -31575,10 +31302,10 @@
       <c r="LN86" s="18"/>
       <c r="LO86" s="18"/>
       <c r="LP86" s="18"/>
-      <c r="LQ86" s="18"/>
-      <c r="LR86" s="18"/>
-      <c r="LS86" s="18"/>
-      <c r="LT86" s="18"/>
+      <c r="LQ86" s="15"/>
+      <c r="LR86" s="15"/>
+      <c r="LS86" s="15"/>
+      <c r="LT86" s="15"/>
       <c r="LU86" s="18"/>
       <c r="LV86" s="18"/>
       <c r="LW86" s="18"/>
@@ -31588,8 +31315,8 @@
       <c r="MA86" s="18"/>
       <c r="MB86" s="18"/>
       <c r="MC86" s="18"/>
-      <c r="MD86" s="18"/>
-      <c r="ME86" s="18"/>
+      <c r="MD86" s="104"/>
+      <c r="ME86" s="104"/>
       <c r="MF86" s="11"/>
       <c r="ML86" s="11"/>
     </row>
@@ -31800,11 +31527,11 @@
       <c r="LM87" s="18"/>
       <c r="LN87" s="18"/>
       <c r="LO87" s="18"/>
-      <c r="LP87" s="18"/>
-      <c r="LQ87" s="18"/>
-      <c r="LR87" s="18"/>
-      <c r="LS87" s="18"/>
-      <c r="LT87" s="18"/>
+      <c r="LP87" s="15"/>
+      <c r="LQ87" s="15"/>
+      <c r="LR87" s="15"/>
+      <c r="LS87" s="15"/>
+      <c r="LT87" s="15"/>
       <c r="LU87" s="18"/>
       <c r="LV87" s="18"/>
       <c r="LW87" s="18"/>
@@ -32024,13 +31751,13 @@
       <c r="LK88" s="18"/>
       <c r="LL88" s="18"/>
       <c r="LM88" s="18"/>
-      <c r="LN88" s="18"/>
-      <c r="LO88" s="18"/>
-      <c r="LP88" s="18"/>
-      <c r="LQ88" s="18"/>
-      <c r="LR88" s="18"/>
-      <c r="LS88" s="18"/>
-      <c r="LT88" s="18"/>
+      <c r="LN88" s="15"/>
+      <c r="LO88" s="15"/>
+      <c r="LP88" s="15"/>
+      <c r="LQ88" s="15"/>
+      <c r="LR88" s="15"/>
+      <c r="LS88" s="15"/>
+      <c r="LT88" s="15"/>
       <c r="LU88" s="18"/>
       <c r="LV88" s="18"/>
       <c r="LW88" s="18"/>
@@ -32251,13 +31978,13 @@
       <c r="LL89" s="18"/>
       <c r="LM89" s="18"/>
       <c r="LN89" s="18"/>
-      <c r="LO89" s="18"/>
-      <c r="LP89" s="18"/>
-      <c r="LQ89" s="18"/>
-      <c r="LR89" s="18"/>
-      <c r="LS89" s="18"/>
-      <c r="LT89" s="18"/>
-      <c r="LU89" s="18"/>
+      <c r="LO89" s="15"/>
+      <c r="LP89" s="15"/>
+      <c r="LQ89" s="15"/>
+      <c r="LR89" s="15"/>
+      <c r="LS89" s="15"/>
+      <c r="LT89" s="15"/>
+      <c r="LU89" s="15"/>
       <c r="LV89" s="18"/>
       <c r="LW89" s="18"/>
       <c r="LX89" s="18"/>
@@ -32474,12 +32201,12 @@
       <c r="LM90" s="18"/>
       <c r="LN90" s="18"/>
       <c r="LO90" s="18"/>
-      <c r="LP90" s="18"/>
-      <c r="LQ90" s="18"/>
-      <c r="LR90" s="18"/>
-      <c r="LS90" s="18"/>
-      <c r="LT90" s="18"/>
-      <c r="LU90" s="18"/>
+      <c r="LP90" s="15"/>
+      <c r="LQ90" s="15"/>
+      <c r="LR90" s="15"/>
+      <c r="LS90" s="15"/>
+      <c r="LT90" s="15"/>
+      <c r="LU90" s="15"/>
       <c r="LV90" s="18"/>
       <c r="LW90" s="18"/>
       <c r="LX90" s="18"/>
@@ -32701,11 +32428,11 @@
       <c r="LN91" s="18"/>
       <c r="LO91" s="18"/>
       <c r="LP91" s="18"/>
-      <c r="LQ91" s="18"/>
-      <c r="LR91" s="18"/>
-      <c r="LS91" s="18"/>
-      <c r="LT91" s="18"/>
-      <c r="LU91" s="18"/>
+      <c r="LQ91" s="15"/>
+      <c r="LR91" s="15"/>
+      <c r="LS91" s="15"/>
+      <c r="LT91" s="15"/>
+      <c r="LU91" s="15"/>
       <c r="LV91" s="18"/>
       <c r="LW91" s="18"/>
       <c r="LX91" s="18"/>
@@ -32713,6 +32440,8 @@
       <c r="LZ91" s="18"/>
       <c r="MA91" s="18"/>
       <c r="MB91" s="18"/>
+      <c r="MC91" s="18"/>
+      <c r="MD91" s="18"/>
       <c r="ME91" s="18"/>
       <c r="MF91" s="11"/>
       <c r="ML91" s="11"/>
@@ -32927,10 +32656,10 @@
       <c r="LN92" s="18"/>
       <c r="LO92" s="18"/>
       <c r="LP92" s="18"/>
-      <c r="LQ92" s="18"/>
-      <c r="LR92" s="18"/>
-      <c r="LS92" s="18"/>
-      <c r="LT92" s="18"/>
+      <c r="LQ92" s="15"/>
+      <c r="LR92" s="15"/>
+      <c r="LS92" s="15"/>
+      <c r="LT92" s="15"/>
       <c r="LU92" s="18"/>
       <c r="LV92" s="18"/>
       <c r="LW92" s="18"/>
@@ -33147,9 +32876,10 @@
       <c r="LJ93" s="18"/>
       <c r="LK93" s="18"/>
       <c r="LL93" s="18"/>
-      <c r="LR93" s="18"/>
-      <c r="LS93" s="18"/>
-      <c r="LT93" s="18"/>
+      <c r="LQ93" s="15"/>
+      <c r="LR93" s="15"/>
+      <c r="LS93" s="15"/>
+      <c r="LT93" s="15"/>
       <c r="LU93" s="18"/>
       <c r="LV93" s="18"/>
       <c r="LW93" s="18"/>
@@ -34327,8 +34057,8 @@
       <c r="LO95" s="18"/>
       <c r="LP95" s="18"/>
       <c r="LQ95" s="18"/>
-      <c r="LR95" s="18"/>
-      <c r="LS95" s="18"/>
+      <c r="LR95" s="15"/>
+      <c r="LS95" s="15"/>
       <c r="LT95" s="18"/>
       <c r="LU95" s="18"/>
       <c r="LV95" s="18"/>
@@ -34338,9 +34068,9 @@
       <c r="LZ95" s="18"/>
       <c r="MA95" s="18"/>
       <c r="MB95" s="18"/>
-      <c r="MC95" s="18"/>
-      <c r="MD95" s="18"/>
-      <c r="ME95" s="18"/>
+      <c r="MC95" s="15"/>
+      <c r="MD95" s="15"/>
+      <c r="ME95" s="15"/>
       <c r="MF95" s="11"/>
       <c r="ML95" s="11"/>
     </row>
@@ -34568,9 +34298,9 @@
       <c r="LZ96" s="18"/>
       <c r="MA96" s="18"/>
       <c r="MB96" s="18"/>
-      <c r="MC96" s="18"/>
-      <c r="MD96" s="18"/>
-      <c r="ME96" s="18"/>
+      <c r="MC96" s="15"/>
+      <c r="MD96" s="15"/>
+      <c r="ME96" s="15"/>
       <c r="MF96" s="11"/>
       <c r="ML96" s="11"/>
     </row>
@@ -34875,7 +34605,7 @@
       <c r="LE97" s="18"/>
       <c r="LF97" s="18"/>
       <c r="LG97" s="11"/>
-      <c r="LH97" s="18"/>
+      <c r="LH97" s="15"/>
       <c r="LI97" s="18"/>
       <c r="LJ97" s="18"/>
       <c r="LK97" s="18"/>
@@ -35106,8 +34836,8 @@
       </c>
       <c r="KZ98" s="73"/>
       <c r="LG98" s="73"/>
-      <c r="LH98" s="18"/>
-      <c r="LI98" s="18"/>
+      <c r="LH98" s="15"/>
+      <c r="LI98" s="15"/>
       <c r="LJ98" s="18"/>
       <c r="LK98" s="18"/>
       <c r="LL98" s="18"/>
@@ -35332,7 +35062,7 @@
       </c>
       <c r="KZ99" s="73"/>
       <c r="LG99" s="73"/>
-      <c r="LH99" s="18"/>
+      <c r="LH99" s="15"/>
       <c r="LI99" s="18"/>
       <c r="LJ99" s="18"/>
       <c r="LK99" s="18"/>
@@ -36019,11 +35749,11 @@
       <c r="LN102" s="18"/>
       <c r="LO102" s="18"/>
       <c r="LP102" s="18"/>
-      <c r="LQ102" s="18"/>
-      <c r="LR102" s="18"/>
-      <c r="LS102" s="18"/>
-      <c r="LT102" s="18"/>
-      <c r="LU102" s="18"/>
+      <c r="LQ102" s="15"/>
+      <c r="LR102" s="15"/>
+      <c r="LS102" s="15"/>
+      <c r="LT102" s="15"/>
+      <c r="LU102" s="15"/>
       <c r="LV102" s="18"/>
       <c r="LW102" s="18"/>
       <c r="LX102" s="18"/>
@@ -36245,13 +35975,13 @@
       <c r="LM103" s="18"/>
       <c r="LN103" s="18"/>
       <c r="LO103" s="18"/>
-      <c r="LP103" s="18"/>
-      <c r="LQ103" s="18"/>
-      <c r="LR103" s="18"/>
-      <c r="LS103" s="18"/>
-      <c r="LT103" s="18"/>
-      <c r="LU103" s="18"/>
-      <c r="LV103" s="18"/>
+      <c r="LP103" s="15"/>
+      <c r="LQ103" s="15"/>
+      <c r="LR103" s="15"/>
+      <c r="LS103" s="15"/>
+      <c r="LT103" s="15"/>
+      <c r="LU103" s="15"/>
+      <c r="LV103" s="15"/>
       <c r="LW103" s="18"/>
       <c r="LX103" s="18"/>
       <c r="LY103" s="18"/>
@@ -37427,11 +37157,11 @@
       <c r="LN105" s="18"/>
       <c r="LO105" s="18"/>
       <c r="LP105" s="18"/>
-      <c r="LQ105" s="18"/>
-      <c r="LR105" s="18"/>
-      <c r="LS105" s="18"/>
-      <c r="LT105" s="18"/>
-      <c r="LU105" s="18"/>
+      <c r="LQ105" s="15"/>
+      <c r="LR105" s="15"/>
+      <c r="LS105" s="15"/>
+      <c r="LT105" s="15"/>
+      <c r="LU105" s="15"/>
       <c r="LV105" s="18"/>
       <c r="LW105" s="18"/>
       <c r="LX105" s="18"/>
@@ -37441,7 +37171,7 @@
       <c r="MB105" s="18"/>
       <c r="MC105" s="18"/>
       <c r="MD105" s="18"/>
-      <c r="ME105" s="18"/>
+      <c r="ME105" s="15"/>
       <c r="MF105" s="73"/>
       <c r="ML105" s="11"/>
     </row>
@@ -37654,9 +37384,9 @@
       <c r="LO106" s="18"/>
       <c r="LP106" s="18"/>
       <c r="LQ106" s="18"/>
-      <c r="LR106" s="18"/>
-      <c r="LS106" s="18"/>
-      <c r="LT106" s="18"/>
+      <c r="LR106" s="15"/>
+      <c r="LS106" s="15"/>
+      <c r="LT106" s="15"/>
       <c r="LU106" s="18"/>
       <c r="LV106" s="18"/>
       <c r="LW106" s="18"/>
@@ -37666,8 +37396,8 @@
       <c r="MA106" s="18"/>
       <c r="MB106" s="18"/>
       <c r="MC106" s="18"/>
-      <c r="MD106" s="18"/>
-      <c r="ME106" s="18"/>
+      <c r="MD106" s="15"/>
+      <c r="ME106" s="15"/>
       <c r="MF106" s="73"/>
       <c r="ML106" s="11"/>
     </row>
@@ -37880,9 +37610,9 @@
       <c r="LO107" s="18"/>
       <c r="LP107" s="18"/>
       <c r="LQ107" s="18"/>
-      <c r="LR107" s="18"/>
-      <c r="LS107" s="18"/>
-      <c r="LT107" s="18"/>
+      <c r="LR107" s="15"/>
+      <c r="LS107" s="15"/>
+      <c r="LT107" s="15"/>
       <c r="LU107" s="18"/>
       <c r="LV107" s="18"/>
       <c r="LW107" s="18"/>
@@ -37891,9 +37621,9 @@
       <c r="LZ107" s="18"/>
       <c r="MA107" s="18"/>
       <c r="MB107" s="18"/>
-      <c r="MC107" s="18"/>
-      <c r="MD107" s="18"/>
-      <c r="ME107" s="18"/>
+      <c r="MC107" s="15"/>
+      <c r="MD107" s="15"/>
+      <c r="ME107" s="15"/>
       <c r="MF107" s="73"/>
       <c r="ML107" s="11"/>
     </row>
@@ -38106,10 +37836,10 @@
       <c r="LO108" s="18"/>
       <c r="LP108" s="18"/>
       <c r="LQ108" s="18"/>
-      <c r="LR108" s="18"/>
-      <c r="LS108" s="18"/>
-      <c r="LT108" s="18"/>
-      <c r="LU108" s="18"/>
+      <c r="LR108" s="15"/>
+      <c r="LS108" s="15"/>
+      <c r="LT108" s="15"/>
+      <c r="LU108" s="104"/>
       <c r="LV108" s="18"/>
       <c r="LW108" s="18"/>
       <c r="LX108" s="18"/>
@@ -38118,8 +37848,8 @@
       <c r="MA108" s="18"/>
       <c r="MB108" s="18"/>
       <c r="MC108" s="18"/>
-      <c r="MD108" s="18"/>
-      <c r="ME108" s="18"/>
+      <c r="MD108" s="15"/>
+      <c r="ME108" s="15"/>
       <c r="MF108" s="73"/>
       <c r="ML108" s="11"/>
     </row>
@@ -38332,10 +38062,10 @@
       <c r="LO109" s="18"/>
       <c r="LP109" s="18"/>
       <c r="LQ109" s="18"/>
-      <c r="LR109" s="18"/>
-      <c r="LS109" s="18"/>
-      <c r="LT109" s="18"/>
-      <c r="LU109" s="18"/>
+      <c r="LR109" s="15"/>
+      <c r="LS109" s="15"/>
+      <c r="LT109" s="15"/>
+      <c r="LU109" s="104"/>
       <c r="LV109" s="18"/>
       <c r="LW109" s="18"/>
       <c r="LX109" s="18"/>
@@ -38345,7 +38075,7 @@
       <c r="MB109" s="18"/>
       <c r="MC109" s="18"/>
       <c r="MD109" s="18"/>
-      <c r="ME109" s="18"/>
+      <c r="ME109" s="15"/>
       <c r="MF109" s="73"/>
       <c r="ML109" s="11"/>
     </row>
@@ -38558,9 +38288,9 @@
       <c r="LO110" s="18"/>
       <c r="LP110" s="18"/>
       <c r="LQ110" s="18"/>
-      <c r="LR110" s="18"/>
-      <c r="LS110" s="18"/>
-      <c r="LT110" s="18"/>
+      <c r="LR110" s="15"/>
+      <c r="LS110" s="15"/>
+      <c r="LT110" s="15"/>
       <c r="LU110" s="18"/>
       <c r="LV110" s="18"/>
       <c r="LW110" s="18"/>
@@ -38774,7 +38504,7 @@
       </c>
       <c r="KZ111" s="73"/>
       <c r="LG111" s="73"/>
-      <c r="LH111" s="18"/>
+      <c r="LH111" s="15"/>
       <c r="LI111" s="18"/>
       <c r="LJ111" s="18"/>
       <c r="LK111" s="18"/>
@@ -38784,9 +38514,9 @@
       <c r="LO111" s="18"/>
       <c r="LP111" s="18"/>
       <c r="LQ111" s="18"/>
-      <c r="LR111" s="18"/>
-      <c r="LS111" s="18"/>
-      <c r="LT111" s="18"/>
+      <c r="LR111" s="15"/>
+      <c r="LS111" s="15"/>
+      <c r="LT111" s="15"/>
       <c r="LU111" s="18"/>
       <c r="LV111" s="18"/>
       <c r="LW111" s="18"/>
@@ -39000,8 +38730,8 @@
       </c>
       <c r="KZ112" s="73"/>
       <c r="LG112" s="73"/>
-      <c r="LH112" s="18"/>
-      <c r="LI112" s="18"/>
+      <c r="LH112" s="15"/>
+      <c r="LI112" s="15"/>
       <c r="LJ112" s="18"/>
       <c r="LK112" s="18"/>
       <c r="LL112" s="18"/>
@@ -39010,8 +38740,8 @@
       <c r="LO112" s="18"/>
       <c r="LP112" s="18"/>
       <c r="LQ112" s="18"/>
-      <c r="LR112" s="18"/>
-      <c r="LS112" s="18"/>
+      <c r="LR112" s="15"/>
+      <c r="LS112" s="15"/>
       <c r="LT112" s="18"/>
       <c r="LU112" s="18"/>
       <c r="LV112" s="18"/>
@@ -41053,7 +40783,7 @@
       </c>
       <c r="KZ118" s="73"/>
       <c r="LG118" s="73"/>
-      <c r="LH118" s="18"/>
+      <c r="LH118" s="15"/>
       <c r="LI118" s="18"/>
       <c r="LJ118" s="18"/>
       <c r="LK118" s="18"/>
@@ -41279,8 +41009,8 @@
       </c>
       <c r="KZ119" s="73"/>
       <c r="LG119" s="73"/>
-      <c r="LH119" s="18"/>
-      <c r="LI119" s="18"/>
+      <c r="LH119" s="15"/>
+      <c r="LI119" s="15"/>
       <c r="LJ119" s="18"/>
       <c r="LK119" s="18"/>
       <c r="LL119" s="18"/>
@@ -41302,7 +41032,7 @@
       <c r="MB119" s="18"/>
       <c r="MC119" s="18"/>
       <c r="MD119" s="18"/>
-      <c r="ME119" s="18"/>
+      <c r="ME119" s="15"/>
       <c r="MF119" s="73"/>
       <c r="ML119" s="11"/>
     </row>
@@ -41412,9 +41142,9 @@
       </c>
       <c r="KZ120" s="73"/>
       <c r="LG120" s="73"/>
-      <c r="LH120" s="18"/>
-      <c r="LI120" s="18"/>
-      <c r="LJ120" s="18"/>
+      <c r="LH120" s="15"/>
+      <c r="LI120" s="15"/>
+      <c r="LJ120" s="15"/>
       <c r="LK120" s="18"/>
       <c r="LL120" s="18"/>
       <c r="LM120" s="18"/>
@@ -41433,9 +41163,9 @@
       <c r="LZ120" s="18"/>
       <c r="MA120" s="18"/>
       <c r="MB120" s="18"/>
-      <c r="MC120" s="18"/>
-      <c r="MD120" s="18"/>
-      <c r="ME120" s="18"/>
+      <c r="MC120" s="15"/>
+      <c r="MD120" s="15"/>
+      <c r="ME120" s="15"/>
       <c r="MF120" s="73"/>
       <c r="ML120" s="11"/>
     </row>
@@ -41544,9 +41274,9 @@
       </c>
       <c r="KZ121" s="73"/>
       <c r="LG121" s="73"/>
-      <c r="LH121" s="18"/>
-      <c r="LI121" s="18"/>
-      <c r="LJ121" s="18"/>
+      <c r="LH121" s="15"/>
+      <c r="LI121" s="15"/>
+      <c r="LJ121" s="15"/>
       <c r="LK121" s="18"/>
       <c r="LL121" s="18"/>
       <c r="LM121" s="18"/>
@@ -41564,10 +41294,10 @@
       <c r="LY121" s="18"/>
       <c r="LZ121" s="18"/>
       <c r="MA121" s="18"/>
-      <c r="MB121" s="18"/>
-      <c r="MC121" s="18"/>
-      <c r="MD121" s="18"/>
-      <c r="ME121" s="18"/>
+      <c r="MB121" s="15"/>
+      <c r="MC121" s="15"/>
+      <c r="MD121" s="15"/>
+      <c r="ME121" s="15"/>
       <c r="MF121" s="73"/>
       <c r="ML121" s="11"/>
     </row>
@@ -41632,6 +41362,15 @@
       </c>
       <c r="KZ122" s="73"/>
       <c r="LG122" s="73"/>
+      <c r="LH122" s="15"/>
+      <c r="LI122" s="15"/>
+      <c r="LJ122" s="15"/>
+      <c r="LK122" s="15"/>
+      <c r="LL122" s="18"/>
+      <c r="MB122" s="15"/>
+      <c r="MC122" s="15"/>
+      <c r="MD122" s="15"/>
+      <c r="ME122" s="15"/>
       <c r="MF122" s="73"/>
       <c r="ML122" s="11"/>
     </row>
@@ -41694,6 +41433,17 @@
       </c>
       <c r="KZ123" s="73"/>
       <c r="LG123" s="11"/>
+      <c r="LH123" s="15"/>
+      <c r="LI123" s="15"/>
+      <c r="LJ123" s="15"/>
+      <c r="LK123" s="15"/>
+      <c r="LL123" s="15"/>
+      <c r="LZ123" s="15"/>
+      <c r="MA123" s="15"/>
+      <c r="MB123" s="15"/>
+      <c r="MC123" s="15"/>
+      <c r="MD123" s="15"/>
+      <c r="ME123" s="15"/>
       <c r="MF123" s="11"/>
       <c r="ML123" s="11"/>
     </row>
@@ -42038,7 +41788,7 @@
       <c r="MK124" s="73"/>
       <c r="ML124" s="11"/>
     </row>
-    <row r="129" spans="4:306" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="4:349" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D129" s="116" t="s">
         <v>152</v>
       </c>
@@ -42232,12 +41982,12 @@
       <c r="GJ129" s="9"/>
       <c r="GK129" s="9"/>
     </row>
-    <row r="132" spans="4:306" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="132" spans="4:349" ht="19.8" x14ac:dyDescent="0.45">
       <c r="D132" s="115" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="134" spans="4:349" x14ac:dyDescent="0.45">
       <c r="N134">
         <v>1</v>
       </c>
@@ -42311,7 +42061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="135" spans="4:349" x14ac:dyDescent="0.45">
       <c r="E135">
         <v>55</v>
       </c>
@@ -42609,8 +42359,50 @@
       <c r="KR135" s="11"/>
       <c r="KS135" s="11"/>
       <c r="KT135" s="11"/>
+      <c r="KX135">
+        <v>55</v>
+      </c>
+      <c r="KY135" s="11"/>
+      <c r="KZ135" s="11"/>
+      <c r="LA135" s="11"/>
+      <c r="LB135" s="11"/>
+      <c r="LC135" s="11"/>
+      <c r="LD135" s="11"/>
+      <c r="LE135" s="11"/>
+      <c r="LF135" s="11"/>
+      <c r="LG135" s="11"/>
+      <c r="LH135" s="11"/>
+      <c r="LI135" s="11"/>
+      <c r="LJ135" s="11"/>
+      <c r="LK135" s="11"/>
+      <c r="LL135" s="11"/>
+      <c r="LM135" s="11"/>
+      <c r="LN135" s="11"/>
+      <c r="LO135" s="11"/>
+      <c r="LP135" s="11"/>
+      <c r="LQ135" s="11"/>
+      <c r="LR135" s="11"/>
+      <c r="LS135" s="11"/>
+      <c r="LT135" s="11"/>
+      <c r="LU135" s="11"/>
+      <c r="LV135" s="11"/>
+      <c r="LW135" s="11"/>
+      <c r="LX135" s="11"/>
+      <c r="LY135" s="11"/>
+      <c r="LZ135" s="11"/>
+      <c r="MA135" s="11"/>
+      <c r="MB135" s="11"/>
+      <c r="MC135" s="11"/>
+      <c r="MD135" s="11"/>
+      <c r="ME135" s="11"/>
+      <c r="MF135" s="11"/>
+      <c r="MG135" s="11"/>
+      <c r="MH135" s="11"/>
+      <c r="MI135" s="11"/>
+      <c r="MJ135" s="11"/>
+      <c r="MK135" s="11"/>
     </row>
-    <row r="136" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="136" spans="4:349" x14ac:dyDescent="0.45">
       <c r="E136">
         <v>54</v>
       </c>
@@ -42908,8 +42700,50 @@
       <c r="KR136" s="18"/>
       <c r="KS136" s="18"/>
       <c r="KT136" s="11"/>
+      <c r="KX136">
+        <v>54</v>
+      </c>
+      <c r="KY136" s="11"/>
+      <c r="KZ136" s="18"/>
+      <c r="LA136" s="18"/>
+      <c r="LB136" s="18"/>
+      <c r="LC136" s="18"/>
+      <c r="LD136" s="18"/>
+      <c r="LE136" s="18"/>
+      <c r="LF136" s="11"/>
+      <c r="LG136" s="18"/>
+      <c r="LH136" s="18"/>
+      <c r="LI136" s="18"/>
+      <c r="LJ136" s="18"/>
+      <c r="LK136" s="18"/>
+      <c r="LL136" s="18"/>
+      <c r="LM136" s="18"/>
+      <c r="LN136" s="18"/>
+      <c r="LO136" s="18"/>
+      <c r="LP136" s="18"/>
+      <c r="LQ136" s="18"/>
+      <c r="LR136" s="18"/>
+      <c r="LS136" s="18"/>
+      <c r="LT136" s="18"/>
+      <c r="LU136" s="18"/>
+      <c r="LV136" s="18"/>
+      <c r="LW136" s="18"/>
+      <c r="LX136" s="18"/>
+      <c r="LY136" s="18"/>
+      <c r="LZ136" s="18"/>
+      <c r="MA136" s="18"/>
+      <c r="MB136" s="18"/>
+      <c r="MC136" s="18"/>
+      <c r="MD136" s="18"/>
+      <c r="ME136" s="11"/>
+      <c r="MF136" s="18"/>
+      <c r="MG136" s="18"/>
+      <c r="MH136" s="18"/>
+      <c r="MI136" s="18"/>
+      <c r="MJ136" s="18"/>
+      <c r="MK136" s="11"/>
     </row>
-    <row r="137" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="137" spans="4:349" x14ac:dyDescent="0.45">
       <c r="E137">
         <v>53</v>
       </c>
@@ -42959,8 +42793,15 @@
       <c r="JO137" s="11"/>
       <c r="KN137" s="11"/>
       <c r="KT137" s="11"/>
+      <c r="KX137">
+        <v>53</v>
+      </c>
+      <c r="KY137" s="11"/>
+      <c r="LF137" s="11"/>
+      <c r="ME137" s="11"/>
+      <c r="MK137" s="11"/>
     </row>
-    <row r="138" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="138" spans="4:349" x14ac:dyDescent="0.45">
       <c r="E138">
         <v>52</v>
       </c>
@@ -43016,8 +42857,15 @@
       <c r="JU138" s="18"/>
       <c r="KN138" s="11"/>
       <c r="KT138" s="11"/>
+      <c r="KX138">
+        <v>52</v>
+      </c>
+      <c r="KY138" s="11"/>
+      <c r="LF138" s="11"/>
+      <c r="ME138" s="11"/>
+      <c r="MK138" s="11"/>
     </row>
-    <row r="139" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="139" spans="4:349" x14ac:dyDescent="0.45">
       <c r="E139">
         <v>51</v>
       </c>
@@ -43315,8 +43163,50 @@
       <c r="KR139" s="18"/>
       <c r="KS139" s="18"/>
       <c r="KT139" s="11"/>
+      <c r="KX139">
+        <v>51</v>
+      </c>
+      <c r="KY139" s="11"/>
+      <c r="KZ139" s="18"/>
+      <c r="LA139" s="18"/>
+      <c r="LB139" s="18"/>
+      <c r="LC139" s="18"/>
+      <c r="LD139" s="18"/>
+      <c r="LE139" s="18"/>
+      <c r="LF139" s="11"/>
+      <c r="LG139" s="18"/>
+      <c r="LH139" s="18"/>
+      <c r="LI139" s="18"/>
+      <c r="LJ139" s="18"/>
+      <c r="LK139" s="18"/>
+      <c r="LL139" s="18"/>
+      <c r="LM139" s="18"/>
+      <c r="LN139" s="18"/>
+      <c r="LO139" s="18"/>
+      <c r="LP139" s="18"/>
+      <c r="LQ139" s="18"/>
+      <c r="LR139" s="18"/>
+      <c r="LS139" s="18"/>
+      <c r="LT139" s="18"/>
+      <c r="LU139" s="18"/>
+      <c r="LV139" s="18"/>
+      <c r="LW139" s="18"/>
+      <c r="LX139" s="18"/>
+      <c r="LY139" s="18"/>
+      <c r="LZ139" s="18"/>
+      <c r="MA139" s="18"/>
+      <c r="MB139" s="18"/>
+      <c r="MC139" s="18"/>
+      <c r="MD139" s="18"/>
+      <c r="ME139" s="11"/>
+      <c r="MF139" s="18"/>
+      <c r="MG139" s="18"/>
+      <c r="MH139" s="18"/>
+      <c r="MI139" s="18"/>
+      <c r="MJ139" s="18"/>
+      <c r="MK139" s="11"/>
     </row>
-    <row r="140" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="140" spans="4:349" x14ac:dyDescent="0.45">
       <c r="E140" s="14">
         <v>50</v>
       </c>
@@ -43588,8 +43478,45 @@
       <c r="KM140" s="14"/>
       <c r="KN140" s="11"/>
       <c r="KT140" s="11"/>
+      <c r="KX140" s="14">
+        <v>50</v>
+      </c>
+      <c r="KY140" s="11"/>
+      <c r="KZ140" s="18"/>
+      <c r="LA140" s="18"/>
+      <c r="LB140" s="18"/>
+      <c r="LC140" s="18"/>
+      <c r="LD140" s="18"/>
+      <c r="LE140" s="18"/>
+      <c r="LF140" s="11"/>
+      <c r="LG140" s="14"/>
+      <c r="LH140" s="14"/>
+      <c r="LI140" s="14"/>
+      <c r="LJ140" s="14"/>
+      <c r="LK140" s="14"/>
+      <c r="LL140" s="14"/>
+      <c r="LM140" s="14"/>
+      <c r="LN140" s="14"/>
+      <c r="LO140" s="14"/>
+      <c r="LP140" s="14"/>
+      <c r="LQ140" s="14"/>
+      <c r="LR140" s="14"/>
+      <c r="LS140" s="14"/>
+      <c r="LT140" s="14"/>
+      <c r="LU140" s="14"/>
+      <c r="LV140" s="14"/>
+      <c r="LW140" s="14"/>
+      <c r="LX140" s="14"/>
+      <c r="LY140" s="14"/>
+      <c r="LZ140" s="14"/>
+      <c r="MA140" s="14"/>
+      <c r="MB140" s="14"/>
+      <c r="MC140" s="14"/>
+      <c r="MD140" s="14"/>
+      <c r="ME140" s="11"/>
+      <c r="MK140" s="11"/>
     </row>
-    <row r="141" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="141" spans="4:349" x14ac:dyDescent="0.45">
       <c r="E141">
         <v>49</v>
       </c>
@@ -43673,8 +43600,39 @@
       <c r="KI141" s="15"/>
       <c r="KN141" s="11"/>
       <c r="KT141" s="11"/>
+      <c r="KX141">
+        <v>49</v>
+      </c>
+      <c r="KY141" s="11"/>
+      <c r="LF141" s="11"/>
+      <c r="LG141" s="18"/>
+      <c r="LH141" s="18"/>
+      <c r="LI141" s="18"/>
+      <c r="LJ141" s="18"/>
+      <c r="LK141" s="18"/>
+      <c r="LL141" s="18"/>
+      <c r="LM141" s="18"/>
+      <c r="LN141" s="18"/>
+      <c r="LO141" s="18"/>
+      <c r="LP141" s="18"/>
+      <c r="LQ141" s="18"/>
+      <c r="LR141" s="18"/>
+      <c r="LS141" s="18"/>
+      <c r="LT141" s="18"/>
+      <c r="LU141" s="18"/>
+      <c r="LV141" s="18"/>
+      <c r="LW141" s="18"/>
+      <c r="LX141" s="18"/>
+      <c r="LY141" s="18"/>
+      <c r="LZ141" s="18"/>
+      <c r="MA141" s="18"/>
+      <c r="MB141" s="18"/>
+      <c r="MC141" s="18"/>
+      <c r="MD141" s="18"/>
+      <c r="ME141" s="11"/>
+      <c r="MK141" s="11"/>
     </row>
-    <row r="142" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="142" spans="4:349" x14ac:dyDescent="0.45">
       <c r="E142">
         <v>48</v>
       </c>
@@ -43871,8 +43829,39 @@
       <c r="KM142" s="18"/>
       <c r="KN142" s="11"/>
       <c r="KT142" s="11"/>
+      <c r="KX142">
+        <v>48</v>
+      </c>
+      <c r="KY142" s="11"/>
+      <c r="LF142" s="11"/>
+      <c r="LG142" s="18"/>
+      <c r="LH142" s="18"/>
+      <c r="LI142" s="18"/>
+      <c r="LJ142" s="18"/>
+      <c r="LK142" s="18"/>
+      <c r="LL142" s="18"/>
+      <c r="LM142" s="18"/>
+      <c r="LN142" s="18"/>
+      <c r="LO142" s="18"/>
+      <c r="LP142" s="18"/>
+      <c r="LQ142" s="18"/>
+      <c r="LR142" s="3"/>
+      <c r="LS142" s="18"/>
+      <c r="LT142" s="18"/>
+      <c r="LU142" s="18"/>
+      <c r="LV142" s="18"/>
+      <c r="LW142" s="18"/>
+      <c r="LX142" s="18"/>
+      <c r="LY142" s="18"/>
+      <c r="LZ142" s="18"/>
+      <c r="MA142" s="18"/>
+      <c r="MB142" s="18"/>
+      <c r="MC142" s="18"/>
+      <c r="MD142" s="18"/>
+      <c r="ME142" s="11"/>
+      <c r="MK142" s="11"/>
     </row>
-    <row r="143" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="143" spans="4:349" x14ac:dyDescent="0.45">
       <c r="E143">
         <v>47</v>
       </c>
@@ -44066,8 +44055,37 @@
       <c r="KM143" s="18"/>
       <c r="KN143" s="11"/>
       <c r="KT143" s="11"/>
+      <c r="KX143">
+        <v>47</v>
+      </c>
+      <c r="KY143" s="11"/>
+      <c r="LF143" s="11"/>
+      <c r="LG143" s="15"/>
+      <c r="LH143" s="18"/>
+      <c r="LI143" s="18"/>
+      <c r="LK143" s="18"/>
+      <c r="LL143" s="18"/>
+      <c r="LM143" s="18"/>
+      <c r="LO143" s="18"/>
+      <c r="LP143" s="18"/>
+      <c r="LQ143" s="18"/>
+      <c r="LR143" s="18"/>
+      <c r="LS143" s="18"/>
+      <c r="LT143" s="18"/>
+      <c r="LU143" s="18"/>
+      <c r="LV143" s="18"/>
+      <c r="LW143" s="18"/>
+      <c r="LX143" s="18"/>
+      <c r="LY143" s="18"/>
+      <c r="LZ143" s="18"/>
+      <c r="MA143" s="18"/>
+      <c r="MB143" s="18"/>
+      <c r="MC143" s="18"/>
+      <c r="MD143" s="18"/>
+      <c r="ME143" s="11"/>
+      <c r="MK143" s="11"/>
     </row>
-    <row r="144" spans="4:306" x14ac:dyDescent="0.45">
+    <row r="144" spans="4:349" x14ac:dyDescent="0.45">
       <c r="E144">
         <v>46</v>
       </c>
@@ -44262,8 +44280,38 @@
       <c r="KM144" s="15"/>
       <c r="KN144" s="11"/>
       <c r="KT144" s="11"/>
+      <c r="KX144">
+        <v>46</v>
+      </c>
+      <c r="KY144" s="11"/>
+      <c r="LF144" s="11"/>
+      <c r="LG144" s="15"/>
+      <c r="LH144" s="15"/>
+      <c r="LI144" s="18"/>
+      <c r="LK144" s="18"/>
+      <c r="LL144" s="18"/>
+      <c r="LM144" s="18"/>
+      <c r="LN144" s="18"/>
+      <c r="LO144" s="18"/>
+      <c r="LP144" s="18"/>
+      <c r="LQ144" s="18"/>
+      <c r="LR144" s="18"/>
+      <c r="LS144" s="18"/>
+      <c r="LT144" s="18"/>
+      <c r="LU144" s="18"/>
+      <c r="LV144" s="18"/>
+      <c r="LW144" s="18"/>
+      <c r="LX144" s="18"/>
+      <c r="LY144" s="18"/>
+      <c r="LZ144" s="18"/>
+      <c r="MA144" s="18"/>
+      <c r="MB144" s="18"/>
+      <c r="MC144" s="18"/>
+      <c r="MD144" s="18"/>
+      <c r="ME144" s="11"/>
+      <c r="MK144" s="11"/>
     </row>
-    <row r="145" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="145" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E145">
         <v>45</v>
       </c>
@@ -44457,8 +44505,36 @@
       <c r="KM145" s="15"/>
       <c r="KN145" s="11"/>
       <c r="KT145" s="11"/>
+      <c r="KX145">
+        <v>45</v>
+      </c>
+      <c r="KY145" s="11"/>
+      <c r="LF145" s="11"/>
+      <c r="LG145" s="15"/>
+      <c r="LH145" s="15"/>
+      <c r="LI145" s="18"/>
+      <c r="LK145" s="18"/>
+      <c r="LM145" s="18"/>
+      <c r="LN145" s="18"/>
+      <c r="LO145" s="18"/>
+      <c r="LP145" s="18"/>
+      <c r="LQ145" s="18"/>
+      <c r="LR145" s="15"/>
+      <c r="LS145" s="18"/>
+      <c r="LT145" s="18"/>
+      <c r="LU145" s="18"/>
+      <c r="LW145" s="18"/>
+      <c r="LX145" s="18"/>
+      <c r="LY145" s="18"/>
+      <c r="LZ145" s="18"/>
+      <c r="MA145" s="18"/>
+      <c r="MB145" s="18"/>
+      <c r="MC145" s="18"/>
+      <c r="MD145" s="18"/>
+      <c r="ME145" s="11"/>
+      <c r="MK145" s="11"/>
     </row>
-    <row r="146" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="146" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E146">
         <v>44</v>
       </c>
@@ -44653,8 +44729,38 @@
       <c r="KM146" s="15"/>
       <c r="KN146" s="11"/>
       <c r="KT146" s="11"/>
+      <c r="KX146">
+        <v>44</v>
+      </c>
+      <c r="KY146" s="11"/>
+      <c r="LF146" s="11"/>
+      <c r="LG146" s="15"/>
+      <c r="LH146" s="18"/>
+      <c r="LI146" s="18"/>
+      <c r="LK146" s="18"/>
+      <c r="LL146" s="18"/>
+      <c r="LM146" s="18"/>
+      <c r="LN146" s="18"/>
+      <c r="LO146" s="18"/>
+      <c r="LP146" s="18"/>
+      <c r="LQ146" s="18"/>
+      <c r="LR146" s="15"/>
+      <c r="LS146" s="18"/>
+      <c r="LT146" s="18"/>
+      <c r="LU146" s="18"/>
+      <c r="LV146" s="18"/>
+      <c r="LW146" s="18"/>
+      <c r="LX146" s="18"/>
+      <c r="LY146" s="18"/>
+      <c r="LZ146" s="18"/>
+      <c r="MA146" s="18"/>
+      <c r="MB146" s="18"/>
+      <c r="MC146" s="18"/>
+      <c r="MD146" s="18"/>
+      <c r="ME146" s="11"/>
+      <c r="MK146" s="11"/>
     </row>
-    <row r="147" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="147" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E147">
         <v>43</v>
       </c>
@@ -44849,8 +44955,37 @@
       <c r="KM147" s="15"/>
       <c r="KN147" s="11"/>
       <c r="KT147" s="11"/>
+      <c r="KX147">
+        <v>43</v>
+      </c>
+      <c r="KY147" s="11"/>
+      <c r="LF147" s="11"/>
+      <c r="LG147" s="18"/>
+      <c r="LH147" s="3"/>
+      <c r="LI147" s="18"/>
+      <c r="LK147" s="18"/>
+      <c r="LL147" s="18"/>
+      <c r="LM147" s="3"/>
+      <c r="LN147" s="18"/>
+      <c r="LO147" s="18"/>
+      <c r="LP147" s="18"/>
+      <c r="LQ147" s="15"/>
+      <c r="LR147" s="15"/>
+      <c r="LS147" s="18"/>
+      <c r="LT147" s="18"/>
+      <c r="LU147" s="18"/>
+      <c r="LV147" s="18"/>
+      <c r="LX147" s="18"/>
+      <c r="LY147" s="18"/>
+      <c r="LZ147" s="18"/>
+      <c r="MA147" s="18"/>
+      <c r="MB147" s="18"/>
+      <c r="MC147" s="18"/>
+      <c r="MD147" s="18"/>
+      <c r="ME147" s="11"/>
+      <c r="MK147" s="11"/>
     </row>
-    <row r="148" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="148" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E148">
         <v>42</v>
       </c>
@@ -45044,8 +45179,38 @@
       <c r="KM148" s="15"/>
       <c r="KN148" s="11"/>
       <c r="KT148" s="11"/>
+      <c r="KX148">
+        <v>42</v>
+      </c>
+      <c r="KY148" s="11"/>
+      <c r="LF148" s="11"/>
+      <c r="LG148" s="18"/>
+      <c r="LH148" s="18"/>
+      <c r="LI148" s="18"/>
+      <c r="LK148" s="18"/>
+      <c r="LL148" s="18"/>
+      <c r="LM148" s="18"/>
+      <c r="LN148" s="18"/>
+      <c r="LO148" s="18"/>
+      <c r="LP148" s="18"/>
+      <c r="LQ148" s="15"/>
+      <c r="LR148" s="15"/>
+      <c r="LS148" s="15"/>
+      <c r="LT148" s="18"/>
+      <c r="LU148" s="18"/>
+      <c r="LV148" s="18"/>
+      <c r="LW148" s="3"/>
+      <c r="LX148" s="18"/>
+      <c r="LY148" s="18"/>
+      <c r="LZ148" s="18"/>
+      <c r="MA148" s="18"/>
+      <c r="MB148" s="18"/>
+      <c r="MC148" s="18"/>
+      <c r="MD148" s="18"/>
+      <c r="ME148" s="11"/>
+      <c r="MK148" s="11"/>
     </row>
-    <row r="149" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="149" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E149">
         <v>41</v>
       </c>
@@ -45239,8 +45404,31 @@
       <c r="KM149" s="15"/>
       <c r="KN149" s="11"/>
       <c r="KT149" s="11"/>
+      <c r="KX149">
+        <v>41</v>
+      </c>
+      <c r="KY149" s="11"/>
+      <c r="LF149" s="11"/>
+      <c r="LG149" s="18"/>
+      <c r="LI149" s="18"/>
+      <c r="LJ149" s="18"/>
+      <c r="LK149" s="18"/>
+      <c r="LL149" s="18"/>
+      <c r="LM149" s="18"/>
+      <c r="LN149" s="18"/>
+      <c r="LO149" s="18"/>
+      <c r="LP149" s="15"/>
+      <c r="LQ149" s="15"/>
+      <c r="LR149" s="15"/>
+      <c r="LS149" s="15"/>
+      <c r="LT149" s="18"/>
+      <c r="MB149" s="18"/>
+      <c r="MC149" s="18"/>
+      <c r="MD149" s="18"/>
+      <c r="ME149" s="11"/>
+      <c r="MK149" s="11"/>
     </row>
-    <row r="150" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="150" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E150" s="113">
         <v>40</v>
       </c>
@@ -46076,8 +46264,126 @@
         <v>40</v>
       </c>
       <c r="KT150" s="11"/>
+      <c r="KX150" s="113">
+        <v>40</v>
+      </c>
+      <c r="KY150" s="113">
+        <v>40</v>
+      </c>
+      <c r="KZ150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LA150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LB150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LC150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LD150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LE150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LF150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LG150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LH150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LI150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LJ150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LK150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LL150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LM150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LN150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LO150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LP150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LQ150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LR150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LS150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LT150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LU150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LV150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LW150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LX150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LY150" s="113">
+        <v>40</v>
+      </c>
+      <c r="LZ150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MA150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MB150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MC150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MD150" s="113">
+        <v>40</v>
+      </c>
+      <c r="ME150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MF150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MG150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MH150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MI150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MJ150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MK150" s="11"/>
     </row>
-    <row r="151" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="151" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E151">
         <v>39</v>
       </c>
@@ -46271,8 +46577,32 @@
       <c r="KM151" s="15"/>
       <c r="KN151" s="11"/>
       <c r="KT151" s="11"/>
+      <c r="KX151">
+        <v>39</v>
+      </c>
+      <c r="KY151" s="11"/>
+      <c r="LF151" s="11"/>
+      <c r="LG151" s="18"/>
+      <c r="LH151" s="18"/>
+      <c r="LI151" s="18"/>
+      <c r="LJ151" s="18"/>
+      <c r="LK151" s="18"/>
+      <c r="LL151" s="3"/>
+      <c r="LM151" s="18"/>
+      <c r="LN151" s="18"/>
+      <c r="LO151" s="18"/>
+      <c r="LP151" s="15"/>
+      <c r="LQ151" s="15"/>
+      <c r="LR151" s="15"/>
+      <c r="LS151" s="15"/>
+      <c r="LT151" s="18"/>
+      <c r="MB151" s="18"/>
+      <c r="MC151" s="18"/>
+      <c r="MD151" s="18"/>
+      <c r="ME151" s="11"/>
+      <c r="MK151" s="11"/>
     </row>
-    <row r="152" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="152" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E152">
         <v>38</v>
       </c>
@@ -46466,8 +46796,39 @@
       <c r="KM152" s="15"/>
       <c r="KN152" s="11"/>
       <c r="KT152" s="11"/>
+      <c r="KX152">
+        <v>38</v>
+      </c>
+      <c r="KY152" s="11"/>
+      <c r="LF152" s="11"/>
+      <c r="LG152" s="18"/>
+      <c r="LH152" s="18"/>
+      <c r="LI152" s="18"/>
+      <c r="LJ152" s="18"/>
+      <c r="LK152" s="18"/>
+      <c r="LL152" s="18"/>
+      <c r="LM152" s="18"/>
+      <c r="LN152" s="18"/>
+      <c r="LO152" s="18"/>
+      <c r="LP152" s="15"/>
+      <c r="LQ152" s="15"/>
+      <c r="LR152" s="15"/>
+      <c r="LS152" s="15"/>
+      <c r="LT152" s="18"/>
+      <c r="LU152" s="18"/>
+      <c r="LV152" s="3"/>
+      <c r="LW152" s="18"/>
+      <c r="LX152" s="18"/>
+      <c r="LY152" s="18"/>
+      <c r="LZ152" s="18"/>
+      <c r="MA152" s="18"/>
+      <c r="MB152" s="18"/>
+      <c r="MC152" s="104"/>
+      <c r="MD152" s="104"/>
+      <c r="ME152" s="11"/>
+      <c r="MK152" s="11"/>
     </row>
-    <row r="153" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="153" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E153">
         <v>37</v>
       </c>
@@ -46662,8 +47023,39 @@
       <c r="KM153" s="15"/>
       <c r="KN153" s="11"/>
       <c r="KT153" s="11"/>
+      <c r="KX153">
+        <v>37</v>
+      </c>
+      <c r="KY153" s="11"/>
+      <c r="LF153" s="11"/>
+      <c r="LG153" s="18"/>
+      <c r="LH153" s="18"/>
+      <c r="LI153" s="18"/>
+      <c r="LJ153" s="18"/>
+      <c r="LK153" s="18"/>
+      <c r="LL153" s="18"/>
+      <c r="LM153" s="18"/>
+      <c r="LN153" s="18"/>
+      <c r="LO153" s="15"/>
+      <c r="LP153" s="15"/>
+      <c r="LQ153" s="15"/>
+      <c r="LR153" s="15"/>
+      <c r="LS153" s="15"/>
+      <c r="LT153" s="18"/>
+      <c r="LU153" s="18"/>
+      <c r="LV153" s="18"/>
+      <c r="LW153" s="18"/>
+      <c r="LX153" s="18"/>
+      <c r="LY153" s="18"/>
+      <c r="LZ153" s="18"/>
+      <c r="MA153" s="18"/>
+      <c r="MB153" s="18"/>
+      <c r="MC153" s="18"/>
+      <c r="MD153" s="18"/>
+      <c r="ME153" s="11"/>
+      <c r="MK153" s="11"/>
     </row>
-    <row r="154" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="154" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E154">
         <v>36</v>
       </c>
@@ -46857,8 +47249,39 @@
       <c r="KM154" s="18"/>
       <c r="KN154" s="11"/>
       <c r="KT154" s="11"/>
+      <c r="KX154">
+        <v>36</v>
+      </c>
+      <c r="KY154" s="11"/>
+      <c r="LF154" s="11"/>
+      <c r="LG154" s="18"/>
+      <c r="LH154" s="18"/>
+      <c r="LI154" s="18"/>
+      <c r="LJ154" s="18"/>
+      <c r="LK154" s="18"/>
+      <c r="LL154" s="18"/>
+      <c r="LM154" s="15"/>
+      <c r="LN154" s="15"/>
+      <c r="LO154" s="15"/>
+      <c r="LP154" s="15"/>
+      <c r="LQ154" s="15"/>
+      <c r="LR154" s="15"/>
+      <c r="LS154" s="15"/>
+      <c r="LT154" s="18"/>
+      <c r="LU154" s="18"/>
+      <c r="LV154" s="18"/>
+      <c r="LW154" s="18"/>
+      <c r="LX154" s="18"/>
+      <c r="LY154" s="18"/>
+      <c r="LZ154" s="18"/>
+      <c r="MA154" s="18"/>
+      <c r="MB154" s="18"/>
+      <c r="MC154" s="18"/>
+      <c r="MD154" s="18"/>
+      <c r="ME154" s="11"/>
+      <c r="MK154" s="11"/>
     </row>
-    <row r="155" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="155" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E155">
         <v>35</v>
       </c>
@@ -47054,8 +47477,37 @@
       <c r="KM155" s="18"/>
       <c r="KN155" s="11"/>
       <c r="KT155" s="11"/>
+      <c r="KX155">
+        <v>35</v>
+      </c>
+      <c r="KY155" s="11"/>
+      <c r="LF155" s="11"/>
+      <c r="LG155" s="18"/>
+      <c r="LH155" s="18"/>
+      <c r="LI155" s="18"/>
+      <c r="LJ155" s="18"/>
+      <c r="LK155" s="18"/>
+      <c r="LL155" s="18"/>
+      <c r="LM155" s="18"/>
+      <c r="LN155" s="15"/>
+      <c r="LO155" s="15"/>
+      <c r="LP155" s="15"/>
+      <c r="LQ155" s="15"/>
+      <c r="LR155" s="15"/>
+      <c r="LS155" s="15"/>
+      <c r="LT155" s="15"/>
+      <c r="LU155" s="18"/>
+      <c r="LV155" s="18"/>
+      <c r="LW155" s="18"/>
+      <c r="LX155" s="18"/>
+      <c r="LY155" s="18"/>
+      <c r="LZ155" s="18"/>
+      <c r="MA155" s="18"/>
+      <c r="MD155" s="18"/>
+      <c r="ME155" s="11"/>
+      <c r="MK155" s="11"/>
     </row>
-    <row r="156" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="156" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E156">
         <v>34</v>
       </c>
@@ -47247,8 +47699,37 @@
       <c r="KM156" s="18"/>
       <c r="KN156" s="11"/>
       <c r="KT156" s="11"/>
+      <c r="KX156">
+        <v>34</v>
+      </c>
+      <c r="KY156" s="11"/>
+      <c r="LF156" s="11"/>
+      <c r="LG156" s="18"/>
+      <c r="LH156" s="18"/>
+      <c r="LI156" s="18"/>
+      <c r="LJ156" s="18"/>
+      <c r="LK156" s="18"/>
+      <c r="LL156" s="18"/>
+      <c r="LM156" s="18"/>
+      <c r="LN156" s="18"/>
+      <c r="LO156" s="15"/>
+      <c r="LP156" s="15"/>
+      <c r="LQ156" s="15"/>
+      <c r="LR156" s="15"/>
+      <c r="LS156" s="15"/>
+      <c r="LT156" s="15"/>
+      <c r="LU156" s="18"/>
+      <c r="LV156" s="18"/>
+      <c r="LW156" s="18"/>
+      <c r="LX156" s="18"/>
+      <c r="LY156" s="18"/>
+      <c r="LZ156" s="18"/>
+      <c r="MA156" s="18"/>
+      <c r="MD156" s="18"/>
+      <c r="ME156" s="11"/>
+      <c r="MK156" s="11"/>
     </row>
-    <row r="157" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="157" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E157">
         <v>33</v>
       </c>
@@ -47445,8 +47926,39 @@
       <c r="KM157" s="18"/>
       <c r="KN157" s="11"/>
       <c r="KT157" s="11"/>
+      <c r="KX157">
+        <v>33</v>
+      </c>
+      <c r="KY157" s="11"/>
+      <c r="LF157" s="11"/>
+      <c r="LG157" s="18"/>
+      <c r="LH157" s="18"/>
+      <c r="LI157" s="18"/>
+      <c r="LJ157" s="18"/>
+      <c r="LK157" s="18"/>
+      <c r="LL157" s="18"/>
+      <c r="LM157" s="18"/>
+      <c r="LN157" s="18"/>
+      <c r="LO157" s="18"/>
+      <c r="LP157" s="15"/>
+      <c r="LQ157" s="15"/>
+      <c r="LR157" s="15"/>
+      <c r="LS157" s="15"/>
+      <c r="LT157" s="15"/>
+      <c r="LU157" s="18"/>
+      <c r="LV157" s="18"/>
+      <c r="LW157" s="18"/>
+      <c r="LX157" s="18"/>
+      <c r="LY157" s="3"/>
+      <c r="LZ157" s="18"/>
+      <c r="MA157" s="18"/>
+      <c r="MB157" s="18"/>
+      <c r="MC157" s="18"/>
+      <c r="MD157" s="18"/>
+      <c r="ME157" s="11"/>
+      <c r="MK157" s="11"/>
     </row>
-    <row r="158" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="158" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E158">
         <v>32</v>
       </c>
@@ -47642,8 +48154,37 @@
       <c r="KM158" s="18"/>
       <c r="KN158" s="11"/>
       <c r="KT158" s="11"/>
+      <c r="KX158">
+        <v>32</v>
+      </c>
+      <c r="KY158" s="11"/>
+      <c r="LF158" s="11"/>
+      <c r="LG158" s="18"/>
+      <c r="LH158" s="18"/>
+      <c r="LI158" s="18"/>
+      <c r="LJ158" s="18"/>
+      <c r="LK158" s="3"/>
+      <c r="LL158" s="18"/>
+      <c r="LM158" s="18"/>
+      <c r="LN158" s="18"/>
+      <c r="LO158" s="18"/>
+      <c r="LP158" s="15"/>
+      <c r="LQ158" s="15"/>
+      <c r="LR158" s="15"/>
+      <c r="LS158" s="15"/>
+      <c r="LT158" s="18"/>
+      <c r="LU158" s="18"/>
+      <c r="LV158" s="18"/>
+      <c r="LW158" s="18"/>
+      <c r="LX158" s="18"/>
+      <c r="LY158" s="18"/>
+      <c r="LZ158" s="18"/>
+      <c r="MA158" s="18"/>
+      <c r="MD158" s="18"/>
+      <c r="ME158" s="11"/>
+      <c r="MK158" s="11"/>
     </row>
-    <row r="159" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="159" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E159">
         <v>31</v>
       </c>
@@ -47837,8 +48378,30 @@
       <c r="KM159" s="18"/>
       <c r="KN159" s="11"/>
       <c r="KT159" s="11"/>
+      <c r="KX159">
+        <v>31</v>
+      </c>
+      <c r="KY159" s="11"/>
+      <c r="LF159" s="11"/>
+      <c r="LG159" s="18"/>
+      <c r="LH159" s="18"/>
+      <c r="LI159" s="18"/>
+      <c r="LJ159" s="18"/>
+      <c r="LK159" s="18"/>
+      <c r="LP159" s="15"/>
+      <c r="LQ159" s="15"/>
+      <c r="LR159" s="15"/>
+      <c r="LS159" s="15"/>
+      <c r="LT159" s="18"/>
+      <c r="LU159" s="18"/>
+      <c r="LV159" s="18"/>
+      <c r="LW159" s="18"/>
+      <c r="LX159" s="18"/>
+      <c r="MD159" s="18"/>
+      <c r="ME159" s="11"/>
+      <c r="MK159" s="11"/>
     </row>
-    <row r="160" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="160" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E160" s="113">
         <v>30</v>
       </c>
@@ -48674,8 +49237,126 @@
         <v>30</v>
       </c>
       <c r="KT160" s="11"/>
+      <c r="KX160" s="113">
+        <v>30</v>
+      </c>
+      <c r="KY160" s="113">
+        <v>30</v>
+      </c>
+      <c r="KZ160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LA160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LB160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LC160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LD160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LE160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LF160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LG160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LH160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LI160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LJ160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LK160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LL160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LM160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LN160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LO160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LP160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LQ160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LR160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LS160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LT160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LU160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LV160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LW160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LX160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LY160" s="113">
+        <v>30</v>
+      </c>
+      <c r="LZ160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MA160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MB160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MC160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MD160" s="113">
+        <v>30</v>
+      </c>
+      <c r="ME160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MF160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MG160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MH160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MI160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MJ160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MK160" s="11"/>
     </row>
-    <row r="161" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="161" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E161">
         <v>29</v>
       </c>
@@ -48873,8 +49554,39 @@
       <c r="KM161" s="18"/>
       <c r="KN161" s="11"/>
       <c r="KT161" s="11"/>
+      <c r="KX161">
+        <v>29</v>
+      </c>
+      <c r="KY161" s="11"/>
+      <c r="LF161" s="11"/>
+      <c r="LG161" s="18"/>
+      <c r="LH161" s="18"/>
+      <c r="LI161" s="18"/>
+      <c r="LJ161" s="18"/>
+      <c r="LK161" s="18"/>
+      <c r="LL161" s="18"/>
+      <c r="LM161" s="18"/>
+      <c r="LN161" s="18"/>
+      <c r="LO161" s="18"/>
+      <c r="LP161" s="18"/>
+      <c r="LQ161" s="15"/>
+      <c r="LR161" s="15"/>
+      <c r="LS161" s="18"/>
+      <c r="LT161" s="18"/>
+      <c r="LU161" s="18"/>
+      <c r="LV161" s="18"/>
+      <c r="LW161" s="18"/>
+      <c r="LX161" s="18"/>
+      <c r="LY161" s="18"/>
+      <c r="LZ161" s="18"/>
+      <c r="MA161" s="18"/>
+      <c r="MB161" s="15"/>
+      <c r="MC161" s="15"/>
+      <c r="MD161" s="15"/>
+      <c r="ME161" s="11"/>
+      <c r="MK161" s="11"/>
     </row>
-    <row r="162" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="162" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E162">
         <v>28</v>
       </c>
@@ -49072,8 +49784,39 @@
       <c r="KM162" s="18"/>
       <c r="KN162" s="11"/>
       <c r="KT162" s="11"/>
+      <c r="KX162">
+        <v>28</v>
+      </c>
+      <c r="KY162" s="11"/>
+      <c r="LF162" s="11"/>
+      <c r="LG162" s="18"/>
+      <c r="LH162" s="18"/>
+      <c r="LI162" s="18"/>
+      <c r="LJ162" s="18"/>
+      <c r="LK162" s="18"/>
+      <c r="LL162" s="18"/>
+      <c r="LM162" s="18"/>
+      <c r="LN162" s="18"/>
+      <c r="LO162" s="18"/>
+      <c r="LP162" s="18"/>
+      <c r="LQ162" s="18"/>
+      <c r="LR162" s="18"/>
+      <c r="LS162" s="18"/>
+      <c r="LT162" s="18"/>
+      <c r="LU162" s="18"/>
+      <c r="LV162" s="18"/>
+      <c r="LW162" s="18"/>
+      <c r="LX162" s="18"/>
+      <c r="LY162" s="18"/>
+      <c r="LZ162" s="18"/>
+      <c r="MA162" s="18"/>
+      <c r="MB162" s="15"/>
+      <c r="MC162" s="15"/>
+      <c r="MD162" s="15"/>
+      <c r="ME162" s="11"/>
+      <c r="MK162" s="11"/>
     </row>
-    <row r="163" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="163" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E163">
         <v>27</v>
       </c>
@@ -49364,8 +50107,48 @@
       <c r="KR163" s="18"/>
       <c r="KS163" s="18"/>
       <c r="KT163" s="11"/>
+      <c r="KX163">
+        <v>27</v>
+      </c>
+      <c r="KY163" s="11"/>
+      <c r="KZ163" s="18"/>
+      <c r="LA163" s="18"/>
+      <c r="LB163" s="18"/>
+      <c r="LD163" s="18"/>
+      <c r="LE163" s="18"/>
+      <c r="LF163" s="11"/>
+      <c r="LG163" s="15"/>
+      <c r="LH163" s="18"/>
+      <c r="LI163" s="18"/>
+      <c r="LJ163" s="18"/>
+      <c r="LK163" s="3"/>
+      <c r="LL163" s="18"/>
+      <c r="LM163" s="18"/>
+      <c r="LN163" s="18"/>
+      <c r="LO163" s="18"/>
+      <c r="LP163" s="18"/>
+      <c r="LQ163" s="18"/>
+      <c r="LR163" s="18"/>
+      <c r="LS163" s="18"/>
+      <c r="LT163" s="18"/>
+      <c r="LU163" s="18"/>
+      <c r="LV163" s="18"/>
+      <c r="LW163" s="18"/>
+      <c r="LY163" s="18"/>
+      <c r="LZ163" s="18"/>
+      <c r="MA163" s="18"/>
+      <c r="MB163" s="18"/>
+      <c r="MC163" s="18"/>
+      <c r="MD163" s="18"/>
+      <c r="ME163" s="11"/>
+      <c r="MF163" s="18"/>
+      <c r="MG163" s="18"/>
+      <c r="MH163" s="18"/>
+      <c r="MI163" s="18"/>
+      <c r="MJ163" s="18"/>
+      <c r="MK163" s="11"/>
     </row>
-    <row r="164" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="164" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E164">
         <v>26</v>
       </c>
@@ -49559,8 +50342,39 @@
       <c r="KM164" s="18"/>
       <c r="KN164" s="73"/>
       <c r="KT164" s="11"/>
+      <c r="KX164">
+        <v>26</v>
+      </c>
+      <c r="KY164" s="73"/>
+      <c r="LF164" s="73"/>
+      <c r="LG164" s="15"/>
+      <c r="LH164" s="15"/>
+      <c r="LI164" s="18"/>
+      <c r="LJ164" s="18"/>
+      <c r="LK164" s="18"/>
+      <c r="LL164" s="18"/>
+      <c r="LM164" s="18"/>
+      <c r="LN164" s="18"/>
+      <c r="LO164" s="18"/>
+      <c r="LP164" s="18"/>
+      <c r="LQ164" s="18"/>
+      <c r="LR164" s="3"/>
+      <c r="LS164" s="18"/>
+      <c r="LT164" s="18"/>
+      <c r="LU164" s="18"/>
+      <c r="LV164" s="18"/>
+      <c r="LW164" s="18"/>
+      <c r="LX164" s="18"/>
+      <c r="LY164" s="3"/>
+      <c r="LZ164" s="18"/>
+      <c r="MA164" s="18"/>
+      <c r="MB164" s="18"/>
+      <c r="MC164" s="18"/>
+      <c r="MD164" s="18"/>
+      <c r="ME164" s="73"/>
+      <c r="MK164" s="11"/>
     </row>
-    <row r="165" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="165" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E165">
         <v>25</v>
       </c>
@@ -49755,8 +50569,39 @@
       <c r="KM165" s="18"/>
       <c r="KN165" s="73"/>
       <c r="KT165" s="11"/>
+      <c r="KX165">
+        <v>25</v>
+      </c>
+      <c r="KY165" s="73"/>
+      <c r="LF165" s="73"/>
+      <c r="LG165" s="15"/>
+      <c r="LH165" s="18"/>
+      <c r="LI165" s="18"/>
+      <c r="LJ165" s="18"/>
+      <c r="LK165" s="18"/>
+      <c r="LL165" s="18"/>
+      <c r="LM165" s="18"/>
+      <c r="LN165" s="18"/>
+      <c r="LO165" s="18"/>
+      <c r="LP165" s="18"/>
+      <c r="LQ165" s="18"/>
+      <c r="LR165" s="18"/>
+      <c r="LS165" s="18"/>
+      <c r="LT165" s="18"/>
+      <c r="LU165" s="18"/>
+      <c r="LV165" s="18"/>
+      <c r="LW165" s="18"/>
+      <c r="LX165" s="18"/>
+      <c r="LY165" s="18"/>
+      <c r="LZ165" s="18"/>
+      <c r="MA165" s="18"/>
+      <c r="MB165" s="18"/>
+      <c r="MC165" s="18"/>
+      <c r="MD165" s="18"/>
+      <c r="ME165" s="73"/>
+      <c r="MK165" s="11"/>
     </row>
-    <row r="166" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="166" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E166">
         <v>24</v>
       </c>
@@ -49950,8 +50795,39 @@
       <c r="KM166" s="18"/>
       <c r="KN166" s="73"/>
       <c r="KT166" s="11"/>
+      <c r="KX166">
+        <v>24</v>
+      </c>
+      <c r="KY166" s="73"/>
+      <c r="LF166" s="73"/>
+      <c r="LG166" s="18"/>
+      <c r="LH166" s="18"/>
+      <c r="LI166" s="18"/>
+      <c r="LJ166" s="18"/>
+      <c r="LK166" s="18"/>
+      <c r="LL166" s="18"/>
+      <c r="LM166" s="18"/>
+      <c r="LN166" s="18"/>
+      <c r="LO166" s="18"/>
+      <c r="LP166" s="18"/>
+      <c r="LQ166" s="18"/>
+      <c r="LR166" s="18"/>
+      <c r="LS166" s="18"/>
+      <c r="LT166" s="18"/>
+      <c r="LU166" s="18"/>
+      <c r="LV166" s="18"/>
+      <c r="LW166" s="18"/>
+      <c r="LX166" s="18"/>
+      <c r="LY166" s="18"/>
+      <c r="LZ166" s="18"/>
+      <c r="MA166" s="18"/>
+      <c r="MB166" s="18"/>
+      <c r="MC166" s="18"/>
+      <c r="MD166" s="18"/>
+      <c r="ME166" s="73"/>
+      <c r="MK166" s="11"/>
     </row>
-    <row r="167" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="167" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E167">
         <v>23</v>
       </c>
@@ -50147,8 +51023,39 @@
       <c r="KM167" s="15"/>
       <c r="KN167" s="73"/>
       <c r="KT167" s="11"/>
+      <c r="KX167">
+        <v>23</v>
+      </c>
+      <c r="KY167" s="73"/>
+      <c r="LF167" s="73"/>
+      <c r="LG167" s="18"/>
+      <c r="LH167" s="18"/>
+      <c r="LI167" s="18"/>
+      <c r="LJ167" s="18"/>
+      <c r="LK167" s="18"/>
+      <c r="LL167" s="18"/>
+      <c r="LM167" s="18"/>
+      <c r="LN167" s="18"/>
+      <c r="LO167" s="18"/>
+      <c r="LP167" s="18"/>
+      <c r="LQ167" s="18"/>
+      <c r="LR167" s="18"/>
+      <c r="LS167" s="18"/>
+      <c r="LT167" s="18"/>
+      <c r="LU167" s="18"/>
+      <c r="LV167" s="18"/>
+      <c r="LW167" s="18"/>
+      <c r="LX167" s="18"/>
+      <c r="LY167" s="18"/>
+      <c r="LZ167" s="18"/>
+      <c r="MA167" s="18"/>
+      <c r="MB167" s="18"/>
+      <c r="MC167" s="18"/>
+      <c r="MD167" s="18"/>
+      <c r="ME167" s="73"/>
+      <c r="MK167" s="11"/>
     </row>
-    <row r="168" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="168" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E168">
         <v>22</v>
       </c>
@@ -50342,8 +51249,39 @@
       <c r="KM168" s="15"/>
       <c r="KN168" s="73"/>
       <c r="KT168" s="11"/>
+      <c r="KX168">
+        <v>22</v>
+      </c>
+      <c r="KY168" s="73"/>
+      <c r="LF168" s="73"/>
+      <c r="LG168" s="18"/>
+      <c r="LH168" s="18"/>
+      <c r="LI168" s="18"/>
+      <c r="LJ168" s="18"/>
+      <c r="LK168" s="18"/>
+      <c r="LL168" s="18"/>
+      <c r="LM168" s="18"/>
+      <c r="LN168" s="18"/>
+      <c r="LO168" s="18"/>
+      <c r="LP168" s="15"/>
+      <c r="LQ168" s="15"/>
+      <c r="LR168" s="15"/>
+      <c r="LS168" s="15"/>
+      <c r="LT168" s="15"/>
+      <c r="LU168" s="18"/>
+      <c r="LV168" s="18"/>
+      <c r="LW168" s="18"/>
+      <c r="LX168" s="18"/>
+      <c r="LY168" s="18"/>
+      <c r="LZ168" s="3"/>
+      <c r="MA168" s="18"/>
+      <c r="MB168" s="18"/>
+      <c r="MC168" s="18"/>
+      <c r="MD168" s="18"/>
+      <c r="ME168" s="73"/>
+      <c r="MK168" s="11"/>
     </row>
-    <row r="169" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="169" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E169">
         <v>21</v>
       </c>
@@ -50538,8 +51476,39 @@
       <c r="KM169" s="15"/>
       <c r="KN169" s="73"/>
       <c r="KT169" s="11"/>
+      <c r="KX169">
+        <v>21</v>
+      </c>
+      <c r="KY169" s="73"/>
+      <c r="LF169" s="73"/>
+      <c r="LG169" s="18"/>
+      <c r="LH169" s="18"/>
+      <c r="LI169" s="18"/>
+      <c r="LJ169" s="18"/>
+      <c r="LK169" s="18"/>
+      <c r="LL169" s="18"/>
+      <c r="LM169" s="18"/>
+      <c r="LN169" s="18"/>
+      <c r="LO169" s="15"/>
+      <c r="LP169" s="15"/>
+      <c r="LQ169" s="15"/>
+      <c r="LR169" s="15"/>
+      <c r="LS169" s="15"/>
+      <c r="LT169" s="15"/>
+      <c r="LU169" s="15"/>
+      <c r="LV169" s="18"/>
+      <c r="LW169" s="18"/>
+      <c r="LX169" s="18"/>
+      <c r="LY169" s="18"/>
+      <c r="LZ169" s="18"/>
+      <c r="MA169" s="18"/>
+      <c r="MB169" s="18"/>
+      <c r="MC169" s="18"/>
+      <c r="MD169" s="18"/>
+      <c r="ME169" s="73"/>
+      <c r="MK169" s="11"/>
     </row>
-    <row r="170" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="170" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E170" s="113">
         <v>20</v>
       </c>
@@ -51375,8 +52344,126 @@
         <v>20</v>
       </c>
       <c r="KT170" s="11"/>
+      <c r="KX170" s="113">
+        <v>20</v>
+      </c>
+      <c r="KY170" s="113">
+        <v>20</v>
+      </c>
+      <c r="KZ170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LA170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LB170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LC170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LD170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LE170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LF170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LG170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LH170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LI170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LJ170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LK170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LL170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LM170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LN170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LO170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LP170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LQ170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LR170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LS170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LT170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LU170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LV170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LW170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LX170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LY170" s="113">
+        <v>20</v>
+      </c>
+      <c r="LZ170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MA170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MB170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MC170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MD170" s="113">
+        <v>20</v>
+      </c>
+      <c r="ME170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MF170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MG170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MH170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MI170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MJ170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MK170" s="11"/>
     </row>
-    <row r="171" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="171" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E171">
         <v>19</v>
       </c>
@@ -51570,8 +52657,39 @@
       <c r="KM171" s="15"/>
       <c r="KN171" s="73"/>
       <c r="KT171" s="11"/>
+      <c r="KX171">
+        <v>19</v>
+      </c>
+      <c r="KY171" s="73"/>
+      <c r="LF171" s="73"/>
+      <c r="LG171" s="18"/>
+      <c r="LH171" s="18"/>
+      <c r="LI171" s="18"/>
+      <c r="LJ171" s="18"/>
+      <c r="LK171" s="18"/>
+      <c r="LL171" s="18"/>
+      <c r="LM171" s="18"/>
+      <c r="LN171" s="18"/>
+      <c r="LO171" s="18"/>
+      <c r="LP171" s="15"/>
+      <c r="LQ171" s="15"/>
+      <c r="LR171" s="15"/>
+      <c r="LS171" s="15"/>
+      <c r="LT171" s="15"/>
+      <c r="LU171" s="18"/>
+      <c r="LV171" s="18"/>
+      <c r="LW171" s="18"/>
+      <c r="LX171" s="18"/>
+      <c r="LY171" s="18"/>
+      <c r="LZ171" s="18"/>
+      <c r="MA171" s="18"/>
+      <c r="MB171" s="18"/>
+      <c r="MC171" s="18"/>
+      <c r="MD171" s="15"/>
+      <c r="ME171" s="73"/>
+      <c r="MK171" s="11"/>
     </row>
-    <row r="172" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="172" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E172">
         <v>18</v>
       </c>
@@ -51765,8 +52883,39 @@
       <c r="KM172" s="15"/>
       <c r="KN172" s="73"/>
       <c r="KT172" s="11"/>
+      <c r="KX172">
+        <v>18</v>
+      </c>
+      <c r="KY172" s="73"/>
+      <c r="LF172" s="73"/>
+      <c r="LG172" s="18"/>
+      <c r="LH172" s="18"/>
+      <c r="LI172" s="18"/>
+      <c r="LJ172" s="18"/>
+      <c r="LK172" s="18"/>
+      <c r="LL172" s="3"/>
+      <c r="LM172" s="18"/>
+      <c r="LN172" s="18"/>
+      <c r="LO172" s="18"/>
+      <c r="LP172" s="18"/>
+      <c r="LQ172" s="15"/>
+      <c r="LR172" s="15"/>
+      <c r="LS172" s="15"/>
+      <c r="LT172" s="18"/>
+      <c r="LU172" s="18"/>
+      <c r="LV172" s="18"/>
+      <c r="LW172" s="18"/>
+      <c r="LX172" s="18"/>
+      <c r="LY172" s="18"/>
+      <c r="LZ172" s="18"/>
+      <c r="MA172" s="18"/>
+      <c r="MB172" s="3"/>
+      <c r="MC172" s="15"/>
+      <c r="MD172" s="15"/>
+      <c r="ME172" s="73"/>
+      <c r="MK172" s="11"/>
     </row>
-    <row r="173" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="173" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E173">
         <v>17</v>
       </c>
@@ -51961,8 +53110,39 @@
       <c r="KM173" s="15"/>
       <c r="KN173" s="73"/>
       <c r="KT173" s="11"/>
+      <c r="KX173">
+        <v>17</v>
+      </c>
+      <c r="KY173" s="73"/>
+      <c r="LF173" s="73"/>
+      <c r="LG173" s="18"/>
+      <c r="LH173" s="18"/>
+      <c r="LI173" s="18"/>
+      <c r="LJ173" s="18"/>
+      <c r="LK173" s="18"/>
+      <c r="LL173" s="18"/>
+      <c r="LM173" s="18"/>
+      <c r="LN173" s="18"/>
+      <c r="LO173" s="18"/>
+      <c r="LP173" s="18"/>
+      <c r="LQ173" s="15"/>
+      <c r="LR173" s="15"/>
+      <c r="LS173" s="15"/>
+      <c r="LT173" s="18"/>
+      <c r="LU173" s="18"/>
+      <c r="LV173" s="18"/>
+      <c r="LW173" s="18"/>
+      <c r="LX173" s="18"/>
+      <c r="LY173" s="18"/>
+      <c r="LZ173" s="18"/>
+      <c r="MA173" s="18"/>
+      <c r="MB173" s="15"/>
+      <c r="MC173" s="15"/>
+      <c r="MD173" s="15"/>
+      <c r="ME173" s="73"/>
+      <c r="MK173" s="11"/>
     </row>
-    <row r="174" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="174" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E174">
         <v>16</v>
       </c>
@@ -52157,8 +53337,39 @@
       <c r="KM174" s="15"/>
       <c r="KN174" s="73"/>
       <c r="KT174" s="11"/>
+      <c r="KX174">
+        <v>16</v>
+      </c>
+      <c r="KY174" s="73"/>
+      <c r="LF174" s="73"/>
+      <c r="LG174" s="18"/>
+      <c r="LH174" s="18"/>
+      <c r="LI174" s="18"/>
+      <c r="LJ174" s="18"/>
+      <c r="LK174" s="18"/>
+      <c r="LL174" s="18"/>
+      <c r="LM174" s="18"/>
+      <c r="LN174" s="18"/>
+      <c r="LO174" s="18"/>
+      <c r="LP174" s="18"/>
+      <c r="LQ174" s="15"/>
+      <c r="LR174" s="15"/>
+      <c r="LS174" s="15"/>
+      <c r="LT174" s="104"/>
+      <c r="LU174" s="18"/>
+      <c r="LV174" s="18"/>
+      <c r="LW174" s="18"/>
+      <c r="LX174" s="18"/>
+      <c r="LY174" s="18"/>
+      <c r="LZ174" s="18"/>
+      <c r="MA174" s="18"/>
+      <c r="MB174" s="18"/>
+      <c r="MC174" s="15"/>
+      <c r="MD174" s="15"/>
+      <c r="ME174" s="73"/>
+      <c r="MK174" s="11"/>
     </row>
-    <row r="175" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="175" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E175">
         <v>15</v>
       </c>
@@ -52352,8 +53563,39 @@
       <c r="KM175" s="15"/>
       <c r="KN175" s="73"/>
       <c r="KT175" s="11"/>
+      <c r="KX175">
+        <v>15</v>
+      </c>
+      <c r="KY175" s="73"/>
+      <c r="LF175" s="73"/>
+      <c r="LG175" s="18"/>
+      <c r="LH175" s="18"/>
+      <c r="LI175" s="18"/>
+      <c r="LJ175" s="18"/>
+      <c r="LK175" s="18"/>
+      <c r="LL175" s="18"/>
+      <c r="LM175" s="18"/>
+      <c r="LN175" s="18"/>
+      <c r="LO175" s="18"/>
+      <c r="LP175" s="18"/>
+      <c r="LQ175" s="15"/>
+      <c r="LR175" s="15"/>
+      <c r="LS175" s="15"/>
+      <c r="LT175" s="104"/>
+      <c r="LU175" s="18"/>
+      <c r="LV175" s="18"/>
+      <c r="LW175" s="18"/>
+      <c r="LX175" s="3"/>
+      <c r="LY175" s="18"/>
+      <c r="LZ175" s="18"/>
+      <c r="MA175" s="18"/>
+      <c r="MB175" s="18"/>
+      <c r="MC175" s="18"/>
+      <c r="MD175" s="15"/>
+      <c r="ME175" s="73"/>
+      <c r="MK175" s="11"/>
     </row>
-    <row r="176" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="176" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E176">
         <v>14</v>
       </c>
@@ -52547,8 +53789,39 @@
       <c r="KM176" s="18"/>
       <c r="KN176" s="73"/>
       <c r="KT176" s="11"/>
+      <c r="KX176">
+        <v>14</v>
+      </c>
+      <c r="KY176" s="73"/>
+      <c r="LF176" s="73"/>
+      <c r="LG176" s="18"/>
+      <c r="LH176" s="18"/>
+      <c r="LI176" s="3"/>
+      <c r="LJ176" s="18"/>
+      <c r="LK176" s="18"/>
+      <c r="LL176" s="18"/>
+      <c r="LM176" s="18"/>
+      <c r="LN176" s="18"/>
+      <c r="LO176" s="18"/>
+      <c r="LP176" s="18"/>
+      <c r="LQ176" s="15"/>
+      <c r="LR176" s="15"/>
+      <c r="LS176" s="15"/>
+      <c r="LT176" s="18"/>
+      <c r="LU176" s="18"/>
+      <c r="LV176" s="18"/>
+      <c r="LW176" s="18"/>
+      <c r="LX176" s="18"/>
+      <c r="LY176" s="18"/>
+      <c r="LZ176" s="18"/>
+      <c r="MA176" s="18"/>
+      <c r="MB176" s="18"/>
+      <c r="MC176" s="18"/>
+      <c r="MD176" s="18"/>
+      <c r="ME176" s="73"/>
+      <c r="MK176" s="11"/>
     </row>
-    <row r="177" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="177" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E177">
         <v>13</v>
       </c>
@@ -52742,8 +54015,39 @@
       <c r="KM177" s="18"/>
       <c r="KN177" s="73"/>
       <c r="KT177" s="11"/>
+      <c r="KX177">
+        <v>13</v>
+      </c>
+      <c r="KY177" s="73"/>
+      <c r="LF177" s="73"/>
+      <c r="LG177" s="15"/>
+      <c r="LH177" s="18"/>
+      <c r="LI177" s="18"/>
+      <c r="LJ177" s="18"/>
+      <c r="LK177" s="18"/>
+      <c r="LL177" s="18"/>
+      <c r="LM177" s="18"/>
+      <c r="LN177" s="18"/>
+      <c r="LO177" s="18"/>
+      <c r="LP177" s="18"/>
+      <c r="LQ177" s="15"/>
+      <c r="LR177" s="15"/>
+      <c r="LS177" s="15"/>
+      <c r="LT177" s="18"/>
+      <c r="LU177" s="18"/>
+      <c r="LV177" s="18"/>
+      <c r="LW177" s="18"/>
+      <c r="LX177" s="18"/>
+      <c r="LY177" s="18"/>
+      <c r="LZ177" s="18"/>
+      <c r="MA177" s="18"/>
+      <c r="MB177" s="18"/>
+      <c r="MC177" s="18"/>
+      <c r="MD177" s="18"/>
+      <c r="ME177" s="73"/>
+      <c r="MK177" s="11"/>
     </row>
-    <row r="178" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="178" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E178">
         <v>12</v>
       </c>
@@ -52938,8 +54242,39 @@
       <c r="KM178" s="18"/>
       <c r="KN178" s="73"/>
       <c r="KT178" s="11"/>
+      <c r="KX178">
+        <v>12</v>
+      </c>
+      <c r="KY178" s="73"/>
+      <c r="LF178" s="73"/>
+      <c r="LG178" s="15"/>
+      <c r="LH178" s="15"/>
+      <c r="LI178" s="18"/>
+      <c r="LJ178" s="18"/>
+      <c r="LK178" s="18"/>
+      <c r="LL178" s="18"/>
+      <c r="LM178" s="18"/>
+      <c r="LN178" s="18"/>
+      <c r="LO178" s="18"/>
+      <c r="LP178" s="18"/>
+      <c r="LQ178" s="15"/>
+      <c r="LR178" s="15"/>
+      <c r="LS178" s="18"/>
+      <c r="LT178" s="18"/>
+      <c r="LU178" s="18"/>
+      <c r="LV178" s="18"/>
+      <c r="LW178" s="18"/>
+      <c r="LX178" s="18"/>
+      <c r="LY178" s="18"/>
+      <c r="LZ178" s="18"/>
+      <c r="MA178" s="18"/>
+      <c r="MB178" s="18"/>
+      <c r="MC178" s="18"/>
+      <c r="MD178" s="18"/>
+      <c r="ME178" s="73"/>
+      <c r="MK178" s="11"/>
     </row>
-    <row r="179" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="179" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E179">
         <v>11</v>
       </c>
@@ -53135,8 +54470,39 @@
       <c r="KM179" s="18"/>
       <c r="KN179" s="73"/>
       <c r="KT179" s="11"/>
+      <c r="KX179">
+        <v>11</v>
+      </c>
+      <c r="KY179" s="73"/>
+      <c r="LF179" s="73"/>
+      <c r="LG179" s="18"/>
+      <c r="LH179" s="18"/>
+      <c r="LI179" s="18"/>
+      <c r="LJ179" s="18"/>
+      <c r="LK179" s="18"/>
+      <c r="LL179" s="18"/>
+      <c r="LM179" s="18"/>
+      <c r="LN179" s="18"/>
+      <c r="LO179" s="18"/>
+      <c r="LP179" s="18"/>
+      <c r="LQ179" s="18"/>
+      <c r="LR179" s="18"/>
+      <c r="LS179" s="18"/>
+      <c r="LT179" s="18"/>
+      <c r="LU179" s="18"/>
+      <c r="LV179" s="18"/>
+      <c r="LW179" s="18"/>
+      <c r="LX179" s="18"/>
+      <c r="LY179" s="18"/>
+      <c r="LZ179" s="18"/>
+      <c r="MA179" s="18"/>
+      <c r="MB179" s="18"/>
+      <c r="MC179" s="18"/>
+      <c r="MD179" s="18"/>
+      <c r="ME179" s="73"/>
+      <c r="MK179" s="11"/>
     </row>
-    <row r="180" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="180" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E180" s="113">
         <v>10</v>
       </c>
@@ -53936,8 +55302,126 @@
         <v>10</v>
       </c>
       <c r="KT180" s="11"/>
+      <c r="KX180" s="113">
+        <v>10</v>
+      </c>
+      <c r="KY180" s="113">
+        <v>10</v>
+      </c>
+      <c r="KZ180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LA180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LB180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LC180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LD180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LE180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LF180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LG180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LH180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LI180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LJ180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LK180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LL180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LM180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LN180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LO180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LP180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LQ180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LR180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LS180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LT180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LU180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LV180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LW180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LX180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LY180" s="113">
+        <v>10</v>
+      </c>
+      <c r="LZ180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MA180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MB180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MC180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MD180" s="113">
+        <v>10</v>
+      </c>
+      <c r="ME180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MF180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MG180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MH180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MI180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MJ180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MK180" s="11"/>
     </row>
-    <row r="181" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E181">
         <v>9</v>
       </c>
@@ -54131,8 +55615,39 @@
       <c r="KM181" s="18"/>
       <c r="KN181" s="73"/>
       <c r="KT181" s="11"/>
+      <c r="KX181">
+        <v>9</v>
+      </c>
+      <c r="KY181" s="73"/>
+      <c r="LF181" s="73"/>
+      <c r="LG181" s="18"/>
+      <c r="LH181" s="18"/>
+      <c r="LI181" s="18"/>
+      <c r="LJ181" s="18"/>
+      <c r="LK181" s="18"/>
+      <c r="LL181" s="18"/>
+      <c r="LM181" s="18"/>
+      <c r="LN181" s="18"/>
+      <c r="LO181" s="18"/>
+      <c r="LP181" s="18"/>
+      <c r="LQ181" s="18"/>
+      <c r="LR181" s="18"/>
+      <c r="LS181" s="18"/>
+      <c r="LT181" s="18"/>
+      <c r="LU181" s="18"/>
+      <c r="LV181" s="18"/>
+      <c r="LW181" s="18"/>
+      <c r="LX181" s="18"/>
+      <c r="LY181" s="18"/>
+      <c r="LZ181" s="18"/>
+      <c r="MA181" s="18"/>
+      <c r="MB181" s="18"/>
+      <c r="MC181" s="18"/>
+      <c r="MD181" s="18"/>
+      <c r="ME181" s="73"/>
+      <c r="MK181" s="11"/>
     </row>
-    <row r="182" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E182">
         <v>8</v>
       </c>
@@ -54327,8 +55842,39 @@
       <c r="KM182" s="18"/>
       <c r="KN182" s="73"/>
       <c r="KT182" s="11"/>
+      <c r="KX182">
+        <v>8</v>
+      </c>
+      <c r="KY182" s="73"/>
+      <c r="LF182" s="73"/>
+      <c r="LG182" s="18"/>
+      <c r="LH182" s="18"/>
+      <c r="LI182" s="18"/>
+      <c r="LJ182" s="18"/>
+      <c r="LK182" s="18"/>
+      <c r="LL182" s="3"/>
+      <c r="LM182" s="18"/>
+      <c r="LN182" s="18"/>
+      <c r="LO182" s="18"/>
+      <c r="LP182" s="18"/>
+      <c r="LQ182" s="18"/>
+      <c r="LR182" s="18"/>
+      <c r="LS182" s="18"/>
+      <c r="LT182" s="18"/>
+      <c r="LU182" s="18"/>
+      <c r="LV182" s="18"/>
+      <c r="LW182" s="18"/>
+      <c r="LX182" s="18"/>
+      <c r="LY182" s="18"/>
+      <c r="LZ182" s="18"/>
+      <c r="MA182" s="18"/>
+      <c r="MB182" s="18"/>
+      <c r="MC182" s="18"/>
+      <c r="MD182" s="18"/>
+      <c r="ME182" s="73"/>
+      <c r="MK182" s="11"/>
     </row>
-    <row r="183" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E183">
         <v>7</v>
       </c>
@@ -54523,8 +56069,39 @@
       <c r="KM183" s="18"/>
       <c r="KN183" s="73"/>
       <c r="KT183" s="11"/>
+      <c r="KX183">
+        <v>7</v>
+      </c>
+      <c r="KY183" s="73"/>
+      <c r="LF183" s="73"/>
+      <c r="LG183" s="18"/>
+      <c r="LH183" s="18"/>
+      <c r="LI183" s="18"/>
+      <c r="LJ183" s="18"/>
+      <c r="LK183" s="18"/>
+      <c r="LL183" s="18"/>
+      <c r="LM183" s="18"/>
+      <c r="LN183" s="18"/>
+      <c r="LO183" s="18"/>
+      <c r="LP183" s="18"/>
+      <c r="LQ183" s="18"/>
+      <c r="LR183" s="18"/>
+      <c r="LS183" s="18"/>
+      <c r="LT183" s="18"/>
+      <c r="LU183" s="18"/>
+      <c r="LV183" s="18"/>
+      <c r="LW183" s="18"/>
+      <c r="LX183" s="18"/>
+      <c r="LY183" s="18"/>
+      <c r="LZ183" s="18"/>
+      <c r="MA183" s="18"/>
+      <c r="MB183" s="18"/>
+      <c r="MC183" s="18"/>
+      <c r="MD183" s="18"/>
+      <c r="ME183" s="73"/>
+      <c r="MK183" s="11"/>
     </row>
-    <row r="184" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E184">
         <v>6</v>
       </c>
@@ -54721,8 +56298,39 @@
       <c r="KM184" s="18"/>
       <c r="KN184" s="73"/>
       <c r="KT184" s="11"/>
+      <c r="KX184">
+        <v>6</v>
+      </c>
+      <c r="KY184" s="73"/>
+      <c r="LF184" s="73"/>
+      <c r="LG184" s="15"/>
+      <c r="LH184" s="18"/>
+      <c r="LI184" s="18"/>
+      <c r="LJ184" s="18"/>
+      <c r="LK184" s="18"/>
+      <c r="LL184" s="18"/>
+      <c r="LM184" s="18"/>
+      <c r="LN184" s="18"/>
+      <c r="LO184" s="18"/>
+      <c r="LP184" s="18"/>
+      <c r="LQ184" s="18"/>
+      <c r="LR184" s="18"/>
+      <c r="LS184" s="18"/>
+      <c r="LT184" s="18"/>
+      <c r="LU184" s="18"/>
+      <c r="LV184" s="3"/>
+      <c r="LW184" s="18"/>
+      <c r="LX184" s="18"/>
+      <c r="LY184" s="18"/>
+      <c r="LZ184" s="18"/>
+      <c r="MA184" s="18"/>
+      <c r="MB184" s="3"/>
+      <c r="MC184" s="18"/>
+      <c r="MD184" s="18"/>
+      <c r="ME184" s="73"/>
+      <c r="MK184" s="11"/>
     </row>
-    <row r="185" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E185">
         <v>5</v>
       </c>
@@ -54916,8 +56524,39 @@
       <c r="KM185" s="18"/>
       <c r="KN185" s="73"/>
       <c r="KT185" s="11"/>
+      <c r="KX185">
+        <v>5</v>
+      </c>
+      <c r="KY185" s="73"/>
+      <c r="LF185" s="73"/>
+      <c r="LG185" s="15"/>
+      <c r="LH185" s="15"/>
+      <c r="LI185" s="18"/>
+      <c r="LJ185" s="18"/>
+      <c r="LK185" s="18"/>
+      <c r="LL185" s="18"/>
+      <c r="LM185" s="18"/>
+      <c r="LN185" s="18"/>
+      <c r="LO185" s="18"/>
+      <c r="LP185" s="3"/>
+      <c r="LQ185" s="18"/>
+      <c r="LR185" s="18"/>
+      <c r="LS185" s="18"/>
+      <c r="LT185" s="18"/>
+      <c r="LU185" s="18"/>
+      <c r="LV185" s="18"/>
+      <c r="LW185" s="18"/>
+      <c r="LX185" s="18"/>
+      <c r="LY185" s="18"/>
+      <c r="LZ185" s="18"/>
+      <c r="MA185" s="18"/>
+      <c r="MB185" s="18"/>
+      <c r="MC185" s="18"/>
+      <c r="MD185" s="15"/>
+      <c r="ME185" s="73"/>
+      <c r="MK185" s="11"/>
     </row>
-    <row r="186" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E186">
         <v>4</v>
       </c>
@@ -55021,8 +56660,39 @@
       <c r="KL186" s="18"/>
       <c r="KN186" s="73"/>
       <c r="KT186" s="11"/>
+      <c r="KX186">
+        <v>4</v>
+      </c>
+      <c r="KY186" s="73"/>
+      <c r="LF186" s="73"/>
+      <c r="LG186" s="15"/>
+      <c r="LH186" s="15"/>
+      <c r="LI186" s="15"/>
+      <c r="LJ186" s="18"/>
+      <c r="LK186" s="18"/>
+      <c r="LL186" s="18"/>
+      <c r="LM186" s="18"/>
+      <c r="LN186" s="18"/>
+      <c r="LO186" s="18"/>
+      <c r="LP186" s="18"/>
+      <c r="LQ186" s="18"/>
+      <c r="LR186" s="18"/>
+      <c r="LS186" s="18"/>
+      <c r="LT186" s="18"/>
+      <c r="LU186" s="18"/>
+      <c r="LV186" s="18"/>
+      <c r="LW186" s="18"/>
+      <c r="LX186" s="18"/>
+      <c r="LY186" s="18"/>
+      <c r="LZ186" s="18"/>
+      <c r="MA186" s="18"/>
+      <c r="MB186" s="15"/>
+      <c r="MC186" s="15"/>
+      <c r="MD186" s="15"/>
+      <c r="ME186" s="73"/>
+      <c r="MK186" s="11"/>
     </row>
-    <row r="187" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="187" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E187">
         <v>3</v>
       </c>
@@ -55124,8 +56794,39 @@
       <c r="KL187" s="18"/>
       <c r="KN187" s="73"/>
       <c r="KT187" s="11"/>
+      <c r="KX187">
+        <v>3</v>
+      </c>
+      <c r="KY187" s="73"/>
+      <c r="LF187" s="73"/>
+      <c r="LG187" s="15"/>
+      <c r="LH187" s="15"/>
+      <c r="LI187" s="15"/>
+      <c r="LJ187" s="18"/>
+      <c r="LK187" s="18"/>
+      <c r="LL187" s="18"/>
+      <c r="LM187" s="18"/>
+      <c r="LN187" s="18"/>
+      <c r="LO187" s="18"/>
+      <c r="LP187" s="18"/>
+      <c r="LQ187" s="18"/>
+      <c r="LR187" s="18"/>
+      <c r="LS187" s="18"/>
+      <c r="LT187" s="18"/>
+      <c r="LU187" s="18"/>
+      <c r="LV187" s="18"/>
+      <c r="LW187" s="18"/>
+      <c r="LX187" s="18"/>
+      <c r="LY187" s="18"/>
+      <c r="LZ187" s="18"/>
+      <c r="MA187" s="15"/>
+      <c r="MB187" s="15"/>
+      <c r="MC187" s="15"/>
+      <c r="MD187" s="15"/>
+      <c r="ME187" s="73"/>
+      <c r="MK187" s="11"/>
     </row>
-    <row r="188" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="188" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E188">
         <v>2</v>
       </c>
@@ -55182,8 +56883,24 @@
       <c r="JO188" s="73"/>
       <c r="KN188" s="73"/>
       <c r="KT188" s="11"/>
+      <c r="KX188">
+        <v>2</v>
+      </c>
+      <c r="KY188" s="73"/>
+      <c r="LF188" s="73"/>
+      <c r="LG188" s="15"/>
+      <c r="LH188" s="15"/>
+      <c r="LI188" s="15"/>
+      <c r="LJ188" s="15"/>
+      <c r="LK188" s="18"/>
+      <c r="MA188" s="15"/>
+      <c r="MB188" s="15"/>
+      <c r="MC188" s="15"/>
+      <c r="MD188" s="15"/>
+      <c r="ME188" s="73"/>
+      <c r="MK188" s="11"/>
     </row>
-    <row r="189" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="189" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E189">
         <v>1</v>
       </c>
@@ -55237,8 +56954,26 @@
       <c r="JO189" s="11"/>
       <c r="KN189" s="11"/>
       <c r="KT189" s="11"/>
+      <c r="KX189">
+        <v>1</v>
+      </c>
+      <c r="KY189" s="73"/>
+      <c r="LF189" s="11"/>
+      <c r="LG189" s="15"/>
+      <c r="LH189" s="15"/>
+      <c r="LI189" s="15"/>
+      <c r="LJ189" s="15"/>
+      <c r="LK189" s="15"/>
+      <c r="LY189" s="15"/>
+      <c r="LZ189" s="15"/>
+      <c r="MA189" s="15"/>
+      <c r="MB189" s="15"/>
+      <c r="MC189" s="15"/>
+      <c r="MD189" s="15"/>
+      <c r="ME189" s="11"/>
+      <c r="MK189" s="11"/>
     </row>
-    <row r="190" spans="5:306" x14ac:dyDescent="0.45">
+    <row r="190" spans="5:349" x14ac:dyDescent="0.45">
       <c r="E190">
         <v>0</v>
       </c>
@@ -55536,6 +57271,48 @@
       <c r="KR190" s="73"/>
       <c r="KS190" s="73"/>
       <c r="KT190" s="11"/>
+      <c r="KX190">
+        <v>0</v>
+      </c>
+      <c r="KY190" s="11"/>
+      <c r="KZ190" s="73"/>
+      <c r="LA190" s="73"/>
+      <c r="LB190" s="73"/>
+      <c r="LC190" s="73"/>
+      <c r="LD190" s="73"/>
+      <c r="LE190" s="73"/>
+      <c r="LF190" s="73"/>
+      <c r="LG190" s="73"/>
+      <c r="LH190" s="73"/>
+      <c r="LI190" s="73"/>
+      <c r="LJ190" s="73"/>
+      <c r="LK190" s="73"/>
+      <c r="LL190" s="73"/>
+      <c r="LM190" s="73"/>
+      <c r="LN190" s="73"/>
+      <c r="LO190" s="73"/>
+      <c r="LP190" s="73"/>
+      <c r="LQ190" s="73"/>
+      <c r="LR190" s="73"/>
+      <c r="LS190" s="73"/>
+      <c r="LT190" s="73"/>
+      <c r="LU190" s="73"/>
+      <c r="LV190" s="73"/>
+      <c r="LW190" s="73"/>
+      <c r="LX190" s="73"/>
+      <c r="LY190" s="73"/>
+      <c r="LZ190" s="73"/>
+      <c r="MA190" s="73"/>
+      <c r="MB190" s="73"/>
+      <c r="MC190" s="73"/>
+      <c r="MD190" s="73"/>
+      <c r="ME190" s="73"/>
+      <c r="MF190" s="73"/>
+      <c r="MG190" s="73"/>
+      <c r="MH190" s="73"/>
+      <c r="MI190" s="73"/>
+      <c r="MJ190" s="73"/>
+      <c r="MK190" s="11"/>
     </row>
     <row r="194" spans="3:4" s="91" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C194" s="120" t="s">

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1369E01B-8ACE-488B-856E-40C772BFADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CAFF9D-4FE1-466A-BFBF-9D5CED652D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="372" windowWidth="18072" windowHeight="13008" firstSheet="3" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="18072" windowHeight="13008" firstSheet="3" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -25526,8 +25526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
   <dimension ref="C1:ML194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EW112" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="MW143" sqref="MW143"/>
+    <sheetView tabSelected="1" topLeftCell="JU98" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="LQ176" sqref="LQ176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -45417,10 +45417,10 @@
       <c r="LM149" s="18"/>
       <c r="LN149" s="18"/>
       <c r="LO149" s="18"/>
-      <c r="LP149" s="15"/>
+      <c r="LP149" s="18"/>
       <c r="LQ149" s="15"/>
       <c r="LR149" s="15"/>
-      <c r="LS149" s="15"/>
+      <c r="LS149" s="18"/>
       <c r="LT149" s="18"/>
       <c r="MB149" s="18"/>
       <c r="MC149" s="18"/>
@@ -46591,10 +46591,10 @@
       <c r="LM151" s="18"/>
       <c r="LN151" s="18"/>
       <c r="LO151" s="18"/>
-      <c r="LP151" s="15"/>
+      <c r="LP151" s="18"/>
       <c r="LQ151" s="15"/>
       <c r="LR151" s="15"/>
-      <c r="LS151" s="15"/>
+      <c r="LS151" s="18"/>
       <c r="LT151" s="18"/>
       <c r="MB151" s="18"/>
       <c r="MC151" s="18"/>
@@ -46810,10 +46810,10 @@
       <c r="LM152" s="18"/>
       <c r="LN152" s="18"/>
       <c r="LO152" s="18"/>
-      <c r="LP152" s="15"/>
+      <c r="LP152" s="18"/>
       <c r="LQ152" s="15"/>
       <c r="LR152" s="15"/>
-      <c r="LS152" s="15"/>
+      <c r="LS152" s="18"/>
       <c r="LT152" s="18"/>
       <c r="LU152" s="18"/>
       <c r="LV152" s="3"/>
@@ -47036,11 +47036,11 @@
       <c r="LL153" s="18"/>
       <c r="LM153" s="18"/>
       <c r="LN153" s="18"/>
-      <c r="LO153" s="15"/>
+      <c r="LO153" s="18"/>
       <c r="LP153" s="15"/>
       <c r="LQ153" s="15"/>
       <c r="LR153" s="15"/>
-      <c r="LS153" s="15"/>
+      <c r="LS153" s="18"/>
       <c r="LT153" s="18"/>
       <c r="LU153" s="18"/>
       <c r="LV153" s="18"/>
@@ -47260,7 +47260,7 @@
       <c r="LJ154" s="18"/>
       <c r="LK154" s="18"/>
       <c r="LL154" s="18"/>
-      <c r="LM154" s="15"/>
+      <c r="LM154" s="18"/>
       <c r="LN154" s="15"/>
       <c r="LO154" s="15"/>
       <c r="LP154" s="15"/>
@@ -47489,7 +47489,7 @@
       <c r="LK155" s="18"/>
       <c r="LL155" s="18"/>
       <c r="LM155" s="18"/>
-      <c r="LN155" s="15"/>
+      <c r="LN155" s="18"/>
       <c r="LO155" s="15"/>
       <c r="LP155" s="15"/>
       <c r="LQ155" s="15"/>
@@ -47712,7 +47712,7 @@
       <c r="LL156" s="18"/>
       <c r="LM156" s="18"/>
       <c r="LN156" s="18"/>
-      <c r="LO156" s="15"/>
+      <c r="LO156" s="18"/>
       <c r="LP156" s="15"/>
       <c r="LQ156" s="15"/>
       <c r="LR156" s="15"/>
@@ -47940,7 +47940,7 @@
       <c r="LM157" s="18"/>
       <c r="LN157" s="18"/>
       <c r="LO157" s="18"/>
-      <c r="LP157" s="15"/>
+      <c r="LP157" s="18"/>
       <c r="LQ157" s="15"/>
       <c r="LR157" s="15"/>
       <c r="LS157" s="15"/>
@@ -48168,7 +48168,7 @@
       <c r="LM158" s="18"/>
       <c r="LN158" s="18"/>
       <c r="LO158" s="18"/>
-      <c r="LP158" s="15"/>
+      <c r="LP158" s="18"/>
       <c r="LQ158" s="15"/>
       <c r="LR158" s="15"/>
       <c r="LS158" s="15"/>
@@ -48388,7 +48388,7 @@
       <c r="LI159" s="18"/>
       <c r="LJ159" s="18"/>
       <c r="LK159" s="18"/>
-      <c r="LP159" s="15"/>
+      <c r="LP159" s="18"/>
       <c r="LQ159" s="15"/>
       <c r="LR159" s="15"/>
       <c r="LS159" s="15"/>
@@ -49569,7 +49569,7 @@
       <c r="LN161" s="18"/>
       <c r="LO161" s="18"/>
       <c r="LP161" s="18"/>
-      <c r="LQ161" s="15"/>
+      <c r="LQ161" s="18"/>
       <c r="LR161" s="15"/>
       <c r="LS161" s="18"/>
       <c r="LT161" s="18"/>
@@ -51263,11 +51263,11 @@
       <c r="LM168" s="18"/>
       <c r="LN168" s="18"/>
       <c r="LO168" s="18"/>
-      <c r="LP168" s="15"/>
+      <c r="LP168" s="18"/>
       <c r="LQ168" s="15"/>
       <c r="LR168" s="15"/>
       <c r="LS168" s="15"/>
-      <c r="LT168" s="15"/>
+      <c r="LT168" s="18"/>
       <c r="LU168" s="18"/>
       <c r="LV168" s="18"/>
       <c r="LW168" s="18"/>
@@ -51489,13 +51489,13 @@
       <c r="LL169" s="18"/>
       <c r="LM169" s="18"/>
       <c r="LN169" s="18"/>
-      <c r="LO169" s="15"/>
+      <c r="LO169" s="18"/>
       <c r="LP169" s="15"/>
       <c r="LQ169" s="15"/>
       <c r="LR169" s="15"/>
       <c r="LS169" s="15"/>
       <c r="LT169" s="15"/>
-      <c r="LU169" s="15"/>
+      <c r="LU169" s="18"/>
       <c r="LV169" s="18"/>
       <c r="LW169" s="18"/>
       <c r="LX169" s="18"/>
@@ -52671,11 +52671,11 @@
       <c r="LM171" s="18"/>
       <c r="LN171" s="18"/>
       <c r="LO171" s="18"/>
-      <c r="LP171" s="15"/>
+      <c r="LP171" s="18"/>
       <c r="LQ171" s="15"/>
       <c r="LR171" s="15"/>
       <c r="LS171" s="15"/>
-      <c r="LT171" s="15"/>
+      <c r="LT171" s="18"/>
       <c r="LU171" s="18"/>
       <c r="LV171" s="18"/>
       <c r="LW171" s="18"/>
@@ -53355,7 +53355,7 @@
       <c r="LQ174" s="15"/>
       <c r="LR174" s="15"/>
       <c r="LS174" s="15"/>
-      <c r="LT174" s="104"/>
+      <c r="LT174" s="18"/>
       <c r="LU174" s="18"/>
       <c r="LV174" s="18"/>
       <c r="LW174" s="18"/>
@@ -53578,10 +53578,10 @@
       <c r="LN175" s="18"/>
       <c r="LO175" s="18"/>
       <c r="LP175" s="18"/>
-      <c r="LQ175" s="15"/>
+      <c r="LQ175" s="18"/>
       <c r="LR175" s="15"/>
       <c r="LS175" s="15"/>
-      <c r="LT175" s="104"/>
+      <c r="LT175" s="18"/>
       <c r="LU175" s="18"/>
       <c r="LV175" s="18"/>
       <c r="LW175" s="18"/>
@@ -53804,9 +53804,9 @@
       <c r="LN176" s="18"/>
       <c r="LO176" s="18"/>
       <c r="LP176" s="18"/>
-      <c r="LQ176" s="15"/>
+      <c r="LQ176" s="18"/>
       <c r="LR176" s="15"/>
-      <c r="LS176" s="15"/>
+      <c r="LS176" s="18"/>
       <c r="LT176" s="18"/>
       <c r="LU176" s="18"/>
       <c r="LV176" s="18"/>
@@ -54030,9 +54030,9 @@
       <c r="LN177" s="18"/>
       <c r="LO177" s="18"/>
       <c r="LP177" s="18"/>
-      <c r="LQ177" s="15"/>
+      <c r="LQ177" s="18"/>
       <c r="LR177" s="15"/>
-      <c r="LS177" s="15"/>
+      <c r="LS177" s="18"/>
       <c r="LT177" s="18"/>
       <c r="LU177" s="18"/>
       <c r="LV177" s="18"/>
@@ -54257,8 +54257,8 @@
       <c r="LN178" s="18"/>
       <c r="LO178" s="18"/>
       <c r="LP178" s="18"/>
-      <c r="LQ178" s="15"/>
-      <c r="LR178" s="15"/>
+      <c r="LQ178" s="18"/>
+      <c r="LR178" s="18"/>
       <c r="LS178" s="18"/>
       <c r="LT178" s="18"/>
       <c r="LU178" s="18"/>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CAFF9D-4FE1-466A-BFBF-9D5CED652D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0BAFA-6132-424A-A38E-C659EA546E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="18072" windowHeight="13008" firstSheet="3" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -21190,6 +21190,588 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>386</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>392</xdr:col>
+      <xdr:colOff>104899</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>164275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="テキスト ボックス 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CBADEC-134C-49C3-816A-049E80B6ADA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105848727" y="24591818"/>
+          <a:ext cx="1850572" cy="947057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>NEXT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>387</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>179121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>392</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>95993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="テキスト ボックス 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403CF4E4-9974-41A7-85A6-879FA1B414C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106103056" y="27839721"/>
+          <a:ext cx="1719943" cy="602672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1" baseline="0"/>
+            <a:t> : 36.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>BEST TIME : 9999.00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>354</xdr:col>
+      <xdr:colOff>274123</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>226916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>361</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>53437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="テキスト ボックス 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7DA16F-C3B7-470A-B2FC-6AF39D689577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="96286123" y="27887516"/>
+          <a:ext cx="2030927" cy="969521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+            <a:t>TETRE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>CHANGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" baseline="0"/>
+            <a:t> : [C] KEY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>372</xdr:col>
+      <xdr:colOff>197428</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>36416</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="489758" cy="511331"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="図 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95D911D-89F3-4808-9C64-E5CEE0DD4047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101695828" y="28611416"/>
+          <a:ext cx="489758" cy="511331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>331</xdr:col>
+      <xdr:colOff>11968</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>108471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>334</xdr:col>
+      <xdr:colOff>88075</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>34526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046FD758-AA2E-4624-A3BA-21FA59A49BB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19466915">
+          <a:off x="92989823" y="15736398"/>
+          <a:ext cx="907379" cy="16177437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>386</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>392</xdr:col>
+      <xdr:colOff>104899</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>164275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="テキスト ボックス 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CCCA67-31B0-4D94-9454-8786A56E3B40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="111620877" y="24763268"/>
+          <a:ext cx="1736272" cy="947057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>NEXT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>387</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>179121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>392</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>95993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05653DF-66F3-42C4-8D28-879DDAAA233A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="111856156" y="28011171"/>
+          <a:ext cx="1624693" cy="602672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1" baseline="0"/>
+            <a:t> : 36.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>BEST TIME : 9999.00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>354</xdr:col>
+      <xdr:colOff>274123</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>226916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>361</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>53437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="テキスト ボックス 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5F5917-1183-49E0-8725-304DB94BC968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102667873" y="28058966"/>
+          <a:ext cx="1897577" cy="969521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1"/>
+            <a:t>TETRE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>CHANGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" baseline="0"/>
+            <a:t> : [C] KEY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>372</xdr:col>
+      <xdr:colOff>197428</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>36416</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="489758" cy="511331"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="図 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66173727-1191-4805-80F7-BC44CCE3D905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107734678" y="28782866"/>
+          <a:ext cx="489758" cy="511331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22387,8 +22969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0D80B-6A2A-4FC3-82C4-6F672EDF6057}">
   <dimension ref="A1:CP117"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -24220,7 +24802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4B4CA0-3353-47A8-BF30-7C258F37A5C5}">
   <dimension ref="C1:AZ66"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AZ38" sqref="AZ38"/>
     </sheetView>
   </sheetViews>
@@ -24277,7 +24859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5385B0-62D3-40E5-976B-7518684BC3EC}">
   <dimension ref="C1:AB104"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC41" sqref="AC41"/>
     </sheetView>
   </sheetViews>
@@ -24783,7 +25365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6016A-E977-49A7-BD75-FF02488C9D30}">
   <dimension ref="C1:DU82"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BE86" sqref="BE86"/>
     </sheetView>
   </sheetViews>
@@ -25524,10 +26106,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
-  <dimension ref="C1:ML194"/>
+  <dimension ref="C1:OC194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JU98" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="LQ176" sqref="LQ176"/>
+    <sheetView tabSelected="1" topLeftCell="LI150" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="NL181" sqref="NL181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -26351,7 +26933,7 @@
       <c r="AQ63" s="73"/>
       <c r="AR63" s="73"/>
     </row>
-    <row r="66" spans="4:350" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:393" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D66" s="116" t="s">
         <v>151</v>
       </c>
@@ -26555,7 +27137,7 @@
       <c r="GT66" s="9"/>
       <c r="GU66" s="117"/>
     </row>
-    <row r="69" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D69">
         <v>55</v>
       </c>
@@ -26895,8 +27477,50 @@
       <c r="MJ69" s="11"/>
       <c r="MK69" s="11"/>
       <c r="ML69" s="11"/>
+      <c r="MP69">
+        <v>55</v>
+      </c>
+      <c r="MQ69" s="11"/>
+      <c r="MR69" s="11"/>
+      <c r="MS69" s="11"/>
+      <c r="MT69" s="11"/>
+      <c r="MU69" s="11"/>
+      <c r="MV69" s="11"/>
+      <c r="MW69" s="11"/>
+      <c r="MX69" s="11"/>
+      <c r="MY69" s="11"/>
+      <c r="MZ69" s="11"/>
+      <c r="NA69" s="11"/>
+      <c r="NB69" s="11"/>
+      <c r="NC69" s="11"/>
+      <c r="ND69" s="11"/>
+      <c r="NE69" s="11"/>
+      <c r="NF69" s="11"/>
+      <c r="NG69" s="11"/>
+      <c r="NH69" s="11"/>
+      <c r="NI69" s="11"/>
+      <c r="NJ69" s="11"/>
+      <c r="NK69" s="11"/>
+      <c r="NL69" s="11"/>
+      <c r="NM69" s="11"/>
+      <c r="NN69" s="11"/>
+      <c r="NO69" s="11"/>
+      <c r="NP69" s="11"/>
+      <c r="NQ69" s="11"/>
+      <c r="NR69" s="11"/>
+      <c r="NS69" s="11"/>
+      <c r="NT69" s="11"/>
+      <c r="NU69" s="11"/>
+      <c r="NV69" s="11"/>
+      <c r="NW69" s="11"/>
+      <c r="NX69" s="11"/>
+      <c r="NY69" s="11"/>
+      <c r="NZ69" s="11"/>
+      <c r="OA69" s="11"/>
+      <c r="OB69" s="11"/>
+      <c r="OC69" s="11"/>
     </row>
-    <row r="70" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D70">
         <v>54</v>
       </c>
@@ -27236,8 +27860,50 @@
       <c r="MJ70" s="18"/>
       <c r="MK70" s="18"/>
       <c r="ML70" s="11"/>
+      <c r="MP70">
+        <v>54</v>
+      </c>
+      <c r="MQ70" s="11"/>
+      <c r="MR70" s="18"/>
+      <c r="MS70" s="18"/>
+      <c r="MT70" s="18"/>
+      <c r="MU70" s="18"/>
+      <c r="MV70" s="18"/>
+      <c r="MW70" s="18"/>
+      <c r="MX70" s="11"/>
+      <c r="MY70" s="18"/>
+      <c r="MZ70" s="18"/>
+      <c r="NA70" s="18"/>
+      <c r="NB70" s="18"/>
+      <c r="NC70" s="18"/>
+      <c r="ND70" s="18"/>
+      <c r="NE70" s="18"/>
+      <c r="NF70" s="18"/>
+      <c r="NG70" s="18"/>
+      <c r="NH70" s="18"/>
+      <c r="NI70" s="18"/>
+      <c r="NJ70" s="18"/>
+      <c r="NK70" s="18"/>
+      <c r="NL70" s="18"/>
+      <c r="NM70" s="18"/>
+      <c r="NN70" s="18"/>
+      <c r="NO70" s="18"/>
+      <c r="NP70" s="18"/>
+      <c r="NQ70" s="18"/>
+      <c r="NR70" s="18"/>
+      <c r="NS70" s="18"/>
+      <c r="NT70" s="18"/>
+      <c r="NU70" s="18"/>
+      <c r="NV70" s="18"/>
+      <c r="NW70" s="11"/>
+      <c r="NX70" s="18"/>
+      <c r="NY70" s="18"/>
+      <c r="NZ70" s="18"/>
+      <c r="OA70" s="18"/>
+      <c r="OB70" s="18"/>
+      <c r="OC70" s="11"/>
     </row>
-    <row r="71" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D71">
         <v>53</v>
       </c>
@@ -27294,8 +27960,15 @@
       <c r="LG71" s="11"/>
       <c r="MF71" s="11"/>
       <c r="ML71" s="11"/>
+      <c r="MP71">
+        <v>53</v>
+      </c>
+      <c r="MQ71" s="11"/>
+      <c r="MX71" s="11"/>
+      <c r="NW71" s="11"/>
+      <c r="OC71" s="11"/>
     </row>
-    <row r="72" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D72">
         <v>52</v>
       </c>
@@ -27358,8 +28031,15 @@
       <c r="LG72" s="11"/>
       <c r="MF72" s="11"/>
       <c r="ML72" s="11"/>
+      <c r="MP72">
+        <v>52</v>
+      </c>
+      <c r="MQ72" s="11"/>
+      <c r="MX72" s="11"/>
+      <c r="NW72" s="11"/>
+      <c r="OC72" s="11"/>
     </row>
-    <row r="73" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D73">
         <v>51</v>
       </c>
@@ -27699,8 +28379,50 @@
       <c r="MJ73" s="18"/>
       <c r="MK73" s="18"/>
       <c r="ML73" s="11"/>
+      <c r="MP73">
+        <v>51</v>
+      </c>
+      <c r="MQ73" s="11"/>
+      <c r="MR73" s="18"/>
+      <c r="MS73" s="18"/>
+      <c r="MT73" s="18"/>
+      <c r="MU73" s="18"/>
+      <c r="MV73" s="18"/>
+      <c r="MW73" s="18"/>
+      <c r="MX73" s="11"/>
+      <c r="MY73" s="18"/>
+      <c r="MZ73" s="18"/>
+      <c r="NA73" s="18"/>
+      <c r="NB73" s="18"/>
+      <c r="NC73" s="18"/>
+      <c r="ND73" s="18"/>
+      <c r="NE73" s="18"/>
+      <c r="NF73" s="18"/>
+      <c r="NG73" s="18"/>
+      <c r="NH73" s="18"/>
+      <c r="NI73" s="18"/>
+      <c r="NJ73" s="18"/>
+      <c r="NK73" s="18"/>
+      <c r="NL73" s="18"/>
+      <c r="NM73" s="18"/>
+      <c r="NN73" s="18"/>
+      <c r="NO73" s="18"/>
+      <c r="NP73" s="18"/>
+      <c r="NQ73" s="18"/>
+      <c r="NR73" s="18"/>
+      <c r="NS73" s="18"/>
+      <c r="NT73" s="18"/>
+      <c r="NU73" s="18"/>
+      <c r="NV73" s="18"/>
+      <c r="NW73" s="11"/>
+      <c r="NX73" s="18"/>
+      <c r="NY73" s="18"/>
+      <c r="NZ73" s="18"/>
+      <c r="OA73" s="18"/>
+      <c r="OB73" s="18"/>
+      <c r="OC73" s="11"/>
     </row>
-    <row r="74" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D74" s="14">
         <v>50</v>
       </c>
@@ -28009,8 +28731,45 @@
       <c r="ME74" s="14"/>
       <c r="MF74" s="11"/>
       <c r="ML74" s="11"/>
+      <c r="MP74" s="14">
+        <v>50</v>
+      </c>
+      <c r="MQ74" s="11"/>
+      <c r="MR74" s="18"/>
+      <c r="MS74" s="18"/>
+      <c r="MT74" s="18"/>
+      <c r="MU74" s="18"/>
+      <c r="MV74" s="18"/>
+      <c r="MW74" s="18"/>
+      <c r="MX74" s="11"/>
+      <c r="MY74" s="14"/>
+      <c r="MZ74" s="14"/>
+      <c r="NA74" s="14"/>
+      <c r="NB74" s="14"/>
+      <c r="NC74" s="14"/>
+      <c r="ND74" s="14"/>
+      <c r="NE74" s="14"/>
+      <c r="NF74" s="14"/>
+      <c r="NG74" s="14"/>
+      <c r="NH74" s="14"/>
+      <c r="NI74" s="14"/>
+      <c r="NJ74" s="14"/>
+      <c r="NK74" s="14"/>
+      <c r="NL74" s="14"/>
+      <c r="NM74" s="14"/>
+      <c r="NN74" s="14"/>
+      <c r="NO74" s="14"/>
+      <c r="NP74" s="14"/>
+      <c r="NQ74" s="14"/>
+      <c r="NR74" s="14"/>
+      <c r="NS74" s="14"/>
+      <c r="NT74" s="14"/>
+      <c r="NU74" s="14"/>
+      <c r="NV74" s="14"/>
+      <c r="NW74" s="11"/>
+      <c r="OC74" s="11"/>
     </row>
-    <row r="75" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D75">
         <v>49</v>
       </c>
@@ -28121,8 +28880,39 @@
       <c r="ME75" s="18"/>
       <c r="MF75" s="11"/>
       <c r="ML75" s="11"/>
+      <c r="MP75">
+        <v>49</v>
+      </c>
+      <c r="MQ75" s="11"/>
+      <c r="MX75" s="11"/>
+      <c r="MY75" s="18"/>
+      <c r="MZ75" s="18"/>
+      <c r="NA75" s="18"/>
+      <c r="NB75" s="18"/>
+      <c r="NC75" s="18"/>
+      <c r="ND75" s="18"/>
+      <c r="NE75" s="18"/>
+      <c r="NF75" s="18"/>
+      <c r="NG75" s="18"/>
+      <c r="NH75" s="18"/>
+      <c r="NI75" s="18"/>
+      <c r="NJ75" s="18"/>
+      <c r="NK75" s="18"/>
+      <c r="NL75" s="18"/>
+      <c r="NM75" s="18"/>
+      <c r="NN75" s="18"/>
+      <c r="NO75" s="18"/>
+      <c r="NP75" s="18"/>
+      <c r="NQ75" s="18"/>
+      <c r="NR75" s="18"/>
+      <c r="NS75" s="18"/>
+      <c r="NT75" s="18"/>
+      <c r="NU75" s="18"/>
+      <c r="NV75" s="18"/>
+      <c r="NW75" s="11"/>
+      <c r="OC75" s="11"/>
     </row>
-    <row r="76" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D76">
         <v>48</v>
       </c>
@@ -28350,8 +29140,39 @@
       <c r="ME76" s="18"/>
       <c r="MF76" s="11"/>
       <c r="ML76" s="11"/>
+      <c r="MP76">
+        <v>48</v>
+      </c>
+      <c r="MQ76" s="11"/>
+      <c r="MX76" s="11"/>
+      <c r="MY76" s="18"/>
+      <c r="MZ76" s="18"/>
+      <c r="NA76" s="18"/>
+      <c r="NB76" s="18"/>
+      <c r="NC76" s="18"/>
+      <c r="ND76" s="18"/>
+      <c r="NE76" s="18"/>
+      <c r="NF76" s="18"/>
+      <c r="NG76" s="18"/>
+      <c r="NH76" s="18"/>
+      <c r="NI76" s="18"/>
+      <c r="NJ76" s="18"/>
+      <c r="NK76" s="18"/>
+      <c r="NL76" s="18"/>
+      <c r="NM76" s="18"/>
+      <c r="NN76" s="18"/>
+      <c r="NO76" s="18"/>
+      <c r="NP76" s="18"/>
+      <c r="NQ76" s="18"/>
+      <c r="NR76" s="18"/>
+      <c r="NS76" s="18"/>
+      <c r="NT76" s="18"/>
+      <c r="NU76" s="18"/>
+      <c r="NV76" s="18"/>
+      <c r="NW76" s="11"/>
+      <c r="OC76" s="11"/>
     </row>
-    <row r="77" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D77">
         <v>47</v>
       </c>
@@ -28575,8 +29396,39 @@
       <c r="ME77" s="18"/>
       <c r="MF77" s="11"/>
       <c r="ML77" s="11"/>
+      <c r="MP77">
+        <v>47</v>
+      </c>
+      <c r="MQ77" s="11"/>
+      <c r="MX77" s="11"/>
+      <c r="MY77" s="18"/>
+      <c r="MZ77" s="18"/>
+      <c r="NA77" s="18"/>
+      <c r="NB77" s="18"/>
+      <c r="NC77" s="18"/>
+      <c r="ND77" s="18"/>
+      <c r="NE77" s="18"/>
+      <c r="NF77" s="18"/>
+      <c r="NG77" s="18"/>
+      <c r="NH77" s="18"/>
+      <c r="NI77" s="18"/>
+      <c r="NJ77" s="18"/>
+      <c r="NK77" s="18"/>
+      <c r="NL77" s="18"/>
+      <c r="NM77" s="18"/>
+      <c r="NN77" s="18"/>
+      <c r="NO77" s="18"/>
+      <c r="NP77" s="18"/>
+      <c r="NQ77" s="18"/>
+      <c r="NR77" s="18"/>
+      <c r="NS77" s="18"/>
+      <c r="NT77" s="18"/>
+      <c r="NU77" s="18"/>
+      <c r="NV77" s="18"/>
+      <c r="NW77" s="11"/>
+      <c r="OC77" s="11"/>
     </row>
-    <row r="78" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D78">
         <v>46</v>
       </c>
@@ -28800,8 +29652,39 @@
       <c r="ME78" s="18"/>
       <c r="MF78" s="11"/>
       <c r="ML78" s="11"/>
+      <c r="MP78">
+        <v>46</v>
+      </c>
+      <c r="MQ78" s="11"/>
+      <c r="MX78" s="11"/>
+      <c r="MY78" s="18"/>
+      <c r="MZ78" s="18"/>
+      <c r="NA78" s="18"/>
+      <c r="NB78" s="15"/>
+      <c r="NC78" s="15"/>
+      <c r="ND78" s="15"/>
+      <c r="NE78" s="18"/>
+      <c r="NF78" s="18"/>
+      <c r="NG78" s="18"/>
+      <c r="NH78" s="18"/>
+      <c r="NI78" s="18"/>
+      <c r="NJ78" s="18"/>
+      <c r="NK78" s="18"/>
+      <c r="NL78" s="18"/>
+      <c r="NM78" s="18"/>
+      <c r="NN78" s="18"/>
+      <c r="NO78" s="18"/>
+      <c r="NP78" s="18"/>
+      <c r="NQ78" s="15"/>
+      <c r="NR78" s="15"/>
+      <c r="NS78" s="15"/>
+      <c r="NT78" s="18"/>
+      <c r="NU78" s="18"/>
+      <c r="NV78" s="18"/>
+      <c r="NW78" s="11"/>
+      <c r="OC78" s="11"/>
     </row>
-    <row r="79" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D79">
         <v>45</v>
       </c>
@@ -29025,8 +29908,39 @@
       <c r="ME79" s="18"/>
       <c r="MF79" s="11"/>
       <c r="ML79" s="11"/>
+      <c r="MP79">
+        <v>45</v>
+      </c>
+      <c r="MQ79" s="11"/>
+      <c r="MX79" s="11"/>
+      <c r="MY79" s="18"/>
+      <c r="MZ79" s="18"/>
+      <c r="NA79" s="18"/>
+      <c r="NB79" s="15"/>
+      <c r="NC79" s="15"/>
+      <c r="ND79" s="15"/>
+      <c r="NE79" s="18"/>
+      <c r="NF79" s="18"/>
+      <c r="NG79" s="18"/>
+      <c r="NH79" s="18"/>
+      <c r="NI79" s="18"/>
+      <c r="NJ79" s="18"/>
+      <c r="NK79" s="18"/>
+      <c r="NL79" s="18"/>
+      <c r="NM79" s="18"/>
+      <c r="NN79" s="18"/>
+      <c r="NO79" s="18"/>
+      <c r="NP79" s="18"/>
+      <c r="NQ79" s="15"/>
+      <c r="NR79" s="15"/>
+      <c r="NS79" s="15"/>
+      <c r="NT79" s="18"/>
+      <c r="NU79" s="18"/>
+      <c r="NV79" s="18"/>
+      <c r="NW79" s="11"/>
+      <c r="OC79" s="11"/>
     </row>
-    <row r="80" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D80">
         <v>44</v>
       </c>
@@ -29250,8 +30164,39 @@
       <c r="ME80" s="18"/>
       <c r="MF80" s="11"/>
       <c r="ML80" s="11"/>
+      <c r="MP80">
+        <v>44</v>
+      </c>
+      <c r="MQ80" s="11"/>
+      <c r="MX80" s="11"/>
+      <c r="MY80" s="18"/>
+      <c r="MZ80" s="18"/>
+      <c r="NA80" s="18"/>
+      <c r="NB80" s="15"/>
+      <c r="NC80" s="15"/>
+      <c r="ND80" s="15"/>
+      <c r="NE80" s="18"/>
+      <c r="NF80" s="18"/>
+      <c r="NG80" s="18"/>
+      <c r="NH80" s="18"/>
+      <c r="NI80" s="18"/>
+      <c r="NJ80" s="18"/>
+      <c r="NK80" s="18"/>
+      <c r="NL80" s="18"/>
+      <c r="NM80" s="18"/>
+      <c r="NN80" s="18"/>
+      <c r="NO80" s="18"/>
+      <c r="NP80" s="18"/>
+      <c r="NQ80" s="15"/>
+      <c r="NR80" s="15"/>
+      <c r="NS80" s="15"/>
+      <c r="NT80" s="18"/>
+      <c r="NU80" s="18"/>
+      <c r="NV80" s="18"/>
+      <c r="NW80" s="11"/>
+      <c r="OC80" s="11"/>
     </row>
-    <row r="81" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D81">
         <v>43</v>
       </c>
@@ -29476,8 +30421,39 @@
       <c r="ME81" s="18"/>
       <c r="MF81" s="11"/>
       <c r="ML81" s="11"/>
+      <c r="MP81">
+        <v>43</v>
+      </c>
+      <c r="MQ81" s="11"/>
+      <c r="MX81" s="11"/>
+      <c r="MY81" s="18"/>
+      <c r="MZ81" s="18"/>
+      <c r="NA81" s="18"/>
+      <c r="NB81" s="18"/>
+      <c r="NC81" s="18"/>
+      <c r="ND81" s="18"/>
+      <c r="NE81" s="18"/>
+      <c r="NF81" s="18"/>
+      <c r="NG81" s="18"/>
+      <c r="NH81" s="18"/>
+      <c r="NI81" s="18"/>
+      <c r="NJ81" s="18"/>
+      <c r="NK81" s="18"/>
+      <c r="NL81" s="18"/>
+      <c r="NM81" s="18"/>
+      <c r="NN81" s="18"/>
+      <c r="NO81" s="18"/>
+      <c r="NP81" s="18"/>
+      <c r="NQ81" s="18"/>
+      <c r="NR81" s="18"/>
+      <c r="NS81" s="18"/>
+      <c r="NT81" s="18"/>
+      <c r="NU81" s="18"/>
+      <c r="NV81" s="18"/>
+      <c r="NW81" s="11"/>
+      <c r="OC81" s="11"/>
     </row>
-    <row r="82" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D82">
         <v>42</v>
       </c>
@@ -29700,8 +30676,39 @@
       <c r="ME82" s="18"/>
       <c r="MF82" s="11"/>
       <c r="ML82" s="11"/>
+      <c r="MP82">
+        <v>42</v>
+      </c>
+      <c r="MQ82" s="11"/>
+      <c r="MX82" s="11"/>
+      <c r="MY82" s="18"/>
+      <c r="MZ82" s="18"/>
+      <c r="NA82" s="18"/>
+      <c r="NB82" s="18"/>
+      <c r="NC82" s="18"/>
+      <c r="ND82" s="18"/>
+      <c r="NE82" s="18"/>
+      <c r="NF82" s="18"/>
+      <c r="NG82" s="18"/>
+      <c r="NH82" s="18"/>
+      <c r="NI82" s="18"/>
+      <c r="NJ82" s="18"/>
+      <c r="NK82" s="18"/>
+      <c r="NL82" s="18"/>
+      <c r="NM82" s="18"/>
+      <c r="NN82" s="18"/>
+      <c r="NO82" s="18"/>
+      <c r="NP82" s="18"/>
+      <c r="NQ82" s="18"/>
+      <c r="NR82" s="18"/>
+      <c r="NS82" s="18"/>
+      <c r="NT82" s="18"/>
+      <c r="NU82" s="18"/>
+      <c r="NV82" s="18"/>
+      <c r="NW82" s="11"/>
+      <c r="OC82" s="11"/>
     </row>
-    <row r="83" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D83">
         <v>41</v>
       </c>
@@ -29919,8 +30926,39 @@
       <c r="ME83" s="18"/>
       <c r="MF83" s="11"/>
       <c r="ML83" s="11"/>
+      <c r="MP83">
+        <v>41</v>
+      </c>
+      <c r="MQ83" s="11"/>
+      <c r="MX83" s="11"/>
+      <c r="MY83" s="18"/>
+      <c r="MZ83" s="18"/>
+      <c r="NA83" s="18"/>
+      <c r="NB83" s="18"/>
+      <c r="NC83" s="18"/>
+      <c r="ND83" s="18"/>
+      <c r="NE83" s="18"/>
+      <c r="NF83" s="18"/>
+      <c r="NG83" s="18"/>
+      <c r="NH83" s="18"/>
+      <c r="NI83" s="18"/>
+      <c r="NJ83" s="18"/>
+      <c r="NK83" s="18"/>
+      <c r="NL83" s="18"/>
+      <c r="NM83" s="18"/>
+      <c r="NN83" s="18"/>
+      <c r="NO83" s="18"/>
+      <c r="NP83" s="18"/>
+      <c r="NQ83" s="18"/>
+      <c r="NR83" s="18"/>
+      <c r="NS83" s="18"/>
+      <c r="NT83" s="18"/>
+      <c r="NU83" s="18"/>
+      <c r="NV83" s="18"/>
+      <c r="NW83" s="11"/>
+      <c r="OC83" s="11"/>
     </row>
-    <row r="84" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D84" s="113">
         <v>40</v>
       </c>
@@ -30874,8 +31912,126 @@
         <v>40</v>
       </c>
       <c r="ML84" s="11"/>
+      <c r="MP84" s="113">
+        <v>40</v>
+      </c>
+      <c r="MQ84" s="113">
+        <v>40</v>
+      </c>
+      <c r="MR84" s="113">
+        <v>40</v>
+      </c>
+      <c r="MS84" s="113">
+        <v>40</v>
+      </c>
+      <c r="MT84" s="113">
+        <v>40</v>
+      </c>
+      <c r="MU84" s="113">
+        <v>40</v>
+      </c>
+      <c r="MV84" s="113">
+        <v>40</v>
+      </c>
+      <c r="MW84" s="113">
+        <v>40</v>
+      </c>
+      <c r="MX84" s="113">
+        <v>40</v>
+      </c>
+      <c r="MY84" s="18">
+        <v>40</v>
+      </c>
+      <c r="MZ84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NA84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NB84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NC84" s="18">
+        <v>40</v>
+      </c>
+      <c r="ND84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NE84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NF84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NG84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NH84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NI84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NJ84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NK84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NL84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NM84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NN84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NO84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NP84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NQ84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NR84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NS84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NT84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NU84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NV84" s="18">
+        <v>40</v>
+      </c>
+      <c r="NW84" s="113">
+        <v>40</v>
+      </c>
+      <c r="NX84" s="113">
+        <v>40</v>
+      </c>
+      <c r="NY84" s="113">
+        <v>40</v>
+      </c>
+      <c r="NZ84" s="113">
+        <v>40</v>
+      </c>
+      <c r="OA84" s="113">
+        <v>40</v>
+      </c>
+      <c r="OB84" s="113">
+        <v>40</v>
+      </c>
+      <c r="OC84" s="11"/>
     </row>
-    <row r="85" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D85">
         <v>39</v>
       </c>
@@ -31093,8 +32249,39 @@
       <c r="ME85" s="18"/>
       <c r="MF85" s="11"/>
       <c r="ML85" s="11"/>
+      <c r="MP85">
+        <v>39</v>
+      </c>
+      <c r="MQ85" s="11"/>
+      <c r="MX85" s="11"/>
+      <c r="MY85" s="18"/>
+      <c r="MZ85" s="18"/>
+      <c r="NA85" s="18"/>
+      <c r="NB85" s="18"/>
+      <c r="NC85" s="18"/>
+      <c r="ND85" s="18"/>
+      <c r="NE85" s="18"/>
+      <c r="NF85" s="18"/>
+      <c r="NG85" s="18"/>
+      <c r="NH85" s="18"/>
+      <c r="NI85" s="18"/>
+      <c r="NJ85" s="18"/>
+      <c r="NK85" s="18"/>
+      <c r="NL85" s="18"/>
+      <c r="NM85" s="18"/>
+      <c r="NN85" s="18"/>
+      <c r="NO85" s="18"/>
+      <c r="NP85" s="18"/>
+      <c r="NQ85" s="18"/>
+      <c r="NR85" s="18"/>
+      <c r="NS85" s="18"/>
+      <c r="NT85" s="18"/>
+      <c r="NU85" s="18"/>
+      <c r="NV85" s="18"/>
+      <c r="NW85" s="11"/>
+      <c r="OC85" s="11"/>
     </row>
-    <row r="86" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D86">
         <v>38</v>
       </c>
@@ -31319,8 +32506,39 @@
       <c r="ME86" s="104"/>
       <c r="MF86" s="11"/>
       <c r="ML86" s="11"/>
+      <c r="MP86">
+        <v>38</v>
+      </c>
+      <c r="MQ86" s="11"/>
+      <c r="MX86" s="11"/>
+      <c r="MY86" s="18"/>
+      <c r="MZ86" s="18"/>
+      <c r="NA86" s="18"/>
+      <c r="NB86" s="18"/>
+      <c r="NC86" s="18"/>
+      <c r="ND86" s="18"/>
+      <c r="NE86" s="18"/>
+      <c r="NF86" s="18"/>
+      <c r="NG86" s="18"/>
+      <c r="NH86" s="18"/>
+      <c r="NI86" s="18"/>
+      <c r="NJ86" s="18"/>
+      <c r="NK86" s="18"/>
+      <c r="NL86" s="18"/>
+      <c r="NM86" s="18"/>
+      <c r="NN86" s="18"/>
+      <c r="NO86" s="18"/>
+      <c r="NP86" s="18"/>
+      <c r="NQ86" s="18"/>
+      <c r="NR86" s="18"/>
+      <c r="NS86" s="18"/>
+      <c r="NT86" s="18"/>
+      <c r="NU86" s="18"/>
+      <c r="NV86" s="18"/>
+      <c r="NW86" s="11"/>
+      <c r="OC86" s="11"/>
     </row>
-    <row r="87" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D87">
         <v>37</v>
       </c>
@@ -31545,8 +32763,39 @@
       <c r="ME87" s="18"/>
       <c r="MF87" s="11"/>
       <c r="ML87" s="11"/>
+      <c r="MP87">
+        <v>37</v>
+      </c>
+      <c r="MQ87" s="11"/>
+      <c r="MX87" s="11"/>
+      <c r="MY87" s="18"/>
+      <c r="MZ87" s="18"/>
+      <c r="NA87" s="18"/>
+      <c r="NB87" s="18"/>
+      <c r="NC87" s="18"/>
+      <c r="ND87" s="18"/>
+      <c r="NE87" s="18"/>
+      <c r="NF87" s="18"/>
+      <c r="NG87" s="18"/>
+      <c r="NH87" s="18"/>
+      <c r="NI87" s="18"/>
+      <c r="NJ87" s="18"/>
+      <c r="NK87" s="18"/>
+      <c r="NL87" s="18"/>
+      <c r="NM87" s="18"/>
+      <c r="NN87" s="18"/>
+      <c r="NO87" s="18"/>
+      <c r="NP87" s="18"/>
+      <c r="NQ87" s="18"/>
+      <c r="NR87" s="18"/>
+      <c r="NS87" s="18"/>
+      <c r="NT87" s="18"/>
+      <c r="NU87" s="18"/>
+      <c r="NV87" s="18"/>
+      <c r="NW87" s="11"/>
+      <c r="OC87" s="11"/>
     </row>
-    <row r="88" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="88" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D88">
         <v>36</v>
       </c>
@@ -31771,8 +33020,37 @@
       <c r="ME88" s="18"/>
       <c r="MF88" s="11"/>
       <c r="ML88" s="11"/>
+      <c r="MP88">
+        <v>36</v>
+      </c>
+      <c r="MQ88" s="11"/>
+      <c r="MX88" s="11"/>
+      <c r="MY88" s="18"/>
+      <c r="MZ88" s="18"/>
+      <c r="NA88" s="18"/>
+      <c r="NB88" s="18"/>
+      <c r="NC88" s="18"/>
+      <c r="ND88" s="18"/>
+      <c r="NE88" s="18"/>
+      <c r="NF88" s="18"/>
+      <c r="NG88" s="15"/>
+      <c r="NH88" s="15"/>
+      <c r="NK88" s="18"/>
+      <c r="NL88" s="18"/>
+      <c r="NM88" s="18"/>
+      <c r="NN88" s="18"/>
+      <c r="NO88" s="18"/>
+      <c r="NP88" s="18"/>
+      <c r="NQ88" s="18"/>
+      <c r="NR88" s="18"/>
+      <c r="NS88" s="18"/>
+      <c r="NT88" s="18"/>
+      <c r="NU88" s="18"/>
+      <c r="NV88" s="18"/>
+      <c r="NW88" s="11"/>
+      <c r="OC88" s="11"/>
     </row>
-    <row r="89" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D89">
         <v>35</v>
       </c>
@@ -31995,8 +33273,37 @@
       <c r="ME89" s="18"/>
       <c r="MF89" s="11"/>
       <c r="ML89" s="11"/>
+      <c r="MP89">
+        <v>35</v>
+      </c>
+      <c r="MQ89" s="11"/>
+      <c r="MX89" s="11"/>
+      <c r="MY89" s="18"/>
+      <c r="MZ89" s="18"/>
+      <c r="NA89" s="18"/>
+      <c r="NB89" s="18"/>
+      <c r="NC89" s="18"/>
+      <c r="ND89" s="18"/>
+      <c r="NE89" s="18"/>
+      <c r="NF89" s="18"/>
+      <c r="NG89" s="15"/>
+      <c r="NH89" s="15"/>
+      <c r="NK89" s="18"/>
+      <c r="NL89" s="18"/>
+      <c r="NM89" s="18"/>
+      <c r="NN89" s="18"/>
+      <c r="NO89" s="18"/>
+      <c r="NP89" s="18"/>
+      <c r="NQ89" s="18"/>
+      <c r="NR89" s="18"/>
+      <c r="NS89" s="18"/>
+      <c r="NT89" s="18"/>
+      <c r="NU89" s="18"/>
+      <c r="NV89" s="18"/>
+      <c r="NW89" s="11"/>
+      <c r="OC89" s="11"/>
     </row>
-    <row r="90" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D90">
         <v>34</v>
       </c>
@@ -32217,8 +33524,37 @@
       <c r="ME90" s="18"/>
       <c r="MF90" s="11"/>
       <c r="ML90" s="11"/>
+      <c r="MP90">
+        <v>34</v>
+      </c>
+      <c r="MQ90" s="11"/>
+      <c r="MX90" s="11"/>
+      <c r="MY90" s="18"/>
+      <c r="MZ90" s="18"/>
+      <c r="NA90" s="18"/>
+      <c r="NB90" s="18"/>
+      <c r="NC90" s="18"/>
+      <c r="ND90" s="18"/>
+      <c r="NE90" s="18"/>
+      <c r="NF90" s="18"/>
+      <c r="NG90" s="15"/>
+      <c r="NH90" s="15"/>
+      <c r="NK90" s="18"/>
+      <c r="NL90" s="18"/>
+      <c r="NM90" s="18"/>
+      <c r="NN90" s="18"/>
+      <c r="NO90" s="18"/>
+      <c r="NP90" s="18"/>
+      <c r="NQ90" s="18"/>
+      <c r="NR90" s="18"/>
+      <c r="NS90" s="18"/>
+      <c r="NT90" s="18"/>
+      <c r="NU90" s="18"/>
+      <c r="NV90" s="18"/>
+      <c r="NW90" s="11"/>
+      <c r="OC90" s="11"/>
     </row>
-    <row r="91" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D91">
         <v>33</v>
       </c>
@@ -32445,8 +33781,37 @@
       <c r="ME91" s="18"/>
       <c r="MF91" s="11"/>
       <c r="ML91" s="11"/>
+      <c r="MP91">
+        <v>33</v>
+      </c>
+      <c r="MQ91" s="11"/>
+      <c r="MX91" s="11"/>
+      <c r="MY91" s="18"/>
+      <c r="MZ91" s="18"/>
+      <c r="NA91" s="18"/>
+      <c r="NB91" s="18"/>
+      <c r="NC91" s="18"/>
+      <c r="ND91" s="18"/>
+      <c r="NE91" s="18"/>
+      <c r="NF91" s="18"/>
+      <c r="NG91" s="15"/>
+      <c r="NH91" s="15"/>
+      <c r="NK91" s="18"/>
+      <c r="NL91" s="18"/>
+      <c r="NM91" s="18"/>
+      <c r="NN91" s="18"/>
+      <c r="NO91" s="18"/>
+      <c r="NP91" s="18"/>
+      <c r="NQ91" s="18"/>
+      <c r="NR91" s="18"/>
+      <c r="NS91" s="18"/>
+      <c r="NT91" s="18"/>
+      <c r="NU91" s="18"/>
+      <c r="NV91" s="18"/>
+      <c r="NW91" s="11"/>
+      <c r="OC91" s="11"/>
     </row>
-    <row r="92" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D92">
         <v>32</v>
       </c>
@@ -32671,8 +34036,37 @@
       <c r="ME92" s="18"/>
       <c r="MF92" s="11"/>
       <c r="ML92" s="11"/>
+      <c r="MP92">
+        <v>32</v>
+      </c>
+      <c r="MQ92" s="11"/>
+      <c r="MX92" s="11"/>
+      <c r="MY92" s="18"/>
+      <c r="MZ92" s="18"/>
+      <c r="NA92" s="18"/>
+      <c r="NB92" s="18"/>
+      <c r="NC92" s="18"/>
+      <c r="ND92" s="18"/>
+      <c r="NE92" s="18"/>
+      <c r="NF92" s="18"/>
+      <c r="NG92" s="18"/>
+      <c r="NJ92" s="18"/>
+      <c r="NK92" s="18"/>
+      <c r="NL92" s="18"/>
+      <c r="NM92" s="18"/>
+      <c r="NN92" s="18"/>
+      <c r="NO92" s="18"/>
+      <c r="NP92" s="18"/>
+      <c r="NQ92" s="18"/>
+      <c r="NR92" s="18"/>
+      <c r="NS92" s="18"/>
+      <c r="NT92" s="18"/>
+      <c r="NU92" s="18"/>
+      <c r="NV92" s="18"/>
+      <c r="NW92" s="11"/>
+      <c r="OC92" s="11"/>
     </row>
-    <row r="93" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D93">
         <v>31</v>
       </c>
@@ -32888,8 +34282,39 @@
       <c r="ME93" s="18"/>
       <c r="MF93" s="11"/>
       <c r="ML93" s="11"/>
+      <c r="MP93">
+        <v>31</v>
+      </c>
+      <c r="MQ93" s="11"/>
+      <c r="MX93" s="11"/>
+      <c r="MY93" s="18"/>
+      <c r="MZ93" s="18"/>
+      <c r="NA93" s="18"/>
+      <c r="NB93" s="18"/>
+      <c r="NC93" s="18"/>
+      <c r="ND93" s="18"/>
+      <c r="NE93" s="18"/>
+      <c r="NF93" s="18"/>
+      <c r="NG93" s="18"/>
+      <c r="NH93" s="18"/>
+      <c r="NI93" s="18"/>
+      <c r="NJ93" s="18"/>
+      <c r="NK93" s="18"/>
+      <c r="NL93" s="18"/>
+      <c r="NM93" s="18"/>
+      <c r="NN93" s="18"/>
+      <c r="NO93" s="18"/>
+      <c r="NP93" s="18"/>
+      <c r="NQ93" s="18"/>
+      <c r="NR93" s="18"/>
+      <c r="NS93" s="18"/>
+      <c r="NT93" s="18"/>
+      <c r="NU93" s="18"/>
+      <c r="NV93" s="18"/>
+      <c r="NW93" s="11"/>
+      <c r="OC93" s="11"/>
     </row>
-    <row r="94" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D94" s="113">
         <v>30</v>
       </c>
@@ -33843,8 +35268,126 @@
         <v>30</v>
       </c>
       <c r="ML94" s="11"/>
+      <c r="MP94" s="113">
+        <v>30</v>
+      </c>
+      <c r="MQ94" s="113">
+        <v>30</v>
+      </c>
+      <c r="MR94" s="113">
+        <v>30</v>
+      </c>
+      <c r="MS94" s="113">
+        <v>30</v>
+      </c>
+      <c r="MT94" s="113">
+        <v>30</v>
+      </c>
+      <c r="MU94" s="113">
+        <v>30</v>
+      </c>
+      <c r="MV94" s="113">
+        <v>30</v>
+      </c>
+      <c r="MW94" s="113">
+        <v>30</v>
+      </c>
+      <c r="MX94" s="113">
+        <v>30</v>
+      </c>
+      <c r="MY94" s="18">
+        <v>30</v>
+      </c>
+      <c r="MZ94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NA94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NB94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NC94" s="18">
+        <v>30</v>
+      </c>
+      <c r="ND94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NE94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NF94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NG94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NH94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NI94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NJ94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NK94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NL94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NM94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NN94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NO94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NP94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NQ94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NR94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NS94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NT94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NU94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NV94" s="18">
+        <v>30</v>
+      </c>
+      <c r="NW94" s="113">
+        <v>30</v>
+      </c>
+      <c r="NX94" s="113">
+        <v>30</v>
+      </c>
+      <c r="NY94" s="113">
+        <v>30</v>
+      </c>
+      <c r="NZ94" s="113">
+        <v>30</v>
+      </c>
+      <c r="OA94" s="113">
+        <v>30</v>
+      </c>
+      <c r="OB94" s="113">
+        <v>30</v>
+      </c>
+      <c r="OC94" s="11"/>
     </row>
-    <row r="95" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D95">
         <v>29</v>
       </c>
@@ -34073,8 +35616,39 @@
       <c r="ME95" s="15"/>
       <c r="MF95" s="11"/>
       <c r="ML95" s="11"/>
+      <c r="MP95">
+        <v>29</v>
+      </c>
+      <c r="MQ95" s="11"/>
+      <c r="MX95" s="11"/>
+      <c r="MY95" s="18"/>
+      <c r="MZ95" s="18"/>
+      <c r="NA95" s="18"/>
+      <c r="NB95" s="18"/>
+      <c r="NC95" s="18"/>
+      <c r="ND95" s="18"/>
+      <c r="NE95" s="18"/>
+      <c r="NF95" s="18"/>
+      <c r="NG95" s="18"/>
+      <c r="NH95" s="18"/>
+      <c r="NI95" s="18"/>
+      <c r="NJ95" s="18"/>
+      <c r="NK95" s="18"/>
+      <c r="NL95" s="18"/>
+      <c r="NM95" s="18"/>
+      <c r="NN95" s="18"/>
+      <c r="NO95" s="18"/>
+      <c r="NP95" s="18"/>
+      <c r="NQ95" s="18"/>
+      <c r="NR95" s="18"/>
+      <c r="NS95" s="18"/>
+      <c r="NT95" s="18"/>
+      <c r="NU95" s="18"/>
+      <c r="NV95" s="18"/>
+      <c r="NW95" s="11"/>
+      <c r="OC95" s="11"/>
     </row>
-    <row r="96" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D96">
         <v>28</v>
       </c>
@@ -34303,8 +35877,39 @@
       <c r="ME96" s="15"/>
       <c r="MF96" s="11"/>
       <c r="ML96" s="11"/>
+      <c r="MP96">
+        <v>28</v>
+      </c>
+      <c r="MQ96" s="11"/>
+      <c r="MX96" s="11"/>
+      <c r="MY96" s="18"/>
+      <c r="MZ96" s="18"/>
+      <c r="NA96" s="18"/>
+      <c r="NB96" s="18"/>
+      <c r="NC96" s="18"/>
+      <c r="ND96" s="18"/>
+      <c r="NE96" s="18"/>
+      <c r="NF96" s="18"/>
+      <c r="NG96" s="18"/>
+      <c r="NH96" s="18"/>
+      <c r="NI96" s="18"/>
+      <c r="NJ96" s="18"/>
+      <c r="NK96" s="18"/>
+      <c r="NL96" s="18"/>
+      <c r="NM96" s="18"/>
+      <c r="NN96" s="18"/>
+      <c r="NO96" s="18"/>
+      <c r="NP96" s="18"/>
+      <c r="NQ96" s="18"/>
+      <c r="NR96" s="18"/>
+      <c r="NS96" s="18"/>
+      <c r="NT96" s="18"/>
+      <c r="NU96" s="18"/>
+      <c r="NV96" s="18"/>
+      <c r="NW96" s="11"/>
+      <c r="OC96" s="11"/>
     </row>
-    <row r="97" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="97" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D97">
         <v>27</v>
       </c>
@@ -34636,8 +36241,49 @@
       <c r="MJ97" s="18"/>
       <c r="MK97" s="18"/>
       <c r="ML97" s="11"/>
+      <c r="MP97">
+        <v>27</v>
+      </c>
+      <c r="MQ97" s="11"/>
+      <c r="MR97" s="18"/>
+      <c r="MS97" s="18"/>
+      <c r="MT97" s="18"/>
+      <c r="MV97" s="18"/>
+      <c r="MW97" s="18"/>
+      <c r="MX97" s="11"/>
+      <c r="MY97" s="18"/>
+      <c r="MZ97" s="18"/>
+      <c r="NA97" s="18"/>
+      <c r="NB97" s="18"/>
+      <c r="NC97" s="18"/>
+      <c r="ND97" s="18"/>
+      <c r="NE97" s="18"/>
+      <c r="NF97" s="18"/>
+      <c r="NG97" s="18"/>
+      <c r="NH97" s="18"/>
+      <c r="NI97" s="18"/>
+      <c r="NJ97" s="18"/>
+      <c r="NK97" s="18"/>
+      <c r="NL97" s="18"/>
+      <c r="NM97" s="18"/>
+      <c r="NN97" s="18"/>
+      <c r="NO97" s="18"/>
+      <c r="NP97" s="18"/>
+      <c r="NQ97" s="18"/>
+      <c r="NR97" s="18"/>
+      <c r="NS97" s="18"/>
+      <c r="NT97" s="18"/>
+      <c r="NU97" s="18"/>
+      <c r="NV97" s="18"/>
+      <c r="NW97" s="11"/>
+      <c r="NX97" s="18"/>
+      <c r="NY97" s="18"/>
+      <c r="NZ97" s="18"/>
+      <c r="OA97" s="18"/>
+      <c r="OB97" s="18"/>
+      <c r="OC97" s="11"/>
     </row>
-    <row r="98" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="98" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D98">
         <v>26</v>
       </c>
@@ -34862,8 +36508,39 @@
       <c r="ME98" s="18"/>
       <c r="MF98" s="73"/>
       <c r="ML98" s="11"/>
+      <c r="MP98">
+        <v>26</v>
+      </c>
+      <c r="MQ98" s="73"/>
+      <c r="MX98" s="73"/>
+      <c r="MY98" s="18"/>
+      <c r="MZ98" s="18"/>
+      <c r="NA98" s="18"/>
+      <c r="NB98" s="18"/>
+      <c r="NC98" s="15"/>
+      <c r="ND98" s="15"/>
+      <c r="NE98" s="15"/>
+      <c r="NF98" s="18"/>
+      <c r="NG98" s="18"/>
+      <c r="NH98" s="18"/>
+      <c r="NI98" s="18"/>
+      <c r="NJ98" s="18"/>
+      <c r="NK98" s="18"/>
+      <c r="NL98" s="18"/>
+      <c r="NM98" s="18"/>
+      <c r="NN98" s="18"/>
+      <c r="NO98" s="18"/>
+      <c r="NP98" s="18"/>
+      <c r="NQ98" s="18"/>
+      <c r="NR98" s="18"/>
+      <c r="NS98" s="18"/>
+      <c r="NT98" s="18"/>
+      <c r="NU98" s="18"/>
+      <c r="NV98" s="18"/>
+      <c r="NW98" s="73"/>
+      <c r="OC98" s="11"/>
     </row>
-    <row r="99" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="99" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D99">
         <v>25</v>
       </c>
@@ -35088,8 +36765,39 @@
       <c r="ME99" s="18"/>
       <c r="MF99" s="73"/>
       <c r="ML99" s="11"/>
+      <c r="MP99">
+        <v>25</v>
+      </c>
+      <c r="MQ99" s="73"/>
+      <c r="MX99" s="73"/>
+      <c r="MY99" s="18"/>
+      <c r="MZ99" s="18"/>
+      <c r="NA99" s="18"/>
+      <c r="NB99" s="18"/>
+      <c r="NC99" s="15"/>
+      <c r="ND99" s="15"/>
+      <c r="NE99" s="15"/>
+      <c r="NF99" s="18"/>
+      <c r="NG99" s="18"/>
+      <c r="NH99" s="18"/>
+      <c r="NI99" s="18"/>
+      <c r="NJ99" s="18"/>
+      <c r="NK99" s="18"/>
+      <c r="NL99" s="18"/>
+      <c r="NM99" s="18"/>
+      <c r="NN99" s="18"/>
+      <c r="NO99" s="18"/>
+      <c r="NP99" s="18"/>
+      <c r="NQ99" s="18"/>
+      <c r="NR99" s="18"/>
+      <c r="NS99" s="18"/>
+      <c r="NT99" s="18"/>
+      <c r="NU99" s="18"/>
+      <c r="NV99" s="18"/>
+      <c r="NW99" s="73"/>
+      <c r="OC99" s="11"/>
     </row>
-    <row r="100" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="100" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D100">
         <v>24</v>
       </c>
@@ -35314,8 +37022,39 @@
       <c r="ME100" s="18"/>
       <c r="MF100" s="73"/>
       <c r="ML100" s="11"/>
+      <c r="MP100">
+        <v>24</v>
+      </c>
+      <c r="MQ100" s="73"/>
+      <c r="MX100" s="73"/>
+      <c r="MY100" s="18"/>
+      <c r="MZ100" s="18"/>
+      <c r="NA100" s="18"/>
+      <c r="NB100" s="18"/>
+      <c r="NC100" s="15"/>
+      <c r="ND100" s="15"/>
+      <c r="NE100" s="15"/>
+      <c r="NF100" s="18"/>
+      <c r="NG100" s="18"/>
+      <c r="NH100" s="18"/>
+      <c r="NI100" s="18"/>
+      <c r="NJ100" s="18"/>
+      <c r="NK100" s="18"/>
+      <c r="NL100" s="18"/>
+      <c r="NM100" s="18"/>
+      <c r="NN100" s="18"/>
+      <c r="NO100" s="15"/>
+      <c r="NP100" s="15"/>
+      <c r="NQ100" s="15"/>
+      <c r="NR100" s="18"/>
+      <c r="NS100" s="18"/>
+      <c r="NT100" s="18"/>
+      <c r="NU100" s="18"/>
+      <c r="NV100" s="18"/>
+      <c r="NW100" s="73"/>
+      <c r="OC100" s="11"/>
     </row>
-    <row r="101" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="101" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D101">
         <v>23</v>
       </c>
@@ -35540,8 +37279,39 @@
       <c r="ME101" s="18"/>
       <c r="MF101" s="73"/>
       <c r="ML101" s="11"/>
+      <c r="MP101">
+        <v>23</v>
+      </c>
+      <c r="MQ101" s="73"/>
+      <c r="MX101" s="73"/>
+      <c r="MY101" s="18"/>
+      <c r="MZ101" s="18"/>
+      <c r="NA101" s="18"/>
+      <c r="NB101" s="18"/>
+      <c r="NC101" s="18"/>
+      <c r="ND101" s="18"/>
+      <c r="NE101" s="18"/>
+      <c r="NF101" s="18"/>
+      <c r="NG101" s="18"/>
+      <c r="NH101" s="18"/>
+      <c r="NI101" s="18"/>
+      <c r="NJ101" s="18"/>
+      <c r="NK101" s="18"/>
+      <c r="NL101" s="18"/>
+      <c r="NM101" s="18"/>
+      <c r="NN101" s="18"/>
+      <c r="NO101" s="15"/>
+      <c r="NP101" s="15"/>
+      <c r="NQ101" s="15"/>
+      <c r="NR101" s="18"/>
+      <c r="NS101" s="18"/>
+      <c r="NT101" s="18"/>
+      <c r="NU101" s="18"/>
+      <c r="NV101" s="18"/>
+      <c r="NW101" s="73"/>
+      <c r="OC101" s="11"/>
     </row>
-    <row r="102" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="102" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D102">
         <v>22</v>
       </c>
@@ -35766,8 +37536,39 @@
       <c r="ME102" s="18"/>
       <c r="MF102" s="73"/>
       <c r="ML102" s="11"/>
+      <c r="MP102">
+        <v>22</v>
+      </c>
+      <c r="MQ102" s="73"/>
+      <c r="MX102" s="73"/>
+      <c r="MY102" s="18"/>
+      <c r="MZ102" s="18"/>
+      <c r="NA102" s="18"/>
+      <c r="NB102" s="18"/>
+      <c r="NC102" s="18"/>
+      <c r="ND102" s="18"/>
+      <c r="NE102" s="18"/>
+      <c r="NF102" s="18"/>
+      <c r="NG102" s="18"/>
+      <c r="NH102" s="18"/>
+      <c r="NI102" s="18"/>
+      <c r="NJ102" s="18"/>
+      <c r="NK102" s="18"/>
+      <c r="NL102" s="18"/>
+      <c r="NM102" s="18"/>
+      <c r="NN102" s="18"/>
+      <c r="NO102" s="15"/>
+      <c r="NP102" s="15"/>
+      <c r="NQ102" s="15"/>
+      <c r="NR102" s="18"/>
+      <c r="NS102" s="18"/>
+      <c r="NT102" s="18"/>
+      <c r="NU102" s="18"/>
+      <c r="NV102" s="18"/>
+      <c r="NW102" s="73"/>
+      <c r="OC102" s="11"/>
     </row>
-    <row r="103" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="103" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D103">
         <v>21</v>
       </c>
@@ -35993,8 +37794,39 @@
       <c r="ME103" s="18"/>
       <c r="MF103" s="73"/>
       <c r="ML103" s="11"/>
+      <c r="MP103">
+        <v>21</v>
+      </c>
+      <c r="MQ103" s="73"/>
+      <c r="MX103" s="73"/>
+      <c r="MY103" s="18"/>
+      <c r="MZ103" s="18"/>
+      <c r="NA103" s="18"/>
+      <c r="NB103" s="18"/>
+      <c r="NC103" s="18"/>
+      <c r="ND103" s="18"/>
+      <c r="NE103" s="18"/>
+      <c r="NF103" s="18"/>
+      <c r="NG103" s="18"/>
+      <c r="NH103" s="18"/>
+      <c r="NI103" s="18"/>
+      <c r="NJ103" s="18"/>
+      <c r="NK103" s="18"/>
+      <c r="NL103" s="18"/>
+      <c r="NM103" s="18"/>
+      <c r="NN103" s="18"/>
+      <c r="NO103" s="18"/>
+      <c r="NP103" s="18"/>
+      <c r="NQ103" s="18"/>
+      <c r="NR103" s="18"/>
+      <c r="NS103" s="18"/>
+      <c r="NT103" s="18"/>
+      <c r="NU103" s="18"/>
+      <c r="NV103" s="18"/>
+      <c r="NW103" s="73"/>
+      <c r="OC103" s="11"/>
     </row>
-    <row r="104" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="104" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D104" s="113">
         <v>20</v>
       </c>
@@ -36948,8 +38780,126 @@
         <v>20</v>
       </c>
       <c r="ML104" s="11"/>
+      <c r="MP104" s="113">
+        <v>20</v>
+      </c>
+      <c r="MQ104" s="113">
+        <v>20</v>
+      </c>
+      <c r="MR104" s="113">
+        <v>20</v>
+      </c>
+      <c r="MS104" s="113">
+        <v>20</v>
+      </c>
+      <c r="MT104" s="113">
+        <v>20</v>
+      </c>
+      <c r="MU104" s="113">
+        <v>20</v>
+      </c>
+      <c r="MV104" s="113">
+        <v>20</v>
+      </c>
+      <c r="MW104" s="113">
+        <v>20</v>
+      </c>
+      <c r="MX104" s="113">
+        <v>20</v>
+      </c>
+      <c r="MY104" s="18">
+        <v>20</v>
+      </c>
+      <c r="MZ104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NA104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NB104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NC104" s="18">
+        <v>20</v>
+      </c>
+      <c r="ND104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NE104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NF104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NG104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NH104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NI104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NJ104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NK104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NL104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NM104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NN104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NO104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NP104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NQ104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NR104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NS104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NT104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NU104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NV104" s="18">
+        <v>20</v>
+      </c>
+      <c r="NW104" s="113">
+        <v>20</v>
+      </c>
+      <c r="NX104" s="113">
+        <v>20</v>
+      </c>
+      <c r="NY104" s="113">
+        <v>20</v>
+      </c>
+      <c r="NZ104" s="113">
+        <v>20</v>
+      </c>
+      <c r="OA104" s="113">
+        <v>20</v>
+      </c>
+      <c r="OB104" s="113">
+        <v>20</v>
+      </c>
+      <c r="OC104" s="11"/>
     </row>
-    <row r="105" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="105" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D105">
         <v>19</v>
       </c>
@@ -37174,8 +39124,39 @@
       <c r="ME105" s="15"/>
       <c r="MF105" s="73"/>
       <c r="ML105" s="11"/>
+      <c r="MP105">
+        <v>19</v>
+      </c>
+      <c r="MQ105" s="73"/>
+      <c r="MX105" s="73"/>
+      <c r="MY105" s="18"/>
+      <c r="MZ105" s="18"/>
+      <c r="NA105" s="18"/>
+      <c r="NB105" s="18"/>
+      <c r="NC105" s="18"/>
+      <c r="ND105" s="18"/>
+      <c r="NE105" s="18"/>
+      <c r="NF105" s="18"/>
+      <c r="NG105" s="18"/>
+      <c r="NH105" s="18"/>
+      <c r="NI105" s="18"/>
+      <c r="NJ105" s="18"/>
+      <c r="NK105" s="18"/>
+      <c r="NL105" s="18"/>
+      <c r="NM105" s="18"/>
+      <c r="NN105" s="18"/>
+      <c r="NO105" s="18"/>
+      <c r="NP105" s="18"/>
+      <c r="NQ105" s="18"/>
+      <c r="NR105" s="18"/>
+      <c r="NS105" s="18"/>
+      <c r="NT105" s="18"/>
+      <c r="NU105" s="18"/>
+      <c r="NV105" s="18"/>
+      <c r="NW105" s="73"/>
+      <c r="OC105" s="11"/>
     </row>
-    <row r="106" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="106" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D106">
         <v>18</v>
       </c>
@@ -37400,8 +39381,39 @@
       <c r="ME106" s="15"/>
       <c r="MF106" s="73"/>
       <c r="ML106" s="11"/>
+      <c r="MP106">
+        <v>18</v>
+      </c>
+      <c r="MQ106" s="73"/>
+      <c r="MX106" s="73"/>
+      <c r="MY106" s="18"/>
+      <c r="MZ106" s="18"/>
+      <c r="NA106" s="18"/>
+      <c r="NB106" s="18"/>
+      <c r="NC106" s="18"/>
+      <c r="ND106" s="18"/>
+      <c r="NE106" s="18"/>
+      <c r="NF106" s="18"/>
+      <c r="NG106" s="18"/>
+      <c r="NH106" s="18"/>
+      <c r="NI106" s="18"/>
+      <c r="NJ106" s="18"/>
+      <c r="NK106" s="18"/>
+      <c r="NL106" s="18"/>
+      <c r="NM106" s="18"/>
+      <c r="NN106" s="18"/>
+      <c r="NO106" s="18"/>
+      <c r="NP106" s="18"/>
+      <c r="NQ106" s="18"/>
+      <c r="NR106" s="18"/>
+      <c r="NS106" s="18"/>
+      <c r="NT106" s="18"/>
+      <c r="NU106" s="18"/>
+      <c r="NV106" s="18"/>
+      <c r="NW106" s="73"/>
+      <c r="OC106" s="11"/>
     </row>
-    <row r="107" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="107" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D107">
         <v>17</v>
       </c>
@@ -37626,8 +39638,39 @@
       <c r="ME107" s="15"/>
       <c r="MF107" s="73"/>
       <c r="ML107" s="11"/>
+      <c r="MP107">
+        <v>17</v>
+      </c>
+      <c r="MQ107" s="73"/>
+      <c r="MX107" s="73"/>
+      <c r="MY107" s="18"/>
+      <c r="MZ107" s="15"/>
+      <c r="NA107" s="15"/>
+      <c r="NB107" s="18"/>
+      <c r="NC107" s="18"/>
+      <c r="ND107" s="18"/>
+      <c r="NE107" s="18"/>
+      <c r="NF107" s="18"/>
+      <c r="NG107" s="18"/>
+      <c r="NH107" s="18"/>
+      <c r="NI107" s="18"/>
+      <c r="NJ107" s="18"/>
+      <c r="NK107" s="18"/>
+      <c r="NL107" s="18"/>
+      <c r="NM107" s="18"/>
+      <c r="NN107" s="18"/>
+      <c r="NO107" s="18"/>
+      <c r="NP107" s="18"/>
+      <c r="NQ107" s="18"/>
+      <c r="NR107" s="18"/>
+      <c r="NS107" s="18"/>
+      <c r="NT107" s="18"/>
+      <c r="NU107" s="18"/>
+      <c r="NV107" s="18"/>
+      <c r="NW107" s="73"/>
+      <c r="OC107" s="11"/>
     </row>
-    <row r="108" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="108" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D108">
         <v>16</v>
       </c>
@@ -37852,8 +39895,39 @@
       <c r="ME108" s="15"/>
       <c r="MF108" s="73"/>
       <c r="ML108" s="11"/>
+      <c r="MP108">
+        <v>16</v>
+      </c>
+      <c r="MQ108" s="73"/>
+      <c r="MX108" s="73"/>
+      <c r="MY108" s="18"/>
+      <c r="MZ108" s="15"/>
+      <c r="NA108" s="15"/>
+      <c r="NB108" s="18"/>
+      <c r="NC108" s="18"/>
+      <c r="ND108" s="18"/>
+      <c r="NE108" s="18"/>
+      <c r="NF108" s="18"/>
+      <c r="NG108" s="18"/>
+      <c r="NH108" s="18"/>
+      <c r="NI108" s="18"/>
+      <c r="NJ108" s="18"/>
+      <c r="NK108" s="18"/>
+      <c r="NL108" s="18"/>
+      <c r="NM108" s="18"/>
+      <c r="NN108" s="18"/>
+      <c r="NO108" s="18"/>
+      <c r="NP108" s="18"/>
+      <c r="NQ108" s="18"/>
+      <c r="NR108" s="18"/>
+      <c r="NS108" s="18"/>
+      <c r="NT108" s="18"/>
+      <c r="NU108" s="18"/>
+      <c r="NV108" s="18"/>
+      <c r="NW108" s="73"/>
+      <c r="OC108" s="11"/>
     </row>
-    <row r="109" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="109" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D109">
         <v>15</v>
       </c>
@@ -38078,8 +40152,39 @@
       <c r="ME109" s="15"/>
       <c r="MF109" s="73"/>
       <c r="ML109" s="11"/>
+      <c r="MP109">
+        <v>15</v>
+      </c>
+      <c r="MQ109" s="73"/>
+      <c r="MX109" s="73"/>
+      <c r="MY109" s="18"/>
+      <c r="MZ109" s="15"/>
+      <c r="NA109" s="15"/>
+      <c r="NB109" s="18"/>
+      <c r="NC109" s="18"/>
+      <c r="ND109" s="18"/>
+      <c r="NE109" s="18"/>
+      <c r="NF109" s="18"/>
+      <c r="NG109" s="18"/>
+      <c r="NH109" s="18"/>
+      <c r="NI109" s="18"/>
+      <c r="NJ109" s="18"/>
+      <c r="NK109" s="18"/>
+      <c r="NL109" s="18"/>
+      <c r="NM109" s="15"/>
+      <c r="NN109" s="15"/>
+      <c r="NO109" s="18"/>
+      <c r="NP109" s="18"/>
+      <c r="NQ109" s="18"/>
+      <c r="NR109" s="18"/>
+      <c r="NS109" s="18"/>
+      <c r="NT109" s="18"/>
+      <c r="NU109" s="18"/>
+      <c r="NV109" s="18"/>
+      <c r="NW109" s="73"/>
+      <c r="OC109" s="11"/>
     </row>
-    <row r="110" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="110" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D110">
         <v>14</v>
       </c>
@@ -38304,8 +40409,39 @@
       <c r="ME110" s="18"/>
       <c r="MF110" s="73"/>
       <c r="ML110" s="11"/>
+      <c r="MP110">
+        <v>14</v>
+      </c>
+      <c r="MQ110" s="73"/>
+      <c r="MX110" s="73"/>
+      <c r="MY110" s="18"/>
+      <c r="MZ110" s="15"/>
+      <c r="NA110" s="15"/>
+      <c r="NB110" s="18"/>
+      <c r="NC110" s="18"/>
+      <c r="ND110" s="18"/>
+      <c r="NE110" s="18"/>
+      <c r="NF110" s="18"/>
+      <c r="NG110" s="18"/>
+      <c r="NH110" s="18"/>
+      <c r="NI110" s="18"/>
+      <c r="NJ110" s="18"/>
+      <c r="NK110" s="18"/>
+      <c r="NL110" s="18"/>
+      <c r="NM110" s="15"/>
+      <c r="NN110" s="15"/>
+      <c r="NO110" s="18"/>
+      <c r="NP110" s="18"/>
+      <c r="NQ110" s="18"/>
+      <c r="NR110" s="18"/>
+      <c r="NS110" s="18"/>
+      <c r="NT110" s="18"/>
+      <c r="NU110" s="18"/>
+      <c r="NV110" s="18"/>
+      <c r="NW110" s="73"/>
+      <c r="OC110" s="11"/>
     </row>
-    <row r="111" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="111" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D111">
         <v>13</v>
       </c>
@@ -38530,8 +40666,39 @@
       <c r="ME111" s="18"/>
       <c r="MF111" s="73"/>
       <c r="ML111" s="11"/>
+      <c r="MP111">
+        <v>13</v>
+      </c>
+      <c r="MQ111" s="73"/>
+      <c r="MX111" s="73"/>
+      <c r="MY111" s="18"/>
+      <c r="MZ111" s="18"/>
+      <c r="NA111" s="18"/>
+      <c r="NB111" s="18"/>
+      <c r="NC111" s="18"/>
+      <c r="ND111" s="18"/>
+      <c r="NE111" s="18"/>
+      <c r="NF111" s="18"/>
+      <c r="NG111" s="18"/>
+      <c r="NH111" s="18"/>
+      <c r="NI111" s="18"/>
+      <c r="NJ111" s="18"/>
+      <c r="NK111" s="18"/>
+      <c r="NL111" s="18"/>
+      <c r="NM111" s="15"/>
+      <c r="NN111" s="15"/>
+      <c r="NO111" s="18"/>
+      <c r="NP111" s="18"/>
+      <c r="NQ111" s="18"/>
+      <c r="NR111" s="18"/>
+      <c r="NS111" s="18"/>
+      <c r="NT111" s="18"/>
+      <c r="NU111" s="18"/>
+      <c r="NV111" s="18"/>
+      <c r="NW111" s="73"/>
+      <c r="OC111" s="11"/>
     </row>
-    <row r="112" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="112" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D112">
         <v>12</v>
       </c>
@@ -38756,8 +40923,39 @@
       <c r="ME112" s="18"/>
       <c r="MF112" s="73"/>
       <c r="ML112" s="11"/>
+      <c r="MP112">
+        <v>12</v>
+      </c>
+      <c r="MQ112" s="73"/>
+      <c r="MX112" s="73"/>
+      <c r="MY112" s="18"/>
+      <c r="MZ112" s="18"/>
+      <c r="NA112" s="18"/>
+      <c r="NB112" s="18"/>
+      <c r="NC112" s="18"/>
+      <c r="ND112" s="18"/>
+      <c r="NE112" s="18"/>
+      <c r="NF112" s="18"/>
+      <c r="NG112" s="18"/>
+      <c r="NH112" s="18"/>
+      <c r="NI112" s="18"/>
+      <c r="NJ112" s="18"/>
+      <c r="NK112" s="18"/>
+      <c r="NL112" s="18"/>
+      <c r="NM112" s="15"/>
+      <c r="NN112" s="15"/>
+      <c r="NO112" s="18"/>
+      <c r="NP112" s="18"/>
+      <c r="NQ112" s="18"/>
+      <c r="NR112" s="18"/>
+      <c r="NS112" s="18"/>
+      <c r="NT112" s="18"/>
+      <c r="NU112" s="18"/>
+      <c r="NV112" s="18"/>
+      <c r="NW112" s="73"/>
+      <c r="OC112" s="11"/>
     </row>
-    <row r="113" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="113" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D113">
         <v>11</v>
       </c>
@@ -38984,8 +41182,39 @@
       <c r="ME113" s="18"/>
       <c r="MF113" s="73"/>
       <c r="ML113" s="11"/>
+      <c r="MP113">
+        <v>11</v>
+      </c>
+      <c r="MQ113" s="73"/>
+      <c r="MX113" s="73"/>
+      <c r="MY113" s="18"/>
+      <c r="MZ113" s="18"/>
+      <c r="NA113" s="18"/>
+      <c r="NB113" s="18"/>
+      <c r="NC113" s="18"/>
+      <c r="ND113" s="18"/>
+      <c r="NE113" s="18"/>
+      <c r="NF113" s="18"/>
+      <c r="NG113" s="18"/>
+      <c r="NH113" s="18"/>
+      <c r="NI113" s="18"/>
+      <c r="NJ113" s="18"/>
+      <c r="NK113" s="18"/>
+      <c r="NL113" s="18"/>
+      <c r="NM113" s="18"/>
+      <c r="NN113" s="18"/>
+      <c r="NO113" s="18"/>
+      <c r="NP113" s="18"/>
+      <c r="NQ113" s="18"/>
+      <c r="NR113" s="18"/>
+      <c r="NS113" s="18"/>
+      <c r="NT113" s="18"/>
+      <c r="NU113" s="18"/>
+      <c r="NV113" s="18"/>
+      <c r="NW113" s="73"/>
+      <c r="OC113" s="11"/>
     </row>
-    <row r="114" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="114" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D114" s="113">
         <v>10</v>
       </c>
@@ -39903,8 +42132,126 @@
         <v>10</v>
       </c>
       <c r="ML114" s="11"/>
+      <c r="MP114" s="113">
+        <v>10</v>
+      </c>
+      <c r="MQ114" s="113">
+        <v>10</v>
+      </c>
+      <c r="MR114" s="113">
+        <v>10</v>
+      </c>
+      <c r="MS114" s="113">
+        <v>10</v>
+      </c>
+      <c r="MT114" s="113">
+        <v>10</v>
+      </c>
+      <c r="MU114" s="113">
+        <v>10</v>
+      </c>
+      <c r="MV114" s="113">
+        <v>10</v>
+      </c>
+      <c r="MW114" s="113">
+        <v>10</v>
+      </c>
+      <c r="MX114" s="113">
+        <v>10</v>
+      </c>
+      <c r="MY114" s="18">
+        <v>10</v>
+      </c>
+      <c r="MZ114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NA114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NB114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NC114" s="18">
+        <v>10</v>
+      </c>
+      <c r="ND114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NE114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NF114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NG114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NH114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NI114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NJ114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NK114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NL114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NM114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NN114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NO114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NP114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NQ114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NR114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NS114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NT114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NU114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NV114" s="18">
+        <v>10</v>
+      </c>
+      <c r="NW114" s="113">
+        <v>10</v>
+      </c>
+      <c r="NX114" s="113">
+        <v>10</v>
+      </c>
+      <c r="NY114" s="113">
+        <v>10</v>
+      </c>
+      <c r="NZ114" s="113">
+        <v>10</v>
+      </c>
+      <c r="OA114" s="113">
+        <v>10</v>
+      </c>
+      <c r="OB114" s="113">
+        <v>10</v>
+      </c>
+      <c r="OC114" s="11"/>
     </row>
-    <row r="115" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="115" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D115">
         <v>9</v>
       </c>
@@ -40129,8 +42476,39 @@
       <c r="ME115" s="18"/>
       <c r="MF115" s="73"/>
       <c r="ML115" s="11"/>
+      <c r="MP115">
+        <v>9</v>
+      </c>
+      <c r="MQ115" s="73"/>
+      <c r="MX115" s="73"/>
+      <c r="MY115" s="18"/>
+      <c r="MZ115" s="18"/>
+      <c r="NA115" s="18"/>
+      <c r="NB115" s="18"/>
+      <c r="NC115" s="18"/>
+      <c r="ND115" s="18"/>
+      <c r="NE115" s="18"/>
+      <c r="NF115" s="18"/>
+      <c r="NG115" s="18"/>
+      <c r="NH115" s="18"/>
+      <c r="NI115" s="18"/>
+      <c r="NJ115" s="18"/>
+      <c r="NK115" s="18"/>
+      <c r="NL115" s="18"/>
+      <c r="NM115" s="18"/>
+      <c r="NN115" s="18"/>
+      <c r="NO115" s="18"/>
+      <c r="NP115" s="18"/>
+      <c r="NQ115" s="18"/>
+      <c r="NR115" s="18"/>
+      <c r="NS115" s="18"/>
+      <c r="NT115" s="18"/>
+      <c r="NU115" s="18"/>
+      <c r="NV115" s="18"/>
+      <c r="NW115" s="73"/>
+      <c r="OC115" s="11"/>
     </row>
-    <row r="116" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="116" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D116">
         <v>8</v>
       </c>
@@ -40355,8 +42733,39 @@
       <c r="ME116" s="18"/>
       <c r="MF116" s="73"/>
       <c r="ML116" s="11"/>
+      <c r="MP116">
+        <v>8</v>
+      </c>
+      <c r="MQ116" s="73"/>
+      <c r="MX116" s="73"/>
+      <c r="MY116" s="18"/>
+      <c r="MZ116" s="18"/>
+      <c r="NA116" s="18"/>
+      <c r="NB116" s="18"/>
+      <c r="NC116" s="18"/>
+      <c r="ND116" s="18"/>
+      <c r="NE116" s="18"/>
+      <c r="NF116" s="18"/>
+      <c r="NG116" s="18"/>
+      <c r="NH116" s="18"/>
+      <c r="NI116" s="18"/>
+      <c r="NJ116" s="18"/>
+      <c r="NK116" s="18"/>
+      <c r="NL116" s="18"/>
+      <c r="NM116" s="18"/>
+      <c r="NN116" s="18"/>
+      <c r="NO116" s="18"/>
+      <c r="NP116" s="18"/>
+      <c r="NQ116" s="18"/>
+      <c r="NR116" s="18"/>
+      <c r="NS116" s="18"/>
+      <c r="NT116" s="18"/>
+      <c r="NU116" s="18"/>
+      <c r="NV116" s="18"/>
+      <c r="NW116" s="73"/>
+      <c r="OC116" s="11"/>
     </row>
-    <row r="117" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="117" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D117">
         <v>7</v>
       </c>
@@ -40581,8 +42990,39 @@
       <c r="ME117" s="18"/>
       <c r="MF117" s="73"/>
       <c r="ML117" s="11"/>
+      <c r="MP117">
+        <v>7</v>
+      </c>
+      <c r="MQ117" s="73"/>
+      <c r="MX117" s="73"/>
+      <c r="MY117" s="18"/>
+      <c r="MZ117" s="18"/>
+      <c r="NA117" s="18"/>
+      <c r="NB117" s="18"/>
+      <c r="NC117" s="18"/>
+      <c r="ND117" s="18"/>
+      <c r="NE117" s="18"/>
+      <c r="NF117" s="18"/>
+      <c r="NG117" s="18"/>
+      <c r="NH117" s="18"/>
+      <c r="NI117" s="18"/>
+      <c r="NJ117" s="18"/>
+      <c r="NK117" s="18"/>
+      <c r="NL117" s="18"/>
+      <c r="NM117" s="18"/>
+      <c r="NN117" s="18"/>
+      <c r="NO117" s="18"/>
+      <c r="NP117" s="18"/>
+      <c r="NQ117" s="18"/>
+      <c r="NR117" s="18"/>
+      <c r="NS117" s="18"/>
+      <c r="NT117" s="18"/>
+      <c r="NU117" s="18"/>
+      <c r="NV117" s="18"/>
+      <c r="NW117" s="73"/>
+      <c r="OC117" s="11"/>
     </row>
-    <row r="118" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="118" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D118">
         <v>6</v>
       </c>
@@ -40809,8 +43249,39 @@
       <c r="ME118" s="18"/>
       <c r="MF118" s="73"/>
       <c r="ML118" s="11"/>
+      <c r="MP118">
+        <v>6</v>
+      </c>
+      <c r="MQ118" s="73"/>
+      <c r="MX118" s="73"/>
+      <c r="MY118" s="18"/>
+      <c r="MZ118" s="18"/>
+      <c r="NA118" s="18"/>
+      <c r="NB118" s="18"/>
+      <c r="NC118" s="18"/>
+      <c r="ND118" s="18"/>
+      <c r="NE118" s="18"/>
+      <c r="NF118" s="18"/>
+      <c r="NG118" s="18"/>
+      <c r="NH118" s="18"/>
+      <c r="NI118" s="18"/>
+      <c r="NJ118" s="18"/>
+      <c r="NK118" s="18"/>
+      <c r="NL118" s="18"/>
+      <c r="NM118" s="18"/>
+      <c r="NN118" s="18"/>
+      <c r="NO118" s="18"/>
+      <c r="NP118" s="18"/>
+      <c r="NQ118" s="18"/>
+      <c r="NR118" s="18"/>
+      <c r="NS118" s="18"/>
+      <c r="NT118" s="18"/>
+      <c r="NU118" s="18"/>
+      <c r="NV118" s="18"/>
+      <c r="NW118" s="73"/>
+      <c r="OC118" s="11"/>
     </row>
-    <row r="119" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="119" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D119">
         <v>5</v>
       </c>
@@ -41035,8 +43506,39 @@
       <c r="ME119" s="15"/>
       <c r="MF119" s="73"/>
       <c r="ML119" s="11"/>
+      <c r="MP119">
+        <v>5</v>
+      </c>
+      <c r="MQ119" s="73"/>
+      <c r="MX119" s="73"/>
+      <c r="MY119" s="18"/>
+      <c r="MZ119" s="18"/>
+      <c r="NA119" s="18"/>
+      <c r="NB119" s="18"/>
+      <c r="NC119" s="18"/>
+      <c r="ND119" s="18"/>
+      <c r="NE119" s="18"/>
+      <c r="NF119" s="18"/>
+      <c r="NG119" s="18"/>
+      <c r="NH119" s="18"/>
+      <c r="NI119" s="18"/>
+      <c r="NJ119" s="18"/>
+      <c r="NK119" s="18"/>
+      <c r="NL119" s="18"/>
+      <c r="NM119" s="18"/>
+      <c r="NN119" s="18"/>
+      <c r="NO119" s="18"/>
+      <c r="NP119" s="18"/>
+      <c r="NQ119" s="18"/>
+      <c r="NR119" s="18"/>
+      <c r="NS119" s="18"/>
+      <c r="NT119" s="18"/>
+      <c r="NU119" s="18"/>
+      <c r="NV119" s="18"/>
+      <c r="NW119" s="73"/>
+      <c r="OC119" s="11"/>
     </row>
-    <row r="120" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="120" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D120">
         <v>4</v>
       </c>
@@ -41168,8 +43670,39 @@
       <c r="ME120" s="15"/>
       <c r="MF120" s="73"/>
       <c r="ML120" s="11"/>
+      <c r="MP120">
+        <v>4</v>
+      </c>
+      <c r="MQ120" s="73"/>
+      <c r="MX120" s="73"/>
+      <c r="MY120" s="18"/>
+      <c r="MZ120" s="18"/>
+      <c r="NA120" s="18"/>
+      <c r="NB120" s="18"/>
+      <c r="NC120" s="18"/>
+      <c r="ND120" s="18"/>
+      <c r="NE120" s="18"/>
+      <c r="NF120" s="18"/>
+      <c r="NG120" s="18"/>
+      <c r="NH120" s="18"/>
+      <c r="NI120" s="18"/>
+      <c r="NJ120" s="18"/>
+      <c r="NK120" s="18"/>
+      <c r="NL120" s="18"/>
+      <c r="NM120" s="18"/>
+      <c r="NN120" s="18"/>
+      <c r="NO120" s="18"/>
+      <c r="NP120" s="18"/>
+      <c r="NQ120" s="18"/>
+      <c r="NR120" s="18"/>
+      <c r="NS120" s="18"/>
+      <c r="NT120" s="18"/>
+      <c r="NU120" s="18"/>
+      <c r="NV120" s="18"/>
+      <c r="NW120" s="73"/>
+      <c r="OC120" s="11"/>
     </row>
-    <row r="121" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="121" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D121">
         <v>3</v>
       </c>
@@ -41300,8 +43833,39 @@
       <c r="ME121" s="15"/>
       <c r="MF121" s="73"/>
       <c r="ML121" s="11"/>
+      <c r="MP121">
+        <v>3</v>
+      </c>
+      <c r="MQ121" s="73"/>
+      <c r="MX121" s="73"/>
+      <c r="MY121" s="15"/>
+      <c r="MZ121" s="15"/>
+      <c r="NA121" s="15"/>
+      <c r="NB121" s="18"/>
+      <c r="NC121" s="18"/>
+      <c r="ND121" s="18"/>
+      <c r="NE121" s="18"/>
+      <c r="NF121" s="18"/>
+      <c r="NG121" s="18"/>
+      <c r="NH121" s="18"/>
+      <c r="NI121" s="18"/>
+      <c r="NJ121" s="18"/>
+      <c r="NK121" s="18"/>
+      <c r="NL121" s="18"/>
+      <c r="NM121" s="18"/>
+      <c r="NN121" s="18"/>
+      <c r="NO121" s="18"/>
+      <c r="NP121" s="18"/>
+      <c r="NQ121" s="18"/>
+      <c r="NR121" s="18"/>
+      <c r="NS121" s="18"/>
+      <c r="NT121" s="18"/>
+      <c r="NU121" s="18"/>
+      <c r="NV121" s="18"/>
+      <c r="NW121" s="73"/>
+      <c r="OC121" s="11"/>
     </row>
-    <row r="122" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="122" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D122">
         <v>2</v>
       </c>
@@ -41373,8 +43937,39 @@
       <c r="ME122" s="15"/>
       <c r="MF122" s="73"/>
       <c r="ML122" s="11"/>
+      <c r="MP122">
+        <v>2</v>
+      </c>
+      <c r="MQ122" s="73"/>
+      <c r="MX122" s="73"/>
+      <c r="MY122" s="15"/>
+      <c r="MZ122" s="15"/>
+      <c r="NA122" s="15"/>
+      <c r="NB122" s="18"/>
+      <c r="NC122" s="18"/>
+      <c r="ND122" s="18"/>
+      <c r="NE122" s="18"/>
+      <c r="NF122" s="18"/>
+      <c r="NG122" s="18"/>
+      <c r="NH122" s="18"/>
+      <c r="NI122" s="18"/>
+      <c r="NJ122" s="18"/>
+      <c r="NK122" s="18"/>
+      <c r="NL122" s="18"/>
+      <c r="NM122" s="18"/>
+      <c r="NN122" s="18"/>
+      <c r="NO122" s="18"/>
+      <c r="NP122" s="18"/>
+      <c r="NQ122" s="15"/>
+      <c r="NR122" s="15"/>
+      <c r="NS122" s="15"/>
+      <c r="NT122" s="18"/>
+      <c r="NU122" s="18"/>
+      <c r="NV122" s="18"/>
+      <c r="NW122" s="73"/>
+      <c r="OC122" s="11"/>
     </row>
-    <row r="123" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="123" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D123">
         <v>1</v>
       </c>
@@ -41446,8 +44041,39 @@
       <c r="ME123" s="15"/>
       <c r="MF123" s="11"/>
       <c r="ML123" s="11"/>
+      <c r="MP123">
+        <v>1</v>
+      </c>
+      <c r="MQ123" s="73"/>
+      <c r="MX123" s="11"/>
+      <c r="MY123" s="15"/>
+      <c r="MZ123" s="15"/>
+      <c r="NA123" s="15"/>
+      <c r="NB123" s="18"/>
+      <c r="NC123" s="18"/>
+      <c r="ND123" s="18"/>
+      <c r="NE123" s="18"/>
+      <c r="NF123" s="18"/>
+      <c r="NG123" s="18"/>
+      <c r="NH123" s="18"/>
+      <c r="NI123" s="18"/>
+      <c r="NJ123" s="18"/>
+      <c r="NK123" s="18"/>
+      <c r="NL123" s="18"/>
+      <c r="NM123" s="18"/>
+      <c r="NN123" s="18"/>
+      <c r="NO123" s="18"/>
+      <c r="NP123" s="18"/>
+      <c r="NQ123" s="15"/>
+      <c r="NR123" s="15"/>
+      <c r="NS123" s="15"/>
+      <c r="NT123" s="18"/>
+      <c r="NU123" s="18"/>
+      <c r="NV123" s="18"/>
+      <c r="NW123" s="11"/>
+      <c r="OC123" s="11"/>
     </row>
-    <row r="124" spans="4:350" x14ac:dyDescent="0.45">
+    <row r="124" spans="4:393" x14ac:dyDescent="0.45">
       <c r="D124">
         <v>0</v>
       </c>
@@ -41787,8 +44413,50 @@
       <c r="MJ124" s="73"/>
       <c r="MK124" s="73"/>
       <c r="ML124" s="11"/>
+      <c r="MP124">
+        <v>0</v>
+      </c>
+      <c r="MQ124" s="11"/>
+      <c r="MR124" s="73"/>
+      <c r="MS124" s="73"/>
+      <c r="MT124" s="73"/>
+      <c r="MU124" s="73"/>
+      <c r="MV124" s="73"/>
+      <c r="MW124" s="73"/>
+      <c r="MX124" s="73"/>
+      <c r="MY124" s="73"/>
+      <c r="MZ124" s="73"/>
+      <c r="NA124" s="73"/>
+      <c r="NB124" s="73"/>
+      <c r="NC124" s="73"/>
+      <c r="ND124" s="73"/>
+      <c r="NE124" s="73"/>
+      <c r="NF124" s="73"/>
+      <c r="NG124" s="73"/>
+      <c r="NH124" s="73"/>
+      <c r="NI124" s="73"/>
+      <c r="NJ124" s="73"/>
+      <c r="NK124" s="73"/>
+      <c r="NL124" s="73"/>
+      <c r="NM124" s="73"/>
+      <c r="NN124" s="73"/>
+      <c r="NO124" s="73"/>
+      <c r="NP124" s="73"/>
+      <c r="NQ124" s="73"/>
+      <c r="NR124" s="73"/>
+      <c r="NS124" s="73"/>
+      <c r="NT124" s="73"/>
+      <c r="NU124" s="73"/>
+      <c r="NV124" s="73"/>
+      <c r="NW124" s="73"/>
+      <c r="NX124" s="73"/>
+      <c r="NY124" s="73"/>
+      <c r="NZ124" s="73"/>
+      <c r="OA124" s="73"/>
+      <c r="OB124" s="73"/>
+      <c r="OC124" s="11"/>
     </row>
-    <row r="129" spans="4:349" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="4:393" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D129" s="116" t="s">
         <v>152</v>
       </c>
@@ -41982,12 +44650,12 @@
       <c r="GJ129" s="9"/>
       <c r="GK129" s="9"/>
     </row>
-    <row r="132" spans="4:349" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="132" spans="4:393" ht="19.8" x14ac:dyDescent="0.45">
       <c r="D132" s="115" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="134" spans="4:393" x14ac:dyDescent="0.45">
       <c r="N134">
         <v>1</v>
       </c>
@@ -42061,7 +44729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="135" spans="4:393" x14ac:dyDescent="0.45">
       <c r="E135">
         <v>55</v>
       </c>
@@ -42401,8 +45069,50 @@
       <c r="MI135" s="11"/>
       <c r="MJ135" s="11"/>
       <c r="MK135" s="11"/>
+      <c r="MP135">
+        <v>55</v>
+      </c>
+      <c r="MQ135" s="11"/>
+      <c r="MR135" s="11"/>
+      <c r="MS135" s="11"/>
+      <c r="MT135" s="11"/>
+      <c r="MU135" s="11"/>
+      <c r="MV135" s="11"/>
+      <c r="MW135" s="11"/>
+      <c r="MX135" s="11"/>
+      <c r="MY135" s="11"/>
+      <c r="MZ135" s="11"/>
+      <c r="NA135" s="11"/>
+      <c r="NB135" s="11"/>
+      <c r="NC135" s="11"/>
+      <c r="ND135" s="11"/>
+      <c r="NE135" s="11"/>
+      <c r="NF135" s="11"/>
+      <c r="NG135" s="11"/>
+      <c r="NH135" s="11"/>
+      <c r="NI135" s="11"/>
+      <c r="NJ135" s="11"/>
+      <c r="NK135" s="11"/>
+      <c r="NL135" s="11"/>
+      <c r="NM135" s="11"/>
+      <c r="NN135" s="11"/>
+      <c r="NO135" s="11"/>
+      <c r="NP135" s="11"/>
+      <c r="NQ135" s="11"/>
+      <c r="NR135" s="11"/>
+      <c r="NS135" s="11"/>
+      <c r="NT135" s="11"/>
+      <c r="NU135" s="11"/>
+      <c r="NV135" s="11"/>
+      <c r="NW135" s="11"/>
+      <c r="NX135" s="11"/>
+      <c r="NY135" s="11"/>
+      <c r="NZ135" s="11"/>
+      <c r="OA135" s="11"/>
+      <c r="OB135" s="11"/>
+      <c r="OC135" s="11"/>
     </row>
-    <row r="136" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="136" spans="4:393" x14ac:dyDescent="0.45">
       <c r="E136">
         <v>54</v>
       </c>
@@ -42742,8 +45452,50 @@
       <c r="MI136" s="18"/>
       <c r="MJ136" s="18"/>
       <c r="MK136" s="11"/>
+      <c r="MP136">
+        <v>54</v>
+      </c>
+      <c r="MQ136" s="11"/>
+      <c r="MR136" s="18"/>
+      <c r="MS136" s="18"/>
+      <c r="MT136" s="18"/>
+      <c r="MU136" s="18"/>
+      <c r="MV136" s="18"/>
+      <c r="MW136" s="18"/>
+      <c r="MX136" s="11"/>
+      <c r="MY136" s="18"/>
+      <c r="MZ136" s="18"/>
+      <c r="NA136" s="18"/>
+      <c r="NB136" s="18"/>
+      <c r="NC136" s="18"/>
+      <c r="ND136" s="18"/>
+      <c r="NE136" s="18"/>
+      <c r="NF136" s="18"/>
+      <c r="NG136" s="18"/>
+      <c r="NH136" s="18"/>
+      <c r="NI136" s="18"/>
+      <c r="NJ136" s="18"/>
+      <c r="NK136" s="18"/>
+      <c r="NL136" s="18"/>
+      <c r="NM136" s="18"/>
+      <c r="NN136" s="18"/>
+      <c r="NO136" s="18"/>
+      <c r="NP136" s="18"/>
+      <c r="NQ136" s="18"/>
+      <c r="NR136" s="18"/>
+      <c r="NS136" s="18"/>
+      <c r="NT136" s="18"/>
+      <c r="NU136" s="18"/>
+      <c r="NV136" s="18"/>
+      <c r="NW136" s="11"/>
+      <c r="NX136" s="18"/>
+      <c r="NY136" s="18"/>
+      <c r="NZ136" s="18"/>
+      <c r="OA136" s="18"/>
+      <c r="OB136" s="18"/>
+      <c r="OC136" s="11"/>
     </row>
-    <row r="137" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="137" spans="4:393" x14ac:dyDescent="0.45">
       <c r="E137">
         <v>53</v>
       </c>
@@ -42800,8 +45552,15 @@
       <c r="LF137" s="11"/>
       <c r="ME137" s="11"/>
       <c r="MK137" s="11"/>
+      <c r="MP137">
+        <v>53</v>
+      </c>
+      <c r="MQ137" s="11"/>
+      <c r="MX137" s="11"/>
+      <c r="NW137" s="11"/>
+      <c r="OC137" s="11"/>
     </row>
-    <row r="138" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="138" spans="4:393" x14ac:dyDescent="0.45">
       <c r="E138">
         <v>52</v>
       </c>
@@ -42864,8 +45623,15 @@
       <c r="LF138" s="11"/>
       <c r="ME138" s="11"/>
       <c r="MK138" s="11"/>
+      <c r="MP138">
+        <v>52</v>
+      </c>
+      <c r="MQ138" s="11"/>
+      <c r="MX138" s="11"/>
+      <c r="NW138" s="11"/>
+      <c r="OC138" s="11"/>
     </row>
-    <row r="139" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="139" spans="4:393" x14ac:dyDescent="0.45">
       <c r="E139">
         <v>51</v>
       </c>
@@ -43205,8 +45971,50 @@
       <c r="MI139" s="18"/>
       <c r="MJ139" s="18"/>
       <c r="MK139" s="11"/>
+      <c r="MP139">
+        <v>51</v>
+      </c>
+      <c r="MQ139" s="11"/>
+      <c r="MR139" s="18"/>
+      <c r="MS139" s="18"/>
+      <c r="MT139" s="18"/>
+      <c r="MU139" s="18"/>
+      <c r="MV139" s="18"/>
+      <c r="MW139" s="18"/>
+      <c r="MX139" s="11"/>
+      <c r="MY139" s="18"/>
+      <c r="MZ139" s="18"/>
+      <c r="NA139" s="18"/>
+      <c r="NB139" s="18"/>
+      <c r="NC139" s="18"/>
+      <c r="ND139" s="18"/>
+      <c r="NE139" s="18"/>
+      <c r="NF139" s="18"/>
+      <c r="NG139" s="18"/>
+      <c r="NH139" s="18"/>
+      <c r="NI139" s="18"/>
+      <c r="NJ139" s="18"/>
+      <c r="NK139" s="18"/>
+      <c r="NL139" s="18"/>
+      <c r="NM139" s="18"/>
+      <c r="NN139" s="18"/>
+      <c r="NO139" s="18"/>
+      <c r="NP139" s="18"/>
+      <c r="NQ139" s="18"/>
+      <c r="NR139" s="18"/>
+      <c r="NS139" s="18"/>
+      <c r="NT139" s="18"/>
+      <c r="NU139" s="18"/>
+      <c r="NV139" s="18"/>
+      <c r="NW139" s="11"/>
+      <c r="NX139" s="18"/>
+      <c r="NY139" s="18"/>
+      <c r="NZ139" s="18"/>
+      <c r="OA139" s="18"/>
+      <c r="OB139" s="18"/>
+      <c r="OC139" s="11"/>
     </row>
-    <row r="140" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="140" spans="4:393" x14ac:dyDescent="0.45">
       <c r="E140" s="14">
         <v>50</v>
       </c>
@@ -43515,8 +46323,45 @@
       <c r="MD140" s="14"/>
       <c r="ME140" s="11"/>
       <c r="MK140" s="11"/>
+      <c r="MP140" s="14">
+        <v>50</v>
+      </c>
+      <c r="MQ140" s="11"/>
+      <c r="MR140" s="18"/>
+      <c r="MS140" s="18"/>
+      <c r="MT140" s="18"/>
+      <c r="MU140" s="18"/>
+      <c r="MV140" s="18"/>
+      <c r="MW140" s="18"/>
+      <c r="MX140" s="11"/>
+      <c r="MY140" s="14"/>
+      <c r="MZ140" s="14"/>
+      <c r="NA140" s="14"/>
+      <c r="NB140" s="14"/>
+      <c r="NC140" s="14"/>
+      <c r="ND140" s="14"/>
+      <c r="NE140" s="14"/>
+      <c r="NF140" s="14"/>
+      <c r="NG140" s="14"/>
+      <c r="NH140" s="14"/>
+      <c r="NI140" s="14"/>
+      <c r="NJ140" s="14"/>
+      <c r="NK140" s="14"/>
+      <c r="NL140" s="14"/>
+      <c r="NM140" s="14"/>
+      <c r="NN140" s="14"/>
+      <c r="NO140" s="14"/>
+      <c r="NP140" s="14"/>
+      <c r="NQ140" s="14"/>
+      <c r="NR140" s="14"/>
+      <c r="NS140" s="14"/>
+      <c r="NT140" s="14"/>
+      <c r="NU140" s="14"/>
+      <c r="NV140" s="14"/>
+      <c r="NW140" s="11"/>
+      <c r="OC140" s="11"/>
     </row>
-    <row r="141" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="141" spans="4:393" x14ac:dyDescent="0.45">
       <c r="E141">
         <v>49</v>
       </c>
@@ -43631,8 +46476,39 @@
       <c r="MD141" s="18"/>
       <c r="ME141" s="11"/>
       <c r="MK141" s="11"/>
+      <c r="MP141">
+        <v>49</v>
+      </c>
+      <c r="MQ141" s="11"/>
+      <c r="MX141" s="11"/>
+      <c r="MY141" s="18"/>
+      <c r="MZ141" s="18"/>
+      <c r="NA141" s="18"/>
+      <c r="NB141" s="18"/>
+      <c r="NC141" s="18"/>
+      <c r="ND141" s="18"/>
+      <c r="NE141" s="18"/>
+      <c r="NF141" s="18"/>
+      <c r="NG141" s="18"/>
+      <c r="NH141" s="18"/>
+      <c r="NI141" s="18"/>
+      <c r="NJ141" s="18"/>
+      <c r="NK141" s="18"/>
+      <c r="NL141" s="18"/>
+      <c r="NM141" s="18"/>
+      <c r="NN141" s="18"/>
+      <c r="NO141" s="18"/>
+      <c r="NP141" s="18"/>
+      <c r="NQ141" s="18"/>
+      <c r="NR141" s="18"/>
+      <c r="NS141" s="18"/>
+      <c r="NT141" s="18"/>
+      <c r="NU141" s="18"/>
+      <c r="NV141" s="18"/>
+      <c r="NW141" s="11"/>
+      <c r="OC141" s="11"/>
     </row>
-    <row r="142" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="142" spans="4:393" x14ac:dyDescent="0.45">
       <c r="E142">
         <v>48</v>
       </c>
@@ -43860,8 +46736,39 @@
       <c r="MD142" s="18"/>
       <c r="ME142" s="11"/>
       <c r="MK142" s="11"/>
+      <c r="MP142">
+        <v>48</v>
+      </c>
+      <c r="MQ142" s="11"/>
+      <c r="MX142" s="11"/>
+      <c r="MY142" s="18"/>
+      <c r="MZ142" s="18"/>
+      <c r="NA142" s="18"/>
+      <c r="NB142" s="18"/>
+      <c r="NC142" s="18"/>
+      <c r="ND142" s="18"/>
+      <c r="NE142" s="18"/>
+      <c r="NF142" s="3"/>
+      <c r="NG142" s="18"/>
+      <c r="NH142" s="18"/>
+      <c r="NI142" s="18"/>
+      <c r="NJ142" s="18"/>
+      <c r="NK142" s="18"/>
+      <c r="NL142" s="18"/>
+      <c r="NM142" s="18"/>
+      <c r="NN142" s="18"/>
+      <c r="NO142" s="18"/>
+      <c r="NP142" s="18"/>
+      <c r="NQ142" s="18"/>
+      <c r="NR142" s="18"/>
+      <c r="NS142" s="18"/>
+      <c r="NT142" s="18"/>
+      <c r="NU142" s="18"/>
+      <c r="NV142" s="18"/>
+      <c r="NW142" s="11"/>
+      <c r="OC142" s="11"/>
     </row>
-    <row r="143" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="143" spans="4:393" x14ac:dyDescent="0.45">
       <c r="E143">
         <v>47</v>
       </c>
@@ -44084,8 +46991,39 @@
       <c r="MD143" s="18"/>
       <c r="ME143" s="11"/>
       <c r="MK143" s="11"/>
+      <c r="MP143">
+        <v>47</v>
+      </c>
+      <c r="MQ143" s="11"/>
+      <c r="MX143" s="11"/>
+      <c r="MY143" s="18"/>
+      <c r="MZ143" s="18"/>
+      <c r="NA143" s="18"/>
+      <c r="NB143" s="18"/>
+      <c r="NC143" s="18"/>
+      <c r="ND143" s="18"/>
+      <c r="NE143" s="18"/>
+      <c r="NF143" s="18"/>
+      <c r="NG143" s="18"/>
+      <c r="NH143" s="18"/>
+      <c r="NI143" s="18"/>
+      <c r="NJ143" s="18"/>
+      <c r="NK143" s="18"/>
+      <c r="NL143" s="18"/>
+      <c r="NM143" s="18"/>
+      <c r="NN143" s="18"/>
+      <c r="NO143" s="18"/>
+      <c r="NP143" s="18"/>
+      <c r="NQ143" s="18"/>
+      <c r="NR143" s="18"/>
+      <c r="NS143" s="18"/>
+      <c r="NT143" s="18"/>
+      <c r="NU143" s="18"/>
+      <c r="NV143" s="18"/>
+      <c r="NW143" s="11"/>
+      <c r="OC143" s="11"/>
     </row>
-    <row r="144" spans="4:349" x14ac:dyDescent="0.45">
+    <row r="144" spans="4:393" x14ac:dyDescent="0.45">
       <c r="E144">
         <v>46</v>
       </c>
@@ -44310,8 +47248,39 @@
       <c r="MD144" s="18"/>
       <c r="ME144" s="11"/>
       <c r="MK144" s="11"/>
+      <c r="MP144">
+        <v>46</v>
+      </c>
+      <c r="MQ144" s="11"/>
+      <c r="MX144" s="11"/>
+      <c r="MY144" s="18"/>
+      <c r="MZ144" s="18"/>
+      <c r="NA144" s="18"/>
+      <c r="NB144" s="15"/>
+      <c r="NC144" s="15"/>
+      <c r="ND144" s="15"/>
+      <c r="NE144" s="18"/>
+      <c r="NF144" s="18"/>
+      <c r="NG144" s="18"/>
+      <c r="NH144" s="18"/>
+      <c r="NI144" s="18"/>
+      <c r="NJ144" s="18"/>
+      <c r="NK144" s="18"/>
+      <c r="NL144" s="18"/>
+      <c r="NM144" s="18"/>
+      <c r="NN144" s="18"/>
+      <c r="NO144" s="18"/>
+      <c r="NP144" s="18"/>
+      <c r="NQ144" s="15"/>
+      <c r="NR144" s="15"/>
+      <c r="NS144" s="15"/>
+      <c r="NT144" s="18"/>
+      <c r="NU144" s="18"/>
+      <c r="NV144" s="18"/>
+      <c r="NW144" s="11"/>
+      <c r="OC144" s="11"/>
     </row>
-    <row r="145" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="145" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E145">
         <v>45</v>
       </c>
@@ -44519,7 +47488,7 @@
       <c r="LO145" s="18"/>
       <c r="LP145" s="18"/>
       <c r="LQ145" s="18"/>
-      <c r="LR145" s="15"/>
+      <c r="LR145" s="18"/>
       <c r="LS145" s="18"/>
       <c r="LT145" s="18"/>
       <c r="LU145" s="18"/>
@@ -44533,8 +47502,39 @@
       <c r="MD145" s="18"/>
       <c r="ME145" s="11"/>
       <c r="MK145" s="11"/>
+      <c r="MP145">
+        <v>45</v>
+      </c>
+      <c r="MQ145" s="11"/>
+      <c r="MX145" s="11"/>
+      <c r="MY145" s="18"/>
+      <c r="MZ145" s="18"/>
+      <c r="NA145" s="18"/>
+      <c r="NB145" s="15"/>
+      <c r="NC145" s="15"/>
+      <c r="ND145" s="15"/>
+      <c r="NE145" s="18"/>
+      <c r="NF145" s="18"/>
+      <c r="NG145" s="18"/>
+      <c r="NH145" s="18"/>
+      <c r="NI145" s="18"/>
+      <c r="NJ145" s="18"/>
+      <c r="NK145" s="18"/>
+      <c r="NL145" s="18"/>
+      <c r="NM145" s="18"/>
+      <c r="NN145" s="18"/>
+      <c r="NO145" s="18"/>
+      <c r="NP145" s="18"/>
+      <c r="NQ145" s="15"/>
+      <c r="NR145" s="15"/>
+      <c r="NS145" s="15"/>
+      <c r="NT145" s="18"/>
+      <c r="NU145" s="18"/>
+      <c r="NV145" s="18"/>
+      <c r="NW145" s="11"/>
+      <c r="OC145" s="11"/>
     </row>
-    <row r="146" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="146" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E146">
         <v>44</v>
       </c>
@@ -44759,8 +47759,39 @@
       <c r="MD146" s="18"/>
       <c r="ME146" s="11"/>
       <c r="MK146" s="11"/>
+      <c r="MP146">
+        <v>44</v>
+      </c>
+      <c r="MQ146" s="11"/>
+      <c r="MX146" s="11"/>
+      <c r="MY146" s="18"/>
+      <c r="MZ146" s="18"/>
+      <c r="NA146" s="18"/>
+      <c r="NB146" s="15"/>
+      <c r="NC146" s="15"/>
+      <c r="ND146" s="15"/>
+      <c r="NE146" s="18"/>
+      <c r="NF146" s="18"/>
+      <c r="NG146" s="18"/>
+      <c r="NH146" s="18"/>
+      <c r="NI146" s="3"/>
+      <c r="NJ146" s="18"/>
+      <c r="NK146" s="18"/>
+      <c r="NL146" s="18"/>
+      <c r="NM146" s="18"/>
+      <c r="NN146" s="18"/>
+      <c r="NO146" s="18"/>
+      <c r="NP146" s="18"/>
+      <c r="NQ146" s="15"/>
+      <c r="NR146" s="15"/>
+      <c r="NS146" s="15"/>
+      <c r="NT146" s="18"/>
+      <c r="NU146" s="18"/>
+      <c r="NV146" s="18"/>
+      <c r="NW146" s="11"/>
+      <c r="OC146" s="11"/>
     </row>
-    <row r="147" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="147" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E147">
         <v>43</v>
       </c>
@@ -44984,8 +48015,39 @@
       <c r="MD147" s="18"/>
       <c r="ME147" s="11"/>
       <c r="MK147" s="11"/>
+      <c r="MP147">
+        <v>43</v>
+      </c>
+      <c r="MQ147" s="11"/>
+      <c r="MX147" s="11"/>
+      <c r="MY147" s="18"/>
+      <c r="MZ147" s="18"/>
+      <c r="NA147" s="18"/>
+      <c r="NB147" s="18"/>
+      <c r="NC147" s="18"/>
+      <c r="ND147" s="18"/>
+      <c r="NE147" s="18"/>
+      <c r="NF147" s="18"/>
+      <c r="NG147" s="18"/>
+      <c r="NH147" s="18"/>
+      <c r="NI147" s="18"/>
+      <c r="NJ147" s="18"/>
+      <c r="NK147" s="18"/>
+      <c r="NL147" s="18"/>
+      <c r="NM147" s="18"/>
+      <c r="NN147" s="18"/>
+      <c r="NO147" s="18"/>
+      <c r="NP147" s="18"/>
+      <c r="NQ147" s="18"/>
+      <c r="NR147" s="18"/>
+      <c r="NS147" s="18"/>
+      <c r="NT147" s="18"/>
+      <c r="NU147" s="18"/>
+      <c r="NV147" s="18"/>
+      <c r="NW147" s="11"/>
+      <c r="OC147" s="11"/>
     </row>
-    <row r="148" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="148" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E148">
         <v>42</v>
       </c>
@@ -45209,8 +48271,39 @@
       <c r="MD148" s="18"/>
       <c r="ME148" s="11"/>
       <c r="MK148" s="11"/>
+      <c r="MP148">
+        <v>42</v>
+      </c>
+      <c r="MQ148" s="11"/>
+      <c r="MX148" s="11"/>
+      <c r="MY148" s="18"/>
+      <c r="MZ148" s="18"/>
+      <c r="NA148" s="18"/>
+      <c r="NB148" s="18"/>
+      <c r="NC148" s="18"/>
+      <c r="ND148" s="18"/>
+      <c r="NE148" s="18"/>
+      <c r="NF148" s="18"/>
+      <c r="NG148" s="18"/>
+      <c r="NH148" s="18"/>
+      <c r="NI148" s="18"/>
+      <c r="NJ148" s="18"/>
+      <c r="NK148" s="18"/>
+      <c r="NL148" s="18"/>
+      <c r="NM148" s="3"/>
+      <c r="NN148" s="18"/>
+      <c r="NO148" s="18"/>
+      <c r="NP148" s="18"/>
+      <c r="NQ148" s="18"/>
+      <c r="NR148" s="18"/>
+      <c r="NS148" s="18"/>
+      <c r="NT148" s="18"/>
+      <c r="NU148" s="18"/>
+      <c r="NV148" s="18"/>
+      <c r="NW148" s="11"/>
+      <c r="OC148" s="11"/>
     </row>
-    <row r="149" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="149" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E149">
         <v>41</v>
       </c>
@@ -45427,8 +48520,39 @@
       <c r="MD149" s="18"/>
       <c r="ME149" s="11"/>
       <c r="MK149" s="11"/>
+      <c r="MP149">
+        <v>41</v>
+      </c>
+      <c r="MQ149" s="11"/>
+      <c r="MX149" s="11"/>
+      <c r="MY149" s="18"/>
+      <c r="MZ149" s="18"/>
+      <c r="NA149" s="18"/>
+      <c r="NB149" s="18"/>
+      <c r="NC149" s="18"/>
+      <c r="ND149" s="18"/>
+      <c r="NE149" s="18"/>
+      <c r="NF149" s="18"/>
+      <c r="NG149" s="18"/>
+      <c r="NH149" s="18"/>
+      <c r="NI149" s="18"/>
+      <c r="NJ149" s="18"/>
+      <c r="NK149" s="18"/>
+      <c r="NL149" s="18"/>
+      <c r="NM149" s="18"/>
+      <c r="NN149" s="18"/>
+      <c r="NO149" s="18"/>
+      <c r="NP149" s="18"/>
+      <c r="NQ149" s="18"/>
+      <c r="NR149" s="18"/>
+      <c r="NS149" s="18"/>
+      <c r="NT149" s="18"/>
+      <c r="NU149" s="18"/>
+      <c r="NV149" s="18"/>
+      <c r="NW149" s="11"/>
+      <c r="OC149" s="11"/>
     </row>
-    <row r="150" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="150" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E150" s="113">
         <v>40</v>
       </c>
@@ -46382,8 +49506,126 @@
         <v>40</v>
       </c>
       <c r="MK150" s="11"/>
+      <c r="MP150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MQ150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MR150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MS150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MT150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MU150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MV150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MW150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MX150" s="113">
+        <v>40</v>
+      </c>
+      <c r="MY150" s="18">
+        <v>40</v>
+      </c>
+      <c r="MZ150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NA150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NB150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NC150" s="18">
+        <v>40</v>
+      </c>
+      <c r="ND150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NE150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NF150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NG150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NH150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NI150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NJ150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NK150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NL150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NM150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NN150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NO150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NP150" s="3">
+        <v>40</v>
+      </c>
+      <c r="NQ150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NR150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NS150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NT150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NU150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NV150" s="18">
+        <v>40</v>
+      </c>
+      <c r="NW150" s="113">
+        <v>40</v>
+      </c>
+      <c r="NX150" s="113">
+        <v>40</v>
+      </c>
+      <c r="NY150" s="113">
+        <v>40</v>
+      </c>
+      <c r="NZ150" s="113">
+        <v>40</v>
+      </c>
+      <c r="OA150" s="113">
+        <v>40</v>
+      </c>
+      <c r="OB150" s="113">
+        <v>40</v>
+      </c>
+      <c r="OC150" s="11"/>
     </row>
-    <row r="151" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="151" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E151">
         <v>39</v>
       </c>
@@ -46601,8 +49843,39 @@
       <c r="MD151" s="18"/>
       <c r="ME151" s="11"/>
       <c r="MK151" s="11"/>
+      <c r="MP151">
+        <v>39</v>
+      </c>
+      <c r="MQ151" s="11"/>
+      <c r="MX151" s="11"/>
+      <c r="MY151" s="18"/>
+      <c r="MZ151" s="18"/>
+      <c r="NA151" s="18"/>
+      <c r="NB151" s="18"/>
+      <c r="NC151" s="18"/>
+      <c r="ND151" s="18"/>
+      <c r="NE151" s="18"/>
+      <c r="NF151" s="18"/>
+      <c r="NG151" s="18"/>
+      <c r="NH151" s="18"/>
+      <c r="NI151" s="18"/>
+      <c r="NJ151" s="18"/>
+      <c r="NK151" s="18"/>
+      <c r="NL151" s="18"/>
+      <c r="NM151" s="18"/>
+      <c r="NN151" s="18"/>
+      <c r="NO151" s="18"/>
+      <c r="NP151" s="18"/>
+      <c r="NQ151" s="18"/>
+      <c r="NR151" s="18"/>
+      <c r="NS151" s="18"/>
+      <c r="NT151" s="18"/>
+      <c r="NU151" s="18"/>
+      <c r="NV151" s="18"/>
+      <c r="NW151" s="11"/>
+      <c r="OC151" s="11"/>
     </row>
-    <row r="152" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="152" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E152">
         <v>38</v>
       </c>
@@ -46827,8 +50100,39 @@
       <c r="MD152" s="104"/>
       <c r="ME152" s="11"/>
       <c r="MK152" s="11"/>
+      <c r="MP152">
+        <v>38</v>
+      </c>
+      <c r="MQ152" s="11"/>
+      <c r="MX152" s="11"/>
+      <c r="MY152" s="18"/>
+      <c r="MZ152" s="18"/>
+      <c r="NA152" s="18"/>
+      <c r="NB152" s="18"/>
+      <c r="NC152" s="18"/>
+      <c r="ND152" s="18"/>
+      <c r="NE152" s="18"/>
+      <c r="NF152" s="18"/>
+      <c r="NG152" s="18"/>
+      <c r="NH152" s="18"/>
+      <c r="NI152" s="18"/>
+      <c r="NJ152" s="18"/>
+      <c r="NK152" s="18"/>
+      <c r="NL152" s="18"/>
+      <c r="NM152" s="18"/>
+      <c r="NN152" s="18"/>
+      <c r="NO152" s="18"/>
+      <c r="NP152" s="18"/>
+      <c r="NQ152" s="18"/>
+      <c r="NR152" s="18"/>
+      <c r="NS152" s="18"/>
+      <c r="NT152" s="18"/>
+      <c r="NU152" s="18"/>
+      <c r="NV152" s="18"/>
+      <c r="NW152" s="11"/>
+      <c r="OC152" s="11"/>
     </row>
-    <row r="153" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="153" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E153">
         <v>37</v>
       </c>
@@ -47054,8 +50358,39 @@
       <c r="MD153" s="18"/>
       <c r="ME153" s="11"/>
       <c r="MK153" s="11"/>
+      <c r="MP153">
+        <v>37</v>
+      </c>
+      <c r="MQ153" s="11"/>
+      <c r="MX153" s="11"/>
+      <c r="MY153" s="18"/>
+      <c r="MZ153" s="18"/>
+      <c r="NA153" s="18"/>
+      <c r="NB153" s="18"/>
+      <c r="NC153" s="18"/>
+      <c r="ND153" s="18"/>
+      <c r="NE153" s="18"/>
+      <c r="NF153" s="18"/>
+      <c r="NG153" s="18"/>
+      <c r="NH153" s="18"/>
+      <c r="NI153" s="18"/>
+      <c r="NJ153" s="18"/>
+      <c r="NK153" s="18"/>
+      <c r="NL153" s="18"/>
+      <c r="NM153" s="3"/>
+      <c r="NN153" s="18"/>
+      <c r="NO153" s="18"/>
+      <c r="NP153" s="18"/>
+      <c r="NQ153" s="18"/>
+      <c r="NR153" s="18"/>
+      <c r="NS153" s="18"/>
+      <c r="NT153" s="18"/>
+      <c r="NU153" s="18"/>
+      <c r="NV153" s="18"/>
+      <c r="NW153" s="11"/>
+      <c r="OC153" s="11"/>
     </row>
-    <row r="154" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="154" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E154">
         <v>36</v>
       </c>
@@ -47280,8 +50615,37 @@
       <c r="MD154" s="18"/>
       <c r="ME154" s="11"/>
       <c r="MK154" s="11"/>
+      <c r="MP154">
+        <v>36</v>
+      </c>
+      <c r="MQ154" s="11"/>
+      <c r="MX154" s="11"/>
+      <c r="MY154" s="18"/>
+      <c r="MZ154" s="18"/>
+      <c r="NA154" s="18"/>
+      <c r="NB154" s="3"/>
+      <c r="NC154" s="18"/>
+      <c r="ND154" s="18"/>
+      <c r="NE154" s="18"/>
+      <c r="NF154" s="18"/>
+      <c r="NG154" s="15"/>
+      <c r="NH154" s="15"/>
+      <c r="NK154" s="18"/>
+      <c r="NL154" s="18"/>
+      <c r="NM154" s="18"/>
+      <c r="NN154" s="18"/>
+      <c r="NO154" s="18"/>
+      <c r="NP154" s="18"/>
+      <c r="NQ154" s="18"/>
+      <c r="NR154" s="18"/>
+      <c r="NS154" s="18"/>
+      <c r="NT154" s="18"/>
+      <c r="NU154" s="18"/>
+      <c r="NV154" s="18"/>
+      <c r="NW154" s="11"/>
+      <c r="OC154" s="11"/>
     </row>
-    <row r="155" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="155" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E155">
         <v>35</v>
       </c>
@@ -47506,8 +50870,36 @@
       <c r="MD155" s="18"/>
       <c r="ME155" s="11"/>
       <c r="MK155" s="11"/>
+      <c r="MP155">
+        <v>35</v>
+      </c>
+      <c r="MQ155" s="11"/>
+      <c r="MX155" s="11"/>
+      <c r="MY155" s="18"/>
+      <c r="MZ155" s="18"/>
+      <c r="NA155" s="18"/>
+      <c r="NB155" s="18"/>
+      <c r="NC155" s="18"/>
+      <c r="ND155" s="18"/>
+      <c r="NE155" s="18"/>
+      <c r="NF155" s="18"/>
+      <c r="NG155" s="15"/>
+      <c r="NH155" s="15"/>
+      <c r="NK155" s="18"/>
+      <c r="NL155" s="18"/>
+      <c r="NM155" s="18"/>
+      <c r="NN155" s="18"/>
+      <c r="NO155" s="18"/>
+      <c r="NP155" s="18"/>
+      <c r="NQ155" s="18"/>
+      <c r="NS155" s="18"/>
+      <c r="NT155" s="18"/>
+      <c r="NU155" s="18"/>
+      <c r="NV155" s="18"/>
+      <c r="NW155" s="11"/>
+      <c r="OC155" s="11"/>
     </row>
-    <row r="156" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="156" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E156">
         <v>34</v>
       </c>
@@ -47728,8 +51120,36 @@
       <c r="MD156" s="18"/>
       <c r="ME156" s="11"/>
       <c r="MK156" s="11"/>
+      <c r="MP156">
+        <v>34</v>
+      </c>
+      <c r="MQ156" s="11"/>
+      <c r="MX156" s="11"/>
+      <c r="MY156" s="18"/>
+      <c r="MZ156" s="18"/>
+      <c r="NA156" s="18"/>
+      <c r="NB156" s="18"/>
+      <c r="NC156" s="18"/>
+      <c r="ND156" s="18"/>
+      <c r="NE156" s="18"/>
+      <c r="NF156" s="18"/>
+      <c r="NG156" s="15"/>
+      <c r="NH156" s="15"/>
+      <c r="NL156" s="18"/>
+      <c r="NM156" s="18"/>
+      <c r="NN156" s="18"/>
+      <c r="NO156" s="18"/>
+      <c r="NP156" s="3"/>
+      <c r="NQ156" s="18"/>
+      <c r="NR156" s="18"/>
+      <c r="NS156" s="18"/>
+      <c r="NT156" s="18"/>
+      <c r="NU156" s="18"/>
+      <c r="NV156" s="18"/>
+      <c r="NW156" s="11"/>
+      <c r="OC156" s="11"/>
     </row>
-    <row r="157" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="157" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E157">
         <v>33</v>
       </c>
@@ -47957,8 +51377,37 @@
       <c r="MD157" s="18"/>
       <c r="ME157" s="11"/>
       <c r="MK157" s="11"/>
+      <c r="MP157">
+        <v>33</v>
+      </c>
+      <c r="MQ157" s="11"/>
+      <c r="MX157" s="11"/>
+      <c r="MY157" s="18"/>
+      <c r="MZ157" s="18"/>
+      <c r="NA157" s="18"/>
+      <c r="NB157" s="18"/>
+      <c r="NC157" s="18"/>
+      <c r="ND157" s="18"/>
+      <c r="NE157" s="18"/>
+      <c r="NF157" s="18"/>
+      <c r="NG157" s="15"/>
+      <c r="NH157" s="15"/>
+      <c r="NK157" s="18"/>
+      <c r="NL157" s="18"/>
+      <c r="NM157" s="18"/>
+      <c r="NN157" s="18"/>
+      <c r="NO157" s="18"/>
+      <c r="NP157" s="18"/>
+      <c r="NQ157" s="18"/>
+      <c r="NR157" s="18"/>
+      <c r="NS157" s="18"/>
+      <c r="NT157" s="18"/>
+      <c r="NU157" s="18"/>
+      <c r="NV157" s="18"/>
+      <c r="NW157" s="11"/>
+      <c r="OC157" s="11"/>
     </row>
-    <row r="158" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="158" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E158">
         <v>32</v>
       </c>
@@ -48183,8 +51632,37 @@
       <c r="MD158" s="18"/>
       <c r="ME158" s="11"/>
       <c r="MK158" s="11"/>
+      <c r="MP158">
+        <v>32</v>
+      </c>
+      <c r="MQ158" s="11"/>
+      <c r="MX158" s="11"/>
+      <c r="MY158" s="18"/>
+      <c r="MZ158" s="18"/>
+      <c r="NA158" s="18"/>
+      <c r="NB158" s="18"/>
+      <c r="NC158" s="18"/>
+      <c r="ND158" s="18"/>
+      <c r="NE158" s="18"/>
+      <c r="NF158" s="18"/>
+      <c r="NG158" s="18"/>
+      <c r="NJ158" s="18"/>
+      <c r="NK158" s="18"/>
+      <c r="NL158" s="18"/>
+      <c r="NM158" s="18"/>
+      <c r="NN158" s="18"/>
+      <c r="NO158" s="18"/>
+      <c r="NP158" s="18"/>
+      <c r="NQ158" s="18"/>
+      <c r="NR158" s="18"/>
+      <c r="NS158" s="18"/>
+      <c r="NT158" s="18"/>
+      <c r="NU158" s="18"/>
+      <c r="NV158" s="18"/>
+      <c r="NW158" s="11"/>
+      <c r="OC158" s="11"/>
     </row>
-    <row r="159" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="159" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E159">
         <v>31</v>
       </c>
@@ -48400,8 +51878,39 @@
       <c r="MD159" s="18"/>
       <c r="ME159" s="11"/>
       <c r="MK159" s="11"/>
+      <c r="MP159">
+        <v>31</v>
+      </c>
+      <c r="MQ159" s="11"/>
+      <c r="MX159" s="11"/>
+      <c r="MY159" s="18"/>
+      <c r="MZ159" s="18"/>
+      <c r="NA159" s="18"/>
+      <c r="NB159" s="18"/>
+      <c r="NC159" s="18"/>
+      <c r="ND159" s="18"/>
+      <c r="NE159" s="18"/>
+      <c r="NF159" s="18"/>
+      <c r="NG159" s="18"/>
+      <c r="NH159" s="18"/>
+      <c r="NI159" s="18"/>
+      <c r="NJ159" s="3"/>
+      <c r="NK159" s="18"/>
+      <c r="NL159" s="18"/>
+      <c r="NM159" s="18"/>
+      <c r="NN159" s="18"/>
+      <c r="NO159" s="18"/>
+      <c r="NP159" s="18"/>
+      <c r="NQ159" s="18"/>
+      <c r="NR159" s="18"/>
+      <c r="NS159" s="18"/>
+      <c r="NT159" s="18"/>
+      <c r="NU159" s="18"/>
+      <c r="NV159" s="18"/>
+      <c r="NW159" s="11"/>
+      <c r="OC159" s="11"/>
     </row>
-    <row r="160" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="160" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E160" s="113">
         <v>30</v>
       </c>
@@ -49355,8 +52864,126 @@
         <v>30</v>
       </c>
       <c r="MK160" s="11"/>
+      <c r="MP160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MQ160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MR160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MS160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MT160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MU160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MV160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MW160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MX160" s="113">
+        <v>30</v>
+      </c>
+      <c r="MY160" s="18">
+        <v>30</v>
+      </c>
+      <c r="MZ160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NA160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NB160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NC160" s="18">
+        <v>30</v>
+      </c>
+      <c r="ND160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NE160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NF160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NG160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NH160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NI160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NJ160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NK160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NL160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NM160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NN160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NO160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NP160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NQ160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NR160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NS160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NT160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NU160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NV160" s="18">
+        <v>30</v>
+      </c>
+      <c r="NW160" s="113">
+        <v>30</v>
+      </c>
+      <c r="NX160" s="113">
+        <v>30</v>
+      </c>
+      <c r="NY160" s="113">
+        <v>30</v>
+      </c>
+      <c r="NZ160" s="113">
+        <v>30</v>
+      </c>
+      <c r="OA160" s="113">
+        <v>30</v>
+      </c>
+      <c r="OB160" s="113">
+        <v>30</v>
+      </c>
+      <c r="OC160" s="11"/>
     </row>
-    <row r="161" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="161" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E161">
         <v>29</v>
       </c>
@@ -49585,8 +53212,39 @@
       <c r="MD161" s="15"/>
       <c r="ME161" s="11"/>
       <c r="MK161" s="11"/>
+      <c r="MP161">
+        <v>29</v>
+      </c>
+      <c r="MQ161" s="11"/>
+      <c r="MX161" s="11"/>
+      <c r="MY161" s="18"/>
+      <c r="MZ161" s="18"/>
+      <c r="NA161" s="18"/>
+      <c r="NB161" s="18"/>
+      <c r="NC161" s="18"/>
+      <c r="ND161" s="18"/>
+      <c r="NE161" s="18"/>
+      <c r="NF161" s="18"/>
+      <c r="NG161" s="18"/>
+      <c r="NH161" s="18"/>
+      <c r="NI161" s="18"/>
+      <c r="NJ161" s="18"/>
+      <c r="NK161" s="18"/>
+      <c r="NL161" s="18"/>
+      <c r="NM161" s="18"/>
+      <c r="NN161" s="18"/>
+      <c r="NO161" s="18"/>
+      <c r="NP161" s="18"/>
+      <c r="NQ161" s="18"/>
+      <c r="NR161" s="18"/>
+      <c r="NS161" s="18"/>
+      <c r="NT161" s="18"/>
+      <c r="NU161" s="18"/>
+      <c r="NV161" s="18"/>
+      <c r="NW161" s="11"/>
+      <c r="OC161" s="11"/>
     </row>
-    <row r="162" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="162" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E162">
         <v>28</v>
       </c>
@@ -49815,8 +53473,39 @@
       <c r="MD162" s="15"/>
       <c r="ME162" s="11"/>
       <c r="MK162" s="11"/>
+      <c r="MP162">
+        <v>28</v>
+      </c>
+      <c r="MQ162" s="11"/>
+      <c r="MX162" s="11"/>
+      <c r="MY162" s="18"/>
+      <c r="MZ162" s="18"/>
+      <c r="NA162" s="18"/>
+      <c r="NB162" s="18"/>
+      <c r="NC162" s="18"/>
+      <c r="ND162" s="18"/>
+      <c r="NE162" s="18"/>
+      <c r="NF162" s="18"/>
+      <c r="NG162" s="18"/>
+      <c r="NH162" s="3"/>
+      <c r="NI162" s="18"/>
+      <c r="NJ162" s="18"/>
+      <c r="NK162" s="18"/>
+      <c r="NL162" s="18"/>
+      <c r="NM162" s="18"/>
+      <c r="NN162" s="18"/>
+      <c r="NO162" s="18"/>
+      <c r="NP162" s="18"/>
+      <c r="NQ162" s="18"/>
+      <c r="NR162" s="18"/>
+      <c r="NS162" s="18"/>
+      <c r="NT162" s="18"/>
+      <c r="NU162" s="18"/>
+      <c r="NV162" s="18"/>
+      <c r="NW162" s="11"/>
+      <c r="OC162" s="11"/>
     </row>
-    <row r="163" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="163" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E163">
         <v>27</v>
       </c>
@@ -50147,8 +53836,49 @@
       <c r="MI163" s="18"/>
       <c r="MJ163" s="18"/>
       <c r="MK163" s="11"/>
+      <c r="MP163">
+        <v>27</v>
+      </c>
+      <c r="MQ163" s="11"/>
+      <c r="MR163" s="18"/>
+      <c r="MS163" s="18"/>
+      <c r="MT163" s="18"/>
+      <c r="MV163" s="18"/>
+      <c r="MW163" s="18"/>
+      <c r="MX163" s="11"/>
+      <c r="MY163" s="18"/>
+      <c r="MZ163" s="18"/>
+      <c r="NA163" s="18"/>
+      <c r="NB163" s="18"/>
+      <c r="NC163" s="18"/>
+      <c r="ND163" s="18"/>
+      <c r="NE163" s="18"/>
+      <c r="NF163" s="18"/>
+      <c r="NG163" s="18"/>
+      <c r="NH163" s="18"/>
+      <c r="NI163" s="18"/>
+      <c r="NJ163" s="18"/>
+      <c r="NK163" s="18"/>
+      <c r="NL163" s="18"/>
+      <c r="NM163" s="18"/>
+      <c r="NN163" s="18"/>
+      <c r="NO163" s="18"/>
+      <c r="NP163" s="18"/>
+      <c r="NQ163" s="18"/>
+      <c r="NR163" s="18"/>
+      <c r="NS163" s="18"/>
+      <c r="NT163" s="18"/>
+      <c r="NU163" s="18"/>
+      <c r="NV163" s="18"/>
+      <c r="NW163" s="11"/>
+      <c r="NX163" s="18"/>
+      <c r="NY163" s="18"/>
+      <c r="NZ163" s="18"/>
+      <c r="OA163" s="18"/>
+      <c r="OB163" s="18"/>
+      <c r="OC163" s="11"/>
     </row>
-    <row r="164" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="164" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E164">
         <v>26</v>
       </c>
@@ -50373,8 +54103,39 @@
       <c r="MD164" s="18"/>
       <c r="ME164" s="73"/>
       <c r="MK164" s="11"/>
+      <c r="MP164">
+        <v>26</v>
+      </c>
+      <c r="MQ164" s="73"/>
+      <c r="MX164" s="73"/>
+      <c r="MY164" s="18"/>
+      <c r="MZ164" s="18"/>
+      <c r="NA164" s="18"/>
+      <c r="NB164" s="18"/>
+      <c r="NC164" s="15"/>
+      <c r="ND164" s="15"/>
+      <c r="NE164" s="15"/>
+      <c r="NF164" s="18"/>
+      <c r="NG164" s="18"/>
+      <c r="NH164" s="18"/>
+      <c r="NI164" s="18"/>
+      <c r="NJ164" s="18"/>
+      <c r="NK164" s="18"/>
+      <c r="NL164" s="18"/>
+      <c r="NM164" s="18"/>
+      <c r="NN164" s="18"/>
+      <c r="NO164" s="18"/>
+      <c r="NP164" s="18"/>
+      <c r="NQ164" s="3"/>
+      <c r="NR164" s="18"/>
+      <c r="NS164" s="18"/>
+      <c r="NT164" s="18"/>
+      <c r="NU164" s="18"/>
+      <c r="NV164" s="18"/>
+      <c r="NW164" s="73"/>
+      <c r="OC164" s="11"/>
     </row>
-    <row r="165" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="165" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E165">
         <v>25</v>
       </c>
@@ -50600,8 +54361,39 @@
       <c r="MD165" s="18"/>
       <c r="ME165" s="73"/>
       <c r="MK165" s="11"/>
+      <c r="MP165">
+        <v>25</v>
+      </c>
+      <c r="MQ165" s="73"/>
+      <c r="MX165" s="73"/>
+      <c r="MY165" s="18"/>
+      <c r="MZ165" s="18"/>
+      <c r="NA165" s="18"/>
+      <c r="NB165" s="18"/>
+      <c r="NC165" s="15"/>
+      <c r="ND165" s="15"/>
+      <c r="NE165" s="15"/>
+      <c r="NF165" s="18"/>
+      <c r="NG165" s="18"/>
+      <c r="NH165" s="18"/>
+      <c r="NI165" s="18"/>
+      <c r="NJ165" s="18"/>
+      <c r="NK165" s="3"/>
+      <c r="NL165" s="18"/>
+      <c r="NM165" s="18"/>
+      <c r="NN165" s="18"/>
+      <c r="NO165" s="18"/>
+      <c r="NP165" s="18"/>
+      <c r="NQ165" s="18"/>
+      <c r="NR165" s="18"/>
+      <c r="NS165" s="18"/>
+      <c r="NT165" s="18"/>
+      <c r="NU165" s="18"/>
+      <c r="NV165" s="18"/>
+      <c r="NW165" s="73"/>
+      <c r="OC165" s="11"/>
     </row>
-    <row r="166" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="166" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E166">
         <v>24</v>
       </c>
@@ -50826,8 +54618,38 @@
       <c r="MD166" s="18"/>
       <c r="ME166" s="73"/>
       <c r="MK166" s="11"/>
+      <c r="MP166">
+        <v>24</v>
+      </c>
+      <c r="MQ166" s="73"/>
+      <c r="MX166" s="73"/>
+      <c r="MY166" s="18"/>
+      <c r="MZ166" s="18"/>
+      <c r="NA166" s="18"/>
+      <c r="NB166" s="18"/>
+      <c r="NC166" s="15"/>
+      <c r="ND166" s="15"/>
+      <c r="NE166" s="15"/>
+      <c r="NF166" s="18"/>
+      <c r="NG166" s="18"/>
+      <c r="NI166" s="18"/>
+      <c r="NJ166" s="18"/>
+      <c r="NK166" s="18"/>
+      <c r="NL166" s="18"/>
+      <c r="NM166" s="18"/>
+      <c r="NN166" s="18"/>
+      <c r="NO166" s="15"/>
+      <c r="NP166" s="15"/>
+      <c r="NQ166" s="15"/>
+      <c r="NR166" s="18"/>
+      <c r="NS166" s="18"/>
+      <c r="NT166" s="18"/>
+      <c r="NU166" s="18"/>
+      <c r="NV166" s="18"/>
+      <c r="NW166" s="73"/>
+      <c r="OC166" s="11"/>
     </row>
-    <row r="167" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="167" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E167">
         <v>23</v>
       </c>
@@ -51054,8 +54876,39 @@
       <c r="MD167" s="18"/>
       <c r="ME167" s="73"/>
       <c r="MK167" s="11"/>
+      <c r="MP167">
+        <v>23</v>
+      </c>
+      <c r="MQ167" s="73"/>
+      <c r="MX167" s="73"/>
+      <c r="MY167" s="18"/>
+      <c r="MZ167" s="18"/>
+      <c r="NA167" s="18"/>
+      <c r="NB167" s="18"/>
+      <c r="NC167" s="18"/>
+      <c r="ND167" s="18"/>
+      <c r="NE167" s="18"/>
+      <c r="NF167" s="18"/>
+      <c r="NG167" s="18"/>
+      <c r="NH167" s="18"/>
+      <c r="NI167" s="18"/>
+      <c r="NJ167" s="18"/>
+      <c r="NK167" s="18"/>
+      <c r="NL167" s="18"/>
+      <c r="NM167" s="18"/>
+      <c r="NN167" s="18"/>
+      <c r="NO167" s="15"/>
+      <c r="NP167" s="15"/>
+      <c r="NQ167" s="15"/>
+      <c r="NR167" s="18"/>
+      <c r="NS167" s="18"/>
+      <c r="NT167" s="18"/>
+      <c r="NU167" s="18"/>
+      <c r="NV167" s="18"/>
+      <c r="NW167" s="73"/>
+      <c r="OC167" s="11"/>
     </row>
-    <row r="168" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="168" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E168">
         <v>22</v>
       </c>
@@ -51280,8 +55133,39 @@
       <c r="MD168" s="18"/>
       <c r="ME168" s="73"/>
       <c r="MK168" s="11"/>
+      <c r="MP168">
+        <v>22</v>
+      </c>
+      <c r="MQ168" s="73"/>
+      <c r="MX168" s="73"/>
+      <c r="MY168" s="18"/>
+      <c r="MZ168" s="18"/>
+      <c r="NA168" s="18"/>
+      <c r="NB168" s="18"/>
+      <c r="NC168" s="18"/>
+      <c r="ND168" s="18"/>
+      <c r="NE168" s="18"/>
+      <c r="NF168" s="18"/>
+      <c r="NG168" s="18"/>
+      <c r="NH168" s="3"/>
+      <c r="NI168" s="18"/>
+      <c r="NJ168" s="18"/>
+      <c r="NK168" s="18"/>
+      <c r="NL168" s="18"/>
+      <c r="NM168" s="18"/>
+      <c r="NN168" s="18"/>
+      <c r="NO168" s="15"/>
+      <c r="NP168" s="15"/>
+      <c r="NQ168" s="15"/>
+      <c r="NR168" s="18"/>
+      <c r="NS168" s="18"/>
+      <c r="NT168" s="18"/>
+      <c r="NU168" s="18"/>
+      <c r="NV168" s="18"/>
+      <c r="NW168" s="73"/>
+      <c r="OC168" s="11"/>
     </row>
-    <row r="169" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="169" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E169">
         <v>21</v>
       </c>
@@ -51507,8 +55391,39 @@
       <c r="MD169" s="18"/>
       <c r="ME169" s="73"/>
       <c r="MK169" s="11"/>
+      <c r="MP169">
+        <v>21</v>
+      </c>
+      <c r="MQ169" s="73"/>
+      <c r="MX169" s="73"/>
+      <c r="MY169" s="18"/>
+      <c r="MZ169" s="18"/>
+      <c r="NA169" s="18"/>
+      <c r="NB169" s="18"/>
+      <c r="NC169" s="18"/>
+      <c r="ND169" s="18"/>
+      <c r="NE169" s="18"/>
+      <c r="NF169" s="18"/>
+      <c r="NG169" s="18"/>
+      <c r="NH169" s="18"/>
+      <c r="NI169" s="18"/>
+      <c r="NJ169" s="18"/>
+      <c r="NK169" s="18"/>
+      <c r="NL169" s="18"/>
+      <c r="NM169" s="18"/>
+      <c r="NN169" s="18"/>
+      <c r="NO169" s="18"/>
+      <c r="NP169" s="18"/>
+      <c r="NQ169" s="18"/>
+      <c r="NR169" s="18"/>
+      <c r="NS169" s="18"/>
+      <c r="NT169" s="18"/>
+      <c r="NU169" s="18"/>
+      <c r="NV169" s="18"/>
+      <c r="NW169" s="73"/>
+      <c r="OC169" s="11"/>
     </row>
-    <row r="170" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="170" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E170" s="113">
         <v>20</v>
       </c>
@@ -52462,8 +56377,126 @@
         <v>20</v>
       </c>
       <c r="MK170" s="11"/>
+      <c r="MP170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MQ170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MR170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MS170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MT170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MU170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MV170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MW170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MX170" s="113">
+        <v>20</v>
+      </c>
+      <c r="MY170" s="18">
+        <v>20</v>
+      </c>
+      <c r="MZ170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NA170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NB170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NC170" s="18">
+        <v>20</v>
+      </c>
+      <c r="ND170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NE170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NF170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NG170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NH170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NI170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NJ170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NK170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NL170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NM170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NN170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NO170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NP170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NQ170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NR170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NS170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NT170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NU170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NV170" s="18">
+        <v>20</v>
+      </c>
+      <c r="NW170" s="113">
+        <v>20</v>
+      </c>
+      <c r="NX170" s="113">
+        <v>20</v>
+      </c>
+      <c r="NY170" s="113">
+        <v>20</v>
+      </c>
+      <c r="NZ170" s="113">
+        <v>20</v>
+      </c>
+      <c r="OA170" s="113">
+        <v>20</v>
+      </c>
+      <c r="OB170" s="113">
+        <v>20</v>
+      </c>
+      <c r="OC170" s="11"/>
     </row>
-    <row r="171" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="171" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E171">
         <v>19</v>
       </c>
@@ -52688,8 +56721,39 @@
       <c r="MD171" s="15"/>
       <c r="ME171" s="73"/>
       <c r="MK171" s="11"/>
+      <c r="MP171">
+        <v>19</v>
+      </c>
+      <c r="MQ171" s="73"/>
+      <c r="MX171" s="73"/>
+      <c r="MY171" s="18"/>
+      <c r="MZ171" s="18"/>
+      <c r="NA171" s="18"/>
+      <c r="NB171" s="18"/>
+      <c r="NC171" s="18"/>
+      <c r="ND171" s="18"/>
+      <c r="NE171" s="18"/>
+      <c r="NF171" s="18"/>
+      <c r="NG171" s="18"/>
+      <c r="NH171" s="18"/>
+      <c r="NI171" s="18"/>
+      <c r="NJ171" s="18"/>
+      <c r="NK171" s="18"/>
+      <c r="NL171" s="18"/>
+      <c r="NM171" s="18"/>
+      <c r="NN171" s="18"/>
+      <c r="NO171" s="18"/>
+      <c r="NP171" s="18"/>
+      <c r="NQ171" s="18"/>
+      <c r="NR171" s="18"/>
+      <c r="NS171" s="18"/>
+      <c r="NT171" s="18"/>
+      <c r="NU171" s="18"/>
+      <c r="NV171" s="18"/>
+      <c r="NW171" s="73"/>
+      <c r="OC171" s="11"/>
     </row>
-    <row r="172" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="172" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E172">
         <v>18</v>
       </c>
@@ -52914,8 +56978,39 @@
       <c r="MD172" s="15"/>
       <c r="ME172" s="73"/>
       <c r="MK172" s="11"/>
+      <c r="MP172">
+        <v>18</v>
+      </c>
+      <c r="MQ172" s="73"/>
+      <c r="MX172" s="73"/>
+      <c r="MY172" s="18"/>
+      <c r="MZ172" s="18"/>
+      <c r="NA172" s="18"/>
+      <c r="NB172" s="18"/>
+      <c r="NC172" s="18"/>
+      <c r="ND172" s="18"/>
+      <c r="NE172" s="18"/>
+      <c r="NF172" s="18"/>
+      <c r="NG172" s="18"/>
+      <c r="NH172" s="18"/>
+      <c r="NI172" s="18"/>
+      <c r="NJ172" s="18"/>
+      <c r="NK172" s="18"/>
+      <c r="NL172" s="18"/>
+      <c r="NM172" s="18"/>
+      <c r="NN172" s="3"/>
+      <c r="NO172" s="18"/>
+      <c r="NP172" s="18"/>
+      <c r="NQ172" s="18"/>
+      <c r="NR172" s="18"/>
+      <c r="NS172" s="18"/>
+      <c r="NT172" s="18"/>
+      <c r="NU172" s="18"/>
+      <c r="NV172" s="18"/>
+      <c r="NW172" s="73"/>
+      <c r="OC172" s="11"/>
     </row>
-    <row r="173" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="173" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E173">
         <v>17</v>
       </c>
@@ -53141,8 +57236,39 @@
       <c r="MD173" s="15"/>
       <c r="ME173" s="73"/>
       <c r="MK173" s="11"/>
+      <c r="MP173">
+        <v>17</v>
+      </c>
+      <c r="MQ173" s="73"/>
+      <c r="MX173" s="73"/>
+      <c r="MY173" s="18"/>
+      <c r="MZ173" s="15"/>
+      <c r="NA173" s="15"/>
+      <c r="NB173" s="18"/>
+      <c r="NC173" s="18"/>
+      <c r="ND173" s="18"/>
+      <c r="NE173" s="3"/>
+      <c r="NF173" s="18"/>
+      <c r="NG173" s="18"/>
+      <c r="NH173" s="18"/>
+      <c r="NI173" s="18"/>
+      <c r="NJ173" s="18"/>
+      <c r="NK173" s="18"/>
+      <c r="NL173" s="18"/>
+      <c r="NM173" s="18"/>
+      <c r="NN173" s="18"/>
+      <c r="NO173" s="18"/>
+      <c r="NP173" s="18"/>
+      <c r="NQ173" s="18"/>
+      <c r="NR173" s="18"/>
+      <c r="NS173" s="18"/>
+      <c r="NT173" s="18"/>
+      <c r="NU173" s="18"/>
+      <c r="NV173" s="18"/>
+      <c r="NW173" s="73"/>
+      <c r="OC173" s="11"/>
     </row>
-    <row r="174" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="174" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E174">
         <v>16</v>
       </c>
@@ -53368,8 +57494,39 @@
       <c r="MD174" s="15"/>
       <c r="ME174" s="73"/>
       <c r="MK174" s="11"/>
+      <c r="MP174">
+        <v>16</v>
+      </c>
+      <c r="MQ174" s="73"/>
+      <c r="MX174" s="73"/>
+      <c r="MY174" s="18"/>
+      <c r="MZ174" s="15"/>
+      <c r="NA174" s="15"/>
+      <c r="NB174" s="18"/>
+      <c r="NC174" s="18"/>
+      <c r="ND174" s="18"/>
+      <c r="NE174" s="18"/>
+      <c r="NF174" s="18"/>
+      <c r="NG174" s="18"/>
+      <c r="NH174" s="18"/>
+      <c r="NI174" s="18"/>
+      <c r="NJ174" s="18"/>
+      <c r="NK174" s="18"/>
+      <c r="NL174" s="18"/>
+      <c r="NM174" s="18"/>
+      <c r="NN174" s="18"/>
+      <c r="NO174" s="18"/>
+      <c r="NP174" s="18"/>
+      <c r="NQ174" s="18"/>
+      <c r="NR174" s="18"/>
+      <c r="NS174" s="18"/>
+      <c r="NT174" s="18"/>
+      <c r="NU174" s="18"/>
+      <c r="NV174" s="18"/>
+      <c r="NW174" s="73"/>
+      <c r="OC174" s="11"/>
     </row>
-    <row r="175" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="175" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E175">
         <v>15</v>
       </c>
@@ -53594,8 +57751,39 @@
       <c r="MD175" s="15"/>
       <c r="ME175" s="73"/>
       <c r="MK175" s="11"/>
+      <c r="MP175">
+        <v>15</v>
+      </c>
+      <c r="MQ175" s="73"/>
+      <c r="MX175" s="73"/>
+      <c r="MY175" s="18"/>
+      <c r="MZ175" s="15"/>
+      <c r="NA175" s="15"/>
+      <c r="NB175" s="18"/>
+      <c r="NC175" s="18"/>
+      <c r="ND175" s="18"/>
+      <c r="NE175" s="18"/>
+      <c r="NF175" s="18"/>
+      <c r="NG175" s="3"/>
+      <c r="NH175" s="18"/>
+      <c r="NI175" s="18"/>
+      <c r="NJ175" s="18"/>
+      <c r="NK175" s="18"/>
+      <c r="NL175" s="18"/>
+      <c r="NM175" s="15"/>
+      <c r="NN175" s="15"/>
+      <c r="NO175" s="18"/>
+      <c r="NP175" s="18"/>
+      <c r="NQ175" s="18"/>
+      <c r="NR175" s="18"/>
+      <c r="NS175" s="18"/>
+      <c r="NT175" s="18"/>
+      <c r="NU175" s="18"/>
+      <c r="NV175" s="18"/>
+      <c r="NW175" s="73"/>
+      <c r="OC175" s="11"/>
     </row>
-    <row r="176" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="176" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E176">
         <v>14</v>
       </c>
@@ -53805,7 +57993,7 @@
       <c r="LO176" s="18"/>
       <c r="LP176" s="18"/>
       <c r="LQ176" s="18"/>
-      <c r="LR176" s="15"/>
+      <c r="LR176" s="18"/>
       <c r="LS176" s="18"/>
       <c r="LT176" s="18"/>
       <c r="LU176" s="18"/>
@@ -53820,8 +58008,39 @@
       <c r="MD176" s="18"/>
       <c r="ME176" s="73"/>
       <c r="MK176" s="11"/>
+      <c r="MP176">
+        <v>14</v>
+      </c>
+      <c r="MQ176" s="73"/>
+      <c r="MX176" s="73"/>
+      <c r="MY176" s="18"/>
+      <c r="MZ176" s="15"/>
+      <c r="NA176" s="15"/>
+      <c r="NB176" s="18"/>
+      <c r="NC176" s="18"/>
+      <c r="ND176" s="18"/>
+      <c r="NE176" s="18"/>
+      <c r="NF176" s="18"/>
+      <c r="NG176" s="18"/>
+      <c r="NH176" s="18"/>
+      <c r="NI176" s="18"/>
+      <c r="NJ176" s="18"/>
+      <c r="NK176" s="18"/>
+      <c r="NL176" s="18"/>
+      <c r="NM176" s="15"/>
+      <c r="NN176" s="15"/>
+      <c r="NO176" s="18"/>
+      <c r="NP176" s="18"/>
+      <c r="NQ176" s="18"/>
+      <c r="NR176" s="18"/>
+      <c r="NS176" s="18"/>
+      <c r="NT176" s="18"/>
+      <c r="NU176" s="18"/>
+      <c r="NV176" s="18"/>
+      <c r="NW176" s="73"/>
+      <c r="OC176" s="11"/>
     </row>
-    <row r="177" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="177" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E177">
         <v>13</v>
       </c>
@@ -54031,7 +58250,7 @@
       <c r="LO177" s="18"/>
       <c r="LP177" s="18"/>
       <c r="LQ177" s="18"/>
-      <c r="LR177" s="15"/>
+      <c r="LR177" s="18"/>
       <c r="LS177" s="18"/>
       <c r="LT177" s="18"/>
       <c r="LU177" s="18"/>
@@ -54046,8 +58265,39 @@
       <c r="MD177" s="18"/>
       <c r="ME177" s="73"/>
       <c r="MK177" s="11"/>
+      <c r="MP177">
+        <v>13</v>
+      </c>
+      <c r="MQ177" s="73"/>
+      <c r="MX177" s="73"/>
+      <c r="MY177" s="18"/>
+      <c r="MZ177" s="18"/>
+      <c r="NA177" s="18"/>
+      <c r="NB177" s="18"/>
+      <c r="NC177" s="18"/>
+      <c r="ND177" s="18"/>
+      <c r="NE177" s="18"/>
+      <c r="NF177" s="18"/>
+      <c r="NG177" s="18"/>
+      <c r="NH177" s="18"/>
+      <c r="NI177" s="18"/>
+      <c r="NJ177" s="18"/>
+      <c r="NK177" s="18"/>
+      <c r="NL177" s="18"/>
+      <c r="NM177" s="15"/>
+      <c r="NN177" s="15"/>
+      <c r="NO177" s="18"/>
+      <c r="NP177" s="18"/>
+      <c r="NQ177" s="18"/>
+      <c r="NR177" s="18"/>
+      <c r="NS177" s="18"/>
+      <c r="NT177" s="18"/>
+      <c r="NU177" s="18"/>
+      <c r="NV177" s="18"/>
+      <c r="NW177" s="73"/>
+      <c r="OC177" s="11"/>
     </row>
-    <row r="178" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="178" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E178">
         <v>12</v>
       </c>
@@ -54273,8 +58523,39 @@
       <c r="MD178" s="18"/>
       <c r="ME178" s="73"/>
       <c r="MK178" s="11"/>
+      <c r="MP178">
+        <v>12</v>
+      </c>
+      <c r="MQ178" s="73"/>
+      <c r="MX178" s="73"/>
+      <c r="MY178" s="18"/>
+      <c r="MZ178" s="18"/>
+      <c r="NA178" s="18"/>
+      <c r="NB178" s="18"/>
+      <c r="NC178" s="18"/>
+      <c r="ND178" s="18"/>
+      <c r="NE178" s="18"/>
+      <c r="NF178" s="18"/>
+      <c r="NG178" s="18"/>
+      <c r="NH178" s="3"/>
+      <c r="NI178" s="18"/>
+      <c r="NJ178" s="18"/>
+      <c r="NK178" s="18"/>
+      <c r="NL178" s="18"/>
+      <c r="NM178" s="15"/>
+      <c r="NN178" s="15"/>
+      <c r="NO178" s="18"/>
+      <c r="NP178" s="18"/>
+      <c r="NQ178" s="18"/>
+      <c r="NR178" s="18"/>
+      <c r="NS178" s="18"/>
+      <c r="NT178" s="18"/>
+      <c r="NU178" s="18"/>
+      <c r="NV178" s="18"/>
+      <c r="NW178" s="73"/>
+      <c r="OC178" s="11"/>
     </row>
-    <row r="179" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="179" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E179">
         <v>11</v>
       </c>
@@ -54501,8 +58782,39 @@
       <c r="MD179" s="18"/>
       <c r="ME179" s="73"/>
       <c r="MK179" s="11"/>
+      <c r="MP179">
+        <v>11</v>
+      </c>
+      <c r="MQ179" s="73"/>
+      <c r="MX179" s="73"/>
+      <c r="MY179" s="18"/>
+      <c r="MZ179" s="18"/>
+      <c r="NA179" s="18"/>
+      <c r="NB179" s="18"/>
+      <c r="NC179" s="18"/>
+      <c r="ND179" s="18"/>
+      <c r="NE179" s="18"/>
+      <c r="NF179" s="18"/>
+      <c r="NG179" s="18"/>
+      <c r="NH179" s="18"/>
+      <c r="NI179" s="18"/>
+      <c r="NJ179" s="18"/>
+      <c r="NK179" s="18"/>
+      <c r="NL179" s="18"/>
+      <c r="NM179" s="18"/>
+      <c r="NN179" s="18"/>
+      <c r="NO179" s="18"/>
+      <c r="NP179" s="18"/>
+      <c r="NQ179" s="18"/>
+      <c r="NR179" s="18"/>
+      <c r="NS179" s="18"/>
+      <c r="NT179" s="18"/>
+      <c r="NU179" s="18"/>
+      <c r="NV179" s="18"/>
+      <c r="NW179" s="73"/>
+      <c r="OC179" s="11"/>
     </row>
-    <row r="180" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="180" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E180" s="113">
         <v>10</v>
       </c>
@@ -55420,8 +59732,126 @@
         <v>10</v>
       </c>
       <c r="MK180" s="11"/>
+      <c r="MP180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MQ180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MR180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MS180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MT180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MU180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MV180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MW180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MX180" s="113">
+        <v>10</v>
+      </c>
+      <c r="MY180" s="18">
+        <v>10</v>
+      </c>
+      <c r="MZ180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NA180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NB180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NC180" s="18">
+        <v>10</v>
+      </c>
+      <c r="ND180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NE180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NF180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NG180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NH180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NI180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NJ180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NK180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NL180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NM180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NN180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NO180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NP180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NQ180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NR180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NS180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NT180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NU180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NV180" s="18">
+        <v>10</v>
+      </c>
+      <c r="NW180" s="113">
+        <v>10</v>
+      </c>
+      <c r="NX180" s="113">
+        <v>10</v>
+      </c>
+      <c r="NY180" s="113">
+        <v>10</v>
+      </c>
+      <c r="NZ180" s="113">
+        <v>10</v>
+      </c>
+      <c r="OA180" s="113">
+        <v>10</v>
+      </c>
+      <c r="OB180" s="113">
+        <v>10</v>
+      </c>
+      <c r="OC180" s="11"/>
     </row>
-    <row r="181" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E181">
         <v>9</v>
       </c>
@@ -55646,8 +60076,39 @@
       <c r="MD181" s="18"/>
       <c r="ME181" s="73"/>
       <c r="MK181" s="11"/>
+      <c r="MP181">
+        <v>9</v>
+      </c>
+      <c r="MQ181" s="73"/>
+      <c r="MX181" s="73"/>
+      <c r="MY181" s="18"/>
+      <c r="MZ181" s="18"/>
+      <c r="NA181" s="18"/>
+      <c r="NB181" s="18"/>
+      <c r="NC181" s="18"/>
+      <c r="ND181" s="18"/>
+      <c r="NE181" s="18"/>
+      <c r="NF181" s="18"/>
+      <c r="NG181" s="18"/>
+      <c r="NH181" s="18"/>
+      <c r="NI181" s="18"/>
+      <c r="NJ181" s="18"/>
+      <c r="NK181" s="18"/>
+      <c r="NL181" s="18"/>
+      <c r="NM181" s="18"/>
+      <c r="NN181" s="18"/>
+      <c r="NO181" s="18"/>
+      <c r="NP181" s="18"/>
+      <c r="NQ181" s="18"/>
+      <c r="NR181" s="18"/>
+      <c r="NS181" s="18"/>
+      <c r="NT181" s="18"/>
+      <c r="NU181" s="18"/>
+      <c r="NV181" s="18"/>
+      <c r="NW181" s="73"/>
+      <c r="OC181" s="11"/>
     </row>
-    <row r="182" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E182">
         <v>8</v>
       </c>
@@ -55873,8 +60334,39 @@
       <c r="MD182" s="18"/>
       <c r="ME182" s="73"/>
       <c r="MK182" s="11"/>
+      <c r="MP182">
+        <v>8</v>
+      </c>
+      <c r="MQ182" s="73"/>
+      <c r="MX182" s="73"/>
+      <c r="MY182" s="18"/>
+      <c r="MZ182" s="18"/>
+      <c r="NA182" s="18"/>
+      <c r="NB182" s="18"/>
+      <c r="NC182" s="18"/>
+      <c r="ND182" s="18"/>
+      <c r="NE182" s="18"/>
+      <c r="NF182" s="18"/>
+      <c r="NG182" s="18"/>
+      <c r="NH182" s="18"/>
+      <c r="NI182" s="3"/>
+      <c r="NJ182" s="18"/>
+      <c r="NK182" s="18"/>
+      <c r="NL182" s="18"/>
+      <c r="NM182" s="18"/>
+      <c r="NN182" s="18"/>
+      <c r="NO182" s="18"/>
+      <c r="NP182" s="18"/>
+      <c r="NQ182" s="18"/>
+      <c r="NR182" s="18"/>
+      <c r="NS182" s="18"/>
+      <c r="NT182" s="18"/>
+      <c r="NU182" s="18"/>
+      <c r="NV182" s="18"/>
+      <c r="NW182" s="73"/>
+      <c r="OC182" s="11"/>
     </row>
-    <row r="183" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E183">
         <v>7</v>
       </c>
@@ -56100,8 +60592,39 @@
       <c r="MD183" s="18"/>
       <c r="ME183" s="73"/>
       <c r="MK183" s="11"/>
+      <c r="MP183">
+        <v>7</v>
+      </c>
+      <c r="MQ183" s="73"/>
+      <c r="MX183" s="73"/>
+      <c r="MY183" s="18"/>
+      <c r="MZ183" s="18"/>
+      <c r="NA183" s="18"/>
+      <c r="NB183" s="18"/>
+      <c r="NC183" s="18"/>
+      <c r="ND183" s="18"/>
+      <c r="NE183" s="18"/>
+      <c r="NF183" s="18"/>
+      <c r="NG183" s="18"/>
+      <c r="NH183" s="18"/>
+      <c r="NI183" s="18"/>
+      <c r="NJ183" s="18"/>
+      <c r="NK183" s="18"/>
+      <c r="NL183" s="18"/>
+      <c r="NM183" s="18"/>
+      <c r="NN183" s="18"/>
+      <c r="NO183" s="18"/>
+      <c r="NP183" s="18"/>
+      <c r="NQ183" s="18"/>
+      <c r="NR183" s="18"/>
+      <c r="NS183" s="18"/>
+      <c r="NT183" s="18"/>
+      <c r="NU183" s="18"/>
+      <c r="NV183" s="18"/>
+      <c r="NW183" s="73"/>
+      <c r="OC183" s="11"/>
     </row>
-    <row r="184" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E184">
         <v>6</v>
       </c>
@@ -56329,8 +60852,39 @@
       <c r="MD184" s="18"/>
       <c r="ME184" s="73"/>
       <c r="MK184" s="11"/>
+      <c r="MP184">
+        <v>6</v>
+      </c>
+      <c r="MQ184" s="73"/>
+      <c r="MX184" s="73"/>
+      <c r="MY184" s="18"/>
+      <c r="MZ184" s="18"/>
+      <c r="NA184" s="18"/>
+      <c r="NB184" s="18"/>
+      <c r="NC184" s="18"/>
+      <c r="ND184" s="18"/>
+      <c r="NE184" s="18"/>
+      <c r="NF184" s="18"/>
+      <c r="NG184" s="18"/>
+      <c r="NH184" s="18"/>
+      <c r="NI184" s="18"/>
+      <c r="NJ184" s="18"/>
+      <c r="NK184" s="18"/>
+      <c r="NL184" s="18"/>
+      <c r="NM184" s="18"/>
+      <c r="NN184" s="18"/>
+      <c r="NO184" s="18"/>
+      <c r="NP184" s="18"/>
+      <c r="NQ184" s="18"/>
+      <c r="NR184" s="18"/>
+      <c r="NS184" s="18"/>
+      <c r="NT184" s="18"/>
+      <c r="NU184" s="18"/>
+      <c r="NV184" s="18"/>
+      <c r="NW184" s="73"/>
+      <c r="OC184" s="11"/>
     </row>
-    <row r="185" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E185">
         <v>5</v>
       </c>
@@ -56555,8 +61109,39 @@
       <c r="MD185" s="15"/>
       <c r="ME185" s="73"/>
       <c r="MK185" s="11"/>
+      <c r="MP185">
+        <v>5</v>
+      </c>
+      <c r="MQ185" s="73"/>
+      <c r="MX185" s="73"/>
+      <c r="MY185" s="18"/>
+      <c r="MZ185" s="18"/>
+      <c r="NA185" s="18"/>
+      <c r="NB185" s="18"/>
+      <c r="NC185" s="18"/>
+      <c r="ND185" s="18"/>
+      <c r="NE185" s="18"/>
+      <c r="NF185" s="3"/>
+      <c r="NG185" s="18"/>
+      <c r="NH185" s="18"/>
+      <c r="NI185" s="18"/>
+      <c r="NJ185" s="18"/>
+      <c r="NK185" s="18"/>
+      <c r="NL185" s="18"/>
+      <c r="NM185" s="18"/>
+      <c r="NN185" s="18"/>
+      <c r="NO185" s="18"/>
+      <c r="NP185" s="18"/>
+      <c r="NQ185" s="18"/>
+      <c r="NR185" s="18"/>
+      <c r="NS185" s="18"/>
+      <c r="NT185" s="18"/>
+      <c r="NU185" s="18"/>
+      <c r="NV185" s="18"/>
+      <c r="NW185" s="73"/>
+      <c r="OC185" s="11"/>
     </row>
-    <row r="186" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E186">
         <v>4</v>
       </c>
@@ -56691,8 +61276,39 @@
       <c r="MD186" s="15"/>
       <c r="ME186" s="73"/>
       <c r="MK186" s="11"/>
+      <c r="MP186">
+        <v>4</v>
+      </c>
+      <c r="MQ186" s="73"/>
+      <c r="MX186" s="73"/>
+      <c r="MY186" s="18"/>
+      <c r="MZ186" s="18"/>
+      <c r="NA186" s="18"/>
+      <c r="NB186" s="18"/>
+      <c r="NC186" s="18"/>
+      <c r="ND186" s="18"/>
+      <c r="NE186" s="18"/>
+      <c r="NF186" s="18"/>
+      <c r="NG186" s="18"/>
+      <c r="NH186" s="18"/>
+      <c r="NI186" s="18"/>
+      <c r="NJ186" s="18"/>
+      <c r="NK186" s="3"/>
+      <c r="NL186" s="18"/>
+      <c r="NM186" s="18"/>
+      <c r="NN186" s="18"/>
+      <c r="NO186" s="18"/>
+      <c r="NP186" s="18"/>
+      <c r="NQ186" s="18"/>
+      <c r="NR186" s="3"/>
+      <c r="NS186" s="18"/>
+      <c r="NT186" s="18"/>
+      <c r="NU186" s="18"/>
+      <c r="NV186" s="18"/>
+      <c r="NW186" s="73"/>
+      <c r="OC186" s="11"/>
     </row>
-    <row r="187" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="187" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E187">
         <v>3</v>
       </c>
@@ -56825,8 +61441,39 @@
       <c r="MD187" s="15"/>
       <c r="ME187" s="73"/>
       <c r="MK187" s="11"/>
+      <c r="MP187">
+        <v>3</v>
+      </c>
+      <c r="MQ187" s="73"/>
+      <c r="MX187" s="73"/>
+      <c r="MY187" s="15"/>
+      <c r="MZ187" s="15"/>
+      <c r="NA187" s="15"/>
+      <c r="NB187" s="18"/>
+      <c r="NC187" s="18"/>
+      <c r="ND187" s="18"/>
+      <c r="NE187" s="18"/>
+      <c r="NF187" s="18"/>
+      <c r="NG187" s="18"/>
+      <c r="NH187" s="18"/>
+      <c r="NI187" s="18"/>
+      <c r="NJ187" s="18"/>
+      <c r="NK187" s="18"/>
+      <c r="NL187" s="18"/>
+      <c r="NM187" s="18"/>
+      <c r="NN187" s="18"/>
+      <c r="NO187" s="18"/>
+      <c r="NP187" s="18"/>
+      <c r="NQ187" s="18"/>
+      <c r="NR187" s="18"/>
+      <c r="NS187" s="18"/>
+      <c r="NT187" s="18"/>
+      <c r="NU187" s="18"/>
+      <c r="NV187" s="18"/>
+      <c r="NW187" s="73"/>
+      <c r="OC187" s="11"/>
     </row>
-    <row r="188" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="188" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E188">
         <v>2</v>
       </c>
@@ -56899,8 +61546,39 @@
       <c r="MD188" s="15"/>
       <c r="ME188" s="73"/>
       <c r="MK188" s="11"/>
+      <c r="MP188">
+        <v>2</v>
+      </c>
+      <c r="MQ188" s="73"/>
+      <c r="MX188" s="73"/>
+      <c r="MY188" s="15"/>
+      <c r="MZ188" s="15"/>
+      <c r="NA188" s="15"/>
+      <c r="NB188" s="18"/>
+      <c r="NC188" s="18"/>
+      <c r="ND188" s="18"/>
+      <c r="NE188" s="18"/>
+      <c r="NF188" s="18"/>
+      <c r="NG188" s="18"/>
+      <c r="NH188" s="18"/>
+      <c r="NI188" s="18"/>
+      <c r="NJ188" s="18"/>
+      <c r="NK188" s="18"/>
+      <c r="NL188" s="18"/>
+      <c r="NM188" s="18"/>
+      <c r="NN188" s="18"/>
+      <c r="NO188" s="18"/>
+      <c r="NP188" s="18"/>
+      <c r="NQ188" s="15"/>
+      <c r="NR188" s="15"/>
+      <c r="NS188" s="15"/>
+      <c r="NT188" s="18"/>
+      <c r="NU188" s="18"/>
+      <c r="NV188" s="18"/>
+      <c r="NW188" s="73"/>
+      <c r="OC188" s="11"/>
     </row>
-    <row r="189" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="189" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E189">
         <v>1</v>
       </c>
@@ -56972,8 +61650,39 @@
       <c r="MD189" s="15"/>
       <c r="ME189" s="11"/>
       <c r="MK189" s="11"/>
+      <c r="MP189">
+        <v>1</v>
+      </c>
+      <c r="MQ189" s="73"/>
+      <c r="MX189" s="11"/>
+      <c r="MY189" s="15"/>
+      <c r="MZ189" s="15"/>
+      <c r="NA189" s="15"/>
+      <c r="NB189" s="18"/>
+      <c r="NC189" s="18"/>
+      <c r="ND189" s="18"/>
+      <c r="NE189" s="18"/>
+      <c r="NF189" s="18"/>
+      <c r="NG189" s="18"/>
+      <c r="NH189" s="18"/>
+      <c r="NI189" s="18"/>
+      <c r="NJ189" s="18"/>
+      <c r="NK189" s="18"/>
+      <c r="NL189" s="18"/>
+      <c r="NM189" s="18"/>
+      <c r="NN189" s="18"/>
+      <c r="NO189" s="18"/>
+      <c r="NP189" s="18"/>
+      <c r="NQ189" s="15"/>
+      <c r="NR189" s="15"/>
+      <c r="NS189" s="15"/>
+      <c r="NT189" s="18"/>
+      <c r="NU189" s="18"/>
+      <c r="NV189" s="18"/>
+      <c r="NW189" s="11"/>
+      <c r="OC189" s="11"/>
     </row>
-    <row r="190" spans="5:349" x14ac:dyDescent="0.45">
+    <row r="190" spans="5:393" x14ac:dyDescent="0.45">
       <c r="E190">
         <v>0</v>
       </c>
@@ -57313,6 +62022,48 @@
       <c r="MI190" s="73"/>
       <c r="MJ190" s="73"/>
       <c r="MK190" s="11"/>
+      <c r="MP190">
+        <v>0</v>
+      </c>
+      <c r="MQ190" s="11"/>
+      <c r="MR190" s="73"/>
+      <c r="MS190" s="73"/>
+      <c r="MT190" s="73"/>
+      <c r="MU190" s="73"/>
+      <c r="MV190" s="73"/>
+      <c r="MW190" s="73"/>
+      <c r="MX190" s="73"/>
+      <c r="MY190" s="73"/>
+      <c r="MZ190" s="73"/>
+      <c r="NA190" s="73"/>
+      <c r="NB190" s="73"/>
+      <c r="NC190" s="73"/>
+      <c r="ND190" s="73"/>
+      <c r="NE190" s="73"/>
+      <c r="NF190" s="73"/>
+      <c r="NG190" s="73"/>
+      <c r="NH190" s="73"/>
+      <c r="NI190" s="73"/>
+      <c r="NJ190" s="73"/>
+      <c r="NK190" s="73"/>
+      <c r="NL190" s="73"/>
+      <c r="NM190" s="73"/>
+      <c r="NN190" s="73"/>
+      <c r="NO190" s="73"/>
+      <c r="NP190" s="73"/>
+      <c r="NQ190" s="73"/>
+      <c r="NR190" s="73"/>
+      <c r="NS190" s="73"/>
+      <c r="NT190" s="73"/>
+      <c r="NU190" s="73"/>
+      <c r="NV190" s="73"/>
+      <c r="NW190" s="73"/>
+      <c r="NX190" s="73"/>
+      <c r="NY190" s="73"/>
+      <c r="NZ190" s="73"/>
+      <c r="OA190" s="73"/>
+      <c r="OB190" s="73"/>
+      <c r="OC190" s="11"/>
     </row>
     <row r="194" spans="3:4" s="91" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C194" s="120" t="s">

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0BAFA-6132-424A-A38E-C659EA546E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C04617-33A6-47C7-9D7E-C927F1FFB10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="11424" yWindow="480" windowWidth="17280" windowHeight="10776" firstSheet="5" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -2193,7 +2193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2335,6 +2335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2522,7 +2528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2931,6 +2937,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2939,6 +2948,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFE85E20"/>
       <color rgb="FF863EC2"/>
     </mruColors>
@@ -21453,16 +21463,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>331</xdr:col>
-      <xdr:colOff>11968</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>108471</xdr:rowOff>
+      <xdr:col>328</xdr:col>
+      <xdr:colOff>251272</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>102755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>334</xdr:col>
-      <xdr:colOff>88075</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>34526</xdr:rowOff>
+      <xdr:col>332</xdr:col>
+      <xdr:colOff>39214</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21476,13 +21486,19 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19466915">
-          <a:off x="92989823" y="15736398"/>
-          <a:ext cx="907379" cy="16177437"/>
+        <a:xfrm rot="19406060">
+          <a:off x="91508392" y="15769475"/>
+          <a:ext cx="885222" cy="17453892"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21772,6 +21788,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>328</xdr:col>
+      <xdr:colOff>121922</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>331</xdr:col>
+      <xdr:colOff>184184</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>232693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="正方形/長方形 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484F25A3-588A-4FEB-8386-19D45BF959E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2417053">
+          <a:off x="91379042" y="15758161"/>
+          <a:ext cx="885222" cy="17453892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26108,8 +26190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
   <dimension ref="C1:OC194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="LI150" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="NL181" sqref="NL181"/>
+    <sheetView tabSelected="1" topLeftCell="O117" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="KH155" sqref="KH155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -46406,7 +46488,7 @@
       </c>
       <c r="CP141" s="11"/>
       <c r="CW141" s="11"/>
-      <c r="CX141" s="3"/>
+      <c r="CX141" s="18"/>
       <c r="DV141" s="11"/>
       <c r="EC141" s="11"/>
       <c r="EH141">
@@ -46760,7 +46842,7 @@
       <c r="NO142" s="18"/>
       <c r="NP142" s="18"/>
       <c r="NQ142" s="18"/>
-      <c r="NR142" s="18"/>
+      <c r="NR142" s="136"/>
       <c r="NS142" s="18"/>
       <c r="NT142" s="18"/>
       <c r="NU142" s="18"/>
@@ -46787,7 +46869,7 @@
       <c r="BI143" s="18"/>
       <c r="BJ143" s="18"/>
       <c r="BK143" s="18"/>
-      <c r="BL143" s="18"/>
+      <c r="BL143" s="136"/>
       <c r="BM143" s="18"/>
       <c r="BN143" s="18"/>
       <c r="BO143" s="18"/>
@@ -46848,7 +46930,7 @@
       <c r="ES143" s="18"/>
       <c r="ET143" s="18"/>
       <c r="EU143" s="18"/>
-      <c r="EV143" s="18"/>
+      <c r="EV143" s="136"/>
       <c r="EW143" s="18"/>
       <c r="EX143" s="18"/>
       <c r="EY143" s="18"/>
@@ -47029,6 +47111,7 @@
       </c>
       <c r="F144" s="11"/>
       <c r="M144" s="11"/>
+      <c r="V144" s="136"/>
       <c r="Z144" s="3"/>
       <c r="AL144" s="11"/>
       <c r="AS144" s="11"/>
@@ -47325,7 +47408,7 @@
       <c r="CP145" s="11"/>
       <c r="CW145" s="11"/>
       <c r="CX145" s="18"/>
-      <c r="CY145" s="18"/>
+      <c r="CY145" s="136"/>
       <c r="CZ145" s="18"/>
       <c r="DA145" s="18"/>
       <c r="DB145" s="18"/>
@@ -47600,7 +47683,7 @@
       <c r="DP146" s="18"/>
       <c r="DQ146" s="18"/>
       <c r="DR146" s="18"/>
-      <c r="DS146" s="18"/>
+      <c r="DS146" s="3"/>
       <c r="DT146" s="18"/>
       <c r="DU146" s="18"/>
       <c r="DV146" s="11"/>
@@ -47857,7 +47940,6 @@
       <c r="DP147" s="3"/>
       <c r="DQ147" s="18"/>
       <c r="DR147" s="18"/>
-      <c r="DS147" s="18"/>
       <c r="DT147" s="18"/>
       <c r="DU147" s="18"/>
       <c r="DV147" s="11"/>
@@ -49345,9 +49427,7 @@
       <c r="KE150" s="113">
         <v>40</v>
       </c>
-      <c r="KF150" s="113">
-        <v>40</v>
-      </c>
+      <c r="KF150" s="136"/>
       <c r="KG150" s="113">
         <v>40</v>
       </c>
@@ -50675,12 +50755,11 @@
       <c r="BR155" s="18"/>
       <c r="BS155" s="18"/>
       <c r="BT155" s="18"/>
-      <c r="BU155" s="18"/>
+      <c r="BU155" s="136"/>
       <c r="BV155" s="18"/>
       <c r="BW155" s="18"/>
       <c r="BX155" s="18"/>
       <c r="BY155" s="18"/>
-      <c r="BZ155" s="18"/>
       <c r="CA155" s="18"/>
       <c r="CB155" s="18"/>
       <c r="CC155" s="18"/>
@@ -51018,7 +51097,7 @@
       <c r="GR156" s="18"/>
       <c r="GS156" s="18"/>
       <c r="GT156" s="18"/>
-      <c r="GU156" s="18"/>
+      <c r="GU156" s="136"/>
       <c r="GV156" s="18"/>
       <c r="GW156" s="18"/>
       <c r="GX156" s="18"/>
@@ -51045,7 +51124,7 @@
       <c r="IG156" s="18"/>
       <c r="IH156" s="18"/>
       <c r="II156" s="18"/>
-      <c r="IJ156" s="18"/>
+      <c r="IJ156" s="136"/>
       <c r="IK156" s="18"/>
       <c r="IL156" s="18"/>
       <c r="IM156" s="18"/>
@@ -51067,7 +51146,6 @@
       <c r="JO156" s="11"/>
       <c r="JP156" s="15"/>
       <c r="JQ156" s="15"/>
-      <c r="JR156" s="18"/>
       <c r="JS156" s="18"/>
       <c r="JT156" s="18"/>
       <c r="JU156" s="18"/>
@@ -51383,7 +51461,7 @@
       <c r="MQ157" s="11"/>
       <c r="MX157" s="11"/>
       <c r="MY157" s="18"/>
-      <c r="MZ157" s="18"/>
+      <c r="MZ157" s="136"/>
       <c r="NA157" s="18"/>
       <c r="NB157" s="18"/>
       <c r="NC157" s="18"/>
@@ -53650,7 +53728,7 @@
       <c r="EV163" s="18"/>
       <c r="EW163" s="18"/>
       <c r="EX163" s="18"/>
-      <c r="EY163" s="18"/>
+      <c r="EY163" s="136"/>
       <c r="EZ163" s="18"/>
       <c r="FA163" s="18"/>
       <c r="FB163" s="18"/>
@@ -53745,7 +53823,7 @@
       <c r="IQ163" s="18"/>
       <c r="IR163" s="18"/>
       <c r="IS163" s="18"/>
-      <c r="IT163" s="18"/>
+      <c r="IT163" s="136"/>
       <c r="IU163" s="18"/>
       <c r="IV163" s="18"/>
       <c r="IW163" s="11"/>
@@ -53884,6 +53962,7 @@
       </c>
       <c r="F164" s="73"/>
       <c r="M164" s="73"/>
+      <c r="AC164" s="136"/>
       <c r="AL164" s="73"/>
       <c r="AS164" s="73"/>
       <c r="AW164">
@@ -54068,7 +54147,7 @@
       <c r="KI164" s="18"/>
       <c r="KJ164" s="18"/>
       <c r="KK164" s="18"/>
-      <c r="KL164" s="18"/>
+      <c r="KL164" s="136"/>
       <c r="KM164" s="18"/>
       <c r="KN164" s="73"/>
       <c r="KT164" s="11"/>
@@ -54452,7 +54531,7 @@
       <c r="DJ166" s="18"/>
       <c r="DK166" s="18"/>
       <c r="DL166" s="18"/>
-      <c r="DM166" s="18"/>
+      <c r="DM166" s="136"/>
       <c r="DN166" s="18"/>
       <c r="DO166" s="18"/>
       <c r="DP166" s="18"/>
@@ -56789,7 +56868,7 @@
       <c r="BZ172" s="18"/>
       <c r="CA172" s="18"/>
       <c r="CB172" s="18"/>
-      <c r="CC172" s="18"/>
+      <c r="CC172" s="136"/>
       <c r="CD172" s="11"/>
       <c r="CK172" s="73"/>
       <c r="CO172">
@@ -57047,7 +57126,6 @@
       <c r="BZ173" s="18"/>
       <c r="CA173" s="18"/>
       <c r="CB173" s="18"/>
-      <c r="CC173" s="3"/>
       <c r="CD173" s="11"/>
       <c r="CK173" s="73"/>
       <c r="CO173">
@@ -57396,7 +57474,7 @@
       <c r="GZ174" s="18"/>
       <c r="HA174" s="18"/>
       <c r="HB174" s="18"/>
-      <c r="HC174" s="18"/>
+      <c r="HC174" s="136"/>
       <c r="HD174" s="18"/>
       <c r="HE174" s="18"/>
       <c r="HF174" s="73"/>
@@ -57532,6 +57610,7 @@
       </c>
       <c r="F175" s="73"/>
       <c r="M175" s="73"/>
+      <c r="R175" s="136"/>
       <c r="AL175" s="73"/>
       <c r="AS175" s="73"/>
       <c r="AW175">
@@ -57930,7 +58009,7 @@
       <c r="IF176" s="18"/>
       <c r="IG176" s="18"/>
       <c r="IH176" s="18"/>
-      <c r="II176" s="18"/>
+      <c r="II176" s="136"/>
       <c r="IJ176" s="18"/>
       <c r="IK176" s="18"/>
       <c r="IL176" s="18"/>
@@ -58072,7 +58151,7 @@
       <c r="BV177" s="18"/>
       <c r="BW177" s="18"/>
       <c r="BX177" s="18"/>
-      <c r="BY177" s="18"/>
+      <c r="BY177" s="3"/>
       <c r="BZ177" s="18"/>
       <c r="CA177" s="18"/>
       <c r="CB177" s="18"/>
@@ -58547,7 +58626,7 @@
       <c r="NO178" s="18"/>
       <c r="NP178" s="18"/>
       <c r="NQ178" s="18"/>
-      <c r="NR178" s="18"/>
+      <c r="NR178" s="136"/>
       <c r="NS178" s="18"/>
       <c r="NT178" s="18"/>
       <c r="NU178" s="18"/>
@@ -60195,7 +60274,7 @@
       <c r="EY182" s="18"/>
       <c r="EZ182" s="18"/>
       <c r="FA182" s="18"/>
-      <c r="FB182" s="18"/>
+      <c r="FB182" s="136"/>
       <c r="FC182" s="18"/>
       <c r="FD182" s="18"/>
       <c r="FE182" s="18"/>
@@ -60418,7 +60497,7 @@
       <c r="DB183" s="18"/>
       <c r="DC183" s="18"/>
       <c r="DD183" s="18"/>
-      <c r="DE183" s="18"/>
+      <c r="DE183" s="136"/>
       <c r="DF183" s="18"/>
       <c r="DG183" s="18"/>
       <c r="DH183" s="18"/>
@@ -60475,7 +60554,7 @@
       <c r="GG183" s="73"/>
       <c r="GH183" s="15"/>
       <c r="GI183" s="18"/>
-      <c r="GJ183" s="18"/>
+      <c r="GJ183" s="136"/>
       <c r="GK183" s="18"/>
       <c r="GL183" s="18"/>
       <c r="GM183" s="18"/>
@@ -61528,6 +61607,7 @@
       </c>
       <c r="JH188" s="73"/>
       <c r="JO188" s="73"/>
+      <c r="JQ188" s="136"/>
       <c r="KN188" s="73"/>
       <c r="KT188" s="11"/>
       <c r="KX188">
@@ -62065,6 +62145,59 @@
       <c r="OB190" s="73"/>
       <c r="OC190" s="11"/>
     </row>
+    <row r="191" spans="5:393" x14ac:dyDescent="0.45">
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <v>2</v>
+      </c>
+      <c r="P191">
+        <v>3</v>
+      </c>
+      <c r="Q191">
+        <v>4</v>
+      </c>
+      <c r="R191">
+        <v>5</v>
+      </c>
+      <c r="S191">
+        <v>6</v>
+      </c>
+      <c r="T191">
+        <v>7</v>
+      </c>
+      <c r="U191">
+        <v>8</v>
+      </c>
+      <c r="V191">
+        <v>9</v>
+      </c>
+      <c r="W191">
+        <v>10</v>
+      </c>
+      <c r="X191">
+        <v>11</v>
+      </c>
+      <c r="Y191">
+        <v>12</v>
+      </c>
+      <c r="Z191">
+        <v>13</v>
+      </c>
+      <c r="AA191">
+        <v>14</v>
+      </c>
+      <c r="AB191">
+        <v>15</v>
+      </c>
+      <c r="AC191">
+        <v>16</v>
+      </c>
+      <c r="AD191">
+        <v>17</v>
+      </c>
+    </row>
     <row r="194" spans="3:4" s="91" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C194" s="120" t="s">
         <v>108</v>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C04617-33A6-47C7-9D7E-C927F1FFB10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BEC85-70A0-4D5F-A2CE-EB5EDFA4BB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="480" windowWidth="17280" windowHeight="10776" firstSheet="5" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="5760" yWindow="480" windowWidth="17280" windowHeight="10776" firstSheet="5" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="228">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1997,6 +1997,13 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前のデータ</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -21854,6 +21861,138 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>326</xdr:col>
+      <xdr:colOff>167639</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>329</xdr:col>
+      <xdr:colOff>260381</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>34572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="正方形/長方形 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F8D217-D3E1-4789-BE2D-C91B56BFE526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19182337">
+          <a:off x="100751639" y="30083760"/>
+          <a:ext cx="1007142" cy="16356612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>328</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>331</xdr:col>
+      <xdr:colOff>92742</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>232692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="正方形/長方形 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D115FBB-C300-43CE-A26D-8FF4859ED6AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2417053">
+          <a:off x="91287600" y="31851600"/>
+          <a:ext cx="885222" cy="17453892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26188,10 +26327,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
-  <dimension ref="C1:OC194"/>
+  <dimension ref="C1:OC245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O117" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="KH155" sqref="KH155"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R147" sqref="R147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -46511,7 +46650,6 @@
       </c>
       <c r="HQ141" s="11"/>
       <c r="HX141" s="11"/>
-      <c r="IT141" s="3"/>
       <c r="IW141" s="11"/>
       <c r="JC141" s="11"/>
       <c r="JG141">
@@ -46710,7 +46848,7 @@
       <c r="GP142" s="18"/>
       <c r="GQ142" s="18"/>
       <c r="GR142" s="18"/>
-      <c r="GS142" s="18"/>
+      <c r="GS142" s="3"/>
       <c r="GT142" s="18"/>
       <c r="GU142" s="18"/>
       <c r="GV142" s="18"/>
@@ -46744,7 +46882,7 @@
       <c r="IJ142" s="18"/>
       <c r="IK142" s="18"/>
       <c r="IL142" s="18"/>
-      <c r="IM142" s="18"/>
+      <c r="IM142" s="3"/>
       <c r="IN142" s="18"/>
       <c r="IO142" s="18"/>
       <c r="IP142" s="18"/>
@@ -46967,7 +47105,6 @@
       <c r="GP143" s="18"/>
       <c r="GQ143" s="18"/>
       <c r="GR143" s="18"/>
-      <c r="GS143" s="18"/>
       <c r="GT143" s="18"/>
       <c r="GU143" s="18"/>
       <c r="GV143" s="18"/>
@@ -46992,11 +47129,10 @@
       <c r="IA143" s="18"/>
       <c r="IB143" s="18"/>
       <c r="IC143" s="18"/>
-      <c r="ID143" s="3"/>
       <c r="IE143" s="18"/>
       <c r="IF143" s="18"/>
       <c r="IG143" s="18"/>
-      <c r="IH143" s="18"/>
+      <c r="IH143" s="3"/>
       <c r="II143" s="18"/>
       <c r="IJ143" s="18"/>
       <c r="IK143" s="18"/>
@@ -47111,8 +47247,9 @@
       </c>
       <c r="F144" s="11"/>
       <c r="M144" s="11"/>
-      <c r="V144" s="136"/>
       <c r="Z144" s="3"/>
+      <c r="AD144" s="15"/>
+      <c r="AE144" s="15"/>
       <c r="AL144" s="11"/>
       <c r="AS144" s="11"/>
       <c r="AW144">
@@ -47218,7 +47355,6 @@
       <c r="GJ144" s="15"/>
       <c r="GK144" s="18"/>
       <c r="GL144" s="18"/>
-      <c r="GM144" s="3"/>
       <c r="GN144" s="18"/>
       <c r="GO144" s="18"/>
       <c r="GP144" s="18"/>
@@ -47369,6 +47505,9 @@
       </c>
       <c r="F145" s="11"/>
       <c r="M145" s="11"/>
+      <c r="AD145" s="15"/>
+      <c r="AE145" s="15"/>
+      <c r="AH145" s="136"/>
       <c r="AL145" s="11"/>
       <c r="AS145" s="11"/>
       <c r="AW145">
@@ -47481,7 +47620,7 @@
       <c r="GQ145" s="18"/>
       <c r="GR145" s="18"/>
       <c r="GS145" s="18"/>
-      <c r="GT145" s="18"/>
+      <c r="GT145" s="3"/>
       <c r="GU145" s="18"/>
       <c r="GV145" s="18"/>
       <c r="GW145" s="18"/>
@@ -47623,7 +47762,7 @@
       </c>
       <c r="F146" s="11"/>
       <c r="M146" s="11"/>
-      <c r="P146" s="3"/>
+      <c r="W146" s="3"/>
       <c r="AL146" s="11"/>
       <c r="AS146" s="11"/>
       <c r="AW146">
@@ -47766,7 +47905,7 @@
       <c r="IG146" s="18"/>
       <c r="IH146" s="18"/>
       <c r="II146" s="18"/>
-      <c r="IJ146" s="18"/>
+      <c r="IJ146" s="3"/>
       <c r="IK146" s="18"/>
       <c r="IL146" s="18"/>
       <c r="IM146" s="18"/>
@@ -47922,9 +48061,9 @@
       <c r="CX147" s="18"/>
       <c r="CY147" s="18"/>
       <c r="CZ147" s="18"/>
-      <c r="DA147" s="18"/>
-      <c r="DB147" s="18"/>
-      <c r="DC147" s="18"/>
+      <c r="DA147" s="15"/>
+      <c r="DB147" s="15"/>
+      <c r="DC147" s="15"/>
       <c r="DD147" s="18"/>
       <c r="DE147" s="18"/>
       <c r="DF147" s="18"/>
@@ -47951,7 +48090,6 @@
       <c r="EP147" s="11"/>
       <c r="EQ147" s="18"/>
       <c r="ER147" s="18"/>
-      <c r="ES147" s="3"/>
       <c r="ET147" s="18"/>
       <c r="EU147" s="18"/>
       <c r="EV147" s="18"/>
@@ -48012,7 +48150,6 @@
       <c r="HQ147" s="11"/>
       <c r="HX147" s="11"/>
       <c r="HY147" s="18"/>
-      <c r="HZ147" s="3"/>
       <c r="IA147" s="18"/>
       <c r="IB147" s="18"/>
       <c r="IC147" s="18"/>
@@ -48147,8 +48284,8 @@
       <c r="BG148" s="18"/>
       <c r="BH148" s="18"/>
       <c r="BI148" s="18"/>
-      <c r="BJ148" s="18"/>
-      <c r="BK148" s="18"/>
+      <c r="BJ148" s="15"/>
+      <c r="BK148" s="15"/>
       <c r="BL148" s="18"/>
       <c r="BM148" s="18"/>
       <c r="BN148" s="18"/>
@@ -48176,9 +48313,9 @@
       <c r="CW148" s="11"/>
       <c r="CX148" s="18"/>
       <c r="CY148" s="18"/>
-      <c r="CZ148" s="18"/>
-      <c r="DA148" s="18"/>
-      <c r="DB148" s="18"/>
+      <c r="CZ148" s="15"/>
+      <c r="DA148" s="15"/>
+      <c r="DB148" s="15"/>
       <c r="DC148" s="18"/>
       <c r="DD148" s="18"/>
       <c r="DE148" s="18"/>
@@ -48210,7 +48347,7 @@
       <c r="ES148" s="18"/>
       <c r="ET148" s="18"/>
       <c r="EU148" s="18"/>
-      <c r="EV148" s="18"/>
+      <c r="EV148" s="3"/>
       <c r="EW148" s="18"/>
       <c r="EX148" s="18"/>
       <c r="EY148" s="18"/>
@@ -48254,7 +48391,6 @@
       <c r="GX148" s="18"/>
       <c r="GY148" s="18"/>
       <c r="GZ148" s="18"/>
-      <c r="HA148" s="3"/>
       <c r="HB148" s="18"/>
       <c r="HC148" s="18"/>
       <c r="HD148" s="18"/>
@@ -48402,8 +48538,8 @@
       <c r="BG149" s="18"/>
       <c r="BH149" s="18"/>
       <c r="BI149" s="18"/>
-      <c r="BJ149" s="18"/>
-      <c r="BK149" s="18"/>
+      <c r="BJ149" s="15"/>
+      <c r="BK149" s="15"/>
       <c r="BL149" s="18"/>
       <c r="BM149" s="18"/>
       <c r="BN149" s="18"/>
@@ -49961,6 +50097,7 @@
       </c>
       <c r="F152" s="11"/>
       <c r="M152" s="11"/>
+      <c r="S152" s="15"/>
       <c r="AL152" s="11"/>
       <c r="AS152" s="11"/>
       <c r="AW152">
@@ -50045,10 +50182,9 @@
       <c r="FC152" s="18"/>
       <c r="FD152" s="18"/>
       <c r="FE152" s="18"/>
-      <c r="FF152" s="18"/>
+      <c r="FF152" s="3"/>
       <c r="FG152" s="18"/>
       <c r="FH152" s="18"/>
-      <c r="FI152" s="3"/>
       <c r="FJ152" s="18"/>
       <c r="FK152" s="18"/>
       <c r="FL152" s="18"/>
@@ -50094,7 +50230,6 @@
       <c r="HX152" s="11"/>
       <c r="HY152" s="18"/>
       <c r="HZ152" s="18"/>
-      <c r="IA152" s="3"/>
       <c r="IB152" s="18"/>
       <c r="IC152" s="18"/>
       <c r="ID152" s="18"/>
@@ -50107,7 +50242,7 @@
       <c r="IK152" s="18"/>
       <c r="IL152" s="18"/>
       <c r="IM152" s="18"/>
-      <c r="IN152" s="18"/>
+      <c r="IN152" s="3"/>
       <c r="IO152" s="18"/>
       <c r="IP152" s="18"/>
       <c r="IQ152" s="18"/>
@@ -50218,6 +50353,7 @@
       </c>
       <c r="F153" s="11"/>
       <c r="M153" s="11"/>
+      <c r="S153" s="15"/>
       <c r="Z153" s="3"/>
       <c r="AL153" s="11"/>
       <c r="AS153" s="11"/>
@@ -50361,9 +50497,8 @@
       <c r="IG153" s="18"/>
       <c r="IH153" s="18"/>
       <c r="II153" s="18"/>
-      <c r="IJ153" s="18"/>
+      <c r="IJ153" s="3"/>
       <c r="IK153" s="18"/>
-      <c r="IL153" s="18"/>
       <c r="IM153" s="18"/>
       <c r="IN153" s="18"/>
       <c r="IO153" s="18"/>
@@ -50552,7 +50687,7 @@
       <c r="EU154" s="18"/>
       <c r="EV154" s="18"/>
       <c r="EW154" s="18"/>
-      <c r="EX154" s="18"/>
+      <c r="EX154" s="3"/>
       <c r="EY154" s="18"/>
       <c r="EZ154" s="18"/>
       <c r="FA154" s="18"/>
@@ -50578,7 +50713,6 @@
       <c r="GG154" s="11"/>
       <c r="GH154" s="18"/>
       <c r="GI154" s="18"/>
-      <c r="GJ154" s="3"/>
       <c r="GK154" s="18"/>
       <c r="GL154" s="18"/>
       <c r="GM154" s="18"/>
@@ -50615,7 +50749,6 @@
       <c r="ID154" s="18"/>
       <c r="IE154" s="18"/>
       <c r="IF154" s="18"/>
-      <c r="IG154" s="3"/>
       <c r="IH154" s="18"/>
       <c r="II154" s="18"/>
       <c r="IJ154" s="18"/>
@@ -50733,6 +50866,8 @@
       <c r="M155" s="11"/>
       <c r="O155" s="3"/>
       <c r="W155" s="3"/>
+      <c r="AH155" s="15"/>
+      <c r="AI155" s="15"/>
       <c r="AL155" s="11"/>
       <c r="AS155" s="11"/>
       <c r="AW155">
@@ -50807,7 +50942,6 @@
       <c r="ET155" s="18"/>
       <c r="EU155" s="18"/>
       <c r="EV155" s="18"/>
-      <c r="EW155" s="3"/>
       <c r="EX155" s="18"/>
       <c r="EY155" s="18"/>
       <c r="EZ155" s="18"/>
@@ -50838,7 +50972,7 @@
       <c r="GK155" s="18"/>
       <c r="GL155" s="18"/>
       <c r="GM155" s="18"/>
-      <c r="GN155" s="18"/>
+      <c r="GN155" s="3"/>
       <c r="GO155" s="18"/>
       <c r="GP155" s="18"/>
       <c r="GQ155" s="18"/>
@@ -50984,6 +51118,8 @@
       </c>
       <c r="F156" s="11"/>
       <c r="M156" s="11"/>
+      <c r="AG156" s="15"/>
+      <c r="AH156" s="15"/>
       <c r="AL156" s="11"/>
       <c r="AS156" s="11"/>
       <c r="AW156">
@@ -51119,7 +51255,7 @@
       <c r="IB156" s="18"/>
       <c r="IC156" s="18"/>
       <c r="ID156" s="18"/>
-      <c r="IE156" s="18"/>
+      <c r="IE156" s="3"/>
       <c r="IF156" s="18"/>
       <c r="IG156" s="18"/>
       <c r="IH156" s="18"/>
@@ -51243,7 +51379,6 @@
       </c>
       <c r="AX157" s="11"/>
       <c r="BE157" s="11"/>
-      <c r="BF157" s="3"/>
       <c r="BG157" s="18"/>
       <c r="BH157" s="18"/>
       <c r="BI157" s="18"/>
@@ -51309,7 +51444,7 @@
       <c r="ER157" s="18"/>
       <c r="ES157" s="18"/>
       <c r="ET157" s="18"/>
-      <c r="EU157" s="18"/>
+      <c r="EU157" s="3"/>
       <c r="EV157" s="18"/>
       <c r="EW157" s="18"/>
       <c r="EX157" s="18"/>
@@ -51371,7 +51506,6 @@
       <c r="HZ157" s="18"/>
       <c r="IA157" s="18"/>
       <c r="IB157" s="18"/>
-      <c r="IC157" s="3"/>
       <c r="ID157" s="18"/>
       <c r="IE157" s="18"/>
       <c r="IF157" s="18"/>
@@ -51386,7 +51520,6 @@
       <c r="IO157" s="18"/>
       <c r="IP157" s="18"/>
       <c r="IQ157" s="18"/>
-      <c r="IR157" s="3"/>
       <c r="IS157" s="18"/>
       <c r="IT157" s="18"/>
       <c r="IU157" s="18"/>
@@ -51518,11 +51651,10 @@
       <c r="BU158" s="18"/>
       <c r="BV158" s="18"/>
       <c r="BW158" s="18"/>
-      <c r="BX158" s="18"/>
+      <c r="BX158" s="3"/>
       <c r="BY158" s="18"/>
       <c r="BZ158" s="18"/>
       <c r="CA158" s="18"/>
-      <c r="CB158" s="3"/>
       <c r="CC158" s="18"/>
       <c r="CD158" s="11"/>
       <c r="CK158" s="11"/>
@@ -51551,8 +51683,8 @@
       <c r="DO158" s="18"/>
       <c r="DP158" s="18"/>
       <c r="DQ158" s="18"/>
-      <c r="DR158" s="18"/>
-      <c r="DS158" s="18"/>
+      <c r="DR158" s="15"/>
+      <c r="DS158" s="15"/>
       <c r="DT158" s="18"/>
       <c r="DU158" s="18"/>
       <c r="DV158" s="11"/>
@@ -51564,7 +51696,6 @@
       <c r="EP158" s="11"/>
       <c r="EQ158" s="18"/>
       <c r="ER158" s="18"/>
-      <c r="ES158" s="3"/>
       <c r="ET158" s="18"/>
       <c r="EU158" s="18"/>
       <c r="EV158" s="18"/>
@@ -51633,7 +51764,7 @@
       <c r="IE158" s="18"/>
       <c r="IF158" s="18"/>
       <c r="IG158" s="18"/>
-      <c r="IH158" s="18"/>
+      <c r="IH158" s="3"/>
       <c r="II158" s="18"/>
       <c r="IJ158" s="18"/>
       <c r="IK158" s="18"/>
@@ -51758,7 +51889,7 @@
       <c r="BH159" s="18"/>
       <c r="BI159" s="18"/>
       <c r="BJ159" s="18"/>
-      <c r="BK159" s="18"/>
+      <c r="BK159" s="3"/>
       <c r="BL159" s="18"/>
       <c r="BM159" s="18"/>
       <c r="BN159" s="18"/>
@@ -51804,8 +51935,8 @@
       <c r="DO159" s="18"/>
       <c r="DP159" s="18"/>
       <c r="DQ159" s="18"/>
-      <c r="DR159" s="18"/>
-      <c r="DS159" s="18"/>
+      <c r="DR159" s="15"/>
+      <c r="DS159" s="15"/>
       <c r="DT159" s="18"/>
       <c r="DU159" s="18"/>
       <c r="DV159" s="11"/>
@@ -53220,7 +53351,6 @@
       <c r="IN161" s="18"/>
       <c r="IO161" s="18"/>
       <c r="IP161" s="18"/>
-      <c r="IQ161" s="3"/>
       <c r="IR161" s="18"/>
       <c r="IS161" s="18"/>
       <c r="IT161" s="18"/>
@@ -53479,7 +53609,7 @@
       <c r="IL162" s="18"/>
       <c r="IM162" s="18"/>
       <c r="IN162" s="18"/>
-      <c r="IO162" s="18"/>
+      <c r="IO162" s="3"/>
       <c r="IP162" s="18"/>
       <c r="IQ162" s="18"/>
       <c r="IR162" s="18"/>
@@ -53639,7 +53769,6 @@
       <c r="BF163" s="18"/>
       <c r="BG163" s="18"/>
       <c r="BH163" s="18"/>
-      <c r="BI163" s="3"/>
       <c r="BJ163" s="18"/>
       <c r="BK163" s="18"/>
       <c r="BL163" s="18"/>
@@ -53653,8 +53782,8 @@
       <c r="BT163" s="18"/>
       <c r="BU163" s="18"/>
       <c r="BV163" s="18"/>
-      <c r="BW163" s="18"/>
-      <c r="BX163" s="18"/>
+      <c r="BW163" s="15"/>
+      <c r="BX163" s="15"/>
       <c r="BY163" s="18"/>
       <c r="BZ163" s="18"/>
       <c r="CA163" s="18"/>
@@ -53685,8 +53814,8 @@
       <c r="DB163" s="18"/>
       <c r="DC163" s="18"/>
       <c r="DD163" s="18"/>
-      <c r="DE163" s="18"/>
-      <c r="DF163" s="18"/>
+      <c r="DE163" s="15"/>
+      <c r="DF163" s="15"/>
       <c r="DG163" s="18"/>
       <c r="DH163" s="18"/>
       <c r="DI163" s="18"/>
@@ -53774,7 +53903,6 @@
       <c r="GR163" s="18"/>
       <c r="GS163" s="18"/>
       <c r="GT163" s="18"/>
-      <c r="GU163" s="18"/>
       <c r="GV163" s="18"/>
       <c r="GW163" s="18"/>
       <c r="GX163" s="18"/>
@@ -53976,7 +54104,7 @@
       <c r="BI164" s="18"/>
       <c r="BJ164" s="18"/>
       <c r="BK164" s="18"/>
-      <c r="BL164" s="18"/>
+      <c r="BL164" s="3"/>
       <c r="BM164" s="18"/>
       <c r="BN164" s="18"/>
       <c r="BO164" s="18"/>
@@ -53987,8 +54115,8 @@
       <c r="BT164" s="18"/>
       <c r="BU164" s="18"/>
       <c r="BV164" s="18"/>
-      <c r="BW164" s="18"/>
-      <c r="BX164" s="18"/>
+      <c r="BW164" s="15"/>
+      <c r="BX164" s="15"/>
       <c r="BY164" s="18"/>
       <c r="BZ164" s="18"/>
       <c r="CA164" s="18"/>
@@ -54008,8 +54136,8 @@
       <c r="DB164" s="18"/>
       <c r="DC164" s="18"/>
       <c r="DD164" s="18"/>
-      <c r="DE164" s="18"/>
-      <c r="DF164" s="18"/>
+      <c r="DE164" s="15"/>
+      <c r="DF164" s="15"/>
       <c r="DG164" s="18"/>
       <c r="DH164" s="18"/>
       <c r="DI164" s="18"/>
@@ -54077,7 +54205,7 @@
       <c r="GS164" s="18"/>
       <c r="GT164" s="18"/>
       <c r="GU164" s="3"/>
-      <c r="GV164" s="18"/>
+      <c r="GV164" s="3"/>
       <c r="GW164" s="18"/>
       <c r="GX164" s="18"/>
       <c r="GY164" s="18"/>
@@ -54261,7 +54389,6 @@
       <c r="CW165" s="73"/>
       <c r="CX165" s="18"/>
       <c r="CY165" s="18"/>
-      <c r="CZ165" s="3"/>
       <c r="DA165" s="18"/>
       <c r="DB165" s="18"/>
       <c r="DC165" s="18"/>
@@ -54478,6 +54605,8 @@
       </c>
       <c r="F166" s="73"/>
       <c r="M166" s="73"/>
+      <c r="X166" s="18"/>
+      <c r="AD166" s="3"/>
       <c r="AL166" s="73"/>
       <c r="AS166" s="73"/>
       <c r="AW166">
@@ -54498,7 +54627,7 @@
       <c r="BP166" s="18"/>
       <c r="BQ166" s="18"/>
       <c r="BR166" s="18"/>
-      <c r="BS166" s="18"/>
+      <c r="BS166" s="3"/>
       <c r="BT166" s="18"/>
       <c r="BU166" s="18"/>
       <c r="BV166" s="18"/>
@@ -54580,7 +54709,6 @@
       <c r="GG166" s="73"/>
       <c r="GH166" s="18"/>
       <c r="GI166" s="18"/>
-      <c r="GJ166" s="3"/>
       <c r="GK166" s="18"/>
       <c r="GL166" s="18"/>
       <c r="GM166" s="18"/>
@@ -54611,9 +54739,8 @@
       <c r="HX166" s="73"/>
       <c r="HY166" s="18"/>
       <c r="HZ166" s="18"/>
-      <c r="IA166" s="3"/>
       <c r="IB166" s="18"/>
-      <c r="IC166" s="18"/>
+      <c r="IC166" s="3"/>
       <c r="ID166" s="18"/>
       <c r="IE166" s="18"/>
       <c r="IF166" s="18"/>
@@ -54734,8 +54861,8 @@
       </c>
       <c r="F167" s="73"/>
       <c r="M167" s="73"/>
-      <c r="N167" s="3"/>
-      <c r="AF167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="X167" s="15"/>
       <c r="AL167" s="73"/>
       <c r="AS167" s="73"/>
       <c r="AW167">
@@ -54779,7 +54906,7 @@
       <c r="CZ167" s="18"/>
       <c r="DA167" s="18"/>
       <c r="DB167" s="18"/>
-      <c r="DC167" s="18"/>
+      <c r="DC167" s="3"/>
       <c r="DD167" s="18"/>
       <c r="DE167" s="18"/>
       <c r="DF167" s="18"/>
@@ -54846,7 +54973,7 @@
       <c r="GO167" s="18"/>
       <c r="GP167" s="18"/>
       <c r="GQ167" s="18"/>
-      <c r="GR167" s="18"/>
+      <c r="GR167" s="3"/>
       <c r="GS167" s="18"/>
       <c r="GT167" s="18"/>
       <c r="GU167" s="18"/>
@@ -54993,6 +55120,8 @@
       </c>
       <c r="F168" s="73"/>
       <c r="M168" s="73"/>
+      <c r="W168" s="15"/>
+      <c r="X168" s="15"/>
       <c r="AL168" s="73"/>
       <c r="AS168" s="73"/>
       <c r="AW168">
@@ -55129,8 +55258,8 @@
       <c r="IA168" s="18"/>
       <c r="IB168" s="18"/>
       <c r="IC168" s="18"/>
-      <c r="ID168" s="18"/>
-      <c r="IE168" s="18"/>
+      <c r="ID168" s="15"/>
+      <c r="IE168" s="15"/>
       <c r="IF168" s="18"/>
       <c r="IG168" s="18"/>
       <c r="IH168" s="18"/>
@@ -55274,7 +55403,6 @@
       <c r="BS169" s="18"/>
       <c r="BT169" s="18"/>
       <c r="BU169" s="18"/>
-      <c r="BV169" s="3"/>
       <c r="BW169" s="18"/>
       <c r="BX169" s="18"/>
       <c r="BY169" s="18"/>
@@ -55359,7 +55487,6 @@
       <c r="GM169" s="18"/>
       <c r="GN169" s="18"/>
       <c r="GO169" s="18"/>
-      <c r="GP169" s="3"/>
       <c r="GQ169" s="18"/>
       <c r="GR169" s="18"/>
       <c r="GS169" s="18"/>
@@ -55387,8 +55514,8 @@
       <c r="IA169" s="18"/>
       <c r="IB169" s="18"/>
       <c r="IC169" s="18"/>
-      <c r="ID169" s="18"/>
-      <c r="IE169" s="18"/>
+      <c r="ID169" s="15"/>
+      <c r="IE169" s="15"/>
       <c r="IF169" s="18"/>
       <c r="IG169" s="18"/>
       <c r="IH169" s="18"/>
@@ -56891,7 +57018,6 @@
       <c r="DJ172" s="18"/>
       <c r="DK172" s="18"/>
       <c r="DL172" s="18"/>
-      <c r="DM172" s="3"/>
       <c r="DN172" s="18"/>
       <c r="DO172" s="18"/>
       <c r="DP172" s="18"/>
@@ -57095,7 +57221,9 @@
       </c>
       <c r="F173" s="73"/>
       <c r="M173" s="73"/>
+      <c r="P173" s="15"/>
       <c r="U173" s="3"/>
+      <c r="AB173" s="3"/>
       <c r="AL173" s="73"/>
       <c r="AS173" s="73"/>
       <c r="AW173">
@@ -57111,7 +57239,7 @@
       <c r="BK173" s="18"/>
       <c r="BL173" s="18"/>
       <c r="BM173" s="18"/>
-      <c r="BN173" s="18"/>
+      <c r="BN173" s="3"/>
       <c r="BO173" s="18"/>
       <c r="BP173" s="18"/>
       <c r="BQ173" s="18"/>
@@ -57137,10 +57265,9 @@
       <c r="CY173" s="18"/>
       <c r="CZ173" s="18"/>
       <c r="DA173" s="18"/>
-      <c r="DB173" s="3"/>
       <c r="DC173" s="18"/>
       <c r="DD173" s="18"/>
-      <c r="DE173" s="18"/>
+      <c r="DE173" s="3"/>
       <c r="DF173" s="18"/>
       <c r="DG173" s="18"/>
       <c r="DH173" s="18"/>
@@ -57168,7 +57295,7 @@
       <c r="ER173" s="18"/>
       <c r="ES173" s="18"/>
       <c r="ET173" s="18"/>
-      <c r="EU173" s="18"/>
+      <c r="EU173" s="3"/>
       <c r="EV173" s="18"/>
       <c r="EW173" s="18"/>
       <c r="EX173" s="18"/>
@@ -57352,7 +57479,8 @@
       </c>
       <c r="F174" s="73"/>
       <c r="M174" s="73"/>
-      <c r="AE174" s="3"/>
+      <c r="P174" s="15"/>
+      <c r="Y174" s="136"/>
       <c r="AL174" s="73"/>
       <c r="AS174" s="73"/>
       <c r="AW174">
@@ -57424,7 +57552,6 @@
       <c r="EP174" s="73"/>
       <c r="EQ174" s="18"/>
       <c r="ER174" s="18"/>
-      <c r="ES174" s="3"/>
       <c r="ET174" s="18"/>
       <c r="EU174" s="18"/>
       <c r="EV174" s="18"/>
@@ -57474,7 +57601,6 @@
       <c r="GZ174" s="18"/>
       <c r="HA174" s="18"/>
       <c r="HB174" s="18"/>
-      <c r="HC174" s="136"/>
       <c r="HD174" s="18"/>
       <c r="HE174" s="18"/>
       <c r="HF174" s="73"/>
@@ -57610,7 +57736,8 @@
       </c>
       <c r="F175" s="73"/>
       <c r="M175" s="73"/>
-      <c r="R175" s="136"/>
+      <c r="P175" s="15"/>
+      <c r="Q175" s="15"/>
       <c r="AL175" s="73"/>
       <c r="AS175" s="73"/>
       <c r="AW175">
@@ -57618,7 +57745,6 @@
       </c>
       <c r="AX175" s="73"/>
       <c r="BE175" s="73"/>
-      <c r="BF175" s="3"/>
       <c r="BG175" s="18"/>
       <c r="BH175" s="18"/>
       <c r="BI175" s="18"/>
@@ -57640,7 +57766,6 @@
       <c r="BY175" s="18"/>
       <c r="BZ175" s="18"/>
       <c r="CA175" s="18"/>
-      <c r="CB175" s="3"/>
       <c r="CC175" s="15"/>
       <c r="CD175" s="11"/>
       <c r="CK175" s="73"/>
@@ -57663,7 +57788,7 @@
       <c r="DI175" s="18"/>
       <c r="DJ175" s="18"/>
       <c r="DK175" s="18"/>
-      <c r="DL175" s="18"/>
+      <c r="DL175" s="3"/>
       <c r="DM175" s="18"/>
       <c r="DN175" s="18"/>
       <c r="DO175" s="18"/>
@@ -57868,7 +57993,6 @@
       </c>
       <c r="F176" s="73"/>
       <c r="M176" s="73"/>
-      <c r="AJ176" s="3"/>
       <c r="AL176" s="73"/>
       <c r="AS176" s="73"/>
       <c r="AW176">
@@ -57894,7 +58018,7 @@
       <c r="BU176" s="18"/>
       <c r="BV176" s="18"/>
       <c r="BW176" s="18"/>
-      <c r="BX176" s="18"/>
+      <c r="BX176" s="3"/>
       <c r="BY176" s="18"/>
       <c r="BZ176" s="18"/>
       <c r="CA176" s="18"/>
@@ -57982,14 +58106,14 @@
       <c r="GS176" s="18"/>
       <c r="GT176" s="18"/>
       <c r="GU176" s="18"/>
-      <c r="GV176" s="18"/>
+      <c r="GV176" s="3"/>
       <c r="GW176" s="18"/>
       <c r="GX176" s="18"/>
       <c r="GY176" s="18"/>
       <c r="GZ176" s="18"/>
       <c r="HA176" s="18"/>
       <c r="HB176" s="18"/>
-      <c r="HC176" s="18"/>
+      <c r="HC176" s="136"/>
       <c r="HD176" s="18"/>
       <c r="HE176" s="15"/>
       <c r="HF176" s="73"/>
@@ -58125,6 +58249,7 @@
       </c>
       <c r="F177" s="73"/>
       <c r="M177" s="73"/>
+      <c r="AE177" s="3"/>
       <c r="AL177" s="73"/>
       <c r="AS177" s="73"/>
       <c r="AW177">
@@ -58143,7 +58268,6 @@
       <c r="BN177" s="18"/>
       <c r="BO177" s="18"/>
       <c r="BP177" s="18"/>
-      <c r="BQ177" s="18"/>
       <c r="BR177" s="18"/>
       <c r="BS177" s="18"/>
       <c r="BT177" s="18"/>
@@ -58151,7 +58275,6 @@
       <c r="BV177" s="18"/>
       <c r="BW177" s="18"/>
       <c r="BX177" s="18"/>
-      <c r="BY177" s="3"/>
       <c r="BZ177" s="18"/>
       <c r="CA177" s="18"/>
       <c r="CB177" s="18"/>
@@ -58229,10 +58352,9 @@
       <c r="GI177" s="18"/>
       <c r="GJ177" s="18"/>
       <c r="GK177" s="18"/>
-      <c r="GL177" s="18"/>
       <c r="GM177" s="18"/>
       <c r="GN177" s="18"/>
-      <c r="GO177" s="18"/>
+      <c r="GO177" s="3"/>
       <c r="GP177" s="18"/>
       <c r="GQ177" s="18"/>
       <c r="GR177" s="18"/>
@@ -58242,7 +58364,6 @@
       <c r="GV177" s="18"/>
       <c r="GW177" s="18"/>
       <c r="GX177" s="18"/>
-      <c r="GY177" s="3"/>
       <c r="GZ177" s="18"/>
       <c r="HA177" s="18"/>
       <c r="HB177" s="18"/>
@@ -58271,8 +58392,8 @@
       <c r="IK177" s="18"/>
       <c r="IL177" s="18"/>
       <c r="IM177" s="18"/>
-      <c r="IN177" s="18"/>
-      <c r="IO177" s="18"/>
+      <c r="IN177" s="15"/>
+      <c r="IO177" s="15"/>
       <c r="IP177" s="18"/>
       <c r="IQ177" s="18"/>
       <c r="IR177" s="18"/>
@@ -58400,9 +58521,8 @@
       <c r="BM178" s="18"/>
       <c r="BN178" s="18"/>
       <c r="BO178" s="18"/>
-      <c r="BP178" s="18"/>
+      <c r="BP178" s="3"/>
       <c r="BQ178" s="18"/>
-      <c r="BR178" s="18"/>
       <c r="BS178" s="18"/>
       <c r="BT178" s="18"/>
       <c r="BU178" s="18"/>
@@ -58485,7 +58605,6 @@
       <c r="GG178" s="73"/>
       <c r="GH178" s="18"/>
       <c r="GI178" s="18"/>
-      <c r="GJ178" s="3"/>
       <c r="GK178" s="18"/>
       <c r="GL178" s="18"/>
       <c r="GM178" s="18"/>
@@ -58529,8 +58648,8 @@
       <c r="IK178" s="18"/>
       <c r="IL178" s="18"/>
       <c r="IM178" s="18"/>
-      <c r="IN178" s="18"/>
-      <c r="IO178" s="18"/>
+      <c r="IN178" s="15"/>
+      <c r="IO178" s="15"/>
       <c r="IP178" s="18"/>
       <c r="IQ178" s="18"/>
       <c r="IR178" s="18"/>
@@ -60009,7 +60128,6 @@
       <c r="ER181" s="18"/>
       <c r="ES181" s="18"/>
       <c r="ET181" s="18"/>
-      <c r="EU181" s="3"/>
       <c r="EV181" s="18"/>
       <c r="EW181" s="18"/>
       <c r="EX181" s="18"/>
@@ -60075,7 +60193,7 @@
       <c r="ID181" s="18"/>
       <c r="IE181" s="18"/>
       <c r="IF181" s="18"/>
-      <c r="IG181" s="18"/>
+      <c r="IG181" s="3"/>
       <c r="IH181" s="18"/>
       <c r="II181" s="18"/>
       <c r="IJ181" s="18"/>
@@ -60204,7 +60322,6 @@
       <c r="BF182" s="18"/>
       <c r="BG182" s="18"/>
       <c r="BH182" s="18"/>
-      <c r="BI182" s="3"/>
       <c r="BJ182" s="18"/>
       <c r="BK182" s="18"/>
       <c r="BL182" s="18"/>
@@ -60240,7 +60357,7 @@
       <c r="DC182" s="18"/>
       <c r="DD182" s="18"/>
       <c r="DE182" s="18"/>
-      <c r="DF182" s="18"/>
+      <c r="DF182" s="136"/>
       <c r="DG182" s="18"/>
       <c r="DH182" s="18"/>
       <c r="DI182" s="18"/>
@@ -60269,7 +60386,7 @@
       <c r="ET182" s="18"/>
       <c r="EU182" s="18"/>
       <c r="EV182" s="18"/>
-      <c r="EW182" s="18"/>
+      <c r="EW182" s="3"/>
       <c r="EX182" s="18"/>
       <c r="EY182" s="18"/>
       <c r="EZ182" s="18"/>
@@ -60296,7 +60413,7 @@
       <c r="GG182" s="73"/>
       <c r="GH182" s="18"/>
       <c r="GI182" s="18"/>
-      <c r="GJ182" s="18"/>
+      <c r="GJ182" s="136"/>
       <c r="GK182" s="18"/>
       <c r="GL182" s="18"/>
       <c r="GM182" s="18"/>
@@ -60465,7 +60582,7 @@
       <c r="BI183" s="18"/>
       <c r="BJ183" s="18"/>
       <c r="BK183" s="18"/>
-      <c r="BL183" s="18"/>
+      <c r="BL183" s="3"/>
       <c r="BM183" s="18"/>
       <c r="BN183" s="18"/>
       <c r="BO183" s="18"/>
@@ -60497,7 +60614,6 @@
       <c r="DB183" s="18"/>
       <c r="DC183" s="18"/>
       <c r="DD183" s="18"/>
-      <c r="DE183" s="136"/>
       <c r="DF183" s="18"/>
       <c r="DG183" s="18"/>
       <c r="DH183" s="18"/>
@@ -60554,7 +60670,6 @@
       <c r="GG183" s="73"/>
       <c r="GH183" s="15"/>
       <c r="GI183" s="18"/>
-      <c r="GJ183" s="136"/>
       <c r="GK183" s="18"/>
       <c r="GL183" s="18"/>
       <c r="GM183" s="18"/>
@@ -60567,7 +60682,7 @@
       <c r="GT183" s="18"/>
       <c r="GU183" s="18"/>
       <c r="GV183" s="18"/>
-      <c r="GW183" s="18"/>
+      <c r="GW183" s="3"/>
       <c r="GX183" s="18"/>
       <c r="GY183" s="18"/>
       <c r="GZ183" s="18"/>
@@ -60761,7 +60876,7 @@
       <c r="DF184" s="18"/>
       <c r="DG184" s="18"/>
       <c r="DH184" s="18"/>
-      <c r="DI184" s="18"/>
+      <c r="DI184" s="3"/>
       <c r="DJ184" s="18"/>
       <c r="DK184" s="18"/>
       <c r="DL184" s="18"/>
@@ -60863,7 +60978,6 @@
       <c r="IP184" s="18"/>
       <c r="IQ184" s="18"/>
       <c r="IR184" s="18"/>
-      <c r="IS184" s="3"/>
       <c r="IT184" s="18"/>
       <c r="IU184" s="18"/>
       <c r="IV184" s="18"/>
@@ -61018,7 +61132,6 @@
       <c r="DF185" s="18"/>
       <c r="DG185" s="18"/>
       <c r="DH185" s="18"/>
-      <c r="DI185" s="3"/>
       <c r="DJ185" s="18"/>
       <c r="DK185" s="18"/>
       <c r="DL185" s="18"/>
@@ -61105,7 +61218,6 @@
       <c r="IA185" s="18"/>
       <c r="IB185" s="18"/>
       <c r="IC185" s="18"/>
-      <c r="ID185" s="3"/>
       <c r="IE185" s="18"/>
       <c r="IF185" s="18"/>
       <c r="IG185" s="18"/>
@@ -61115,7 +61227,7 @@
       <c r="IK185" s="18"/>
       <c r="IL185" s="18"/>
       <c r="IM185" s="18"/>
-      <c r="IN185" s="18"/>
+      <c r="IN185" s="3"/>
       <c r="IO185" s="18"/>
       <c r="IP185" s="18"/>
       <c r="IQ185" s="18"/>
@@ -61227,6 +61339,9 @@
       <c r="F186" s="73"/>
       <c r="M186" s="73"/>
       <c r="S186" s="3"/>
+      <c r="AD186" s="15"/>
+      <c r="AE186" s="15"/>
+      <c r="AF186" s="15"/>
       <c r="AL186" s="73"/>
       <c r="AS186" s="73"/>
       <c r="AW186">
@@ -61265,6 +61380,7 @@
       </c>
       <c r="CP186" s="73"/>
       <c r="CW186" s="73"/>
+      <c r="DE186" s="3"/>
       <c r="DU186" s="3"/>
       <c r="DV186" s="73"/>
       <c r="EC186" s="73"/>
@@ -61283,7 +61399,7 @@
       <c r="GH186" s="15"/>
       <c r="GI186" s="15"/>
       <c r="GJ186" s="15"/>
-      <c r="HA186" s="3"/>
+      <c r="GM186" s="3"/>
       <c r="HF186" s="73"/>
       <c r="HL186" s="11"/>
       <c r="HP186">
@@ -61393,6 +61509,9 @@
       </c>
       <c r="F187" s="73"/>
       <c r="M187" s="73"/>
+      <c r="AD187" s="15"/>
+      <c r="AE187" s="15"/>
+      <c r="AF187" s="15"/>
       <c r="AL187" s="73"/>
       <c r="AS187" s="73"/>
       <c r="AW187">
@@ -61431,7 +61550,6 @@
       </c>
       <c r="CP187" s="73"/>
       <c r="CW187" s="73"/>
-      <c r="DB187" s="3"/>
       <c r="DV187" s="73"/>
       <c r="EC187" s="73"/>
       <c r="EH187">
@@ -61449,7 +61567,6 @@
       <c r="GH187" s="15"/>
       <c r="GI187" s="15"/>
       <c r="GJ187" s="15"/>
-      <c r="GL187" s="3"/>
       <c r="HF187" s="73"/>
       <c r="HL187" s="11"/>
       <c r="HP187">
@@ -61558,6 +61675,9 @@
       </c>
       <c r="F188" s="73"/>
       <c r="M188" s="73"/>
+      <c r="AD188" s="15"/>
+      <c r="AE188" s="15"/>
+      <c r="AF188" s="15"/>
       <c r="AL188" s="73"/>
       <c r="AS188" s="73"/>
       <c r="AW188">
@@ -61664,6 +61784,9 @@
       </c>
       <c r="F189" s="73"/>
       <c r="M189" s="11"/>
+      <c r="AD189" s="15"/>
+      <c r="AE189" s="15"/>
+      <c r="AF189" s="15"/>
       <c r="AL189" s="11"/>
       <c r="AS189" s="73"/>
       <c r="AW189">
@@ -62198,11 +62321,3494 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="3:4" s="91" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="3:37" s="91" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C194" s="120" t="s">
         <v>108</v>
       </c>
       <c r="D194" s="119"/>
+    </row>
+    <row r="197" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="H197" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="199" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>7</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+      <c r="AB199">
+        <v>0</v>
+      </c>
+      <c r="AC199">
+        <v>0</v>
+      </c>
+      <c r="AD199">
+        <v>0</v>
+      </c>
+      <c r="AE199">
+        <v>0</v>
+      </c>
+      <c r="AF199">
+        <v>0</v>
+      </c>
+      <c r="AG199">
+        <v>0</v>
+      </c>
+      <c r="AH199">
+        <v>0</v>
+      </c>
+      <c r="AI199">
+        <v>0</v>
+      </c>
+      <c r="AJ199">
+        <v>0</v>
+      </c>
+      <c r="AK199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+      <c r="AB200">
+        <v>0</v>
+      </c>
+      <c r="AC200">
+        <v>0</v>
+      </c>
+      <c r="AD200">
+        <v>0</v>
+      </c>
+      <c r="AE200">
+        <v>0</v>
+      </c>
+      <c r="AF200">
+        <v>0</v>
+      </c>
+      <c r="AG200">
+        <v>0</v>
+      </c>
+      <c r="AH200">
+        <v>0</v>
+      </c>
+      <c r="AI200">
+        <v>0</v>
+      </c>
+      <c r="AJ200">
+        <v>0</v>
+      </c>
+      <c r="AK200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>7</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <v>0</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+      <c r="AB201">
+        <v>0</v>
+      </c>
+      <c r="AC201">
+        <v>0</v>
+      </c>
+      <c r="AD201">
+        <v>0</v>
+      </c>
+      <c r="AE201">
+        <v>0</v>
+      </c>
+      <c r="AF201">
+        <v>0</v>
+      </c>
+      <c r="AG201">
+        <v>0</v>
+      </c>
+      <c r="AH201">
+        <v>0</v>
+      </c>
+      <c r="AI201">
+        <v>0</v>
+      </c>
+      <c r="AJ201">
+        <v>0</v>
+      </c>
+      <c r="AK201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+      <c r="AB202">
+        <v>0</v>
+      </c>
+      <c r="AC202">
+        <v>0</v>
+      </c>
+      <c r="AD202">
+        <v>0</v>
+      </c>
+      <c r="AE202">
+        <v>0</v>
+      </c>
+      <c r="AF202">
+        <v>0</v>
+      </c>
+      <c r="AG202">
+        <v>0</v>
+      </c>
+      <c r="AH202">
+        <v>0</v>
+      </c>
+      <c r="AI202">
+        <v>0</v>
+      </c>
+      <c r="AJ202">
+        <v>0</v>
+      </c>
+      <c r="AK202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <v>7</v>
+      </c>
+      <c r="U203">
+        <v>0</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+      <c r="AB203">
+        <v>0</v>
+      </c>
+      <c r="AC203">
+        <v>99</v>
+      </c>
+      <c r="AD203">
+        <v>0</v>
+      </c>
+      <c r="AE203">
+        <v>0</v>
+      </c>
+      <c r="AF203">
+        <v>0</v>
+      </c>
+      <c r="AG203">
+        <v>0</v>
+      </c>
+      <c r="AH203">
+        <v>0</v>
+      </c>
+      <c r="AI203">
+        <v>0</v>
+      </c>
+      <c r="AJ203">
+        <v>0</v>
+      </c>
+      <c r="AK203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <v>0</v>
+      </c>
+      <c r="AC204">
+        <v>0</v>
+      </c>
+      <c r="AD204">
+        <v>0</v>
+      </c>
+      <c r="AE204">
+        <v>0</v>
+      </c>
+      <c r="AF204">
+        <v>0</v>
+      </c>
+      <c r="AG204">
+        <v>0</v>
+      </c>
+      <c r="AH204">
+        <v>0</v>
+      </c>
+      <c r="AI204">
+        <v>0</v>
+      </c>
+      <c r="AJ204">
+        <v>0</v>
+      </c>
+      <c r="AK204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205">
+        <v>0</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+      <c r="AB205">
+        <v>0</v>
+      </c>
+      <c r="AC205">
+        <v>0</v>
+      </c>
+      <c r="AD205">
+        <v>0</v>
+      </c>
+      <c r="AE205">
+        <v>0</v>
+      </c>
+      <c r="AF205">
+        <v>0</v>
+      </c>
+      <c r="AG205">
+        <v>0</v>
+      </c>
+      <c r="AH205">
+        <v>0</v>
+      </c>
+      <c r="AI205">
+        <v>0</v>
+      </c>
+      <c r="AJ205">
+        <v>0</v>
+      </c>
+      <c r="AK205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+      <c r="AC206">
+        <v>0</v>
+      </c>
+      <c r="AD206">
+        <v>0</v>
+      </c>
+      <c r="AE206">
+        <v>0</v>
+      </c>
+      <c r="AF206">
+        <v>0</v>
+      </c>
+      <c r="AG206">
+        <v>0</v>
+      </c>
+      <c r="AH206">
+        <v>0</v>
+      </c>
+      <c r="AI206">
+        <v>0</v>
+      </c>
+      <c r="AJ206">
+        <v>0</v>
+      </c>
+      <c r="AK206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>0</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+      <c r="AB207">
+        <v>0</v>
+      </c>
+      <c r="AC207">
+        <v>0</v>
+      </c>
+      <c r="AD207">
+        <v>0</v>
+      </c>
+      <c r="AE207">
+        <v>0</v>
+      </c>
+      <c r="AF207">
+        <v>0</v>
+      </c>
+      <c r="AG207">
+        <v>0</v>
+      </c>
+      <c r="AH207">
+        <v>0</v>
+      </c>
+      <c r="AI207">
+        <v>0</v>
+      </c>
+      <c r="AJ207">
+        <v>0</v>
+      </c>
+      <c r="AK207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="3:37" x14ac:dyDescent="0.45">
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
+      <c r="AC208">
+        <v>0</v>
+      </c>
+      <c r="AD208">
+        <v>0</v>
+      </c>
+      <c r="AE208">
+        <v>0</v>
+      </c>
+      <c r="AF208">
+        <v>0</v>
+      </c>
+      <c r="AG208">
+        <v>0</v>
+      </c>
+      <c r="AH208">
+        <v>0</v>
+      </c>
+      <c r="AI208">
+        <v>0</v>
+      </c>
+      <c r="AJ208">
+        <v>0</v>
+      </c>
+      <c r="AK208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>7</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+      <c r="AB209">
+        <v>0</v>
+      </c>
+      <c r="AC209">
+        <v>0</v>
+      </c>
+      <c r="AD209">
+        <v>0</v>
+      </c>
+      <c r="AE209">
+        <v>0</v>
+      </c>
+      <c r="AF209">
+        <v>0</v>
+      </c>
+      <c r="AG209">
+        <v>0</v>
+      </c>
+      <c r="AH209">
+        <v>0</v>
+      </c>
+      <c r="AI209">
+        <v>0</v>
+      </c>
+      <c r="AJ209">
+        <v>0</v>
+      </c>
+      <c r="AK209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+      <c r="AB210">
+        <v>0</v>
+      </c>
+      <c r="AC210">
+        <v>0</v>
+      </c>
+      <c r="AD210">
+        <v>0</v>
+      </c>
+      <c r="AE210">
+        <v>0</v>
+      </c>
+      <c r="AF210">
+        <v>0</v>
+      </c>
+      <c r="AG210">
+        <v>0</v>
+      </c>
+      <c r="AH210">
+        <v>0</v>
+      </c>
+      <c r="AI210">
+        <v>0</v>
+      </c>
+      <c r="AJ210">
+        <v>0</v>
+      </c>
+      <c r="AK210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>7</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>0</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+      <c r="W211">
+        <v>7</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+      <c r="AB211">
+        <v>0</v>
+      </c>
+      <c r="AC211">
+        <v>0</v>
+      </c>
+      <c r="AD211">
+        <v>0</v>
+      </c>
+      <c r="AE211">
+        <v>0</v>
+      </c>
+      <c r="AF211">
+        <v>0</v>
+      </c>
+      <c r="AG211">
+        <v>0</v>
+      </c>
+      <c r="AH211">
+        <v>0</v>
+      </c>
+      <c r="AI211">
+        <v>0</v>
+      </c>
+      <c r="AJ211">
+        <v>0</v>
+      </c>
+      <c r="AK211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>0</v>
+      </c>
+      <c r="V212">
+        <v>0</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+      <c r="AB212">
+        <v>0</v>
+      </c>
+      <c r="AC212">
+        <v>0</v>
+      </c>
+      <c r="AD212">
+        <v>0</v>
+      </c>
+      <c r="AE212">
+        <v>0</v>
+      </c>
+      <c r="AF212">
+        <v>0</v>
+      </c>
+      <c r="AG212">
+        <v>0</v>
+      </c>
+      <c r="AH212">
+        <v>0</v>
+      </c>
+      <c r="AI212">
+        <v>0</v>
+      </c>
+      <c r="AJ212">
+        <v>0</v>
+      </c>
+      <c r="AK212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N213">
+        <v>6</v>
+      </c>
+      <c r="O213">
+        <v>6</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
+      <c r="AC213">
+        <v>0</v>
+      </c>
+      <c r="AD213">
+        <v>7</v>
+      </c>
+      <c r="AE213">
+        <v>0</v>
+      </c>
+      <c r="AF213">
+        <v>0</v>
+      </c>
+      <c r="AG213">
+        <v>0</v>
+      </c>
+      <c r="AH213">
+        <v>0</v>
+      </c>
+      <c r="AI213">
+        <v>0</v>
+      </c>
+      <c r="AJ213">
+        <v>0</v>
+      </c>
+      <c r="AK213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N214">
+        <v>6</v>
+      </c>
+      <c r="O214">
+        <v>6</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <v>0</v>
+      </c>
+      <c r="AC214">
+        <v>0</v>
+      </c>
+      <c r="AD214">
+        <v>0</v>
+      </c>
+      <c r="AE214">
+        <v>0</v>
+      </c>
+      <c r="AF214">
+        <v>0</v>
+      </c>
+      <c r="AG214">
+        <v>0</v>
+      </c>
+      <c r="AH214">
+        <v>0</v>
+      </c>
+      <c r="AI214">
+        <v>0</v>
+      </c>
+      <c r="AJ214">
+        <v>0</v>
+      </c>
+      <c r="AK214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215">
+        <v>0</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+      <c r="AC215">
+        <v>0</v>
+      </c>
+      <c r="AD215">
+        <v>0</v>
+      </c>
+      <c r="AE215">
+        <v>0</v>
+      </c>
+      <c r="AF215">
+        <v>0</v>
+      </c>
+      <c r="AG215">
+        <v>0</v>
+      </c>
+      <c r="AH215">
+        <v>0</v>
+      </c>
+      <c r="AI215">
+        <v>0</v>
+      </c>
+      <c r="AJ215">
+        <v>0</v>
+      </c>
+      <c r="AK215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216">
+        <v>0</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+      <c r="AB216">
+        <v>0</v>
+      </c>
+      <c r="AC216">
+        <v>0</v>
+      </c>
+      <c r="AD216">
+        <v>0</v>
+      </c>
+      <c r="AE216">
+        <v>0</v>
+      </c>
+      <c r="AF216">
+        <v>0</v>
+      </c>
+      <c r="AG216">
+        <v>0</v>
+      </c>
+      <c r="AH216">
+        <v>0</v>
+      </c>
+      <c r="AI216">
+        <v>0</v>
+      </c>
+      <c r="AJ216">
+        <v>0</v>
+      </c>
+      <c r="AK216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+      <c r="AB217">
+        <v>0</v>
+      </c>
+      <c r="AC217">
+        <v>0</v>
+      </c>
+      <c r="AD217">
+        <v>0</v>
+      </c>
+      <c r="AE217">
+        <v>0</v>
+      </c>
+      <c r="AF217">
+        <v>0</v>
+      </c>
+      <c r="AG217">
+        <v>0</v>
+      </c>
+      <c r="AH217">
+        <v>0</v>
+      </c>
+      <c r="AI217">
+        <v>6</v>
+      </c>
+      <c r="AJ217">
+        <v>6</v>
+      </c>
+      <c r="AK217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+      <c r="AB218">
+        <v>0</v>
+      </c>
+      <c r="AC218">
+        <v>0</v>
+      </c>
+      <c r="AD218">
+        <v>0</v>
+      </c>
+      <c r="AE218">
+        <v>0</v>
+      </c>
+      <c r="AF218">
+        <v>0</v>
+      </c>
+      <c r="AG218">
+        <v>0</v>
+      </c>
+      <c r="AH218">
+        <v>0</v>
+      </c>
+      <c r="AI218">
+        <v>0</v>
+      </c>
+      <c r="AJ218">
+        <v>0</v>
+      </c>
+      <c r="AK218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>7</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+      <c r="AB219">
+        <v>0</v>
+      </c>
+      <c r="AC219">
+        <v>0</v>
+      </c>
+      <c r="AD219">
+        <v>0</v>
+      </c>
+      <c r="AE219">
+        <v>0</v>
+      </c>
+      <c r="AF219">
+        <v>0</v>
+      </c>
+      <c r="AG219">
+        <v>0</v>
+      </c>
+      <c r="AH219">
+        <v>0</v>
+      </c>
+      <c r="AI219">
+        <v>0</v>
+      </c>
+      <c r="AJ219">
+        <v>0</v>
+      </c>
+      <c r="AK219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+      <c r="AB220">
+        <v>0</v>
+      </c>
+      <c r="AC220">
+        <v>99</v>
+      </c>
+      <c r="AD220">
+        <v>0</v>
+      </c>
+      <c r="AE220">
+        <v>0</v>
+      </c>
+      <c r="AF220">
+        <v>0</v>
+      </c>
+      <c r="AG220">
+        <v>0</v>
+      </c>
+      <c r="AH220">
+        <v>0</v>
+      </c>
+      <c r="AI220">
+        <v>0</v>
+      </c>
+      <c r="AJ220">
+        <v>0</v>
+      </c>
+      <c r="AK220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <v>7</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+      <c r="AB221">
+        <v>0</v>
+      </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
+      <c r="AE221">
+        <v>0</v>
+      </c>
+      <c r="AF221">
+        <v>0</v>
+      </c>
+      <c r="AG221">
+        <v>0</v>
+      </c>
+      <c r="AH221">
+        <v>0</v>
+      </c>
+      <c r="AI221">
+        <v>0</v>
+      </c>
+      <c r="AJ221">
+        <v>0</v>
+      </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N223">
+        <v>7</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>7</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>0</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N225">
+        <v>6</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>0</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>0</v>
+      </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>0</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>0</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>7</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>7</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>99</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>7</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <v>0</v>
+      </c>
+      <c r="V234">
+        <v>0</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>7</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+      <c r="AB234">
+        <v>0</v>
+      </c>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+      <c r="AE234">
+        <v>0</v>
+      </c>
+      <c r="AF234">
+        <v>0</v>
+      </c>
+      <c r="AG234">
+        <v>0</v>
+      </c>
+      <c r="AH234">
+        <v>0</v>
+      </c>
+      <c r="AI234">
+        <v>0</v>
+      </c>
+      <c r="AJ234">
+        <v>0</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>0</v>
+      </c>
+      <c r="V235">
+        <v>0</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+      <c r="AB235">
+        <v>0</v>
+      </c>
+      <c r="AC235">
+        <v>0</v>
+      </c>
+      <c r="AD235">
+        <v>0</v>
+      </c>
+      <c r="AE235">
+        <v>0</v>
+      </c>
+      <c r="AF235">
+        <v>0</v>
+      </c>
+      <c r="AG235">
+        <v>0</v>
+      </c>
+      <c r="AH235">
+        <v>0</v>
+      </c>
+      <c r="AI235">
+        <v>0</v>
+      </c>
+      <c r="AJ235">
+        <v>6</v>
+      </c>
+      <c r="AK235">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <v>0</v>
+      </c>
+      <c r="V236">
+        <v>0</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+      <c r="AB236">
+        <v>0</v>
+      </c>
+      <c r="AC236">
+        <v>0</v>
+      </c>
+      <c r="AD236">
+        <v>0</v>
+      </c>
+      <c r="AE236">
+        <v>0</v>
+      </c>
+      <c r="AF236">
+        <v>0</v>
+      </c>
+      <c r="AG236">
+        <v>0</v>
+      </c>
+      <c r="AH236">
+        <v>0</v>
+      </c>
+      <c r="AI236">
+        <v>0</v>
+      </c>
+      <c r="AJ236">
+        <v>0</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>0</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+      <c r="AB237">
+        <v>0</v>
+      </c>
+      <c r="AC237">
+        <v>0</v>
+      </c>
+      <c r="AD237">
+        <v>0</v>
+      </c>
+      <c r="AE237">
+        <v>0</v>
+      </c>
+      <c r="AF237">
+        <v>0</v>
+      </c>
+      <c r="AG237">
+        <v>0</v>
+      </c>
+      <c r="AH237">
+        <v>0</v>
+      </c>
+      <c r="AI237">
+        <v>0</v>
+      </c>
+      <c r="AJ237">
+        <v>0</v>
+      </c>
+      <c r="AK237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <v>0</v>
+      </c>
+      <c r="V238">
+        <v>0</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>7</v>
+      </c>
+      <c r="AB238">
+        <v>0</v>
+      </c>
+      <c r="AC238">
+        <v>0</v>
+      </c>
+      <c r="AD238">
+        <v>0</v>
+      </c>
+      <c r="AE238">
+        <v>0</v>
+      </c>
+      <c r="AF238">
+        <v>0</v>
+      </c>
+      <c r="AG238">
+        <v>0</v>
+      </c>
+      <c r="AH238">
+        <v>0</v>
+      </c>
+      <c r="AI238">
+        <v>0</v>
+      </c>
+      <c r="AJ238">
+        <v>0</v>
+      </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <v>0</v>
+      </c>
+      <c r="V239">
+        <v>0</v>
+      </c>
+      <c r="W239">
+        <v>7</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+      <c r="AB239">
+        <v>0</v>
+      </c>
+      <c r="AC239">
+        <v>0</v>
+      </c>
+      <c r="AD239">
+        <v>0</v>
+      </c>
+      <c r="AE239">
+        <v>7</v>
+      </c>
+      <c r="AF239">
+        <v>0</v>
+      </c>
+      <c r="AG239">
+        <v>0</v>
+      </c>
+      <c r="AH239">
+        <v>0</v>
+      </c>
+      <c r="AI239">
+        <v>0</v>
+      </c>
+      <c r="AJ239">
+        <v>0</v>
+      </c>
+      <c r="AK239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N240">
+        <v>6</v>
+      </c>
+      <c r="O240">
+        <v>6</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <v>0</v>
+      </c>
+      <c r="T240">
+        <v>0</v>
+      </c>
+      <c r="U240">
+        <v>0</v>
+      </c>
+      <c r="V240">
+        <v>0</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+      <c r="AB240">
+        <v>0</v>
+      </c>
+      <c r="AC240">
+        <v>0</v>
+      </c>
+      <c r="AD240">
+        <v>0</v>
+      </c>
+      <c r="AE240">
+        <v>0</v>
+      </c>
+      <c r="AF240">
+        <v>0</v>
+      </c>
+      <c r="AG240">
+        <v>0</v>
+      </c>
+      <c r="AH240">
+        <v>0</v>
+      </c>
+      <c r="AI240">
+        <v>0</v>
+      </c>
+      <c r="AJ240">
+        <v>0</v>
+      </c>
+      <c r="AK240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+      <c r="T241">
+        <v>0</v>
+      </c>
+      <c r="U241">
+        <v>0</v>
+      </c>
+      <c r="V241">
+        <v>0</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+      <c r="AB241">
+        <v>0</v>
+      </c>
+      <c r="AC241">
+        <v>0</v>
+      </c>
+      <c r="AD241">
+        <v>0</v>
+      </c>
+      <c r="AE241">
+        <v>0</v>
+      </c>
+      <c r="AF241">
+        <v>0</v>
+      </c>
+      <c r="AG241">
+        <v>0</v>
+      </c>
+      <c r="AH241">
+        <v>0</v>
+      </c>
+      <c r="AI241">
+        <v>0</v>
+      </c>
+      <c r="AJ241">
+        <v>0</v>
+      </c>
+      <c r="AK241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <v>7</v>
+      </c>
+      <c r="T242">
+        <v>0</v>
+      </c>
+      <c r="U242">
+        <v>0</v>
+      </c>
+      <c r="V242">
+        <v>0</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+      <c r="AB242">
+        <v>0</v>
+      </c>
+      <c r="AC242">
+        <v>0</v>
+      </c>
+      <c r="AD242">
+        <v>0</v>
+      </c>
+      <c r="AE242">
+        <v>0</v>
+      </c>
+      <c r="AF242">
+        <v>0</v>
+      </c>
+      <c r="AG242">
+        <v>0</v>
+      </c>
+      <c r="AH242">
+        <v>0</v>
+      </c>
+      <c r="AI242">
+        <v>0</v>
+      </c>
+      <c r="AJ242">
+        <v>0</v>
+      </c>
+      <c r="AK242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="T243">
+        <v>0</v>
+      </c>
+      <c r="U243">
+        <v>0</v>
+      </c>
+      <c r="V243">
+        <v>0</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>9</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+      <c r="AB243">
+        <v>0</v>
+      </c>
+      <c r="AC243">
+        <v>0</v>
+      </c>
+      <c r="AD243">
+        <v>0</v>
+      </c>
+      <c r="AE243">
+        <v>0</v>
+      </c>
+      <c r="AF243">
+        <v>0</v>
+      </c>
+      <c r="AG243">
+        <v>0</v>
+      </c>
+      <c r="AH243">
+        <v>0</v>
+      </c>
+      <c r="AI243">
+        <v>0</v>
+      </c>
+      <c r="AJ243">
+        <v>0</v>
+      </c>
+      <c r="AK243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+      <c r="U244">
+        <v>0</v>
+      </c>
+      <c r="V244">
+        <v>0</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+      <c r="AB244">
+        <v>0</v>
+      </c>
+      <c r="AC244">
+        <v>0</v>
+      </c>
+      <c r="AD244">
+        <v>0</v>
+      </c>
+      <c r="AE244">
+        <v>0</v>
+      </c>
+      <c r="AF244">
+        <v>0</v>
+      </c>
+      <c r="AG244">
+        <v>0</v>
+      </c>
+      <c r="AH244">
+        <v>0</v>
+      </c>
+      <c r="AI244">
+        <v>0</v>
+      </c>
+      <c r="AJ244">
+        <v>0</v>
+      </c>
+      <c r="AK244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="14:37" x14ac:dyDescent="0.45">
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245">
+        <v>1</v>
+      </c>
+      <c r="P245">
+        <v>1</v>
+      </c>
+      <c r="Q245">
+        <v>1</v>
+      </c>
+      <c r="R245">
+        <v>1</v>
+      </c>
+      <c r="S245">
+        <v>1</v>
+      </c>
+      <c r="T245">
+        <v>1</v>
+      </c>
+      <c r="U245">
+        <v>1</v>
+      </c>
+      <c r="V245">
+        <v>1</v>
+      </c>
+      <c r="W245">
+        <v>1</v>
+      </c>
+      <c r="X245">
+        <v>1</v>
+      </c>
+      <c r="Y245">
+        <v>1</v>
+      </c>
+      <c r="Z245">
+        <v>1</v>
+      </c>
+      <c r="AA245">
+        <v>1</v>
+      </c>
+      <c r="AB245">
+        <v>1</v>
+      </c>
+      <c r="AC245">
+        <v>1</v>
+      </c>
+      <c r="AD245">
+        <v>1</v>
+      </c>
+      <c r="AE245">
+        <v>1</v>
+      </c>
+      <c r="AF245">
+        <v>1</v>
+      </c>
+      <c r="AG245">
+        <v>1</v>
+      </c>
+      <c r="AH245">
+        <v>1</v>
+      </c>
+      <c r="AI245">
+        <v>1</v>
+      </c>
+      <c r="AJ245">
+        <v>1</v>
+      </c>
+      <c r="AK245">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/3班/制作仕様書.xlsx
+++ b/3班/制作仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\3班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BEC85-70A0-4D5F-A2CE-EB5EDFA4BB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC024DC6-8266-4CFF-BC38-18969D4692D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="480" windowWidth="17280" windowHeight="10776" firstSheet="5" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="5" activeTab="7" xr2:uid="{FEABD012-DB7B-4ECF-903D-4D7B81E2E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="228">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -992,13 +992,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マップの長さは、５０ブッロク</t>
-    <rPh sb="4" eb="5">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示画面の横は９ブロック</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -1367,16 +1360,6 @@
   </si>
   <si>
     <t>コインパターン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・コインは全部で２０枚</t>
-    <rPh sb="5" eb="7">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>マイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2007,6 +1990,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・コインは全部で1０枚 スペシャル３枚</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの長さは、３０ブッロク</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2535,7 +2538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2945,6 +2948,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21993,6 +21999,252 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>307</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC72817D-8362-4EF8-865D-B7382C8B837A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2042160" y="33375600"/>
+          <a:ext cx="83606640" cy="6126480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="28700"/>
+            <a:t>廃止</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>352</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>393</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="正方形/長方形 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AA5FC9-E22B-4055-A52D-489401189FFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="108737400" y="31623000"/>
+          <a:ext cx="12496800" cy="5547360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>352</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>393</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="正方形/長方形 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FA03FC-35D8-4EF8-A8B8-0094599C57F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="108585000" y="16154400"/>
+          <a:ext cx="12496800" cy="5745480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>307</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="正方形/長方形 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304B7EAD-0416-4AD8-8DAA-2F28333C6EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="16230600"/>
+          <a:ext cx="92887800" cy="5745480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="28700"/>
+            <a:t>廃止</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23205,7 +23457,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="76" t="s">
         <v>113</v>
@@ -23399,14 +23651,14 @@
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="1:93" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="81"/>
       <c r="C7" s="79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
@@ -23596,7 +23848,7 @@
         <v>45631</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -23787,7 +24039,7 @@
         <v>45636</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
@@ -24224,16 +24476,16 @@
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
       <c r="X44" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC44" s="16" t="s">
         <v>28</v>
       </c>
       <c r="AG44" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL44" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="AL44" s="16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="45" spans="5:90" x14ac:dyDescent="0.45">
@@ -24289,32 +24541,32 @@
     </row>
     <row r="49" spans="3:18" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C49" s="101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="3:18" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="3:18" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C57" s="101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="3:18" x14ac:dyDescent="0.45">
       <c r="D59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.45">
@@ -24324,37 +24576,37 @@
     </row>
     <row r="61" spans="3:18" x14ac:dyDescent="0.45">
       <c r="E61" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="R61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="3:94" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C66" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="3:94" x14ac:dyDescent="0.45">
       <c r="D68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="3:94" x14ac:dyDescent="0.45">
       <c r="E70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="3:94" x14ac:dyDescent="0.45">
       <c r="E72" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="3:94" ht="23.4" x14ac:dyDescent="0.45">
       <c r="E73" s="102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="3:94" x14ac:dyDescent="0.45">
@@ -24362,7 +24614,7 @@
     </row>
     <row r="75" spans="3:94" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C75" s="57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BH75" s="100"/>
       <c r="BI75" s="100"/>
@@ -24402,19 +24654,19 @@
     </row>
     <row r="77" spans="3:94" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="3:94" x14ac:dyDescent="0.45">
       <c r="E79" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
     </row>
     <row r="80" spans="3:94" ht="23.4" x14ac:dyDescent="0.45">
       <c r="E80" s="102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -24422,71 +24674,71 @@
     </row>
     <row r="83" spans="3:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C83" s="57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.45">
       <c r="F88" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.45">
       <c r="F89" s="103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="3:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C91" s="57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E94" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.45">
       <c r="F96" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F97" s="103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C99" s="57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C101" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D103" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.45">
@@ -24496,32 +24748,32 @@
     </row>
     <row r="107" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C107" s="57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C109" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D110" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D112" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="3:5" ht="31.2" x14ac:dyDescent="0.45">
       <c r="E113" s="125" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="3:5" ht="21" x14ac:dyDescent="0.45">
       <c r="E114" s="126" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="3:5" s="91" customFormat="1" x14ac:dyDescent="0.45">
@@ -24553,7 +24805,7 @@
   <sheetData>
     <row r="1" spans="3:11" s="127" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C1" s="128" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -24563,7 +24815,7 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -24573,12 +24825,12 @@
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K13" t="s">
         <v>61</v>
@@ -24586,32 +24838,32 @@
     </row>
     <row r="19" spans="3:41" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C19" s="57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="3:41" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="3:41" x14ac:dyDescent="0.45">
       <c r="AO24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="3:25" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C39" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="3:25" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="3:25" x14ac:dyDescent="0.45">
       <c r="E42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y42" t="s">
         <v>72</v>
@@ -24619,17 +24871,17 @@
     </row>
     <row r="43" spans="3:25" x14ac:dyDescent="0.45">
       <c r="Y43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="3:43" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C53" s="57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="3:43" x14ac:dyDescent="0.45">
@@ -24721,7 +24973,7 @@
       <c r="K60" s="11"/>
       <c r="AJ60" s="11"/>
       <c r="AM60" s="132" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AQ60" s="11"/>
     </row>
@@ -24959,7 +25211,7 @@
       <c r="AI69" s="18"/>
       <c r="AJ69" s="11"/>
       <c r="AK69" s="102" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AQ69" s="11"/>
     </row>
@@ -24998,12 +25250,12 @@
     </row>
     <row r="73" spans="3:43" x14ac:dyDescent="0.45">
       <c r="F73" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="3:43" x14ac:dyDescent="0.45">
       <c r="F74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="3:43" s="91" customFormat="1" x14ac:dyDescent="0.45">
@@ -25035,7 +25287,7 @@
   <sheetData>
     <row r="1" spans="3:3" s="127" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C1" s="128" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -25045,7 +25297,7 @@
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -25055,12 +25307,12 @@
     </row>
     <row r="33" spans="48:52" ht="22.2" x14ac:dyDescent="0.45">
       <c r="AV33" s="135" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="48:52" x14ac:dyDescent="0.45">
       <c r="AZ37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="5:5" s="62" customFormat="1" x14ac:dyDescent="0.45">
@@ -25092,7 +25344,7 @@
   <sheetData>
     <row r="1" spans="3:23" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C1" s="90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="3:23" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -25102,7 +25354,7 @@
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="3:23" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -25112,12 +25364,12 @@
     </row>
     <row r="10" spans="3:23" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="3:23" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="3:23" x14ac:dyDescent="0.45">
@@ -25131,7 +25383,7 @@
         <v>37</v>
       </c>
       <c r="U14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="3:23" x14ac:dyDescent="0.45">
@@ -25156,12 +25408,12 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.45">
@@ -25334,12 +25586,12 @@
     </row>
     <row r="42" spans="3:25" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C42" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="3:25" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="3:25" x14ac:dyDescent="0.45">
@@ -25374,7 +25626,7 @@
     </row>
     <row r="54" spans="3:21" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C54" s="57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="3:21" s="18" customFormat="1" x14ac:dyDescent="0.45">
@@ -25382,7 +25634,7 @@
     </row>
     <row r="56" spans="3:21" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="3:21" x14ac:dyDescent="0.45">
@@ -25401,7 +25653,7 @@
       <c r="N61" s="18"/>
       <c r="O61" s="18"/>
       <c r="S61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="3:21" x14ac:dyDescent="0.45">
@@ -25464,12 +25716,12 @@
     </row>
     <row r="72" spans="3:28" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C72" s="57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="3:28" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="3:28" x14ac:dyDescent="0.45">
@@ -25488,7 +25740,7 @@
       <c r="E78" s="11"/>
       <c r="Q78" s="11"/>
       <c r="Y78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="3:28" x14ac:dyDescent="0.45">
@@ -25517,17 +25769,17 @@
     </row>
     <row r="84" spans="3:17" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C84" s="57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="3:17" x14ac:dyDescent="0.45">
       <c r="D86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="3:17" x14ac:dyDescent="0.45">
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="3:17" x14ac:dyDescent="0.45">
@@ -25539,17 +25791,17 @@
     </row>
     <row r="92" spans="3:17" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C92" s="57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="3:17" x14ac:dyDescent="0.45">
       <c r="D94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="3:18" x14ac:dyDescent="0.45">
       <c r="R98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="3:18" x14ac:dyDescent="0.45">
@@ -25566,7 +25818,7 @@
     </row>
     <row r="102" spans="3:18" x14ac:dyDescent="0.45">
       <c r="L102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="3:18" s="91" customFormat="1" x14ac:dyDescent="0.45">
@@ -26152,12 +26404,12 @@
     </row>
     <row r="52" spans="3:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C52" s="57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="3:39" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="3:39" x14ac:dyDescent="0.45">
@@ -26197,7 +26449,7 @@
       <c r="D59" s="11"/>
       <c r="AD59" s="130"/>
       <c r="AM59" s="131" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="3:39" x14ac:dyDescent="0.45">
@@ -26327,10 +26579,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089E8BF-5822-40BC-AD9B-2DC9F356F313}">
-  <dimension ref="C1:OC245"/>
+  <dimension ref="A1:OC245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R147" sqref="R147"/>
+    <sheetView tabSelected="1" topLeftCell="ET122" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="HU196" sqref="HU196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -26509,7 +26761,7 @@
     </row>
     <row r="5" spans="3:81" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="3:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -26601,16 +26853,16 @@
     </row>
     <row r="11" spans="3:81" x14ac:dyDescent="0.45">
       <c r="F11" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="3:81" x14ac:dyDescent="0.45">
@@ -26670,62 +26922,62 @@
       <c r="AK16" s="11"/>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E17" s="11"/>
       <c r="AK17" s="11"/>
       <c r="AR17" s="11"/>
     </row>
-    <row r="18" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E18" s="11"/>
       <c r="AK18" s="11"/>
       <c r="AR18" s="11"/>
     </row>
-    <row r="19" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E19" s="11"/>
       <c r="AK19" s="11"/>
       <c r="AR19" s="11"/>
     </row>
-    <row r="20" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E20" s="11"/>
       <c r="AK20" s="11"/>
       <c r="AR20" s="11"/>
     </row>
-    <row r="21" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E21" s="11"/>
       <c r="AK21" s="11"/>
       <c r="AR21" s="11"/>
     </row>
-    <row r="22" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E22" s="11"/>
       <c r="AK22" s="11"/>
       <c r="AR22" s="11"/>
     </row>
-    <row r="23" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E23" s="11"/>
       <c r="AK23" s="11"/>
       <c r="AR23" s="11"/>
     </row>
-    <row r="24" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E24" s="11"/>
       <c r="AK24" s="11"/>
       <c r="AR24" s="11"/>
     </row>
-    <row r="25" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E25" s="11"/>
       <c r="AK25" s="11"/>
       <c r="AR25" s="11"/>
     </row>
-    <row r="26" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E26" s="11"/>
       <c r="AK26" s="11"/>
       <c r="AR26" s="11"/>
     </row>
-    <row r="27" spans="5:64" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:64" ht="32.4" x14ac:dyDescent="0.45">
       <c r="E27" s="11"/>
       <c r="AK27" s="11"/>
       <c r="AR27" s="11"/>
       <c r="AY27" s="112" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="AZ27" s="112"/>
       <c r="BA27" s="112"/>
@@ -26741,12 +26993,19 @@
       <c r="BK27" s="112"/>
       <c r="BL27" s="112"/>
     </row>
-    <row r="28" spans="5:64" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:64" ht="32.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="137">
+        <v>45321</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="73"/>
       <c r="E28" s="11"/>
       <c r="AK28" s="11"/>
       <c r="AR28" s="11"/>
       <c r="AY28" s="112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AZ28" s="112"/>
       <c r="BA28" s="112"/>
@@ -26762,12 +27021,12 @@
       <c r="BK28" s="112"/>
       <c r="BL28" s="112"/>
     </row>
-    <row r="29" spans="5:64" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:64" ht="32.4" x14ac:dyDescent="0.45">
       <c r="E29" s="11"/>
       <c r="AK29" s="11"/>
       <c r="AR29" s="11"/>
       <c r="AY29" s="112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AZ29" s="112"/>
       <c r="BA29" s="112"/>
@@ -26783,12 +27042,12 @@
       <c r="BK29" s="112"/>
       <c r="BL29" s="112"/>
     </row>
-    <row r="30" spans="5:64" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:64" ht="32.4" x14ac:dyDescent="0.45">
       <c r="E30" s="11"/>
       <c r="AK30" s="11"/>
       <c r="AR30" s="11"/>
       <c r="AY30" s="112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AZ30" s="112"/>
       <c r="BA30" s="112"/>
@@ -26804,12 +27063,12 @@
       <c r="BK30" s="112"/>
       <c r="BL30" s="112"/>
     </row>
-    <row r="31" spans="5:64" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:64" ht="32.4" x14ac:dyDescent="0.45">
       <c r="E31" s="11"/>
       <c r="AK31" s="11"/>
       <c r="AR31" s="11"/>
       <c r="AY31" s="112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AZ31" s="112"/>
       <c r="BA31" s="112"/>
@@ -26825,7 +27084,7 @@
       <c r="BK31" s="112"/>
       <c r="BL31" s="112"/>
     </row>
-    <row r="32" spans="5:64" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.45">
       <c r="E32" s="11"/>
       <c r="AK32" s="11"/>
       <c r="AR32" s="11"/>
@@ -26843,7 +27102,7 @@
       <c r="AK34" s="11"/>
       <c r="AR34" s="11"/>
       <c r="AY34" s="134" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="5:56" x14ac:dyDescent="0.45">
@@ -26857,7 +27116,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BA35" s="16"/>
       <c r="BB35" s="16"/>
@@ -26873,7 +27132,7 @@
         <v>1</v>
       </c>
       <c r="AZ36" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BA36" s="16"/>
       <c r="BB36" s="16"/>
@@ -26925,7 +27184,7 @@
         <v>6</v>
       </c>
       <c r="AZ37" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BA37" s="16"/>
       <c r="BB37" s="16"/>
@@ -26957,7 +27216,7 @@
         <v>8</v>
       </c>
       <c r="AZ39" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BA39" s="16"/>
       <c r="BB39" s="16"/>
@@ -27156,7 +27415,7 @@
     </row>
     <row r="66" spans="4:393" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D66" s="116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -44679,7 +44938,7 @@
     </row>
     <row r="129" spans="4:393" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D129" s="116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -44873,7 +45132,7 @@
     </row>
     <row r="132" spans="4:393" ht="19.8" x14ac:dyDescent="0.45">
       <c r="D132" s="115" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
     </row>
     <row r="134" spans="4:393" x14ac:dyDescent="0.45">
@@ -62329,7 +62588,7 @@
     </row>
     <row r="197" spans="3:37" x14ac:dyDescent="0.45">
       <c r="H197" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="199" spans="3:37" x14ac:dyDescent="0.45">
@@ -65999,7 +66258,7 @@
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
         <v>109</v>
@@ -66010,12 +66269,12 @@
         <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.45">
@@ -66026,23 +66285,23 @@
         <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.45">
@@ -66050,27 +66309,27 @@
         <v>94</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.45">
@@ -66081,10 +66340,10 @@
         <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
